--- a/me/2.Flex-Container.xlsx
+++ b/me/2.Flex-Container.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\flexbox\me\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36979640-02EC-4EB3-8A68-82950E88458F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C098B4B-A11E-4F46-AB18-D98D78EE1310}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Display flex" sheetId="2" r:id="rId1"/>
+    <sheet name="Flex direction" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="61">
   <si>
     <t>構成</t>
   </si>
@@ -171,6 +172,66 @@
   <si>
     <t>      &lt;div class="box box-5"&gt;5&lt;/div&gt;</t>
   </si>
+  <si>
+    <t>2.Flex-direction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flex direction quyết định cách bố trí các flex item trong flex container như thế nào. Nói đúng hơn là nó quyết định các hướng của trục </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAIN AXIS bởi vì các flex item bên trong được bố trí theo trục MAIN AXIS. </t>
+  </si>
+  <si>
+    <t>Nó có các giá trị là row, row-reverse, column, column-reverse và giá trị mặc định là row</t>
+  </si>
+  <si>
+    <t>        flex-direction: row;</t>
+  </si>
+  <si>
+    <t>①default</t>
+  </si>
+  <si>
+    <t>②row-reverse</t>
+  </si>
+  <si>
+    <t>        flex-direction: row-reverse;</t>
+  </si>
+  <si>
+    <t>Ko khai báo gì cho flex-direction có nghĩa là nó nhận giá trị default là row. Lúc này thì trục MAIN AXIS</t>
+  </si>
+  <si>
+    <t>Trục main axis sẽ được bố trí từ phải sang trái. Các flex item bên trong cũng được bố trí</t>
+  </si>
+  <si>
+    <t>③column</t>
+  </si>
+  <si>
+    <t>        flex-direction: column;</t>
+  </si>
+  <si>
+    <t>Trục main axis sẽ được bố trí từ trên xuống dưới. Các flex item bên trong cũng được bố trí</t>
+  </si>
+  <si>
+    <t>sẽ được bố trí từ trái sang phải(1,2 3..)</t>
+  </si>
+  <si>
+    <t>lần lượt từ phải sang trái(1,2 3..)</t>
+  </si>
+  <si>
+    <t>lần lượt từ trên xuống dưới(1,2 3..)</t>
+  </si>
+  <si>
+    <t>        flex-direction: column-reverse;</t>
+  </si>
+  <si>
+    <t>④column-reverse</t>
+  </si>
+  <si>
+    <t>Trục main axis sẽ được bố trí từ dưới lên trên. Các flex item bên trong cũng được bố trí</t>
+  </si>
+  <si>
+    <t>lần lượt từ dưới lên trên(1,2 3..)</t>
+  </si>
 </sst>
 </file>
 
@@ -192,15 +253,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -288,11 +355,91 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -304,6 +451,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -944,6 +1101,611 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>479232</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E43D79F-0132-5C00-957C-A1BE10298E08}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5895975" y="7800975"/>
+          <a:ext cx="6165657" cy="1362075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CE54389-A7D5-61AB-9301-6759A8D38FB9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1657350" y="5343525"/>
+          <a:ext cx="4381500" cy="2971800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Straight Arrow Connector 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3671C8C-7471-3B9D-F7FC-9C360B622E42}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2057400" y="8343900"/>
+          <a:ext cx="3952875" cy="2476500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4989455F-9CA9-8A80-B1A1-248F6C835E36}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1962150" y="5114925"/>
+          <a:ext cx="8258175" cy="5638800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="Straight Arrow Connector 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93328E79-7BCA-37D7-7075-E9C137086A20}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7734300" y="5314950"/>
+          <a:ext cx="1000125" cy="3590925"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>500723</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C5CA611-0151-49ED-632E-E83C5070D152}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5695950" y="17249775"/>
+          <a:ext cx="6387173" cy="1295400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="Straight Arrow Connector 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CB0C76D-23E8-DD7E-521E-D4333B1969BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7458075" y="16973550"/>
+          <a:ext cx="1819275" cy="1381125"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21417B9C-ABDC-4926-83C8-E79D7F4CE2D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2552700" y="16706850"/>
+          <a:ext cx="9420225" cy="1000125"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>67121</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Picture 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34FA1CCA-4D0B-C306-B180-123074822FC9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5695950" y="23002875"/>
+          <a:ext cx="6219825" cy="3200846"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="Straight Arrow Connector 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3AE5AA1-AB61-ACFD-8F25-58BF7816FEFF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7743825" y="22879050"/>
+          <a:ext cx="2552700" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>172</xdr:row>
+      <xdr:rowOff>163919</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="Picture 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26903D37-01FB-66FD-1F50-BFF0777A66DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5724525" y="29898975"/>
+          <a:ext cx="6296025" cy="3088094"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="34" name="Straight Arrow Connector 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD70B30B-545A-C9F5-CC5A-A79BBC3FA108}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7210425" y="29737050"/>
+          <a:ext cx="2762250" cy="3048000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1209,8 +1971,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B93656DE-789A-442B-A01B-E363EE7FCBDC}">
   <dimension ref="A4:S81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="L59" sqref="L59"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1643,4 +2405,3663 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0145470-2FF9-412A-A015-FB74F9A08082}">
+  <dimension ref="A2:T174"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A132" workbookViewId="0">
+      <selection activeCell="C137" sqref="C137"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="4"/>
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="4"/>
+      <c r="C10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="4"/>
+      <c r="D11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="4"/>
+      <c r="E12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="6"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="9"/>
+      <c r="G13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" s="13"/>
+      <c r="B17" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="14"/>
+      <c r="S17" s="14"/>
+      <c r="T17" s="15"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" s="16"/>
+      <c r="B18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="11"/>
+      <c r="T18" s="17"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" s="16"/>
+      <c r="B19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="11"/>
+      <c r="T19" s="17"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" s="16"/>
+      <c r="B20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="17"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" s="16"/>
+      <c r="B21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="11"/>
+      <c r="T21" s="17"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" s="16"/>
+      <c r="B22" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="11"/>
+      <c r="T22" s="17"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23" s="16"/>
+      <c r="B23" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="11"/>
+      <c r="R23" s="11"/>
+      <c r="S23" s="11"/>
+      <c r="T23" s="17"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24" s="16"/>
+      <c r="B24" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="11"/>
+      <c r="S24" s="11"/>
+      <c r="T24" s="17"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25" s="16"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="11"/>
+      <c r="R25" s="11"/>
+      <c r="S25" s="11"/>
+      <c r="T25" s="17"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26" s="16"/>
+      <c r="B26" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11"/>
+      <c r="R26" s="11"/>
+      <c r="S26" s="11"/>
+      <c r="T26" s="17"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A27" s="16"/>
+      <c r="B27" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K27" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="11"/>
+      <c r="S27" s="11"/>
+      <c r="T27" s="17"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A28" s="16"/>
+      <c r="B28" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="11"/>
+      <c r="S28" s="11"/>
+      <c r="T28" s="17"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29" s="16"/>
+      <c r="B29" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="11"/>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="11"/>
+      <c r="R29" s="11"/>
+      <c r="S29" s="11"/>
+      <c r="T29" s="17"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A30" s="16"/>
+      <c r="B30" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="11"/>
+      <c r="Q30" s="11"/>
+      <c r="R30" s="11"/>
+      <c r="S30" s="11"/>
+      <c r="T30" s="17"/>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A31" s="16"/>
+      <c r="B31" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="11"/>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="11"/>
+      <c r="R31" s="11"/>
+      <c r="S31" s="11"/>
+      <c r="T31" s="17"/>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A32" s="16"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="11"/>
+      <c r="P32" s="11"/>
+      <c r="Q32" s="11"/>
+      <c r="R32" s="11"/>
+      <c r="S32" s="11"/>
+      <c r="T32" s="17"/>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A33" s="16"/>
+      <c r="B33" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="11"/>
+      <c r="P33" s="11"/>
+      <c r="Q33" s="11"/>
+      <c r="R33" s="11"/>
+      <c r="S33" s="11"/>
+      <c r="T33" s="17"/>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A34" s="16"/>
+      <c r="B34" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="11"/>
+      <c r="N34" s="11"/>
+      <c r="O34" s="11"/>
+      <c r="P34" s="11"/>
+      <c r="Q34" s="11"/>
+      <c r="R34" s="11"/>
+      <c r="S34" s="11"/>
+      <c r="T34" s="17"/>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A35" s="16"/>
+      <c r="B35" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
+      <c r="N35" s="11"/>
+      <c r="O35" s="11"/>
+      <c r="P35" s="11"/>
+      <c r="Q35" s="11"/>
+      <c r="R35" s="11"/>
+      <c r="S35" s="11"/>
+      <c r="T35" s="17"/>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A36" s="16"/>
+      <c r="B36" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="11"/>
+      <c r="N36" s="11"/>
+      <c r="O36" s="11"/>
+      <c r="P36" s="11"/>
+      <c r="Q36" s="11"/>
+      <c r="R36" s="11"/>
+      <c r="S36" s="11"/>
+      <c r="T36" s="17"/>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A37" s="16"/>
+      <c r="B37" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="11"/>
+      <c r="N37" s="11"/>
+      <c r="O37" s="11"/>
+      <c r="P37" s="11"/>
+      <c r="Q37" s="11"/>
+      <c r="R37" s="11"/>
+      <c r="S37" s="11"/>
+      <c r="T37" s="17"/>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A38" s="16"/>
+      <c r="B38" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="11"/>
+      <c r="N38" s="11"/>
+      <c r="O38" s="11"/>
+      <c r="P38" s="11"/>
+      <c r="Q38" s="11"/>
+      <c r="R38" s="11"/>
+      <c r="S38" s="11"/>
+      <c r="T38" s="17"/>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A39" s="16"/>
+      <c r="B39" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="11"/>
+      <c r="N39" s="11"/>
+      <c r="O39" s="11"/>
+      <c r="P39" s="11"/>
+      <c r="Q39" s="11"/>
+      <c r="R39" s="11"/>
+      <c r="S39" s="11"/>
+      <c r="T39" s="17"/>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A40" s="16"/>
+      <c r="B40" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="11"/>
+      <c r="M40" s="11"/>
+      <c r="N40" s="11"/>
+      <c r="O40" s="11"/>
+      <c r="P40" s="11"/>
+      <c r="Q40" s="11"/>
+      <c r="R40" s="11"/>
+      <c r="S40" s="11"/>
+      <c r="T40" s="17"/>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A41" s="16"/>
+      <c r="B41" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="11"/>
+      <c r="M41" s="11"/>
+      <c r="N41" s="11"/>
+      <c r="O41" s="11"/>
+      <c r="P41" s="11"/>
+      <c r="Q41" s="11"/>
+      <c r="R41" s="11"/>
+      <c r="S41" s="11"/>
+      <c r="T41" s="17"/>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A42" s="16"/>
+      <c r="B42" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="11"/>
+      <c r="M42" s="11"/>
+      <c r="N42" s="11"/>
+      <c r="O42" s="11"/>
+      <c r="P42" s="11"/>
+      <c r="Q42" s="11"/>
+      <c r="R42" s="11"/>
+      <c r="S42" s="11"/>
+      <c r="T42" s="17"/>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A43" s="16"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="11"/>
+      <c r="M43" s="11"/>
+      <c r="N43" s="11"/>
+      <c r="O43" s="11"/>
+      <c r="P43" s="11"/>
+      <c r="Q43" s="11"/>
+      <c r="R43" s="11"/>
+      <c r="S43" s="11"/>
+      <c r="T43" s="17"/>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A44" s="16"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="11"/>
+      <c r="L44" s="11"/>
+      <c r="M44" s="11"/>
+      <c r="N44" s="11"/>
+      <c r="O44" s="11"/>
+      <c r="P44" s="11"/>
+      <c r="Q44" s="11"/>
+      <c r="R44" s="11"/>
+      <c r="S44" s="11"/>
+      <c r="T44" s="17"/>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A45" s="16"/>
+      <c r="B45" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="11"/>
+      <c r="L45" s="11"/>
+      <c r="M45" s="11"/>
+      <c r="N45" s="11"/>
+      <c r="O45" s="11"/>
+      <c r="P45" s="11"/>
+      <c r="Q45" s="11"/>
+      <c r="R45" s="11"/>
+      <c r="S45" s="11"/>
+      <c r="T45" s="17"/>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A46" s="16"/>
+      <c r="B46" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="11"/>
+      <c r="L46" s="11"/>
+      <c r="M46" s="11"/>
+      <c r="N46" s="11"/>
+      <c r="O46" s="11"/>
+      <c r="P46" s="11"/>
+      <c r="Q46" s="11"/>
+      <c r="R46" s="11"/>
+      <c r="S46" s="11"/>
+      <c r="T46" s="17"/>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A47" s="16"/>
+      <c r="B47" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="11"/>
+      <c r="L47" s="11"/>
+      <c r="M47" s="11"/>
+      <c r="N47" s="11"/>
+      <c r="O47" s="11"/>
+      <c r="P47" s="11"/>
+      <c r="Q47" s="11"/>
+      <c r="R47" s="11"/>
+      <c r="S47" s="11"/>
+      <c r="T47" s="17"/>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A48" s="16"/>
+      <c r="B48" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="5"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="11"/>
+      <c r="L48" s="11"/>
+      <c r="M48" s="11"/>
+      <c r="N48" s="11"/>
+      <c r="O48" s="11"/>
+      <c r="P48" s="11"/>
+      <c r="Q48" s="11"/>
+      <c r="R48" s="11"/>
+      <c r="S48" s="11"/>
+      <c r="T48" s="17"/>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A49" s="16"/>
+      <c r="B49" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="5"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="11"/>
+      <c r="L49" s="11"/>
+      <c r="M49" s="11"/>
+      <c r="N49" s="11"/>
+      <c r="O49" s="11"/>
+      <c r="P49" s="11"/>
+      <c r="Q49" s="11"/>
+      <c r="R49" s="11"/>
+      <c r="S49" s="11"/>
+      <c r="T49" s="17"/>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A50" s="16"/>
+      <c r="B50" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="5"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="11"/>
+      <c r="L50" s="11"/>
+      <c r="M50" s="11"/>
+      <c r="N50" s="11"/>
+      <c r="O50" s="11"/>
+      <c r="P50" s="11"/>
+      <c r="Q50" s="11"/>
+      <c r="R50" s="11"/>
+      <c r="S50" s="11"/>
+      <c r="T50" s="17"/>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A51" s="16"/>
+      <c r="B51" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="5"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="11"/>
+      <c r="L51" s="11"/>
+      <c r="M51" s="11"/>
+      <c r="N51" s="11"/>
+      <c r="O51" s="11"/>
+      <c r="P51" s="11"/>
+      <c r="Q51" s="11"/>
+      <c r="R51" s="11"/>
+      <c r="S51" s="11"/>
+      <c r="T51" s="17"/>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A52" s="16"/>
+      <c r="B52" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="11"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="5"/>
+      <c r="J52" s="11"/>
+      <c r="K52" s="11"/>
+      <c r="L52" s="11"/>
+      <c r="M52" s="11"/>
+      <c r="N52" s="11"/>
+      <c r="O52" s="11"/>
+      <c r="P52" s="11"/>
+      <c r="Q52" s="11"/>
+      <c r="R52" s="11"/>
+      <c r="S52" s="11"/>
+      <c r="T52" s="17"/>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A53" s="16"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="5"/>
+      <c r="J53" s="11"/>
+      <c r="K53" s="11"/>
+      <c r="L53" s="11"/>
+      <c r="M53" s="11"/>
+      <c r="N53" s="11"/>
+      <c r="O53" s="11"/>
+      <c r="P53" s="11"/>
+      <c r="Q53" s="11"/>
+      <c r="R53" s="11"/>
+      <c r="S53" s="11"/>
+      <c r="T53" s="17"/>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A54" s="16"/>
+      <c r="B54" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="5"/>
+      <c r="J54" s="11"/>
+      <c r="K54" s="11"/>
+      <c r="L54" s="11"/>
+      <c r="M54" s="11"/>
+      <c r="N54" s="11"/>
+      <c r="O54" s="11"/>
+      <c r="P54" s="11"/>
+      <c r="Q54" s="11"/>
+      <c r="R54" s="11"/>
+      <c r="S54" s="11"/>
+      <c r="T54" s="17"/>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A55" s="16"/>
+      <c r="B55" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11"/>
+      <c r="H55" s="11"/>
+      <c r="I55" s="5"/>
+      <c r="J55" s="11"/>
+      <c r="K55" s="11"/>
+      <c r="L55" s="11"/>
+      <c r="M55" s="11"/>
+      <c r="N55" s="11"/>
+      <c r="O55" s="11"/>
+      <c r="P55" s="11"/>
+      <c r="Q55" s="11"/>
+      <c r="R55" s="11"/>
+      <c r="S55" s="11"/>
+      <c r="T55" s="17"/>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A56" s="16"/>
+      <c r="B56" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="11"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="5"/>
+      <c r="J56" s="11"/>
+      <c r="K56" s="11"/>
+      <c r="L56" s="11"/>
+      <c r="M56" s="11"/>
+      <c r="N56" s="11"/>
+      <c r="O56" s="11"/>
+      <c r="P56" s="11"/>
+      <c r="Q56" s="11"/>
+      <c r="R56" s="11"/>
+      <c r="S56" s="11"/>
+      <c r="T56" s="17"/>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A57" s="16"/>
+      <c r="B57" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="11"/>
+      <c r="H57" s="11"/>
+      <c r="I57" s="5"/>
+      <c r="L57" s="11"/>
+      <c r="M57" s="11"/>
+      <c r="N57" s="11"/>
+      <c r="O57" s="11"/>
+      <c r="P57" s="11"/>
+      <c r="Q57" s="11"/>
+      <c r="R57" s="11"/>
+      <c r="S57" s="11"/>
+      <c r="T57" s="17"/>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A58" s="16"/>
+      <c r="B58" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="11"/>
+      <c r="H58" s="11"/>
+      <c r="I58" s="5"/>
+      <c r="L58" s="11"/>
+      <c r="M58" s="11"/>
+      <c r="N58" s="11"/>
+      <c r="O58" s="11"/>
+      <c r="P58" s="11"/>
+      <c r="Q58" s="11"/>
+      <c r="R58" s="11"/>
+      <c r="S58" s="11"/>
+      <c r="T58" s="17"/>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A59" s="16"/>
+      <c r="B59" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C59" s="11"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="11"/>
+      <c r="F59" s="11"/>
+      <c r="G59" s="11"/>
+      <c r="H59" s="11"/>
+      <c r="I59" s="5"/>
+      <c r="J59" s="11"/>
+      <c r="K59" s="11"/>
+      <c r="L59" s="11"/>
+      <c r="M59" s="11"/>
+      <c r="N59" s="11"/>
+      <c r="O59" s="11"/>
+      <c r="P59" s="11"/>
+      <c r="Q59" s="11"/>
+      <c r="R59" s="11"/>
+      <c r="S59" s="11"/>
+      <c r="T59" s="17"/>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A60" s="16"/>
+      <c r="B60" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C60" s="11"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="11"/>
+      <c r="G60" s="11"/>
+      <c r="H60" s="11"/>
+      <c r="I60" s="5"/>
+      <c r="J60" s="11"/>
+      <c r="K60" s="11"/>
+      <c r="L60" s="11"/>
+      <c r="M60" s="11"/>
+      <c r="N60" s="11"/>
+      <c r="O60" s="11"/>
+      <c r="P60" s="11"/>
+      <c r="Q60" s="11"/>
+      <c r="R60" s="11"/>
+      <c r="S60" s="11"/>
+      <c r="T60" s="17"/>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A61" s="16"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="11"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="11"/>
+      <c r="G61" s="11"/>
+      <c r="H61" s="11"/>
+      <c r="I61" s="5"/>
+      <c r="J61" s="11"/>
+      <c r="K61" s="11"/>
+      <c r="L61" s="11"/>
+      <c r="M61" s="11"/>
+      <c r="N61" s="11"/>
+      <c r="O61" s="11"/>
+      <c r="P61" s="11"/>
+      <c r="Q61" s="11"/>
+      <c r="R61" s="11"/>
+      <c r="S61" s="11"/>
+      <c r="T61" s="17"/>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A62" s="16"/>
+      <c r="B62" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C62" s="11"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="11"/>
+      <c r="F62" s="11"/>
+      <c r="G62" s="11"/>
+      <c r="H62" s="11"/>
+      <c r="I62" s="5"/>
+      <c r="J62" s="11"/>
+      <c r="K62" s="11"/>
+      <c r="L62" s="11"/>
+      <c r="M62" s="11"/>
+      <c r="N62" s="11"/>
+      <c r="O62" s="11"/>
+      <c r="P62" s="11"/>
+      <c r="Q62" s="11"/>
+      <c r="R62" s="11"/>
+      <c r="S62" s="11"/>
+      <c r="T62" s="17"/>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A63" s="16"/>
+      <c r="B63" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="11"/>
+      <c r="F63" s="11"/>
+      <c r="G63" s="11"/>
+      <c r="H63" s="11"/>
+      <c r="I63" s="5"/>
+      <c r="J63" s="11"/>
+      <c r="K63" s="11"/>
+      <c r="L63" s="11"/>
+      <c r="M63" s="11"/>
+      <c r="N63" s="11"/>
+      <c r="O63" s="11"/>
+      <c r="P63" s="11"/>
+      <c r="Q63" s="11"/>
+      <c r="R63" s="11"/>
+      <c r="S63" s="11"/>
+      <c r="T63" s="17"/>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A64" s="16"/>
+      <c r="B64" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C64" s="11"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="11"/>
+      <c r="F64" s="11"/>
+      <c r="G64" s="11"/>
+      <c r="H64" s="11"/>
+      <c r="I64" s="5"/>
+      <c r="J64" s="11"/>
+      <c r="K64" s="11"/>
+      <c r="L64" s="11"/>
+      <c r="M64" s="11"/>
+      <c r="N64" s="11"/>
+      <c r="O64" s="11"/>
+      <c r="P64" s="11"/>
+      <c r="Q64" s="11"/>
+      <c r="R64" s="11"/>
+      <c r="S64" s="11"/>
+      <c r="T64" s="17"/>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A65" s="16"/>
+      <c r="B65" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C65" s="11"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="11"/>
+      <c r="F65" s="11"/>
+      <c r="G65" s="11"/>
+      <c r="H65" s="11"/>
+      <c r="I65" s="5"/>
+      <c r="J65" s="11"/>
+      <c r="K65" s="11"/>
+      <c r="L65" s="11"/>
+      <c r="M65" s="11"/>
+      <c r="N65" s="11"/>
+      <c r="O65" s="11"/>
+      <c r="P65" s="11"/>
+      <c r="Q65" s="11"/>
+      <c r="R65" s="11"/>
+      <c r="S65" s="11"/>
+      <c r="T65" s="17"/>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A66" s="16"/>
+      <c r="B66" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C66" s="11"/>
+      <c r="D66" s="11"/>
+      <c r="E66" s="11"/>
+      <c r="F66" s="11"/>
+      <c r="G66" s="11"/>
+      <c r="H66" s="11"/>
+      <c r="I66" s="5"/>
+      <c r="J66" s="11"/>
+      <c r="K66" s="11"/>
+      <c r="L66" s="11"/>
+      <c r="M66" s="11"/>
+      <c r="N66" s="11"/>
+      <c r="O66" s="11"/>
+      <c r="P66" s="11"/>
+      <c r="Q66" s="11"/>
+      <c r="R66" s="11"/>
+      <c r="S66" s="11"/>
+      <c r="T66" s="17"/>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A67" s="16"/>
+      <c r="B67" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C67" s="11"/>
+      <c r="D67" s="11"/>
+      <c r="E67" s="11"/>
+      <c r="F67" s="11"/>
+      <c r="G67" s="11"/>
+      <c r="H67" s="11"/>
+      <c r="I67" s="5"/>
+      <c r="J67" s="11"/>
+      <c r="K67" s="11"/>
+      <c r="L67" s="11"/>
+      <c r="M67" s="11"/>
+      <c r="N67" s="11"/>
+      <c r="O67" s="11"/>
+      <c r="P67" s="11"/>
+      <c r="Q67" s="11"/>
+      <c r="R67" s="11"/>
+      <c r="S67" s="11"/>
+      <c r="T67" s="17"/>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A68" s="16"/>
+      <c r="B68" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C68" s="11"/>
+      <c r="D68" s="11"/>
+      <c r="E68" s="11"/>
+      <c r="F68" s="11"/>
+      <c r="G68" s="11"/>
+      <c r="H68" s="11"/>
+      <c r="I68" s="5"/>
+      <c r="J68" s="11"/>
+      <c r="K68" s="11"/>
+      <c r="L68" s="11"/>
+      <c r="M68" s="11"/>
+      <c r="N68" s="11"/>
+      <c r="O68" s="11"/>
+      <c r="P68" s="11"/>
+      <c r="Q68" s="11"/>
+      <c r="R68" s="11"/>
+      <c r="S68" s="11"/>
+      <c r="T68" s="17"/>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A69" s="16"/>
+      <c r="B69" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C69" s="11"/>
+      <c r="D69" s="11"/>
+      <c r="E69" s="11"/>
+      <c r="F69" s="11"/>
+      <c r="G69" s="11"/>
+      <c r="H69" s="11"/>
+      <c r="I69" s="5"/>
+      <c r="J69" s="11"/>
+      <c r="K69" s="11"/>
+      <c r="L69" s="11"/>
+      <c r="M69" s="11"/>
+      <c r="N69" s="11"/>
+      <c r="O69" s="11"/>
+      <c r="P69" s="11"/>
+      <c r="Q69" s="11"/>
+      <c r="R69" s="11"/>
+      <c r="S69" s="11"/>
+      <c r="T69" s="17"/>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A70" s="16"/>
+      <c r="B70" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C70" s="11"/>
+      <c r="D70" s="11"/>
+      <c r="E70" s="11"/>
+      <c r="F70" s="11"/>
+      <c r="G70" s="11"/>
+      <c r="H70" s="11"/>
+      <c r="I70" s="5"/>
+      <c r="J70" s="11"/>
+      <c r="K70" s="11"/>
+      <c r="L70" s="11"/>
+      <c r="M70" s="11"/>
+      <c r="N70" s="11"/>
+      <c r="O70" s="11"/>
+      <c r="P70" s="11"/>
+      <c r="Q70" s="11"/>
+      <c r="R70" s="11"/>
+      <c r="S70" s="11"/>
+      <c r="T70" s="17"/>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A71" s="16"/>
+      <c r="B71" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C71" s="7"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="7"/>
+      <c r="G71" s="7"/>
+      <c r="H71" s="7"/>
+      <c r="I71" s="9"/>
+      <c r="J71" s="11"/>
+      <c r="K71" s="11"/>
+      <c r="L71" s="11"/>
+      <c r="M71" s="11"/>
+      <c r="N71" s="11"/>
+      <c r="O71" s="11"/>
+      <c r="P71" s="11"/>
+      <c r="Q71" s="11"/>
+      <c r="R71" s="11"/>
+      <c r="S71" s="11"/>
+      <c r="T71" s="17"/>
+    </row>
+    <row r="72" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="18"/>
+      <c r="B72" s="19"/>
+      <c r="C72" s="19"/>
+      <c r="D72" s="19"/>
+      <c r="E72" s="19"/>
+      <c r="F72" s="19"/>
+      <c r="G72" s="19"/>
+      <c r="H72" s="19"/>
+      <c r="I72" s="19"/>
+      <c r="J72" s="19"/>
+      <c r="K72" s="19"/>
+      <c r="L72" s="19"/>
+      <c r="M72" s="19"/>
+      <c r="N72" s="19"/>
+      <c r="O72" s="19"/>
+      <c r="P72" s="19"/>
+      <c r="Q72" s="19"/>
+      <c r="R72" s="19"/>
+      <c r="S72" s="19"/>
+      <c r="T72" s="20"/>
+    </row>
+    <row r="75" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A76" s="13"/>
+      <c r="B76" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C76" s="14"/>
+      <c r="D76" s="14"/>
+      <c r="E76" s="14"/>
+      <c r="F76" s="14"/>
+      <c r="G76" s="14"/>
+      <c r="H76" s="14"/>
+      <c r="I76" s="14"/>
+      <c r="J76" s="14"/>
+      <c r="K76" s="14"/>
+      <c r="L76" s="14"/>
+      <c r="M76" s="14"/>
+      <c r="N76" s="14"/>
+      <c r="O76" s="14"/>
+      <c r="P76" s="14"/>
+      <c r="Q76" s="14"/>
+      <c r="R76" s="14"/>
+      <c r="S76" s="14"/>
+      <c r="T76" s="15"/>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A77" s="16"/>
+      <c r="B77" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="2"/>
+      <c r="H77" s="2"/>
+      <c r="I77" s="3"/>
+      <c r="J77" s="11"/>
+      <c r="K77" s="11"/>
+      <c r="L77" s="11"/>
+      <c r="M77" s="11"/>
+      <c r="N77" s="11"/>
+      <c r="O77" s="11"/>
+      <c r="P77" s="11"/>
+      <c r="Q77" s="11"/>
+      <c r="R77" s="11"/>
+      <c r="S77" s="11"/>
+      <c r="T77" s="17"/>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A78" s="16"/>
+      <c r="B78" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C78" s="11"/>
+      <c r="D78" s="11"/>
+      <c r="E78" s="11"/>
+      <c r="F78" s="11"/>
+      <c r="G78" s="11"/>
+      <c r="H78" s="11"/>
+      <c r="I78" s="5"/>
+      <c r="J78" s="11"/>
+      <c r="K78" s="11"/>
+      <c r="L78" s="11"/>
+      <c r="M78" s="11"/>
+      <c r="N78" s="11"/>
+      <c r="O78" s="11"/>
+      <c r="P78" s="11"/>
+      <c r="Q78" s="11"/>
+      <c r="R78" s="11"/>
+      <c r="S78" s="11"/>
+      <c r="T78" s="17"/>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A79" s="16"/>
+      <c r="B79" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C79" s="11"/>
+      <c r="D79" s="11"/>
+      <c r="E79" s="11"/>
+      <c r="F79" s="11"/>
+      <c r="G79" s="11"/>
+      <c r="H79" s="11"/>
+      <c r="I79" s="5"/>
+      <c r="J79" s="11"/>
+      <c r="K79" s="11"/>
+      <c r="L79" s="11"/>
+      <c r="M79" s="11"/>
+      <c r="N79" s="11"/>
+      <c r="O79" s="11"/>
+      <c r="P79" s="11"/>
+      <c r="Q79" s="11"/>
+      <c r="R79" s="11"/>
+      <c r="S79" s="11"/>
+      <c r="T79" s="17"/>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A80" s="16"/>
+      <c r="B80" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C80" s="11"/>
+      <c r="D80" s="11"/>
+      <c r="E80" s="11"/>
+      <c r="F80" s="11"/>
+      <c r="G80" s="11"/>
+      <c r="H80" s="11"/>
+      <c r="I80" s="5"/>
+      <c r="J80" s="11"/>
+      <c r="K80" s="11"/>
+      <c r="L80" s="11"/>
+      <c r="M80" s="11"/>
+      <c r="N80" s="11"/>
+      <c r="O80" s="11"/>
+      <c r="P80" s="11"/>
+      <c r="Q80" s="11"/>
+      <c r="R80" s="11"/>
+      <c r="S80" s="11"/>
+      <c r="T80" s="17"/>
+    </row>
+    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A81" s="16"/>
+      <c r="B81" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C81" s="11"/>
+      <c r="D81" s="11"/>
+      <c r="E81" s="11"/>
+      <c r="F81" s="11"/>
+      <c r="G81" s="11"/>
+      <c r="H81" s="11"/>
+      <c r="I81" s="5"/>
+      <c r="J81" s="11"/>
+      <c r="K81" s="11"/>
+      <c r="L81" s="11"/>
+      <c r="M81" s="11"/>
+      <c r="N81" s="11"/>
+      <c r="O81" s="11"/>
+      <c r="P81" s="11"/>
+      <c r="Q81" s="11"/>
+      <c r="R81" s="11"/>
+      <c r="S81" s="11"/>
+      <c r="T81" s="17"/>
+    </row>
+    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A82" s="16"/>
+      <c r="B82" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C82" s="11"/>
+      <c r="D82" s="11"/>
+      <c r="E82" s="11"/>
+      <c r="F82" s="11"/>
+      <c r="G82" s="11"/>
+      <c r="H82" s="11"/>
+      <c r="I82" s="5"/>
+      <c r="J82" s="11"/>
+      <c r="K82" s="11"/>
+      <c r="L82" s="11"/>
+      <c r="M82" s="11"/>
+      <c r="N82" s="11"/>
+      <c r="O82" s="11"/>
+      <c r="P82" s="11"/>
+      <c r="Q82" s="11"/>
+      <c r="R82" s="11"/>
+      <c r="S82" s="11"/>
+      <c r="T82" s="17"/>
+    </row>
+    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A83" s="16"/>
+      <c r="B83" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C83" s="11"/>
+      <c r="D83" s="11"/>
+      <c r="E83" s="11"/>
+      <c r="F83" s="11"/>
+      <c r="G83" s="11"/>
+      <c r="H83" s="11"/>
+      <c r="I83" s="5"/>
+      <c r="J83" s="11"/>
+      <c r="K83" s="11"/>
+      <c r="L83" s="11"/>
+      <c r="M83" s="11"/>
+      <c r="N83" s="11"/>
+      <c r="O83" s="11"/>
+      <c r="P83" s="11"/>
+      <c r="Q83" s="11"/>
+      <c r="R83" s="11"/>
+      <c r="S83" s="11"/>
+      <c r="T83" s="17"/>
+    </row>
+    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A84" s="16"/>
+      <c r="B84" s="4"/>
+      <c r="C84" s="11"/>
+      <c r="D84" s="11"/>
+      <c r="E84" s="11"/>
+      <c r="F84" s="11"/>
+      <c r="G84" s="11"/>
+      <c r="H84" s="11"/>
+      <c r="I84" s="5"/>
+      <c r="J84" s="11"/>
+      <c r="K84" s="11"/>
+      <c r="L84" s="11"/>
+      <c r="M84" s="11"/>
+      <c r="N84" s="11"/>
+      <c r="O84" s="11"/>
+      <c r="P84" s="11"/>
+      <c r="Q84" s="11"/>
+      <c r="R84" s="11"/>
+      <c r="S84" s="11"/>
+      <c r="T84" s="17"/>
+    </row>
+    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A85" s="16"/>
+      <c r="B85" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C85" s="11"/>
+      <c r="D85" s="11"/>
+      <c r="E85" s="11"/>
+      <c r="F85" s="11"/>
+      <c r="G85" s="11"/>
+      <c r="H85" s="11"/>
+      <c r="I85" s="5"/>
+      <c r="J85" s="11"/>
+      <c r="K85" s="11"/>
+      <c r="L85" s="11"/>
+      <c r="M85" s="11"/>
+      <c r="N85" s="11"/>
+      <c r="O85" s="11"/>
+      <c r="P85" s="11"/>
+      <c r="Q85" s="11"/>
+      <c r="R85" s="11"/>
+      <c r="S85" s="11"/>
+      <c r="T85" s="17"/>
+    </row>
+    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A86" s="16"/>
+      <c r="B86" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C86" s="11"/>
+      <c r="D86" s="11"/>
+      <c r="E86" s="11"/>
+      <c r="F86" s="11"/>
+      <c r="G86" s="11"/>
+      <c r="H86" s="11"/>
+      <c r="I86" s="5"/>
+      <c r="J86" s="11"/>
+      <c r="K86" s="11"/>
+      <c r="L86" s="11"/>
+      <c r="M86" s="11"/>
+      <c r="N86" s="11"/>
+      <c r="O86" s="11"/>
+      <c r="P86" s="11"/>
+      <c r="Q86" s="11"/>
+      <c r="R86" s="11"/>
+      <c r="S86" s="11"/>
+      <c r="T86" s="17"/>
+    </row>
+    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A87" s="16"/>
+      <c r="B87" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C87" s="11"/>
+      <c r="D87" s="11"/>
+      <c r="E87" s="11"/>
+      <c r="F87" s="11"/>
+      <c r="G87" s="11"/>
+      <c r="H87" s="11"/>
+      <c r="I87" s="5"/>
+      <c r="J87" s="11"/>
+      <c r="K87" s="11"/>
+      <c r="L87" s="11"/>
+      <c r="M87" s="11"/>
+      <c r="N87" s="11"/>
+      <c r="O87" s="11"/>
+      <c r="P87" s="11"/>
+      <c r="Q87" s="11"/>
+      <c r="R87" s="11"/>
+      <c r="S87" s="11"/>
+      <c r="T87" s="17"/>
+    </row>
+    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A88" s="16"/>
+      <c r="B88" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C88" s="11"/>
+      <c r="D88" s="11"/>
+      <c r="E88" s="11"/>
+      <c r="F88" s="11"/>
+      <c r="G88" s="11"/>
+      <c r="H88" s="11"/>
+      <c r="I88" s="5"/>
+      <c r="J88" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K88" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="L88" s="11"/>
+      <c r="M88" s="11"/>
+      <c r="N88" s="11"/>
+      <c r="O88" s="11"/>
+      <c r="P88" s="11"/>
+      <c r="Q88" s="11"/>
+      <c r="R88" s="11"/>
+      <c r="S88" s="11"/>
+      <c r="T88" s="17"/>
+    </row>
+    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A89" s="16"/>
+      <c r="B89" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C89" s="11"/>
+      <c r="D89" s="11"/>
+      <c r="E89" s="11"/>
+      <c r="F89" s="11"/>
+      <c r="G89" s="11"/>
+      <c r="H89" s="11"/>
+      <c r="I89" s="5"/>
+      <c r="J89" s="11"/>
+      <c r="K89" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L89" s="11"/>
+      <c r="M89" s="11"/>
+      <c r="N89" s="11"/>
+      <c r="O89" s="11"/>
+      <c r="P89" s="11"/>
+      <c r="Q89" s="11"/>
+      <c r="R89" s="11"/>
+      <c r="S89" s="11"/>
+      <c r="T89" s="17"/>
+    </row>
+    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A90" s="16"/>
+      <c r="B90" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C90" s="11"/>
+      <c r="D90" s="11"/>
+      <c r="E90" s="11"/>
+      <c r="F90" s="11"/>
+      <c r="G90" s="11"/>
+      <c r="H90" s="11"/>
+      <c r="I90" s="5"/>
+      <c r="J90" s="11"/>
+      <c r="K90" s="11"/>
+      <c r="L90" s="11"/>
+      <c r="M90" s="11"/>
+      <c r="N90" s="11"/>
+      <c r="O90" s="11"/>
+      <c r="P90" s="11"/>
+      <c r="Q90" s="11"/>
+      <c r="R90" s="11"/>
+      <c r="S90" s="11"/>
+      <c r="T90" s="17"/>
+    </row>
+    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A91" s="16"/>
+      <c r="B91" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C91" s="11"/>
+      <c r="D91" s="11"/>
+      <c r="E91" s="11"/>
+      <c r="F91" s="11"/>
+      <c r="G91" s="11"/>
+      <c r="H91" s="11"/>
+      <c r="I91" s="5"/>
+      <c r="J91" s="11"/>
+      <c r="K91" s="11"/>
+      <c r="L91" s="11"/>
+      <c r="M91" s="11"/>
+      <c r="N91" s="11"/>
+      <c r="O91" s="11"/>
+      <c r="P91" s="11"/>
+      <c r="Q91" s="11"/>
+      <c r="R91" s="11"/>
+      <c r="S91" s="11"/>
+      <c r="T91" s="17"/>
+    </row>
+    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A92" s="16"/>
+      <c r="B92" s="4"/>
+      <c r="C92" s="11"/>
+      <c r="D92" s="11"/>
+      <c r="E92" s="11"/>
+      <c r="F92" s="11"/>
+      <c r="G92" s="11"/>
+      <c r="H92" s="11"/>
+      <c r="I92" s="5"/>
+      <c r="J92" s="11"/>
+      <c r="K92" s="11"/>
+      <c r="L92" s="11"/>
+      <c r="M92" s="11"/>
+      <c r="N92" s="11"/>
+      <c r="O92" s="11"/>
+      <c r="P92" s="11"/>
+      <c r="Q92" s="11"/>
+      <c r="R92" s="11"/>
+      <c r="S92" s="11"/>
+      <c r="T92" s="17"/>
+    </row>
+    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A93" s="16"/>
+      <c r="B93" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C93" s="11"/>
+      <c r="D93" s="11"/>
+      <c r="E93" s="11"/>
+      <c r="F93" s="11"/>
+      <c r="G93" s="11"/>
+      <c r="H93" s="11"/>
+      <c r="I93" s="5"/>
+      <c r="J93" s="11"/>
+      <c r="K93" s="11"/>
+      <c r="L93" s="11"/>
+      <c r="M93" s="11"/>
+      <c r="N93" s="11"/>
+      <c r="O93" s="11"/>
+      <c r="P93" s="11"/>
+      <c r="Q93" s="11"/>
+      <c r="R93" s="11"/>
+      <c r="S93" s="11"/>
+      <c r="T93" s="17"/>
+    </row>
+    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A94" s="16"/>
+      <c r="B94" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C94" s="11"/>
+      <c r="D94" s="11"/>
+      <c r="E94" s="11"/>
+      <c r="F94" s="11"/>
+      <c r="G94" s="11"/>
+      <c r="H94" s="11"/>
+      <c r="I94" s="5"/>
+      <c r="J94" s="11"/>
+      <c r="K94" s="11"/>
+      <c r="L94" s="11"/>
+      <c r="M94" s="11"/>
+      <c r="N94" s="11"/>
+      <c r="O94" s="11"/>
+      <c r="P94" s="11"/>
+      <c r="Q94" s="11"/>
+      <c r="R94" s="11"/>
+      <c r="S94" s="11"/>
+      <c r="T94" s="17"/>
+    </row>
+    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A95" s="16"/>
+      <c r="B95" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C95" s="11"/>
+      <c r="D95" s="11"/>
+      <c r="E95" s="11"/>
+      <c r="F95" s="11"/>
+      <c r="G95" s="11"/>
+      <c r="H95" s="11"/>
+      <c r="I95" s="5"/>
+      <c r="J95" s="11"/>
+      <c r="K95" s="11"/>
+      <c r="L95" s="11"/>
+      <c r="M95" s="11"/>
+      <c r="N95" s="11"/>
+      <c r="O95" s="11"/>
+      <c r="P95" s="11"/>
+      <c r="Q95" s="11"/>
+      <c r="R95" s="11"/>
+      <c r="S95" s="11"/>
+      <c r="T95" s="17"/>
+    </row>
+    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A96" s="16"/>
+      <c r="B96" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C96" s="11"/>
+      <c r="D96" s="11"/>
+      <c r="E96" s="11"/>
+      <c r="F96" s="11"/>
+      <c r="G96" s="11"/>
+      <c r="H96" s="11"/>
+      <c r="I96" s="5"/>
+      <c r="J96" s="11"/>
+      <c r="K96" s="11"/>
+      <c r="L96" s="11"/>
+      <c r="M96" s="11"/>
+      <c r="N96" s="11"/>
+      <c r="O96" s="11"/>
+      <c r="P96" s="11"/>
+      <c r="Q96" s="11"/>
+      <c r="R96" s="11"/>
+      <c r="S96" s="11"/>
+      <c r="T96" s="17"/>
+    </row>
+    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A97" s="16"/>
+      <c r="B97" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C97" s="11"/>
+      <c r="D97" s="11"/>
+      <c r="E97" s="11"/>
+      <c r="F97" s="11"/>
+      <c r="G97" s="11"/>
+      <c r="H97" s="11"/>
+      <c r="I97" s="5"/>
+      <c r="J97" s="11"/>
+      <c r="K97" s="11"/>
+      <c r="L97" s="11"/>
+      <c r="M97" s="11"/>
+      <c r="N97" s="11"/>
+      <c r="O97" s="11"/>
+      <c r="P97" s="11"/>
+      <c r="Q97" s="11"/>
+      <c r="R97" s="11"/>
+      <c r="S97" s="11"/>
+      <c r="T97" s="17"/>
+    </row>
+    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A98" s="16"/>
+      <c r="B98" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C98" s="11"/>
+      <c r="D98" s="11"/>
+      <c r="E98" s="11"/>
+      <c r="F98" s="11"/>
+      <c r="G98" s="11"/>
+      <c r="H98" s="11"/>
+      <c r="I98" s="5"/>
+      <c r="J98" s="11"/>
+      <c r="K98" s="11"/>
+      <c r="L98" s="11"/>
+      <c r="M98" s="11"/>
+      <c r="N98" s="11"/>
+      <c r="O98" s="11"/>
+      <c r="P98" s="11"/>
+      <c r="Q98" s="11"/>
+      <c r="R98" s="11"/>
+      <c r="S98" s="11"/>
+      <c r="T98" s="17"/>
+    </row>
+    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A99" s="16"/>
+      <c r="B99" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C99" s="11"/>
+      <c r="D99" s="11"/>
+      <c r="E99" s="11"/>
+      <c r="F99" s="11"/>
+      <c r="G99" s="11"/>
+      <c r="H99" s="11"/>
+      <c r="I99" s="5"/>
+      <c r="J99" s="11"/>
+      <c r="K99" s="11"/>
+      <c r="L99" s="11"/>
+      <c r="M99" s="11"/>
+      <c r="N99" s="11"/>
+      <c r="O99" s="11"/>
+      <c r="P99" s="11"/>
+      <c r="Q99" s="11"/>
+      <c r="R99" s="11"/>
+      <c r="S99" s="11"/>
+      <c r="T99" s="17"/>
+    </row>
+    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A100" s="16"/>
+      <c r="B100" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C100" s="11"/>
+      <c r="D100" s="11"/>
+      <c r="E100" s="11"/>
+      <c r="F100" s="11"/>
+      <c r="G100" s="11"/>
+      <c r="H100" s="11"/>
+      <c r="I100" s="5"/>
+      <c r="J100" s="11"/>
+      <c r="K100" s="11"/>
+      <c r="L100" s="11"/>
+      <c r="M100" s="11"/>
+      <c r="N100" s="11"/>
+      <c r="O100" s="11"/>
+      <c r="P100" s="11"/>
+      <c r="Q100" s="11"/>
+      <c r="R100" s="11"/>
+      <c r="S100" s="11"/>
+      <c r="T100" s="17"/>
+    </row>
+    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A101" s="16"/>
+      <c r="B101" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C101" s="11"/>
+      <c r="D101" s="11"/>
+      <c r="E101" s="11"/>
+      <c r="F101" s="11"/>
+      <c r="G101" s="11"/>
+      <c r="H101" s="11"/>
+      <c r="I101" s="5"/>
+      <c r="J101" s="11"/>
+      <c r="K101" s="11"/>
+      <c r="L101" s="11"/>
+      <c r="M101" s="11"/>
+      <c r="N101" s="11"/>
+      <c r="O101" s="11"/>
+      <c r="P101" s="11"/>
+      <c r="Q101" s="11"/>
+      <c r="R101" s="11"/>
+      <c r="S101" s="11"/>
+      <c r="T101" s="17"/>
+    </row>
+    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A102" s="16"/>
+      <c r="B102" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C102" s="7"/>
+      <c r="D102" s="7"/>
+      <c r="E102" s="7"/>
+      <c r="F102" s="7"/>
+      <c r="G102" s="7"/>
+      <c r="H102" s="7"/>
+      <c r="I102" s="9"/>
+      <c r="J102" s="11"/>
+      <c r="K102" s="11"/>
+      <c r="L102" s="11"/>
+      <c r="M102" s="11"/>
+      <c r="N102" s="11"/>
+      <c r="O102" s="11"/>
+      <c r="P102" s="11"/>
+      <c r="Q102" s="11"/>
+      <c r="R102" s="11"/>
+      <c r="S102" s="11"/>
+      <c r="T102" s="17"/>
+    </row>
+    <row r="103" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="18"/>
+      <c r="B103" s="19"/>
+      <c r="C103" s="19"/>
+      <c r="D103" s="19"/>
+      <c r="E103" s="19"/>
+      <c r="F103" s="19"/>
+      <c r="G103" s="19"/>
+      <c r="H103" s="19"/>
+      <c r="I103" s="19"/>
+      <c r="J103" s="19"/>
+      <c r="K103" s="19"/>
+      <c r="L103" s="19"/>
+      <c r="M103" s="19"/>
+      <c r="N103" s="19"/>
+      <c r="O103" s="19"/>
+      <c r="P103" s="19"/>
+      <c r="Q103" s="19"/>
+      <c r="R103" s="19"/>
+      <c r="S103" s="19"/>
+      <c r="T103" s="20"/>
+    </row>
+    <row r="106" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A107" s="13"/>
+      <c r="B107" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C107" s="14"/>
+      <c r="D107" s="14"/>
+      <c r="E107" s="14"/>
+      <c r="F107" s="14"/>
+      <c r="G107" s="14"/>
+      <c r="H107" s="14"/>
+      <c r="I107" s="14"/>
+      <c r="J107" s="14"/>
+      <c r="K107" s="14"/>
+      <c r="L107" s="14"/>
+      <c r="M107" s="14"/>
+      <c r="N107" s="14"/>
+      <c r="O107" s="14"/>
+      <c r="P107" s="14"/>
+      <c r="Q107" s="14"/>
+      <c r="R107" s="14"/>
+      <c r="S107" s="14"/>
+      <c r="T107" s="15"/>
+    </row>
+    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A108" s="16"/>
+      <c r="B108" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C108" s="2"/>
+      <c r="D108" s="2"/>
+      <c r="E108" s="2"/>
+      <c r="F108" s="2"/>
+      <c r="G108" s="2"/>
+      <c r="H108" s="2"/>
+      <c r="I108" s="3"/>
+      <c r="J108" s="11"/>
+      <c r="K108" s="11"/>
+      <c r="L108" s="11"/>
+      <c r="M108" s="11"/>
+      <c r="N108" s="11"/>
+      <c r="O108" s="11"/>
+      <c r="P108" s="11"/>
+      <c r="Q108" s="11"/>
+      <c r="R108" s="11"/>
+      <c r="S108" s="11"/>
+      <c r="T108" s="17"/>
+    </row>
+    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A109" s="16"/>
+      <c r="B109" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C109" s="11"/>
+      <c r="D109" s="11"/>
+      <c r="E109" s="11"/>
+      <c r="F109" s="11"/>
+      <c r="G109" s="11"/>
+      <c r="H109" s="11"/>
+      <c r="I109" s="5"/>
+      <c r="J109" s="11"/>
+      <c r="K109" s="11"/>
+      <c r="L109" s="11"/>
+      <c r="M109" s="11"/>
+      <c r="N109" s="11"/>
+      <c r="O109" s="11"/>
+      <c r="P109" s="11"/>
+      <c r="Q109" s="11"/>
+      <c r="R109" s="11"/>
+      <c r="S109" s="11"/>
+      <c r="T109" s="17"/>
+    </row>
+    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A110" s="16"/>
+      <c r="B110" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C110" s="11"/>
+      <c r="D110" s="11"/>
+      <c r="E110" s="11"/>
+      <c r="F110" s="11"/>
+      <c r="G110" s="11"/>
+      <c r="H110" s="11"/>
+      <c r="I110" s="5"/>
+      <c r="J110" s="11"/>
+      <c r="K110" s="11"/>
+      <c r="L110" s="11"/>
+      <c r="M110" s="11"/>
+      <c r="N110" s="11"/>
+      <c r="O110" s="11"/>
+      <c r="P110" s="11"/>
+      <c r="Q110" s="11"/>
+      <c r="R110" s="11"/>
+      <c r="S110" s="11"/>
+      <c r="T110" s="17"/>
+    </row>
+    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A111" s="16"/>
+      <c r="B111" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C111" s="11"/>
+      <c r="D111" s="11"/>
+      <c r="E111" s="11"/>
+      <c r="F111" s="11"/>
+      <c r="G111" s="11"/>
+      <c r="H111" s="11"/>
+      <c r="I111" s="5"/>
+      <c r="J111" s="11"/>
+      <c r="K111" s="11"/>
+      <c r="L111" s="11"/>
+      <c r="M111" s="11"/>
+      <c r="N111" s="11"/>
+      <c r="O111" s="11"/>
+      <c r="P111" s="11"/>
+      <c r="Q111" s="11"/>
+      <c r="R111" s="11"/>
+      <c r="S111" s="11"/>
+      <c r="T111" s="17"/>
+    </row>
+    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A112" s="16"/>
+      <c r="B112" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C112" s="11"/>
+      <c r="D112" s="11"/>
+      <c r="E112" s="11"/>
+      <c r="F112" s="11"/>
+      <c r="G112" s="11"/>
+      <c r="H112" s="11"/>
+      <c r="I112" s="5"/>
+      <c r="J112" s="11"/>
+      <c r="K112" s="11"/>
+      <c r="L112" s="11"/>
+      <c r="M112" s="11"/>
+      <c r="N112" s="11"/>
+      <c r="O112" s="11"/>
+      <c r="P112" s="11"/>
+      <c r="Q112" s="11"/>
+      <c r="R112" s="11"/>
+      <c r="S112" s="11"/>
+      <c r="T112" s="17"/>
+    </row>
+    <row r="113" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A113" s="16"/>
+      <c r="B113" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C113" s="11"/>
+      <c r="D113" s="11"/>
+      <c r="E113" s="11"/>
+      <c r="F113" s="11"/>
+      <c r="G113" s="11"/>
+      <c r="H113" s="11"/>
+      <c r="I113" s="5"/>
+      <c r="J113" s="11"/>
+      <c r="K113" s="11"/>
+      <c r="L113" s="11"/>
+      <c r="M113" s="11"/>
+      <c r="N113" s="11"/>
+      <c r="O113" s="11"/>
+      <c r="P113" s="11"/>
+      <c r="Q113" s="11"/>
+      <c r="R113" s="11"/>
+      <c r="S113" s="11"/>
+      <c r="T113" s="17"/>
+    </row>
+    <row r="114" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A114" s="16"/>
+      <c r="B114" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C114" s="11"/>
+      <c r="D114" s="11"/>
+      <c r="E114" s="11"/>
+      <c r="F114" s="11"/>
+      <c r="G114" s="11"/>
+      <c r="H114" s="11"/>
+      <c r="I114" s="5"/>
+      <c r="J114" s="11"/>
+      <c r="K114" s="11"/>
+      <c r="L114" s="11"/>
+      <c r="M114" s="11"/>
+      <c r="N114" s="11"/>
+      <c r="O114" s="11"/>
+      <c r="P114" s="11"/>
+      <c r="Q114" s="11"/>
+      <c r="R114" s="11"/>
+      <c r="S114" s="11"/>
+      <c r="T114" s="17"/>
+    </row>
+    <row r="115" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A115" s="16"/>
+      <c r="B115" s="4"/>
+      <c r="C115" s="11"/>
+      <c r="D115" s="11"/>
+      <c r="E115" s="11"/>
+      <c r="F115" s="11"/>
+      <c r="G115" s="11"/>
+      <c r="H115" s="11"/>
+      <c r="I115" s="5"/>
+      <c r="J115" s="11"/>
+      <c r="K115" s="11"/>
+      <c r="L115" s="11"/>
+      <c r="M115" s="11"/>
+      <c r="N115" s="11"/>
+      <c r="O115" s="11"/>
+      <c r="P115" s="11"/>
+      <c r="Q115" s="11"/>
+      <c r="R115" s="11"/>
+      <c r="S115" s="11"/>
+      <c r="T115" s="17"/>
+    </row>
+    <row r="116" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A116" s="16"/>
+      <c r="B116" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C116" s="11"/>
+      <c r="D116" s="11"/>
+      <c r="E116" s="11"/>
+      <c r="F116" s="11"/>
+      <c r="G116" s="11"/>
+      <c r="H116" s="11"/>
+      <c r="I116" s="5"/>
+      <c r="J116" s="11"/>
+      <c r="K116" s="11"/>
+      <c r="L116" s="11"/>
+      <c r="M116" s="11"/>
+      <c r="N116" s="11"/>
+      <c r="O116" s="11"/>
+      <c r="P116" s="11"/>
+      <c r="Q116" s="11"/>
+      <c r="R116" s="11"/>
+      <c r="S116" s="11"/>
+      <c r="T116" s="17"/>
+    </row>
+    <row r="117" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A117" s="16"/>
+      <c r="B117" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C117" s="11"/>
+      <c r="D117" s="11"/>
+      <c r="E117" s="11"/>
+      <c r="F117" s="11"/>
+      <c r="G117" s="11"/>
+      <c r="H117" s="11"/>
+      <c r="I117" s="5"/>
+      <c r="J117" s="11"/>
+      <c r="K117" s="11"/>
+      <c r="L117" s="11"/>
+      <c r="M117" s="11"/>
+      <c r="N117" s="11"/>
+      <c r="O117" s="11"/>
+      <c r="P117" s="11"/>
+      <c r="Q117" s="11"/>
+      <c r="R117" s="11"/>
+      <c r="S117" s="11"/>
+      <c r="T117" s="17"/>
+    </row>
+    <row r="118" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A118" s="16"/>
+      <c r="B118" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C118" s="11"/>
+      <c r="D118" s="11"/>
+      <c r="E118" s="11"/>
+      <c r="F118" s="11"/>
+      <c r="G118" s="11"/>
+      <c r="H118" s="11"/>
+      <c r="I118" s="5"/>
+      <c r="J118" s="11"/>
+      <c r="K118" s="11"/>
+      <c r="L118" s="11"/>
+      <c r="M118" s="11"/>
+      <c r="N118" s="11"/>
+      <c r="O118" s="11"/>
+      <c r="P118" s="11"/>
+      <c r="Q118" s="11"/>
+      <c r="R118" s="11"/>
+      <c r="S118" s="11"/>
+      <c r="T118" s="17"/>
+    </row>
+    <row r="119" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A119" s="16"/>
+      <c r="B119" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C119" s="11"/>
+      <c r="D119" s="11"/>
+      <c r="E119" s="11"/>
+      <c r="F119" s="11"/>
+      <c r="G119" s="11"/>
+      <c r="H119" s="11"/>
+      <c r="I119" s="5"/>
+      <c r="J119" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K119" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="L119" s="11"/>
+      <c r="M119" s="11"/>
+      <c r="N119" s="11"/>
+      <c r="O119" s="11"/>
+      <c r="P119" s="11"/>
+      <c r="Q119" s="11"/>
+      <c r="R119" s="11"/>
+      <c r="S119" s="11"/>
+      <c r="T119" s="17"/>
+    </row>
+    <row r="120" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A120" s="16"/>
+      <c r="B120" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C120" s="11"/>
+      <c r="D120" s="11"/>
+      <c r="E120" s="11"/>
+      <c r="F120" s="11"/>
+      <c r="G120" s="11"/>
+      <c r="H120" s="11"/>
+      <c r="I120" s="5"/>
+      <c r="J120" s="11"/>
+      <c r="K120" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="L120" s="11"/>
+      <c r="M120" s="11"/>
+      <c r="N120" s="11"/>
+      <c r="O120" s="11"/>
+      <c r="P120" s="11"/>
+      <c r="Q120" s="11"/>
+      <c r="R120" s="11"/>
+      <c r="S120" s="11"/>
+      <c r="T120" s="17"/>
+    </row>
+    <row r="121" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A121" s="16"/>
+      <c r="B121" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C121" s="11"/>
+      <c r="D121" s="11"/>
+      <c r="E121" s="11"/>
+      <c r="F121" s="11"/>
+      <c r="G121" s="11"/>
+      <c r="H121" s="11"/>
+      <c r="I121" s="5"/>
+      <c r="J121" s="11"/>
+      <c r="K121" s="11"/>
+      <c r="L121" s="11"/>
+      <c r="M121" s="11"/>
+      <c r="N121" s="11"/>
+      <c r="O121" s="11"/>
+      <c r="P121" s="11"/>
+      <c r="Q121" s="11"/>
+      <c r="R121" s="11"/>
+      <c r="S121" s="11"/>
+      <c r="T121" s="17"/>
+    </row>
+    <row r="122" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A122" s="16"/>
+      <c r="B122" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C122" s="11"/>
+      <c r="D122" s="11"/>
+      <c r="E122" s="11"/>
+      <c r="F122" s="11"/>
+      <c r="G122" s="11"/>
+      <c r="H122" s="11"/>
+      <c r="I122" s="5"/>
+      <c r="J122" s="11"/>
+      <c r="K122" s="11"/>
+      <c r="L122" s="11"/>
+      <c r="M122" s="11"/>
+      <c r="N122" s="11"/>
+      <c r="O122" s="11"/>
+      <c r="P122" s="11"/>
+      <c r="Q122" s="11"/>
+      <c r="R122" s="11"/>
+      <c r="S122" s="11"/>
+      <c r="T122" s="17"/>
+    </row>
+    <row r="123" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A123" s="16"/>
+      <c r="B123" s="4"/>
+      <c r="C123" s="11"/>
+      <c r="D123" s="11"/>
+      <c r="E123" s="11"/>
+      <c r="F123" s="11"/>
+      <c r="G123" s="11"/>
+      <c r="H123" s="11"/>
+      <c r="I123" s="5"/>
+      <c r="J123" s="11"/>
+      <c r="K123" s="11"/>
+      <c r="L123" s="11"/>
+      <c r="M123" s="11"/>
+      <c r="N123" s="11"/>
+      <c r="O123" s="11"/>
+      <c r="P123" s="11"/>
+      <c r="Q123" s="11"/>
+      <c r="R123" s="11"/>
+      <c r="S123" s="11"/>
+      <c r="T123" s="17"/>
+    </row>
+    <row r="124" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A124" s="16"/>
+      <c r="B124" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C124" s="11"/>
+      <c r="D124" s="11"/>
+      <c r="E124" s="11"/>
+      <c r="F124" s="11"/>
+      <c r="G124" s="11"/>
+      <c r="H124" s="11"/>
+      <c r="I124" s="5"/>
+      <c r="J124" s="11"/>
+      <c r="K124" s="11"/>
+      <c r="L124" s="11"/>
+      <c r="M124" s="11"/>
+      <c r="N124" s="11"/>
+      <c r="O124" s="11"/>
+      <c r="P124" s="11"/>
+      <c r="Q124" s="11"/>
+      <c r="R124" s="11"/>
+      <c r="S124" s="11"/>
+      <c r="T124" s="17"/>
+    </row>
+    <row r="125" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A125" s="16"/>
+      <c r="B125" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C125" s="11"/>
+      <c r="D125" s="11"/>
+      <c r="E125" s="11"/>
+      <c r="F125" s="11"/>
+      <c r="G125" s="11"/>
+      <c r="H125" s="11"/>
+      <c r="I125" s="5"/>
+      <c r="J125" s="11"/>
+      <c r="K125" s="11"/>
+      <c r="L125" s="11"/>
+      <c r="M125" s="11"/>
+      <c r="N125" s="11"/>
+      <c r="O125" s="11"/>
+      <c r="P125" s="11"/>
+      <c r="Q125" s="11"/>
+      <c r="R125" s="11"/>
+      <c r="S125" s="11"/>
+      <c r="T125" s="17"/>
+    </row>
+    <row r="126" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A126" s="16"/>
+      <c r="B126" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C126" s="11"/>
+      <c r="D126" s="11"/>
+      <c r="E126" s="11"/>
+      <c r="F126" s="11"/>
+      <c r="G126" s="11"/>
+      <c r="H126" s="11"/>
+      <c r="I126" s="5"/>
+      <c r="J126" s="11"/>
+      <c r="K126" s="11"/>
+      <c r="L126" s="11"/>
+      <c r="M126" s="11"/>
+      <c r="N126" s="11"/>
+      <c r="O126" s="11"/>
+      <c r="P126" s="11"/>
+      <c r="Q126" s="11"/>
+      <c r="R126" s="11"/>
+      <c r="S126" s="11"/>
+      <c r="T126" s="17"/>
+    </row>
+    <row r="127" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A127" s="16"/>
+      <c r="B127" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C127" s="11"/>
+      <c r="D127" s="11"/>
+      <c r="E127" s="11"/>
+      <c r="F127" s="11"/>
+      <c r="G127" s="11"/>
+      <c r="H127" s="11"/>
+      <c r="I127" s="5"/>
+      <c r="J127" s="11"/>
+      <c r="K127" s="11"/>
+      <c r="L127" s="11"/>
+      <c r="M127" s="11"/>
+      <c r="N127" s="11"/>
+      <c r="O127" s="11"/>
+      <c r="P127" s="11"/>
+      <c r="Q127" s="11"/>
+      <c r="R127" s="11"/>
+      <c r="S127" s="11"/>
+      <c r="T127" s="17"/>
+    </row>
+    <row r="128" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A128" s="16"/>
+      <c r="B128" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C128" s="11"/>
+      <c r="D128" s="11"/>
+      <c r="E128" s="11"/>
+      <c r="F128" s="11"/>
+      <c r="G128" s="11"/>
+      <c r="H128" s="11"/>
+      <c r="I128" s="5"/>
+      <c r="J128" s="11"/>
+      <c r="K128" s="11"/>
+      <c r="L128" s="11"/>
+      <c r="M128" s="11"/>
+      <c r="N128" s="11"/>
+      <c r="O128" s="11"/>
+      <c r="P128" s="11"/>
+      <c r="Q128" s="11"/>
+      <c r="R128" s="11"/>
+      <c r="S128" s="11"/>
+      <c r="T128" s="17"/>
+    </row>
+    <row r="129" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A129" s="16"/>
+      <c r="B129" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C129" s="11"/>
+      <c r="D129" s="11"/>
+      <c r="E129" s="11"/>
+      <c r="F129" s="11"/>
+      <c r="G129" s="11"/>
+      <c r="H129" s="11"/>
+      <c r="I129" s="5"/>
+      <c r="J129" s="11"/>
+      <c r="K129" s="11"/>
+      <c r="L129" s="11"/>
+      <c r="M129" s="11"/>
+      <c r="N129" s="11"/>
+      <c r="O129" s="11"/>
+      <c r="P129" s="11"/>
+      <c r="Q129" s="11"/>
+      <c r="R129" s="11"/>
+      <c r="S129" s="11"/>
+      <c r="T129" s="17"/>
+    </row>
+    <row r="130" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A130" s="16"/>
+      <c r="B130" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C130" s="11"/>
+      <c r="D130" s="11"/>
+      <c r="E130" s="11"/>
+      <c r="F130" s="11"/>
+      <c r="G130" s="11"/>
+      <c r="H130" s="11"/>
+      <c r="I130" s="5"/>
+      <c r="J130" s="11"/>
+      <c r="K130" s="11"/>
+      <c r="L130" s="11"/>
+      <c r="M130" s="11"/>
+      <c r="N130" s="11"/>
+      <c r="O130" s="11"/>
+      <c r="P130" s="11"/>
+      <c r="Q130" s="11"/>
+      <c r="R130" s="11"/>
+      <c r="S130" s="11"/>
+      <c r="T130" s="17"/>
+    </row>
+    <row r="131" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A131" s="16"/>
+      <c r="B131" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C131" s="11"/>
+      <c r="D131" s="11"/>
+      <c r="E131" s="11"/>
+      <c r="F131" s="11"/>
+      <c r="G131" s="11"/>
+      <c r="H131" s="11"/>
+      <c r="I131" s="5"/>
+      <c r="J131" s="11"/>
+      <c r="K131" s="11"/>
+      <c r="L131" s="11"/>
+      <c r="M131" s="11"/>
+      <c r="N131" s="11"/>
+      <c r="O131" s="11"/>
+      <c r="P131" s="11"/>
+      <c r="Q131" s="11"/>
+      <c r="R131" s="11"/>
+      <c r="S131" s="11"/>
+      <c r="T131" s="17"/>
+    </row>
+    <row r="132" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A132" s="16"/>
+      <c r="B132" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C132" s="11"/>
+      <c r="D132" s="11"/>
+      <c r="E132" s="11"/>
+      <c r="F132" s="11"/>
+      <c r="G132" s="11"/>
+      <c r="H132" s="11"/>
+      <c r="I132" s="5"/>
+      <c r="J132" s="11"/>
+      <c r="K132" s="11"/>
+      <c r="L132" s="11"/>
+      <c r="M132" s="11"/>
+      <c r="N132" s="11"/>
+      <c r="O132" s="11"/>
+      <c r="P132" s="11"/>
+      <c r="Q132" s="11"/>
+      <c r="R132" s="11"/>
+      <c r="S132" s="11"/>
+      <c r="T132" s="17"/>
+    </row>
+    <row r="133" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A133" s="16"/>
+      <c r="B133" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C133" s="7"/>
+      <c r="D133" s="7"/>
+      <c r="E133" s="7"/>
+      <c r="F133" s="7"/>
+      <c r="G133" s="7"/>
+      <c r="H133" s="7"/>
+      <c r="I133" s="9"/>
+      <c r="J133" s="11"/>
+      <c r="K133" s="11"/>
+      <c r="L133" s="11"/>
+      <c r="M133" s="11"/>
+      <c r="N133" s="11"/>
+      <c r="O133" s="11"/>
+      <c r="P133" s="11"/>
+      <c r="Q133" s="11"/>
+      <c r="R133" s="11"/>
+      <c r="S133" s="11"/>
+      <c r="T133" s="17"/>
+    </row>
+    <row r="134" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A134" s="16"/>
+      <c r="B134" s="11"/>
+      <c r="C134" s="11"/>
+      <c r="D134" s="11"/>
+      <c r="E134" s="11"/>
+      <c r="F134" s="11"/>
+      <c r="G134" s="11"/>
+      <c r="H134" s="11"/>
+      <c r="I134" s="11"/>
+      <c r="J134" s="11"/>
+      <c r="K134" s="11"/>
+      <c r="L134" s="11"/>
+      <c r="M134" s="11"/>
+      <c r="N134" s="11"/>
+      <c r="O134" s="11"/>
+      <c r="P134" s="11"/>
+      <c r="Q134" s="11"/>
+      <c r="R134" s="11"/>
+      <c r="S134" s="11"/>
+      <c r="T134" s="17"/>
+    </row>
+    <row r="135" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A135" s="16"/>
+      <c r="B135" s="11"/>
+      <c r="C135" s="11"/>
+      <c r="D135" s="11"/>
+      <c r="E135" s="11"/>
+      <c r="F135" s="11"/>
+      <c r="G135" s="11"/>
+      <c r="H135" s="11"/>
+      <c r="I135" s="11"/>
+      <c r="J135" s="11"/>
+      <c r="K135" s="11"/>
+      <c r="L135" s="11"/>
+      <c r="M135" s="11"/>
+      <c r="N135" s="11"/>
+      <c r="O135" s="11"/>
+      <c r="P135" s="11"/>
+      <c r="Q135" s="11"/>
+      <c r="R135" s="11"/>
+      <c r="S135" s="11"/>
+      <c r="T135" s="17"/>
+    </row>
+    <row r="136" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A136" s="16"/>
+      <c r="B136" s="11"/>
+      <c r="C136" s="11"/>
+      <c r="D136" s="11"/>
+      <c r="E136" s="11"/>
+      <c r="F136" s="11"/>
+      <c r="G136" s="11"/>
+      <c r="H136" s="11"/>
+      <c r="I136" s="11"/>
+      <c r="J136" s="11"/>
+      <c r="K136" s="11"/>
+      <c r="L136" s="11"/>
+      <c r="M136" s="11"/>
+      <c r="N136" s="11"/>
+      <c r="O136" s="11"/>
+      <c r="P136" s="11"/>
+      <c r="Q136" s="11"/>
+      <c r="R136" s="11"/>
+      <c r="S136" s="11"/>
+      <c r="T136" s="17"/>
+    </row>
+    <row r="137" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A137" s="16"/>
+      <c r="B137" s="11"/>
+      <c r="C137" s="11"/>
+      <c r="D137" s="11"/>
+      <c r="E137" s="11"/>
+      <c r="F137" s="11"/>
+      <c r="G137" s="11"/>
+      <c r="H137" s="11"/>
+      <c r="I137" s="11"/>
+      <c r="J137" s="11"/>
+      <c r="K137" s="11"/>
+      <c r="L137" s="11"/>
+      <c r="M137" s="11"/>
+      <c r="N137" s="11"/>
+      <c r="O137" s="11"/>
+      <c r="P137" s="11"/>
+      <c r="Q137" s="11"/>
+      <c r="R137" s="11"/>
+      <c r="S137" s="11"/>
+      <c r="T137" s="17"/>
+    </row>
+    <row r="138" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A138" s="16"/>
+      <c r="B138" s="11"/>
+      <c r="C138" s="11"/>
+      <c r="D138" s="11"/>
+      <c r="E138" s="11"/>
+      <c r="F138" s="11"/>
+      <c r="G138" s="11"/>
+      <c r="H138" s="11"/>
+      <c r="I138" s="11"/>
+      <c r="J138" s="11"/>
+      <c r="K138" s="11"/>
+      <c r="L138" s="11"/>
+      <c r="M138" s="11"/>
+      <c r="N138" s="11"/>
+      <c r="O138" s="11"/>
+      <c r="P138" s="11"/>
+      <c r="Q138" s="11"/>
+      <c r="R138" s="11"/>
+      <c r="S138" s="11"/>
+      <c r="T138" s="17"/>
+    </row>
+    <row r="139" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="18"/>
+      <c r="B139" s="19"/>
+      <c r="C139" s="19"/>
+      <c r="D139" s="19"/>
+      <c r="E139" s="19"/>
+      <c r="F139" s="19"/>
+      <c r="G139" s="19"/>
+      <c r="H139" s="19"/>
+      <c r="I139" s="19"/>
+      <c r="J139" s="19"/>
+      <c r="K139" s="19"/>
+      <c r="L139" s="19"/>
+      <c r="M139" s="19"/>
+      <c r="N139" s="19"/>
+      <c r="O139" s="19"/>
+      <c r="P139" s="19"/>
+      <c r="Q139" s="19"/>
+      <c r="R139" s="19"/>
+      <c r="S139" s="19"/>
+      <c r="T139" s="20"/>
+    </row>
+    <row r="142" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="143" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A143" s="13"/>
+      <c r="B143" s="14"/>
+      <c r="C143" s="14"/>
+      <c r="D143" s="14"/>
+      <c r="E143" s="14"/>
+      <c r="F143" s="14"/>
+      <c r="G143" s="14"/>
+      <c r="H143" s="14"/>
+      <c r="I143" s="14"/>
+      <c r="J143" s="14"/>
+      <c r="K143" s="14"/>
+      <c r="L143" s="14"/>
+      <c r="M143" s="14"/>
+      <c r="N143" s="14"/>
+      <c r="O143" s="14"/>
+      <c r="P143" s="14"/>
+      <c r="Q143" s="14"/>
+      <c r="R143" s="14"/>
+      <c r="S143" s="14"/>
+      <c r="T143" s="15"/>
+    </row>
+    <row r="144" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A144" s="16"/>
+      <c r="B144" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C144" s="2"/>
+      <c r="D144" s="2"/>
+      <c r="E144" s="2"/>
+      <c r="F144" s="2"/>
+      <c r="G144" s="2"/>
+      <c r="H144" s="2"/>
+      <c r="I144" s="3"/>
+      <c r="J144" s="11"/>
+      <c r="K144" s="11"/>
+      <c r="L144" s="11"/>
+      <c r="M144" s="11"/>
+      <c r="N144" s="11"/>
+      <c r="O144" s="11"/>
+      <c r="P144" s="11"/>
+      <c r="Q144" s="11"/>
+      <c r="R144" s="11"/>
+      <c r="S144" s="11"/>
+      <c r="T144" s="17"/>
+    </row>
+    <row r="145" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A145" s="16"/>
+      <c r="B145" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C145" s="11"/>
+      <c r="D145" s="11"/>
+      <c r="E145" s="11"/>
+      <c r="F145" s="11"/>
+      <c r="G145" s="11"/>
+      <c r="H145" s="11"/>
+      <c r="I145" s="5"/>
+      <c r="J145" s="11"/>
+      <c r="K145" s="11"/>
+      <c r="L145" s="11"/>
+      <c r="M145" s="11"/>
+      <c r="N145" s="11"/>
+      <c r="O145" s="11"/>
+      <c r="P145" s="11"/>
+      <c r="Q145" s="11"/>
+      <c r="R145" s="11"/>
+      <c r="S145" s="11"/>
+      <c r="T145" s="17"/>
+    </row>
+    <row r="146" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A146" s="16"/>
+      <c r="B146" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C146" s="11"/>
+      <c r="D146" s="11"/>
+      <c r="E146" s="11"/>
+      <c r="F146" s="11"/>
+      <c r="G146" s="11"/>
+      <c r="H146" s="11"/>
+      <c r="I146" s="5"/>
+      <c r="J146" s="11"/>
+      <c r="K146" s="11"/>
+      <c r="L146" s="11"/>
+      <c r="M146" s="11"/>
+      <c r="N146" s="11"/>
+      <c r="O146" s="11"/>
+      <c r="P146" s="11"/>
+      <c r="Q146" s="11"/>
+      <c r="R146" s="11"/>
+      <c r="S146" s="11"/>
+      <c r="T146" s="17"/>
+    </row>
+    <row r="147" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A147" s="16"/>
+      <c r="B147" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C147" s="11"/>
+      <c r="D147" s="11"/>
+      <c r="E147" s="11"/>
+      <c r="F147" s="11"/>
+      <c r="G147" s="11"/>
+      <c r="H147" s="11"/>
+      <c r="I147" s="5"/>
+      <c r="J147" s="11"/>
+      <c r="K147" s="11"/>
+      <c r="L147" s="11"/>
+      <c r="M147" s="11"/>
+      <c r="N147" s="11"/>
+      <c r="O147" s="11"/>
+      <c r="P147" s="11"/>
+      <c r="Q147" s="11"/>
+      <c r="R147" s="11"/>
+      <c r="S147" s="11"/>
+      <c r="T147" s="17"/>
+    </row>
+    <row r="148" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A148" s="16"/>
+      <c r="B148" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C148" s="11"/>
+      <c r="D148" s="11"/>
+      <c r="E148" s="11"/>
+      <c r="F148" s="11"/>
+      <c r="G148" s="11"/>
+      <c r="H148" s="11"/>
+      <c r="I148" s="5"/>
+      <c r="J148" s="11"/>
+      <c r="K148" s="11"/>
+      <c r="L148" s="11"/>
+      <c r="M148" s="11"/>
+      <c r="N148" s="11"/>
+      <c r="O148" s="11"/>
+      <c r="P148" s="11"/>
+      <c r="Q148" s="11"/>
+      <c r="R148" s="11"/>
+      <c r="S148" s="11"/>
+      <c r="T148" s="17"/>
+    </row>
+    <row r="149" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A149" s="16"/>
+      <c r="B149" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C149" s="11"/>
+      <c r="D149" s="11"/>
+      <c r="E149" s="11"/>
+      <c r="F149" s="11"/>
+      <c r="G149" s="11"/>
+      <c r="H149" s="11"/>
+      <c r="I149" s="5"/>
+      <c r="J149" s="11"/>
+      <c r="K149" s="11"/>
+      <c r="L149" s="11"/>
+      <c r="M149" s="11"/>
+      <c r="N149" s="11"/>
+      <c r="O149" s="11"/>
+      <c r="P149" s="11"/>
+      <c r="Q149" s="11"/>
+      <c r="R149" s="11"/>
+      <c r="S149" s="11"/>
+      <c r="T149" s="17"/>
+    </row>
+    <row r="150" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A150" s="16"/>
+      <c r="B150" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C150" s="11"/>
+      <c r="D150" s="11"/>
+      <c r="E150" s="11"/>
+      <c r="F150" s="11"/>
+      <c r="G150" s="11"/>
+      <c r="H150" s="11"/>
+      <c r="I150" s="5"/>
+      <c r="J150" s="11"/>
+      <c r="K150" s="11"/>
+      <c r="L150" s="11"/>
+      <c r="M150" s="11"/>
+      <c r="N150" s="11"/>
+      <c r="O150" s="11"/>
+      <c r="P150" s="11"/>
+      <c r="Q150" s="11"/>
+      <c r="R150" s="11"/>
+      <c r="S150" s="11"/>
+      <c r="T150" s="17"/>
+    </row>
+    <row r="151" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A151" s="16"/>
+      <c r="B151" s="4"/>
+      <c r="C151" s="11"/>
+      <c r="D151" s="11"/>
+      <c r="E151" s="11"/>
+      <c r="F151" s="11"/>
+      <c r="G151" s="11"/>
+      <c r="H151" s="11"/>
+      <c r="I151" s="5"/>
+      <c r="J151" s="11"/>
+      <c r="K151" s="11"/>
+      <c r="L151" s="11"/>
+      <c r="M151" s="11"/>
+      <c r="N151" s="11"/>
+      <c r="O151" s="11"/>
+      <c r="P151" s="11"/>
+      <c r="Q151" s="11"/>
+      <c r="R151" s="11"/>
+      <c r="S151" s="11"/>
+      <c r="T151" s="17"/>
+    </row>
+    <row r="152" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A152" s="16"/>
+      <c r="B152" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C152" s="11"/>
+      <c r="D152" s="11"/>
+      <c r="E152" s="11"/>
+      <c r="F152" s="11"/>
+      <c r="G152" s="11"/>
+      <c r="H152" s="11"/>
+      <c r="I152" s="5"/>
+      <c r="J152" s="11"/>
+      <c r="K152" s="11"/>
+      <c r="L152" s="11"/>
+      <c r="M152" s="11"/>
+      <c r="N152" s="11"/>
+      <c r="O152" s="11"/>
+      <c r="P152" s="11"/>
+      <c r="Q152" s="11"/>
+      <c r="R152" s="11"/>
+      <c r="S152" s="11"/>
+      <c r="T152" s="17"/>
+    </row>
+    <row r="153" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A153" s="16"/>
+      <c r="B153" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C153" s="11"/>
+      <c r="D153" s="11"/>
+      <c r="E153" s="11"/>
+      <c r="F153" s="11"/>
+      <c r="G153" s="11"/>
+      <c r="H153" s="11"/>
+      <c r="I153" s="5"/>
+      <c r="J153" s="11"/>
+      <c r="K153" s="11"/>
+      <c r="L153" s="11"/>
+      <c r="M153" s="11"/>
+      <c r="N153" s="11"/>
+      <c r="O153" s="11"/>
+      <c r="P153" s="11"/>
+      <c r="Q153" s="11"/>
+      <c r="R153" s="11"/>
+      <c r="S153" s="11"/>
+      <c r="T153" s="17"/>
+    </row>
+    <row r="154" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A154" s="16"/>
+      <c r="B154" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C154" s="11"/>
+      <c r="D154" s="11"/>
+      <c r="E154" s="11"/>
+      <c r="F154" s="11"/>
+      <c r="G154" s="11"/>
+      <c r="H154" s="11"/>
+      <c r="I154" s="5"/>
+      <c r="J154" s="11"/>
+      <c r="K154" s="11"/>
+      <c r="L154" s="11"/>
+      <c r="M154" s="11"/>
+      <c r="N154" s="11"/>
+      <c r="O154" s="11"/>
+      <c r="P154" s="11"/>
+      <c r="Q154" s="11"/>
+      <c r="R154" s="11"/>
+      <c r="S154" s="11"/>
+      <c r="T154" s="17"/>
+    </row>
+    <row r="155" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A155" s="16"/>
+      <c r="B155" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C155" s="11"/>
+      <c r="D155" s="11"/>
+      <c r="E155" s="11"/>
+      <c r="F155" s="11"/>
+      <c r="G155" s="11"/>
+      <c r="H155" s="11"/>
+      <c r="I155" s="5"/>
+      <c r="J155" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K155" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="L155" s="11"/>
+      <c r="M155" s="11"/>
+      <c r="N155" s="11"/>
+      <c r="O155" s="11"/>
+      <c r="P155" s="11"/>
+      <c r="Q155" s="11"/>
+      <c r="R155" s="11"/>
+      <c r="S155" s="11"/>
+      <c r="T155" s="17"/>
+    </row>
+    <row r="156" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A156" s="16"/>
+      <c r="B156" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C156" s="11"/>
+      <c r="D156" s="11"/>
+      <c r="E156" s="11"/>
+      <c r="F156" s="11"/>
+      <c r="G156" s="11"/>
+      <c r="H156" s="11"/>
+      <c r="I156" s="5"/>
+      <c r="J156" s="11"/>
+      <c r="K156" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="L156" s="11"/>
+      <c r="M156" s="11"/>
+      <c r="N156" s="11"/>
+      <c r="O156" s="11"/>
+      <c r="P156" s="11"/>
+      <c r="Q156" s="11"/>
+      <c r="R156" s="11"/>
+      <c r="S156" s="11"/>
+      <c r="T156" s="17"/>
+    </row>
+    <row r="157" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A157" s="16"/>
+      <c r="B157" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C157" s="11"/>
+      <c r="D157" s="11"/>
+      <c r="E157" s="11"/>
+      <c r="F157" s="11"/>
+      <c r="G157" s="11"/>
+      <c r="H157" s="11"/>
+      <c r="I157" s="5"/>
+      <c r="J157" s="11"/>
+      <c r="K157" s="11"/>
+      <c r="L157" s="11"/>
+      <c r="M157" s="11"/>
+      <c r="N157" s="11"/>
+      <c r="O157" s="11"/>
+      <c r="P157" s="11"/>
+      <c r="Q157" s="11"/>
+      <c r="R157" s="11"/>
+      <c r="S157" s="11"/>
+      <c r="T157" s="17"/>
+    </row>
+    <row r="158" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A158" s="16"/>
+      <c r="B158" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C158" s="11"/>
+      <c r="D158" s="11"/>
+      <c r="E158" s="11"/>
+      <c r="F158" s="11"/>
+      <c r="G158" s="11"/>
+      <c r="H158" s="11"/>
+      <c r="I158" s="5"/>
+      <c r="J158" s="11"/>
+      <c r="K158" s="11"/>
+      <c r="L158" s="11"/>
+      <c r="M158" s="11"/>
+      <c r="N158" s="11"/>
+      <c r="O158" s="11"/>
+      <c r="P158" s="11"/>
+      <c r="Q158" s="11"/>
+      <c r="R158" s="11"/>
+      <c r="S158" s="11"/>
+      <c r="T158" s="17"/>
+    </row>
+    <row r="159" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A159" s="16"/>
+      <c r="B159" s="4"/>
+      <c r="C159" s="11"/>
+      <c r="D159" s="11"/>
+      <c r="E159" s="11"/>
+      <c r="F159" s="11"/>
+      <c r="G159" s="11"/>
+      <c r="H159" s="11"/>
+      <c r="I159" s="5"/>
+      <c r="J159" s="11"/>
+      <c r="K159" s="11"/>
+      <c r="L159" s="11"/>
+      <c r="M159" s="11"/>
+      <c r="N159" s="11"/>
+      <c r="O159" s="11"/>
+      <c r="P159" s="11"/>
+      <c r="Q159" s="11"/>
+      <c r="R159" s="11"/>
+      <c r="S159" s="11"/>
+      <c r="T159" s="17"/>
+    </row>
+    <row r="160" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A160" s="16"/>
+      <c r="B160" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C160" s="11"/>
+      <c r="D160" s="11"/>
+      <c r="E160" s="11"/>
+      <c r="F160" s="11"/>
+      <c r="G160" s="11"/>
+      <c r="H160" s="11"/>
+      <c r="I160" s="5"/>
+      <c r="J160" s="11"/>
+      <c r="K160" s="11"/>
+      <c r="L160" s="11"/>
+      <c r="M160" s="11"/>
+      <c r="N160" s="11"/>
+      <c r="O160" s="11"/>
+      <c r="P160" s="11"/>
+      <c r="Q160" s="11"/>
+      <c r="R160" s="11"/>
+      <c r="S160" s="11"/>
+      <c r="T160" s="17"/>
+    </row>
+    <row r="161" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A161" s="16"/>
+      <c r="B161" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C161" s="11"/>
+      <c r="D161" s="11"/>
+      <c r="E161" s="11"/>
+      <c r="F161" s="11"/>
+      <c r="G161" s="11"/>
+      <c r="H161" s="11"/>
+      <c r="I161" s="5"/>
+      <c r="J161" s="11"/>
+      <c r="K161" s="11"/>
+      <c r="L161" s="11"/>
+      <c r="M161" s="11"/>
+      <c r="N161" s="11"/>
+      <c r="O161" s="11"/>
+      <c r="P161" s="11"/>
+      <c r="Q161" s="11"/>
+      <c r="R161" s="11"/>
+      <c r="S161" s="11"/>
+      <c r="T161" s="17"/>
+    </row>
+    <row r="162" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A162" s="16"/>
+      <c r="B162" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C162" s="11"/>
+      <c r="D162" s="11"/>
+      <c r="E162" s="11"/>
+      <c r="F162" s="11"/>
+      <c r="G162" s="11"/>
+      <c r="H162" s="11"/>
+      <c r="I162" s="5"/>
+      <c r="J162" s="11"/>
+      <c r="K162" s="11"/>
+      <c r="L162" s="11"/>
+      <c r="M162" s="11"/>
+      <c r="N162" s="11"/>
+      <c r="O162" s="11"/>
+      <c r="P162" s="11"/>
+      <c r="Q162" s="11"/>
+      <c r="R162" s="11"/>
+      <c r="S162" s="11"/>
+      <c r="T162" s="17"/>
+    </row>
+    <row r="163" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A163" s="16"/>
+      <c r="B163" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C163" s="11"/>
+      <c r="D163" s="11"/>
+      <c r="E163" s="11"/>
+      <c r="F163" s="11"/>
+      <c r="G163" s="11"/>
+      <c r="H163" s="11"/>
+      <c r="I163" s="5"/>
+      <c r="J163" s="11"/>
+      <c r="K163" s="11"/>
+      <c r="L163" s="11"/>
+      <c r="M163" s="11"/>
+      <c r="N163" s="11"/>
+      <c r="O163" s="11"/>
+      <c r="P163" s="11"/>
+      <c r="Q163" s="11"/>
+      <c r="R163" s="11"/>
+      <c r="S163" s="11"/>
+      <c r="T163" s="17"/>
+    </row>
+    <row r="164" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A164" s="16"/>
+      <c r="B164" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C164" s="11"/>
+      <c r="D164" s="11"/>
+      <c r="E164" s="11"/>
+      <c r="F164" s="11"/>
+      <c r="G164" s="11"/>
+      <c r="H164" s="11"/>
+      <c r="I164" s="5"/>
+      <c r="J164" s="11"/>
+      <c r="K164" s="11"/>
+      <c r="L164" s="11"/>
+      <c r="M164" s="11"/>
+      <c r="N164" s="11"/>
+      <c r="O164" s="11"/>
+      <c r="P164" s="11"/>
+      <c r="Q164" s="11"/>
+      <c r="R164" s="11"/>
+      <c r="S164" s="11"/>
+      <c r="T164" s="17"/>
+    </row>
+    <row r="165" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A165" s="16"/>
+      <c r="B165" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C165" s="11"/>
+      <c r="D165" s="11"/>
+      <c r="E165" s="11"/>
+      <c r="F165" s="11"/>
+      <c r="G165" s="11"/>
+      <c r="H165" s="11"/>
+      <c r="I165" s="5"/>
+      <c r="J165" s="11"/>
+      <c r="K165" s="11"/>
+      <c r="L165" s="11"/>
+      <c r="M165" s="11"/>
+      <c r="N165" s="11"/>
+      <c r="O165" s="11"/>
+      <c r="P165" s="11"/>
+      <c r="Q165" s="11"/>
+      <c r="R165" s="11"/>
+      <c r="S165" s="11"/>
+      <c r="T165" s="17"/>
+    </row>
+    <row r="166" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A166" s="16"/>
+      <c r="B166" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C166" s="11"/>
+      <c r="D166" s="11"/>
+      <c r="E166" s="11"/>
+      <c r="F166" s="11"/>
+      <c r="G166" s="11"/>
+      <c r="H166" s="11"/>
+      <c r="I166" s="5"/>
+      <c r="J166" s="11"/>
+      <c r="K166" s="11"/>
+      <c r="L166" s="11"/>
+      <c r="M166" s="11"/>
+      <c r="N166" s="11"/>
+      <c r="O166" s="11"/>
+      <c r="P166" s="11"/>
+      <c r="Q166" s="11"/>
+      <c r="R166" s="11"/>
+      <c r="S166" s="11"/>
+      <c r="T166" s="17"/>
+    </row>
+    <row r="167" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A167" s="16"/>
+      <c r="B167" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C167" s="11"/>
+      <c r="D167" s="11"/>
+      <c r="E167" s="11"/>
+      <c r="F167" s="11"/>
+      <c r="G167" s="11"/>
+      <c r="H167" s="11"/>
+      <c r="I167" s="5"/>
+      <c r="J167" s="11"/>
+      <c r="K167" s="11"/>
+      <c r="L167" s="11"/>
+      <c r="M167" s="11"/>
+      <c r="N167" s="11"/>
+      <c r="O167" s="11"/>
+      <c r="P167" s="11"/>
+      <c r="Q167" s="11"/>
+      <c r="R167" s="11"/>
+      <c r="S167" s="11"/>
+      <c r="T167" s="17"/>
+    </row>
+    <row r="168" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A168" s="16"/>
+      <c r="B168" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C168" s="11"/>
+      <c r="D168" s="11"/>
+      <c r="E168" s="11"/>
+      <c r="F168" s="11"/>
+      <c r="G168" s="11"/>
+      <c r="H168" s="11"/>
+      <c r="I168" s="5"/>
+      <c r="J168" s="11"/>
+      <c r="K168" s="11"/>
+      <c r="L168" s="11"/>
+      <c r="M168" s="11"/>
+      <c r="N168" s="11"/>
+      <c r="O168" s="11"/>
+      <c r="P168" s="11"/>
+      <c r="Q168" s="11"/>
+      <c r="R168" s="11"/>
+      <c r="S168" s="11"/>
+      <c r="T168" s="17"/>
+    </row>
+    <row r="169" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A169" s="16"/>
+      <c r="B169" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C169" s="7"/>
+      <c r="D169" s="7"/>
+      <c r="E169" s="7"/>
+      <c r="F169" s="7"/>
+      <c r="G169" s="7"/>
+      <c r="H169" s="7"/>
+      <c r="I169" s="9"/>
+      <c r="J169" s="11"/>
+      <c r="K169" s="11"/>
+      <c r="L169" s="11"/>
+      <c r="M169" s="11"/>
+      <c r="N169" s="11"/>
+      <c r="O169" s="11"/>
+      <c r="P169" s="11"/>
+      <c r="Q169" s="11"/>
+      <c r="R169" s="11"/>
+      <c r="S169" s="11"/>
+      <c r="T169" s="17"/>
+    </row>
+    <row r="170" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A170" s="16"/>
+      <c r="B170" s="11"/>
+      <c r="C170" s="11"/>
+      <c r="D170" s="11"/>
+      <c r="E170" s="11"/>
+      <c r="F170" s="11"/>
+      <c r="G170" s="11"/>
+      <c r="H170" s="11"/>
+      <c r="I170" s="11"/>
+      <c r="J170" s="11"/>
+      <c r="K170" s="11"/>
+      <c r="L170" s="11"/>
+      <c r="M170" s="11"/>
+      <c r="N170" s="11"/>
+      <c r="O170" s="11"/>
+      <c r="P170" s="11"/>
+      <c r="Q170" s="11"/>
+      <c r="R170" s="11"/>
+      <c r="S170" s="11"/>
+      <c r="T170" s="17"/>
+    </row>
+    <row r="171" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A171" s="16"/>
+      <c r="B171" s="11"/>
+      <c r="C171" s="11"/>
+      <c r="D171" s="11"/>
+      <c r="E171" s="11"/>
+      <c r="F171" s="11"/>
+      <c r="G171" s="11"/>
+      <c r="H171" s="11"/>
+      <c r="I171" s="11"/>
+      <c r="J171" s="11"/>
+      <c r="K171" s="11"/>
+      <c r="L171" s="11"/>
+      <c r="M171" s="11"/>
+      <c r="N171" s="11"/>
+      <c r="O171" s="11"/>
+      <c r="P171" s="11"/>
+      <c r="Q171" s="11"/>
+      <c r="R171" s="11"/>
+      <c r="S171" s="11"/>
+      <c r="T171" s="17"/>
+    </row>
+    <row r="172" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A172" s="16"/>
+      <c r="B172" s="11"/>
+      <c r="C172" s="11"/>
+      <c r="D172" s="11"/>
+      <c r="E172" s="11"/>
+      <c r="F172" s="11"/>
+      <c r="G172" s="11"/>
+      <c r="H172" s="11"/>
+      <c r="I172" s="11"/>
+      <c r="J172" s="11"/>
+      <c r="K172" s="11"/>
+      <c r="L172" s="11"/>
+      <c r="M172" s="11"/>
+      <c r="N172" s="11"/>
+      <c r="O172" s="11"/>
+      <c r="P172" s="11"/>
+      <c r="Q172" s="11"/>
+      <c r="R172" s="11"/>
+      <c r="S172" s="11"/>
+      <c r="T172" s="17"/>
+    </row>
+    <row r="173" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A173" s="16"/>
+      <c r="B173" s="11"/>
+      <c r="C173" s="11"/>
+      <c r="D173" s="11"/>
+      <c r="E173" s="11"/>
+      <c r="F173" s="11"/>
+      <c r="G173" s="11"/>
+      <c r="H173" s="11"/>
+      <c r="I173" s="11"/>
+      <c r="J173" s="11"/>
+      <c r="K173" s="11"/>
+      <c r="L173" s="11"/>
+      <c r="M173" s="11"/>
+      <c r="N173" s="11"/>
+      <c r="O173" s="11"/>
+      <c r="P173" s="11"/>
+      <c r="Q173" s="11"/>
+      <c r="R173" s="11"/>
+      <c r="S173" s="11"/>
+      <c r="T173" s="17"/>
+    </row>
+    <row r="174" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A174" s="18"/>
+      <c r="B174" s="19"/>
+      <c r="C174" s="19"/>
+      <c r="D174" s="19"/>
+      <c r="E174" s="19"/>
+      <c r="F174" s="19"/>
+      <c r="G174" s="19"/>
+      <c r="H174" s="19"/>
+      <c r="I174" s="19"/>
+      <c r="J174" s="19"/>
+      <c r="K174" s="19"/>
+      <c r="L174" s="19"/>
+      <c r="M174" s="19"/>
+      <c r="N174" s="19"/>
+      <c r="O174" s="19"/>
+      <c r="P174" s="19"/>
+      <c r="Q174" s="19"/>
+      <c r="R174" s="19"/>
+      <c r="S174" s="19"/>
+      <c r="T174" s="20"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/me/2.Flex-Container.xlsx
+++ b/me/2.Flex-Container.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\flexbox\me\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C098B4B-A11E-4F46-AB18-D98D78EE1310}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B491E34-4343-4205-B686-0FE51293ABF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Display flex" sheetId="2" r:id="rId1"/>
     <sheet name="Flex direction" sheetId="3" r:id="rId2"/>
+    <sheet name="Flex wrap" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="82">
   <si>
     <t>構成</t>
   </si>
@@ -231,6 +232,69 @@
   </si>
   <si>
     <t>lần lượt từ dưới lên trên(1,2 3..)</t>
+  </si>
+  <si>
+    <t>3.Flex-wrap</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>flexbox\2.Flex-Container\3.Flex-wrap\index.html</t>
+  </si>
+  <si>
+    <t>        flex-wrap: nowrap;</t>
+  </si>
+  <si>
+    <t>      &lt;div class="box box-m"&gt;M&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>Khi có nhiều flex item bên trong và trong trường hợp tổng số chiều dài của các flex item này dài hơn chiều dài của browser bên ngoài</t>
+  </si>
+  <si>
+    <t>thì flex-wrap sẽ quyết định tất cả các flex item bên trong chỉ nằm trên 1 dòng(scroll bar nằm ngang sẽ xuất hiện), chiều dài của flex contain bên</t>
+  </si>
+  <si>
+    <t>ngoài là cố định bởi chiều rộng của browser, trong trường hợp này các flex item bên trong sẽ tràn ra ngoài flex contain. flex-wrap cũng có thể</t>
+  </si>
+  <si>
+    <t>thiết lập để cho các flex item tự động xuống dòng</t>
+  </si>
+  <si>
+    <t>Nó có các giá trị là nowrap, wrap, wrap-reverse. Giá trị mặc định là nowrap</t>
+  </si>
+  <si>
+    <t>Ko khai báo gì cho flex-wrap thì có nghĩa là giá trị mặc định của nó là nowrap. Nghĩa là các flex</t>
+  </si>
+  <si>
+    <t>item sẽ ko tự động xuống dòng khi chiều rộng trình duyệt ko đủ lớn</t>
+  </si>
+  <si>
+    <t>của browser, trong trường hợp này các flex item bên trong sẽ tràn ra ngoài flex contain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scroll bar nằm ngang sẽ xuất hiện, chiều dài của flex contain bên ngoài là cố định bởi chiều rộng </t>
+  </si>
+  <si>
+    <t>②wrap</t>
+  </si>
+  <si>
+    <t>        flex-wrap: wrap;</t>
+  </si>
+  <si>
+    <t>Các flex item bên ngoài sẽ tự động xuống dòng khi chiều rộng của flex contain ko đủ</t>
+  </si>
+  <si>
+    <t>③wrap-reverse</t>
+  </si>
+  <si>
+    <t>        flex-wrap: wrap-reverse;</t>
+  </si>
+  <si>
+    <t>Cũng tự động xuống dòng nhưng ngược từ dưới lên trên</t>
+  </si>
+  <si>
+    <t>Lúc chưa co trình duyệt thì chiều dài flex contain vẫn đủ</t>
   </si>
 </sst>
 </file>
@@ -439,7 +503,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -461,6 +525,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1703,6 +1768,1141 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEDA06F8-9326-95D3-9496-579AA640106E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1771650" y="733425"/>
+          <a:ext cx="3838575" cy="10048875"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>351991</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26540EDD-EED1-CE36-7FD6-983497DFF5C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5715000" y="6429375"/>
+          <a:ext cx="6219391" cy="2266949"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D41C3B53-803A-92FD-849E-04744049E8B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7362825" y="6057900"/>
+          <a:ext cx="295275" cy="2552700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27F5DDEA-832D-ECE0-7144-65215AC732DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10668000" y="6076950"/>
+          <a:ext cx="38100" cy="1095375"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E2DEF01-E681-883F-1F40-F6ED01E2FF37}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10220325" y="6248400"/>
+          <a:ext cx="1038225" cy="1076325"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Straight Arrow Connector 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42801792-3421-F6B7-6F8B-283AA1E1B7FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5495925" y="8753475"/>
+          <a:ext cx="247650" cy="1552575"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6473A28E-0BA9-B5B1-F781-159208FA963F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1724025" y="5686425"/>
+          <a:ext cx="8505825" cy="6772275"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="Straight Arrow Connector 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CE8D0B6-985F-9051-A377-1ED015C12212}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1752600" y="5867400"/>
+          <a:ext cx="3943350" cy="1209675"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>182832</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Picture 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA711321-DB39-CFC9-639F-3EA7262AD463}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5638800" y="19764375"/>
+          <a:ext cx="6457950" cy="2726007"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="Straight Arrow Connector 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F7314C1-EF38-D372-F01F-EB355728763F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1866900" y="19602450"/>
+          <a:ext cx="4133850" cy="1924050"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>378604</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Picture 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58442B0B-3F0A-613D-C43D-7C51F59BF1BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5695950" y="26841450"/>
+          <a:ext cx="6265054" cy="2619375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="Straight Arrow Connector 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BF49660-0E94-9371-CEC6-CE9FD35C3BAB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6200775" y="21078825"/>
+          <a:ext cx="66675" cy="1695450"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>161924</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>247649</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="Arrow: Right 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE6581D2-3782-3E85-ACBB-0B5C61A79F7B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6257924" y="22755225"/>
+          <a:ext cx="4962525" cy="114300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="Arrow: Right 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5938551-E49C-B394-1EC1-C5C705762F3A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6286500" y="23098125"/>
+          <a:ext cx="933450" cy="104775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="41" name="Straight Arrow Connector 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61189F80-9D42-6A23-7C52-997CD8B57DA1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6467475" y="21897975"/>
+          <a:ext cx="285750" cy="1200150"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="Arrow: Right 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D47D7B5-5362-4036-985F-45F2C21D1A56}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6324600" y="30175200"/>
+          <a:ext cx="4962525" cy="114300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="Arrow: Right 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A91E2A30-CFAA-4BE9-9023-D79D9A2D7763}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6315075" y="29841825"/>
+          <a:ext cx="933450" cy="104775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="45" name="Straight Arrow Connector 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{569FC4F0-2C53-E19F-E5DB-9C47C0B3AA5E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6286500" y="28984575"/>
+          <a:ext cx="209550" cy="1228725"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="47" name="Straight Arrow Connector 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{075317CC-FF7C-F97A-91B4-AA10551DA8A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6619875" y="28174950"/>
+          <a:ext cx="323850" cy="1647825"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>24253</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>447144</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>142592</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C4010BF-BF4F-40FB-7EF9-396D3B355FE3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6120253" y="4067175"/>
+          <a:ext cx="5909291" cy="1037942"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>24253</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5909291" cy="1037942"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E90FA5D-FF8E-493B-BD2E-4A3834F29CE3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6120253" y="4067175"/>
+          <a:ext cx="5909291" cy="1037942"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>24253</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5909291" cy="1037942"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Picture 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FC5ECF7-215A-4A42-85FF-EC9605527770}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6120253" y="4067175"/>
+          <a:ext cx="5909291" cy="1037942"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1971,8 +3171,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B93656DE-789A-442B-A01B-E363EE7FCBDC}">
   <dimension ref="A4:S81"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H7" activeCellId="1" sqref="G7 H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2002,10 +3202,16 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="4"/>
-      <c r="C7" t="s">
+      <c r="C7" s="21" t="s">
         <v>3</v>
       </c>
       <c r="F7" s="5"/>
+      <c r="G7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" s="4"/>
@@ -2411,33 +3617,69 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0145470-2FF9-412A-A015-FB74F9A08082}">
   <dimension ref="A2:T174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A132" workbookViewId="0">
-      <selection activeCell="C137" sqref="C137"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="S32" sqref="S32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="3"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B3" s="4" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="5"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B4" s="6" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="9"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>1</v>
       </c>
@@ -2446,41 +3688,47 @@
       <c r="E7" s="2"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
         <v>2</v>
       </c>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B9" s="4"/>
       <c r="C9" t="s">
         <v>3</v>
       </c>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B10" s="4"/>
-      <c r="C10" t="s">
+      <c r="C10" s="21" t="s">
         <v>41</v>
       </c>
       <c r="F10" s="5"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B11" s="4"/>
       <c r="D11" t="s">
         <v>4</v>
       </c>
       <c r="F11" s="5"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B12" s="4"/>
       <c r="E12" t="s">
         <v>5</v>
       </c>
       <c r="F12" s="5"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B13" s="6"/>
       <c r="C13" s="7"/>
       <c r="D13" s="8" t="s">
@@ -2495,7 +3743,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
         <v>46</v>
       </c>
@@ -6064,4 +7312,3464 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BF885D8-A1BC-4A89-AA30-E8D58E7CFAAA}">
+  <dimension ref="A2:T161"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M86" sqref="M86"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="3"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B3" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="5"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B4" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="5"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B5" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="5"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B6" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="9"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B11" s="4"/>
+      <c r="C11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B12" s="4"/>
+      <c r="C12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B13" s="4"/>
+      <c r="C13" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="5"/>
+      <c r="G13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B14" s="4"/>
+      <c r="D14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B15" s="4"/>
+      <c r="E15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B16" s="6"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="F16" s="9"/>
+      <c r="G16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" s="13"/>
+      <c r="B20" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="14"/>
+      <c r="S20" s="14"/>
+      <c r="T20" s="15"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" s="16"/>
+      <c r="B21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="3"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" s="16"/>
+      <c r="B22" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="11"/>
+      <c r="T22" s="5"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23" s="16"/>
+      <c r="B23" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="11"/>
+      <c r="R23" s="11"/>
+      <c r="S23" s="11"/>
+      <c r="T23" s="5"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24" s="16"/>
+      <c r="B24" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="11"/>
+      <c r="S24" s="11"/>
+      <c r="T24" s="5"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25" s="16"/>
+      <c r="B25" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="11"/>
+      <c r="R25" s="11"/>
+      <c r="S25" s="11"/>
+      <c r="T25" s="5"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26" s="16"/>
+      <c r="B26" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11"/>
+      <c r="R26" s="11"/>
+      <c r="S26" s="11"/>
+      <c r="T26" s="5"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A27" s="16"/>
+      <c r="B27" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="7"/>
+      <c r="R27" s="7"/>
+      <c r="S27" s="7"/>
+      <c r="T27" s="9"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A28" s="16"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="11"/>
+      <c r="S28" s="11"/>
+      <c r="T28" s="17"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29" s="16"/>
+      <c r="B29" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="11"/>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="11"/>
+      <c r="R29" s="11"/>
+      <c r="S29" s="11"/>
+      <c r="T29" s="17"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A30" s="16"/>
+      <c r="B30" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K30" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="11"/>
+      <c r="Q30" s="11"/>
+      <c r="R30" s="11"/>
+      <c r="S30" s="11"/>
+      <c r="T30" s="17"/>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A31" s="16"/>
+      <c r="B31" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="11"/>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="11"/>
+      <c r="R31" s="11"/>
+      <c r="S31" s="11"/>
+      <c r="T31" s="17"/>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A32" s="16"/>
+      <c r="B32" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="11"/>
+      <c r="P32" s="11"/>
+      <c r="Q32" s="11"/>
+      <c r="R32" s="11"/>
+      <c r="S32" s="11"/>
+      <c r="T32" s="17"/>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A33" s="16"/>
+      <c r="B33" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="11"/>
+      <c r="P33" s="11"/>
+      <c r="Q33" s="11"/>
+      <c r="R33" s="11"/>
+      <c r="S33" s="11"/>
+      <c r="T33" s="17"/>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A34" s="16"/>
+      <c r="B34" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="11"/>
+      <c r="N34" s="11"/>
+      <c r="O34" s="11"/>
+      <c r="P34" s="11"/>
+      <c r="Q34" s="11"/>
+      <c r="R34" s="11"/>
+      <c r="S34" s="11"/>
+      <c r="T34" s="17"/>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A35" s="16"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
+      <c r="N35" s="11"/>
+      <c r="O35" s="11"/>
+      <c r="P35" s="11"/>
+      <c r="Q35" s="11"/>
+      <c r="R35" s="11"/>
+      <c r="S35" s="11"/>
+      <c r="T35" s="17"/>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A36" s="16"/>
+      <c r="B36" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="11"/>
+      <c r="N36" s="11"/>
+      <c r="O36" s="11"/>
+      <c r="P36" s="11"/>
+      <c r="Q36" s="11"/>
+      <c r="R36" s="11"/>
+      <c r="S36" s="11"/>
+      <c r="T36" s="17"/>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A37" s="16"/>
+      <c r="B37" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="11"/>
+      <c r="N37" s="11"/>
+      <c r="O37" s="11"/>
+      <c r="P37" s="11"/>
+      <c r="Q37" s="11"/>
+      <c r="R37" s="11"/>
+      <c r="S37" s="11"/>
+      <c r="T37" s="17"/>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A38" s="16"/>
+      <c r="B38" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="11"/>
+      <c r="N38" s="11"/>
+      <c r="O38" s="11"/>
+      <c r="P38" s="11"/>
+      <c r="Q38" s="11"/>
+      <c r="R38" s="11"/>
+      <c r="S38" s="11"/>
+      <c r="T38" s="17"/>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A39" s="16"/>
+      <c r="B39" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="11"/>
+      <c r="N39" s="11"/>
+      <c r="O39" s="11"/>
+      <c r="P39" s="11"/>
+      <c r="Q39" s="11"/>
+      <c r="R39" s="11"/>
+      <c r="S39" s="11"/>
+      <c r="T39" s="17"/>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A40" s="16"/>
+      <c r="B40" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="11"/>
+      <c r="M40" s="11"/>
+      <c r="N40" s="11"/>
+      <c r="O40" s="11"/>
+      <c r="P40" s="11"/>
+      <c r="Q40" s="11"/>
+      <c r="R40" s="11"/>
+      <c r="S40" s="11"/>
+      <c r="T40" s="17"/>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A41" s="16"/>
+      <c r="B41" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="11"/>
+      <c r="M41" s="11"/>
+      <c r="N41" s="11"/>
+      <c r="O41" s="11"/>
+      <c r="P41" s="11"/>
+      <c r="Q41" s="11"/>
+      <c r="R41" s="11"/>
+      <c r="S41" s="11"/>
+      <c r="T41" s="17"/>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A42" s="16"/>
+      <c r="B42" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="11"/>
+      <c r="M42" s="11"/>
+      <c r="N42" s="11"/>
+      <c r="O42" s="11"/>
+      <c r="P42" s="11"/>
+      <c r="Q42" s="11"/>
+      <c r="R42" s="11"/>
+      <c r="S42" s="11"/>
+      <c r="T42" s="17"/>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A43" s="16"/>
+      <c r="B43" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="11"/>
+      <c r="M43" s="11"/>
+      <c r="N43" s="11"/>
+      <c r="O43" s="11"/>
+      <c r="P43" s="11"/>
+      <c r="Q43" s="11"/>
+      <c r="R43" s="11"/>
+      <c r="S43" s="11"/>
+      <c r="T43" s="17"/>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A44" s="16"/>
+      <c r="B44" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="11"/>
+      <c r="L44" s="11"/>
+      <c r="M44" s="11"/>
+      <c r="N44" s="11"/>
+      <c r="O44" s="11"/>
+      <c r="P44" s="11"/>
+      <c r="Q44" s="11"/>
+      <c r="R44" s="11"/>
+      <c r="S44" s="11"/>
+      <c r="T44" s="17"/>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A45" s="16"/>
+      <c r="B45" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="11"/>
+      <c r="L45" s="11"/>
+      <c r="M45" s="11"/>
+      <c r="N45" s="11"/>
+      <c r="O45" s="11"/>
+      <c r="P45" s="11"/>
+      <c r="Q45" s="11"/>
+      <c r="R45" s="11"/>
+      <c r="S45" s="11"/>
+      <c r="T45" s="17"/>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A46" s="16"/>
+      <c r="B46" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="11"/>
+      <c r="L46" s="11"/>
+      <c r="M46" s="11"/>
+      <c r="N46" s="11"/>
+      <c r="O46" s="11"/>
+      <c r="P46" s="11"/>
+      <c r="Q46" s="11"/>
+      <c r="R46" s="11"/>
+      <c r="S46" s="11"/>
+      <c r="T46" s="17"/>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A47" s="16"/>
+      <c r="B47" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="11"/>
+      <c r="L47" s="11"/>
+      <c r="M47" s="11"/>
+      <c r="N47" s="11"/>
+      <c r="O47" s="11"/>
+      <c r="P47" s="11"/>
+      <c r="Q47" s="11"/>
+      <c r="R47" s="11"/>
+      <c r="S47" s="11"/>
+      <c r="T47" s="17"/>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A48" s="16"/>
+      <c r="B48" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="5"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="11"/>
+      <c r="L48" s="11"/>
+      <c r="M48" s="11"/>
+      <c r="N48" s="11"/>
+      <c r="O48" s="11"/>
+      <c r="P48" s="11"/>
+      <c r="Q48" s="11"/>
+      <c r="R48" s="11"/>
+      <c r="S48" s="11"/>
+      <c r="T48" s="17"/>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A49" s="16"/>
+      <c r="B49" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="5"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="11"/>
+      <c r="L49" s="11"/>
+      <c r="M49" s="11"/>
+      <c r="N49" s="11"/>
+      <c r="O49" s="11"/>
+      <c r="P49" s="11"/>
+      <c r="Q49" s="11"/>
+      <c r="R49" s="11"/>
+      <c r="S49" s="11"/>
+      <c r="T49" s="17"/>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A50" s="16"/>
+      <c r="B50" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="5"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="11"/>
+      <c r="L50" s="11"/>
+      <c r="M50" s="11"/>
+      <c r="N50" s="11"/>
+      <c r="O50" s="11"/>
+      <c r="P50" s="11"/>
+      <c r="Q50" s="11"/>
+      <c r="R50" s="11"/>
+      <c r="S50" s="11"/>
+      <c r="T50" s="17"/>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A51" s="16"/>
+      <c r="B51" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="11"/>
+      <c r="L51" s="11"/>
+      <c r="M51" s="11"/>
+      <c r="N51" s="11"/>
+      <c r="O51" s="11"/>
+      <c r="P51" s="11"/>
+      <c r="Q51" s="11"/>
+      <c r="R51" s="11"/>
+      <c r="S51" s="11"/>
+      <c r="T51" s="17"/>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A52" s="16"/>
+      <c r="B52" s="11"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="11"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="11"/>
+      <c r="J52" s="11"/>
+      <c r="K52" s="11"/>
+      <c r="L52" s="11"/>
+      <c r="M52" s="11"/>
+      <c r="N52" s="11"/>
+      <c r="O52" s="11"/>
+      <c r="P52" s="11"/>
+      <c r="Q52" s="11"/>
+      <c r="R52" s="11"/>
+      <c r="S52" s="11"/>
+      <c r="T52" s="17"/>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A53" s="16"/>
+      <c r="B53" s="11"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="11"/>
+      <c r="J53" s="11"/>
+      <c r="K53" s="11"/>
+      <c r="L53" s="11"/>
+      <c r="M53" s="11"/>
+      <c r="N53" s="11"/>
+      <c r="O53" s="11"/>
+      <c r="P53" s="11"/>
+      <c r="Q53" s="11"/>
+      <c r="R53" s="11"/>
+      <c r="S53" s="11"/>
+      <c r="T53" s="17"/>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A54" s="16"/>
+      <c r="B54" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="11"/>
+      <c r="J54" s="11"/>
+      <c r="K54" s="11"/>
+      <c r="L54" s="11"/>
+      <c r="M54" s="11"/>
+      <c r="N54" s="11"/>
+      <c r="O54" s="11"/>
+      <c r="P54" s="11"/>
+      <c r="Q54" s="11"/>
+      <c r="R54" s="11"/>
+      <c r="S54" s="11"/>
+      <c r="T54" s="17"/>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A55" s="16"/>
+      <c r="B55" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="11"/>
+      <c r="K55" s="11"/>
+      <c r="L55" s="11"/>
+      <c r="M55" s="11"/>
+      <c r="N55" s="11"/>
+      <c r="O55" s="11"/>
+      <c r="P55" s="11"/>
+      <c r="Q55" s="11"/>
+      <c r="R55" s="11"/>
+      <c r="S55" s="11"/>
+      <c r="T55" s="17"/>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A56" s="16"/>
+      <c r="B56" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="11"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="5"/>
+      <c r="J56" s="11"/>
+      <c r="K56" s="11"/>
+      <c r="L56" s="11"/>
+      <c r="M56" s="11"/>
+      <c r="N56" s="11"/>
+      <c r="O56" s="11"/>
+      <c r="P56" s="11"/>
+      <c r="Q56" s="11"/>
+      <c r="R56" s="11"/>
+      <c r="S56" s="11"/>
+      <c r="T56" s="17"/>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A57" s="16"/>
+      <c r="B57" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="11"/>
+      <c r="H57" s="11"/>
+      <c r="I57" s="5"/>
+      <c r="J57" s="11"/>
+      <c r="K57" s="11"/>
+      <c r="L57" s="11"/>
+      <c r="M57" s="11"/>
+      <c r="N57" s="11"/>
+      <c r="O57" s="11"/>
+      <c r="P57" s="11"/>
+      <c r="Q57" s="11"/>
+      <c r="R57" s="11"/>
+      <c r="S57" s="11"/>
+      <c r="T57" s="17"/>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A58" s="16"/>
+      <c r="B58" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="11"/>
+      <c r="H58" s="11"/>
+      <c r="I58" s="5"/>
+      <c r="J58" s="11"/>
+      <c r="K58" s="11"/>
+      <c r="L58" s="11"/>
+      <c r="M58" s="11"/>
+      <c r="N58" s="11"/>
+      <c r="O58" s="11"/>
+      <c r="P58" s="11"/>
+      <c r="Q58" s="11"/>
+      <c r="R58" s="11"/>
+      <c r="S58" s="11"/>
+      <c r="T58" s="17"/>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A59" s="16"/>
+      <c r="B59" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C59" s="11"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="11"/>
+      <c r="F59" s="11"/>
+      <c r="G59" s="11"/>
+      <c r="H59" s="11"/>
+      <c r="I59" s="5"/>
+      <c r="J59" s="11"/>
+      <c r="K59" s="11"/>
+      <c r="L59" s="11"/>
+      <c r="M59" s="11"/>
+      <c r="N59" s="11"/>
+      <c r="O59" s="11"/>
+      <c r="P59" s="11"/>
+      <c r="Q59" s="11"/>
+      <c r="R59" s="11"/>
+      <c r="S59" s="11"/>
+      <c r="T59" s="17"/>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A60" s="16"/>
+      <c r="B60" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C60" s="11"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="11"/>
+      <c r="G60" s="11"/>
+      <c r="H60" s="11"/>
+      <c r="I60" s="5"/>
+      <c r="J60" s="11"/>
+      <c r="K60" s="11"/>
+      <c r="L60" s="11"/>
+      <c r="M60" s="11"/>
+      <c r="N60" s="11"/>
+      <c r="O60" s="11"/>
+      <c r="P60" s="11"/>
+      <c r="Q60" s="11"/>
+      <c r="R60" s="11"/>
+      <c r="S60" s="11"/>
+      <c r="T60" s="17"/>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A61" s="16"/>
+      <c r="B61" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C61" s="11"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="11"/>
+      <c r="G61" s="11"/>
+      <c r="H61" s="11"/>
+      <c r="I61" s="5"/>
+      <c r="J61" s="11"/>
+      <c r="K61" s="11"/>
+      <c r="L61" s="11"/>
+      <c r="M61" s="11"/>
+      <c r="N61" s="11"/>
+      <c r="O61" s="11"/>
+      <c r="P61" s="11"/>
+      <c r="Q61" s="11"/>
+      <c r="R61" s="11"/>
+      <c r="S61" s="11"/>
+      <c r="T61" s="17"/>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A62" s="16"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="11"/>
+      <c r="F62" s="11"/>
+      <c r="G62" s="11"/>
+      <c r="H62" s="11"/>
+      <c r="I62" s="5"/>
+      <c r="J62" s="11"/>
+      <c r="K62" s="11"/>
+      <c r="L62" s="11"/>
+      <c r="M62" s="11"/>
+      <c r="N62" s="11"/>
+      <c r="O62" s="11"/>
+      <c r="P62" s="11"/>
+      <c r="Q62" s="11"/>
+      <c r="R62" s="11"/>
+      <c r="S62" s="11"/>
+      <c r="T62" s="17"/>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A63" s="16"/>
+      <c r="B63" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="11"/>
+      <c r="F63" s="11"/>
+      <c r="G63" s="11"/>
+      <c r="H63" s="11"/>
+      <c r="I63" s="5"/>
+      <c r="J63" s="11"/>
+      <c r="K63" s="11"/>
+      <c r="L63" s="11"/>
+      <c r="M63" s="11"/>
+      <c r="N63" s="11"/>
+      <c r="O63" s="11"/>
+      <c r="P63" s="11"/>
+      <c r="Q63" s="11"/>
+      <c r="R63" s="11"/>
+      <c r="S63" s="11"/>
+      <c r="T63" s="17"/>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A64" s="16"/>
+      <c r="B64" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C64" s="11"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="11"/>
+      <c r="F64" s="11"/>
+      <c r="G64" s="11"/>
+      <c r="H64" s="11"/>
+      <c r="I64" s="5"/>
+      <c r="J64" s="11"/>
+      <c r="K64" s="11"/>
+      <c r="L64" s="11"/>
+      <c r="M64" s="11"/>
+      <c r="N64" s="11"/>
+      <c r="O64" s="11"/>
+      <c r="P64" s="11"/>
+      <c r="Q64" s="11"/>
+      <c r="R64" s="11"/>
+      <c r="S64" s="11"/>
+      <c r="T64" s="17"/>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A65" s="16"/>
+      <c r="B65" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C65" s="11"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="11"/>
+      <c r="F65" s="11"/>
+      <c r="G65" s="11"/>
+      <c r="H65" s="11"/>
+      <c r="I65" s="5"/>
+      <c r="J65" s="11"/>
+      <c r="K65" s="11"/>
+      <c r="L65" s="11"/>
+      <c r="M65" s="11"/>
+      <c r="N65" s="11"/>
+      <c r="O65" s="11"/>
+      <c r="P65" s="11"/>
+      <c r="Q65" s="11"/>
+      <c r="R65" s="11"/>
+      <c r="S65" s="11"/>
+      <c r="T65" s="17"/>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A66" s="16"/>
+      <c r="B66" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C66" s="11"/>
+      <c r="D66" s="11"/>
+      <c r="E66" s="11"/>
+      <c r="F66" s="11"/>
+      <c r="G66" s="11"/>
+      <c r="H66" s="11"/>
+      <c r="I66" s="5"/>
+      <c r="J66" s="11"/>
+      <c r="K66" s="11"/>
+      <c r="L66" s="11"/>
+      <c r="M66" s="11"/>
+      <c r="N66" s="11"/>
+      <c r="O66" s="11"/>
+      <c r="P66" s="11"/>
+      <c r="Q66" s="11"/>
+      <c r="R66" s="11"/>
+      <c r="S66" s="11"/>
+      <c r="T66" s="17"/>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A67" s="16"/>
+      <c r="B67" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C67" s="11"/>
+      <c r="D67" s="11"/>
+      <c r="E67" s="11"/>
+      <c r="F67" s="11"/>
+      <c r="G67" s="11"/>
+      <c r="H67" s="11"/>
+      <c r="I67" s="5"/>
+      <c r="J67" s="11"/>
+      <c r="K67" s="11"/>
+      <c r="L67" s="11"/>
+      <c r="M67" s="11"/>
+      <c r="N67" s="11"/>
+      <c r="O67" s="11"/>
+      <c r="P67" s="11"/>
+      <c r="Q67" s="11"/>
+      <c r="R67" s="11"/>
+      <c r="S67" s="11"/>
+      <c r="T67" s="17"/>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A68" s="16"/>
+      <c r="B68" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C68" s="11"/>
+      <c r="D68" s="11"/>
+      <c r="E68" s="11"/>
+      <c r="F68" s="11"/>
+      <c r="G68" s="11"/>
+      <c r="H68" s="11"/>
+      <c r="I68" s="5"/>
+      <c r="J68" s="11"/>
+      <c r="K68" s="11"/>
+      <c r="L68" s="11"/>
+      <c r="M68" s="11"/>
+      <c r="N68" s="11"/>
+      <c r="O68" s="11"/>
+      <c r="P68" s="11"/>
+      <c r="Q68" s="11"/>
+      <c r="R68" s="11"/>
+      <c r="S68" s="11"/>
+      <c r="T68" s="17"/>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A69" s="16"/>
+      <c r="B69" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C69" s="11"/>
+      <c r="D69" s="11"/>
+      <c r="E69" s="11"/>
+      <c r="F69" s="11"/>
+      <c r="G69" s="11"/>
+      <c r="H69" s="11"/>
+      <c r="I69" s="5"/>
+      <c r="J69" s="11"/>
+      <c r="K69" s="11"/>
+      <c r="L69" s="11"/>
+      <c r="M69" s="11"/>
+      <c r="N69" s="11"/>
+      <c r="O69" s="11"/>
+      <c r="P69" s="11"/>
+      <c r="Q69" s="11"/>
+      <c r="R69" s="11"/>
+      <c r="S69" s="11"/>
+      <c r="T69" s="17"/>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A70" s="16"/>
+      <c r="B70" s="4"/>
+      <c r="C70" s="11"/>
+      <c r="D70" s="11"/>
+      <c r="E70" s="11"/>
+      <c r="F70" s="11"/>
+      <c r="G70" s="11"/>
+      <c r="H70" s="11"/>
+      <c r="I70" s="5"/>
+      <c r="J70" s="11"/>
+      <c r="K70" s="11"/>
+      <c r="L70" s="11"/>
+      <c r="M70" s="11"/>
+      <c r="N70" s="11"/>
+      <c r="O70" s="11"/>
+      <c r="P70" s="11"/>
+      <c r="Q70" s="11"/>
+      <c r="R70" s="11"/>
+      <c r="S70" s="11"/>
+      <c r="T70" s="17"/>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A71" s="16"/>
+      <c r="B71" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C71" s="11"/>
+      <c r="D71" s="11"/>
+      <c r="E71" s="11"/>
+      <c r="F71" s="11"/>
+      <c r="G71" s="11"/>
+      <c r="H71" s="11"/>
+      <c r="I71" s="5"/>
+      <c r="J71" s="11"/>
+      <c r="K71" s="11"/>
+      <c r="L71" s="11"/>
+      <c r="M71" s="11"/>
+      <c r="N71" s="11"/>
+      <c r="O71" s="11"/>
+      <c r="P71" s="11"/>
+      <c r="Q71" s="11"/>
+      <c r="R71" s="11"/>
+      <c r="S71" s="11"/>
+      <c r="T71" s="17"/>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A72" s="16"/>
+      <c r="B72" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C72" s="11"/>
+      <c r="D72" s="11"/>
+      <c r="E72" s="11"/>
+      <c r="F72" s="11"/>
+      <c r="G72" s="11"/>
+      <c r="H72" s="11"/>
+      <c r="I72" s="5"/>
+      <c r="J72" s="11"/>
+      <c r="K72" s="11"/>
+      <c r="L72" s="11"/>
+      <c r="M72" s="11"/>
+      <c r="N72" s="11"/>
+      <c r="O72" s="11"/>
+      <c r="P72" s="11"/>
+      <c r="Q72" s="11"/>
+      <c r="R72" s="11"/>
+      <c r="S72" s="11"/>
+      <c r="T72" s="17"/>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A73" s="16"/>
+      <c r="B73" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C73" s="11"/>
+      <c r="D73" s="11"/>
+      <c r="E73" s="11"/>
+      <c r="F73" s="11"/>
+      <c r="G73" s="11"/>
+      <c r="H73" s="11"/>
+      <c r="I73" s="5"/>
+      <c r="J73" s="11"/>
+      <c r="K73" s="11"/>
+      <c r="L73" s="11"/>
+      <c r="M73" s="11"/>
+      <c r="N73" s="11"/>
+      <c r="O73" s="11"/>
+      <c r="P73" s="11"/>
+      <c r="Q73" s="11"/>
+      <c r="R73" s="11"/>
+      <c r="S73" s="11"/>
+      <c r="T73" s="17"/>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A74" s="16"/>
+      <c r="B74" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C74" s="11"/>
+      <c r="D74" s="11"/>
+      <c r="E74" s="11"/>
+      <c r="F74" s="11"/>
+      <c r="G74" s="11"/>
+      <c r="H74" s="11"/>
+      <c r="I74" s="5"/>
+      <c r="J74" s="11"/>
+      <c r="K74" s="11"/>
+      <c r="L74" s="11"/>
+      <c r="M74" s="11"/>
+      <c r="N74" s="11"/>
+      <c r="O74" s="11"/>
+      <c r="P74" s="11"/>
+      <c r="Q74" s="11"/>
+      <c r="R74" s="11"/>
+      <c r="S74" s="11"/>
+      <c r="T74" s="17"/>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A75" s="16"/>
+      <c r="B75" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C75" s="11"/>
+      <c r="D75" s="11"/>
+      <c r="E75" s="11"/>
+      <c r="F75" s="11"/>
+      <c r="G75" s="11"/>
+      <c r="H75" s="11"/>
+      <c r="I75" s="5"/>
+      <c r="J75" s="11"/>
+      <c r="K75" s="11"/>
+      <c r="L75" s="11"/>
+      <c r="M75" s="11"/>
+      <c r="N75" s="11"/>
+      <c r="O75" s="11"/>
+      <c r="P75" s="11"/>
+      <c r="Q75" s="11"/>
+      <c r="R75" s="11"/>
+      <c r="S75" s="11"/>
+      <c r="T75" s="17"/>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A76" s="16"/>
+      <c r="B76" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C76" s="11"/>
+      <c r="D76" s="11"/>
+      <c r="E76" s="11"/>
+      <c r="F76" s="11"/>
+      <c r="G76" s="11"/>
+      <c r="H76" s="11"/>
+      <c r="I76" s="5"/>
+      <c r="J76" s="11"/>
+      <c r="K76" s="11"/>
+      <c r="L76" s="11"/>
+      <c r="M76" s="11"/>
+      <c r="N76" s="11"/>
+      <c r="O76" s="11"/>
+      <c r="P76" s="11"/>
+      <c r="Q76" s="11"/>
+      <c r="R76" s="11"/>
+      <c r="S76" s="11"/>
+      <c r="T76" s="17"/>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A77" s="16"/>
+      <c r="B77" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C77" s="11"/>
+      <c r="D77" s="11"/>
+      <c r="E77" s="11"/>
+      <c r="F77" s="11"/>
+      <c r="G77" s="11"/>
+      <c r="H77" s="11"/>
+      <c r="I77" s="5"/>
+      <c r="J77" s="11"/>
+      <c r="K77" s="11"/>
+      <c r="L77" s="11"/>
+      <c r="M77" s="11"/>
+      <c r="N77" s="11"/>
+      <c r="O77" s="11"/>
+      <c r="P77" s="11"/>
+      <c r="Q77" s="11"/>
+      <c r="R77" s="11"/>
+      <c r="S77" s="11"/>
+      <c r="T77" s="17"/>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A78" s="16"/>
+      <c r="B78" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C78" s="11"/>
+      <c r="D78" s="11"/>
+      <c r="E78" s="11"/>
+      <c r="F78" s="11"/>
+      <c r="G78" s="11"/>
+      <c r="H78" s="11"/>
+      <c r="I78" s="5"/>
+      <c r="J78" s="11"/>
+      <c r="K78" s="11"/>
+      <c r="L78" s="11"/>
+      <c r="M78" s="11"/>
+      <c r="N78" s="11"/>
+      <c r="O78" s="11"/>
+      <c r="P78" s="11"/>
+      <c r="Q78" s="11"/>
+      <c r="R78" s="11"/>
+      <c r="S78" s="11"/>
+      <c r="T78" s="17"/>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A79" s="16"/>
+      <c r="B79" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C79" s="11"/>
+      <c r="D79" s="11"/>
+      <c r="E79" s="11"/>
+      <c r="F79" s="11"/>
+      <c r="G79" s="11"/>
+      <c r="H79" s="11"/>
+      <c r="I79" s="5"/>
+      <c r="J79" s="11"/>
+      <c r="K79" s="11"/>
+      <c r="L79" s="11"/>
+      <c r="M79" s="11"/>
+      <c r="N79" s="11"/>
+      <c r="O79" s="11"/>
+      <c r="P79" s="11"/>
+      <c r="Q79" s="11"/>
+      <c r="R79" s="11"/>
+      <c r="S79" s="11"/>
+      <c r="T79" s="17"/>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A80" s="16"/>
+      <c r="B80" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C80" s="11"/>
+      <c r="D80" s="11"/>
+      <c r="E80" s="11"/>
+      <c r="F80" s="11"/>
+      <c r="G80" s="11"/>
+      <c r="H80" s="11"/>
+      <c r="I80" s="5"/>
+      <c r="J80" s="11"/>
+      <c r="K80" s="11"/>
+      <c r="L80" s="11"/>
+      <c r="M80" s="11"/>
+      <c r="N80" s="11"/>
+      <c r="O80" s="11"/>
+      <c r="P80" s="11"/>
+      <c r="Q80" s="11"/>
+      <c r="R80" s="11"/>
+      <c r="S80" s="11"/>
+      <c r="T80" s="17"/>
+    </row>
+    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A81" s="16"/>
+      <c r="B81" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C81" s="11"/>
+      <c r="D81" s="11"/>
+      <c r="E81" s="11"/>
+      <c r="F81" s="11"/>
+      <c r="G81" s="11"/>
+      <c r="H81" s="11"/>
+      <c r="I81" s="5"/>
+      <c r="J81" s="11"/>
+      <c r="K81" s="11"/>
+      <c r="L81" s="11"/>
+      <c r="M81" s="11"/>
+      <c r="N81" s="11"/>
+      <c r="O81" s="11"/>
+      <c r="P81" s="11"/>
+      <c r="Q81" s="11"/>
+      <c r="R81" s="11"/>
+      <c r="S81" s="11"/>
+      <c r="T81" s="17"/>
+    </row>
+    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A82" s="16"/>
+      <c r="B82" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C82" s="11"/>
+      <c r="D82" s="11"/>
+      <c r="E82" s="11"/>
+      <c r="F82" s="11"/>
+      <c r="G82" s="11"/>
+      <c r="H82" s="11"/>
+      <c r="I82" s="5"/>
+      <c r="J82" s="11"/>
+      <c r="K82" s="11"/>
+      <c r="L82" s="11"/>
+      <c r="M82" s="11"/>
+      <c r="N82" s="11"/>
+      <c r="O82" s="11"/>
+      <c r="P82" s="11"/>
+      <c r="Q82" s="11"/>
+      <c r="R82" s="11"/>
+      <c r="S82" s="11"/>
+      <c r="T82" s="17"/>
+    </row>
+    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A83" s="16"/>
+      <c r="B83" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C83" s="11"/>
+      <c r="D83" s="11"/>
+      <c r="E83" s="11"/>
+      <c r="F83" s="11"/>
+      <c r="G83" s="11"/>
+      <c r="H83" s="11"/>
+      <c r="I83" s="5"/>
+      <c r="J83" s="11"/>
+      <c r="K83" s="11"/>
+      <c r="L83" s="11"/>
+      <c r="M83" s="11"/>
+      <c r="N83" s="11"/>
+      <c r="O83" s="11"/>
+      <c r="P83" s="11"/>
+      <c r="Q83" s="11"/>
+      <c r="R83" s="11"/>
+      <c r="S83" s="11"/>
+      <c r="T83" s="17"/>
+    </row>
+    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A84" s="16"/>
+      <c r="B84" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C84" s="11"/>
+      <c r="D84" s="11"/>
+      <c r="E84" s="11"/>
+      <c r="F84" s="11"/>
+      <c r="G84" s="11"/>
+      <c r="H84" s="11"/>
+      <c r="I84" s="5"/>
+      <c r="J84" s="11"/>
+      <c r="K84" s="11"/>
+      <c r="L84" s="11"/>
+      <c r="M84" s="11"/>
+      <c r="N84" s="11"/>
+      <c r="O84" s="11"/>
+      <c r="P84" s="11"/>
+      <c r="Q84" s="11"/>
+      <c r="R84" s="11"/>
+      <c r="S84" s="11"/>
+      <c r="T84" s="17"/>
+    </row>
+    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A85" s="16"/>
+      <c r="B85" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C85" s="11"/>
+      <c r="D85" s="11"/>
+      <c r="E85" s="11"/>
+      <c r="F85" s="11"/>
+      <c r="G85" s="11"/>
+      <c r="H85" s="11"/>
+      <c r="I85" s="5"/>
+      <c r="J85" s="11"/>
+      <c r="K85" s="11"/>
+      <c r="L85" s="11"/>
+      <c r="M85" s="11"/>
+      <c r="N85" s="11"/>
+      <c r="O85" s="11"/>
+      <c r="P85" s="11"/>
+      <c r="Q85" s="11"/>
+      <c r="R85" s="11"/>
+      <c r="S85" s="11"/>
+      <c r="T85" s="17"/>
+    </row>
+    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A86" s="16"/>
+      <c r="B86" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C86" s="7"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="7"/>
+      <c r="F86" s="7"/>
+      <c r="G86" s="7"/>
+      <c r="H86" s="7"/>
+      <c r="I86" s="9"/>
+      <c r="J86" s="11"/>
+      <c r="K86" s="11"/>
+      <c r="L86" s="11"/>
+      <c r="M86" s="11"/>
+      <c r="N86" s="11"/>
+      <c r="O86" s="11"/>
+      <c r="P86" s="11"/>
+      <c r="Q86" s="11"/>
+      <c r="R86" s="11"/>
+      <c r="S86" s="11"/>
+      <c r="T86" s="17"/>
+    </row>
+    <row r="87" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="18"/>
+      <c r="B87" s="19"/>
+      <c r="C87" s="19"/>
+      <c r="D87" s="19"/>
+      <c r="E87" s="19"/>
+      <c r="F87" s="19"/>
+      <c r="G87" s="19"/>
+      <c r="H87" s="19"/>
+      <c r="I87" s="19"/>
+      <c r="J87" s="19"/>
+      <c r="K87" s="19"/>
+      <c r="L87" s="19"/>
+      <c r="M87" s="19"/>
+      <c r="N87" s="19"/>
+      <c r="O87" s="19"/>
+      <c r="P87" s="19"/>
+      <c r="Q87" s="19"/>
+      <c r="R87" s="19"/>
+      <c r="S87" s="19"/>
+      <c r="T87" s="20"/>
+    </row>
+    <row r="90" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A91" s="13"/>
+      <c r="B91" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C91" s="14"/>
+      <c r="D91" s="14"/>
+      <c r="E91" s="14"/>
+      <c r="F91" s="14"/>
+      <c r="G91" s="14"/>
+      <c r="H91" s="14"/>
+      <c r="I91" s="14"/>
+      <c r="J91" s="14"/>
+      <c r="K91" s="14"/>
+      <c r="L91" s="14"/>
+      <c r="M91" s="14"/>
+      <c r="N91" s="14"/>
+      <c r="O91" s="14"/>
+      <c r="P91" s="14"/>
+      <c r="Q91" s="14"/>
+      <c r="R91" s="14"/>
+      <c r="S91" s="14"/>
+      <c r="T91" s="15"/>
+    </row>
+    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A92" s="16"/>
+      <c r="B92" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C92" s="2"/>
+      <c r="D92" s="2"/>
+      <c r="E92" s="2"/>
+      <c r="F92" s="2"/>
+      <c r="G92" s="2"/>
+      <c r="H92" s="2"/>
+      <c r="I92" s="3"/>
+      <c r="J92" s="11"/>
+      <c r="K92" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L92" s="2"/>
+      <c r="M92" s="2"/>
+      <c r="N92" s="2"/>
+      <c r="O92" s="2"/>
+      <c r="P92" s="2"/>
+      <c r="Q92" s="2"/>
+      <c r="R92" s="2"/>
+      <c r="S92" s="2"/>
+      <c r="T92" s="3"/>
+    </row>
+    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A93" s="16"/>
+      <c r="B93" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C93" s="11"/>
+      <c r="D93" s="11"/>
+      <c r="E93" s="11"/>
+      <c r="F93" s="11"/>
+      <c r="G93" s="11"/>
+      <c r="H93" s="11"/>
+      <c r="I93" s="5"/>
+      <c r="J93" s="11"/>
+      <c r="K93" s="4"/>
+      <c r="L93" s="11"/>
+      <c r="M93" s="11"/>
+      <c r="N93" s="11"/>
+      <c r="O93" s="11"/>
+      <c r="P93" s="11"/>
+      <c r="Q93" s="11"/>
+      <c r="R93" s="11"/>
+      <c r="S93" s="11"/>
+      <c r="T93" s="5"/>
+    </row>
+    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A94" s="16"/>
+      <c r="B94" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C94" s="11"/>
+      <c r="D94" s="11"/>
+      <c r="E94" s="11"/>
+      <c r="F94" s="11"/>
+      <c r="G94" s="11"/>
+      <c r="H94" s="11"/>
+      <c r="I94" s="5"/>
+      <c r="J94" s="11"/>
+      <c r="K94" s="4"/>
+      <c r="L94" s="11"/>
+      <c r="M94" s="11"/>
+      <c r="N94" s="11"/>
+      <c r="O94" s="11"/>
+      <c r="P94" s="11"/>
+      <c r="Q94" s="11"/>
+      <c r="R94" s="11"/>
+      <c r="S94" s="11"/>
+      <c r="T94" s="5"/>
+    </row>
+    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A95" s="16"/>
+      <c r="B95" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C95" s="11"/>
+      <c r="D95" s="11"/>
+      <c r="E95" s="11"/>
+      <c r="F95" s="11"/>
+      <c r="G95" s="11"/>
+      <c r="H95" s="11"/>
+      <c r="I95" s="5"/>
+      <c r="J95" s="11"/>
+      <c r="K95" s="4"/>
+      <c r="L95" s="11"/>
+      <c r="M95" s="11"/>
+      <c r="N95" s="11"/>
+      <c r="O95" s="11"/>
+      <c r="P95" s="11"/>
+      <c r="Q95" s="11"/>
+      <c r="R95" s="11"/>
+      <c r="S95" s="11"/>
+      <c r="T95" s="5"/>
+    </row>
+    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A96" s="16"/>
+      <c r="B96" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C96" s="11"/>
+      <c r="D96" s="11"/>
+      <c r="E96" s="11"/>
+      <c r="F96" s="11"/>
+      <c r="G96" s="11"/>
+      <c r="H96" s="11"/>
+      <c r="I96" s="5"/>
+      <c r="J96" s="11"/>
+      <c r="K96" s="4"/>
+      <c r="L96" s="11"/>
+      <c r="M96" s="11"/>
+      <c r="N96" s="11"/>
+      <c r="O96" s="11"/>
+      <c r="P96" s="11"/>
+      <c r="Q96" s="11"/>
+      <c r="R96" s="11"/>
+      <c r="S96" s="11"/>
+      <c r="T96" s="5"/>
+    </row>
+    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A97" s="16"/>
+      <c r="B97" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C97" s="11"/>
+      <c r="D97" s="11"/>
+      <c r="E97" s="11"/>
+      <c r="F97" s="11"/>
+      <c r="G97" s="11"/>
+      <c r="H97" s="11"/>
+      <c r="I97" s="5"/>
+      <c r="J97" s="11"/>
+      <c r="K97" s="4"/>
+      <c r="L97" s="11"/>
+      <c r="M97" s="11"/>
+      <c r="N97" s="11"/>
+      <c r="O97" s="11"/>
+      <c r="P97" s="11"/>
+      <c r="Q97" s="11"/>
+      <c r="R97" s="11"/>
+      <c r="S97" s="11"/>
+      <c r="T97" s="5"/>
+    </row>
+    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A98" s="16"/>
+      <c r="B98" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C98" s="11"/>
+      <c r="D98" s="11"/>
+      <c r="E98" s="11"/>
+      <c r="F98" s="11"/>
+      <c r="G98" s="11"/>
+      <c r="H98" s="11"/>
+      <c r="I98" s="5"/>
+      <c r="J98" s="11"/>
+      <c r="K98" s="6"/>
+      <c r="L98" s="7"/>
+      <c r="M98" s="7"/>
+      <c r="N98" s="7"/>
+      <c r="O98" s="7"/>
+      <c r="P98" s="7"/>
+      <c r="Q98" s="7"/>
+      <c r="R98" s="7"/>
+      <c r="S98" s="7"/>
+      <c r="T98" s="9"/>
+    </row>
+    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A99" s="16"/>
+      <c r="B99" s="4"/>
+      <c r="C99" s="11"/>
+      <c r="D99" s="11"/>
+      <c r="E99" s="11"/>
+      <c r="F99" s="11"/>
+      <c r="G99" s="11"/>
+      <c r="H99" s="11"/>
+      <c r="I99" s="5"/>
+      <c r="J99" s="11"/>
+      <c r="K99" s="11"/>
+      <c r="L99" s="11"/>
+      <c r="M99" s="11"/>
+      <c r="N99" s="11"/>
+      <c r="O99" s="11"/>
+      <c r="P99" s="11"/>
+      <c r="Q99" s="11"/>
+      <c r="R99" s="11"/>
+      <c r="S99" s="11"/>
+      <c r="T99" s="17"/>
+    </row>
+    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A100" s="16"/>
+      <c r="B100" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C100" s="11"/>
+      <c r="D100" s="11"/>
+      <c r="E100" s="11"/>
+      <c r="F100" s="11"/>
+      <c r="G100" s="11"/>
+      <c r="H100" s="11"/>
+      <c r="I100" s="5"/>
+      <c r="J100" s="11"/>
+      <c r="K100" s="11"/>
+      <c r="L100" s="11"/>
+      <c r="M100" s="11"/>
+      <c r="N100" s="11"/>
+      <c r="O100" s="11"/>
+      <c r="P100" s="11"/>
+      <c r="Q100" s="11"/>
+      <c r="R100" s="11"/>
+      <c r="S100" s="11"/>
+      <c r="T100" s="17"/>
+    </row>
+    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A101" s="16"/>
+      <c r="B101" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C101" s="11"/>
+      <c r="D101" s="11"/>
+      <c r="E101" s="11"/>
+      <c r="F101" s="11"/>
+      <c r="G101" s="11"/>
+      <c r="H101" s="11"/>
+      <c r="I101" s="5"/>
+      <c r="J101" s="11"/>
+      <c r="K101" s="11"/>
+      <c r="L101" s="11"/>
+      <c r="M101" s="11"/>
+      <c r="N101" s="11"/>
+      <c r="O101" s="11"/>
+      <c r="P101" s="11"/>
+      <c r="Q101" s="11"/>
+      <c r="R101" s="11"/>
+      <c r="S101" s="11"/>
+      <c r="T101" s="17"/>
+    </row>
+    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A102" s="16"/>
+      <c r="B102" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C102" s="11"/>
+      <c r="D102" s="11"/>
+      <c r="E102" s="11"/>
+      <c r="F102" s="11"/>
+      <c r="G102" s="11"/>
+      <c r="H102" s="11"/>
+      <c r="I102" s="5"/>
+      <c r="J102" s="11"/>
+      <c r="K102" s="11"/>
+      <c r="L102" s="11"/>
+      <c r="M102" s="11"/>
+      <c r="N102" s="11"/>
+      <c r="O102" s="11"/>
+      <c r="P102" s="11"/>
+      <c r="Q102" s="11"/>
+      <c r="R102" s="11"/>
+      <c r="S102" s="11"/>
+      <c r="T102" s="17"/>
+    </row>
+    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A103" s="16"/>
+      <c r="B103" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C103" s="11"/>
+      <c r="D103" s="11"/>
+      <c r="E103" s="11"/>
+      <c r="F103" s="11"/>
+      <c r="G103" s="11"/>
+      <c r="H103" s="11"/>
+      <c r="I103" s="5"/>
+      <c r="J103" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K103" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="L103" s="11"/>
+      <c r="M103" s="11"/>
+      <c r="N103" s="11"/>
+      <c r="O103" s="11"/>
+      <c r="P103" s="11"/>
+      <c r="Q103" s="11"/>
+      <c r="R103" s="11"/>
+      <c r="S103" s="11"/>
+      <c r="T103" s="17"/>
+    </row>
+    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A104" s="16"/>
+      <c r="B104" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C104" s="11"/>
+      <c r="D104" s="11"/>
+      <c r="E104" s="11"/>
+      <c r="F104" s="11"/>
+      <c r="G104" s="11"/>
+      <c r="H104" s="11"/>
+      <c r="I104" s="5"/>
+      <c r="J104" s="11"/>
+      <c r="K104" s="11"/>
+      <c r="L104" s="11"/>
+      <c r="M104" s="11"/>
+      <c r="N104" s="11"/>
+      <c r="O104" s="11"/>
+      <c r="P104" s="11"/>
+      <c r="Q104" s="11"/>
+      <c r="R104" s="11"/>
+      <c r="S104" s="11"/>
+      <c r="T104" s="17"/>
+    </row>
+    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A105" s="16"/>
+      <c r="B105" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C105" s="11"/>
+      <c r="D105" s="11"/>
+      <c r="E105" s="11"/>
+      <c r="F105" s="11"/>
+      <c r="G105" s="11"/>
+      <c r="H105" s="11"/>
+      <c r="I105" s="5"/>
+      <c r="J105" s="11"/>
+      <c r="K105" s="11"/>
+      <c r="L105" s="11"/>
+      <c r="M105" s="11"/>
+      <c r="N105" s="11"/>
+      <c r="O105" s="11"/>
+      <c r="P105" s="11"/>
+      <c r="Q105" s="11"/>
+      <c r="R105" s="11"/>
+      <c r="S105" s="11"/>
+      <c r="T105" s="17"/>
+    </row>
+    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A106" s="16"/>
+      <c r="B106" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C106" s="11"/>
+      <c r="D106" s="11"/>
+      <c r="E106" s="11"/>
+      <c r="F106" s="11"/>
+      <c r="G106" s="11"/>
+      <c r="H106" s="11"/>
+      <c r="I106" s="5"/>
+      <c r="J106" s="11"/>
+      <c r="K106" s="11"/>
+      <c r="L106" s="11"/>
+      <c r="M106" s="11"/>
+      <c r="N106" s="11"/>
+      <c r="O106" s="11"/>
+      <c r="P106" s="11"/>
+      <c r="Q106" s="11"/>
+      <c r="R106" s="11"/>
+      <c r="S106" s="11"/>
+      <c r="T106" s="17"/>
+    </row>
+    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A107" s="16"/>
+      <c r="B107" s="4"/>
+      <c r="C107" s="11"/>
+      <c r="D107" s="11"/>
+      <c r="E107" s="11"/>
+      <c r="F107" s="11"/>
+      <c r="G107" s="11"/>
+      <c r="H107" s="11"/>
+      <c r="I107" s="5"/>
+      <c r="J107" s="11"/>
+      <c r="K107" s="11"/>
+      <c r="L107" s="11"/>
+      <c r="M107" s="11"/>
+      <c r="N107" s="11"/>
+      <c r="O107" s="11"/>
+      <c r="P107" s="11"/>
+      <c r="Q107" s="11"/>
+      <c r="R107" s="11"/>
+      <c r="S107" s="11"/>
+      <c r="T107" s="17"/>
+    </row>
+    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A108" s="16"/>
+      <c r="B108" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C108" s="11"/>
+      <c r="D108" s="11"/>
+      <c r="E108" s="11"/>
+      <c r="F108" s="11"/>
+      <c r="G108" s="11"/>
+      <c r="H108" s="11"/>
+      <c r="I108" s="5"/>
+      <c r="J108" s="11"/>
+      <c r="K108" s="11"/>
+      <c r="L108" s="11"/>
+      <c r="M108" s="11"/>
+      <c r="N108" s="11"/>
+      <c r="O108" s="11"/>
+      <c r="P108" s="11"/>
+      <c r="Q108" s="11"/>
+      <c r="R108" s="11"/>
+      <c r="S108" s="11"/>
+      <c r="T108" s="17"/>
+    </row>
+    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A109" s="16"/>
+      <c r="B109" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C109" s="11"/>
+      <c r="D109" s="11"/>
+      <c r="E109" s="11"/>
+      <c r="F109" s="11"/>
+      <c r="G109" s="11"/>
+      <c r="H109" s="11"/>
+      <c r="I109" s="5"/>
+      <c r="J109" s="11"/>
+      <c r="K109" s="11"/>
+      <c r="L109" s="11"/>
+      <c r="M109" s="11"/>
+      <c r="N109" s="11"/>
+      <c r="O109" s="11"/>
+      <c r="P109" s="11"/>
+      <c r="Q109" s="11"/>
+      <c r="R109" s="11"/>
+      <c r="S109" s="11"/>
+      <c r="T109" s="17"/>
+    </row>
+    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A110" s="16"/>
+      <c r="B110" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C110" s="11"/>
+      <c r="D110" s="11"/>
+      <c r="E110" s="11"/>
+      <c r="F110" s="11"/>
+      <c r="G110" s="11"/>
+      <c r="H110" s="11"/>
+      <c r="I110" s="5"/>
+      <c r="J110" s="11"/>
+      <c r="K110" s="11"/>
+      <c r="L110" s="11"/>
+      <c r="M110" s="11"/>
+      <c r="N110" s="11"/>
+      <c r="O110" s="11"/>
+      <c r="P110" s="11"/>
+      <c r="Q110" s="11"/>
+      <c r="R110" s="11"/>
+      <c r="S110" s="11"/>
+      <c r="T110" s="17"/>
+    </row>
+    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A111" s="16"/>
+      <c r="B111" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C111" s="11"/>
+      <c r="D111" s="11"/>
+      <c r="E111" s="11"/>
+      <c r="F111" s="11"/>
+      <c r="G111" s="11"/>
+      <c r="H111" s="11"/>
+      <c r="I111" s="5"/>
+      <c r="J111" s="11"/>
+      <c r="K111" s="11"/>
+      <c r="L111" s="11"/>
+      <c r="M111" s="11"/>
+      <c r="N111" s="11"/>
+      <c r="O111" s="11"/>
+      <c r="P111" s="11"/>
+      <c r="Q111" s="11"/>
+      <c r="R111" s="11"/>
+      <c r="S111" s="11"/>
+      <c r="T111" s="17"/>
+    </row>
+    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A112" s="16"/>
+      <c r="B112" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C112" s="11"/>
+      <c r="D112" s="11"/>
+      <c r="E112" s="11"/>
+      <c r="F112" s="11"/>
+      <c r="G112" s="11"/>
+      <c r="H112" s="11"/>
+      <c r="I112" s="5"/>
+      <c r="J112" s="11"/>
+      <c r="K112" s="11"/>
+      <c r="L112" s="11"/>
+      <c r="M112" s="11"/>
+      <c r="N112" s="11"/>
+      <c r="O112" s="11"/>
+      <c r="P112" s="11"/>
+      <c r="Q112" s="11"/>
+      <c r="R112" s="11"/>
+      <c r="S112" s="11"/>
+      <c r="T112" s="17"/>
+    </row>
+    <row r="113" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A113" s="16"/>
+      <c r="B113" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C113" s="11"/>
+      <c r="D113" s="11"/>
+      <c r="E113" s="11"/>
+      <c r="F113" s="11"/>
+      <c r="G113" s="11"/>
+      <c r="H113" s="11"/>
+      <c r="I113" s="5"/>
+      <c r="J113" s="11"/>
+      <c r="K113" s="11"/>
+      <c r="L113" s="11"/>
+      <c r="M113" s="11"/>
+      <c r="N113" s="11"/>
+      <c r="O113" s="11"/>
+      <c r="P113" s="11"/>
+      <c r="Q113" s="11"/>
+      <c r="R113" s="11"/>
+      <c r="S113" s="11"/>
+      <c r="T113" s="17"/>
+    </row>
+    <row r="114" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A114" s="16"/>
+      <c r="B114" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C114" s="11"/>
+      <c r="D114" s="11"/>
+      <c r="E114" s="11"/>
+      <c r="F114" s="11"/>
+      <c r="G114" s="11"/>
+      <c r="H114" s="11"/>
+      <c r="I114" s="5"/>
+      <c r="J114" s="11"/>
+      <c r="K114" s="11"/>
+      <c r="L114" s="11"/>
+      <c r="M114" s="11"/>
+      <c r="N114" s="11"/>
+      <c r="O114" s="11"/>
+      <c r="P114" s="11"/>
+      <c r="Q114" s="11"/>
+      <c r="R114" s="11"/>
+      <c r="S114" s="11"/>
+      <c r="T114" s="17"/>
+    </row>
+    <row r="115" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A115" s="16"/>
+      <c r="B115" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C115" s="11"/>
+      <c r="D115" s="11"/>
+      <c r="E115" s="11"/>
+      <c r="F115" s="11"/>
+      <c r="G115" s="11"/>
+      <c r="H115" s="11"/>
+      <c r="I115" s="5"/>
+      <c r="J115" s="11"/>
+      <c r="K115" s="11"/>
+      <c r="L115" s="11"/>
+      <c r="M115" s="11"/>
+      <c r="N115" s="11"/>
+      <c r="O115" s="11"/>
+      <c r="P115" s="11"/>
+      <c r="Q115" s="11"/>
+      <c r="R115" s="11"/>
+      <c r="S115" s="11"/>
+      <c r="T115" s="17"/>
+    </row>
+    <row r="116" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A116" s="16"/>
+      <c r="B116" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C116" s="11"/>
+      <c r="D116" s="11"/>
+      <c r="E116" s="11"/>
+      <c r="F116" s="11"/>
+      <c r="G116" s="11"/>
+      <c r="H116" s="11"/>
+      <c r="I116" s="5"/>
+      <c r="J116" s="11"/>
+      <c r="K116" s="11"/>
+      <c r="L116" s="11"/>
+      <c r="M116" s="11"/>
+      <c r="N116" s="11"/>
+      <c r="O116" s="11"/>
+      <c r="P116" s="11"/>
+      <c r="Q116" s="11"/>
+      <c r="R116" s="11"/>
+      <c r="S116" s="11"/>
+      <c r="T116" s="17"/>
+    </row>
+    <row r="117" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A117" s="16"/>
+      <c r="B117" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C117" s="11"/>
+      <c r="D117" s="11"/>
+      <c r="E117" s="11"/>
+      <c r="F117" s="11"/>
+      <c r="G117" s="11"/>
+      <c r="H117" s="11"/>
+      <c r="I117" s="5"/>
+      <c r="J117" s="11"/>
+      <c r="K117" s="11"/>
+      <c r="L117" s="11"/>
+      <c r="M117" s="11"/>
+      <c r="N117" s="11"/>
+      <c r="O117" s="11"/>
+      <c r="P117" s="11"/>
+      <c r="Q117" s="11"/>
+      <c r="R117" s="11"/>
+      <c r="S117" s="11"/>
+      <c r="T117" s="17"/>
+    </row>
+    <row r="118" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A118" s="16"/>
+      <c r="B118" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C118" s="11"/>
+      <c r="D118" s="11"/>
+      <c r="E118" s="11"/>
+      <c r="F118" s="11"/>
+      <c r="G118" s="11"/>
+      <c r="H118" s="11"/>
+      <c r="I118" s="5"/>
+      <c r="J118" s="11"/>
+      <c r="K118" s="11"/>
+      <c r="L118" s="11"/>
+      <c r="M118" s="11"/>
+      <c r="N118" s="11"/>
+      <c r="O118" s="11"/>
+      <c r="P118" s="11"/>
+      <c r="Q118" s="11"/>
+      <c r="R118" s="11"/>
+      <c r="S118" s="11"/>
+      <c r="T118" s="17"/>
+    </row>
+    <row r="119" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A119" s="16"/>
+      <c r="B119" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C119" s="11"/>
+      <c r="D119" s="11"/>
+      <c r="E119" s="11"/>
+      <c r="F119" s="11"/>
+      <c r="G119" s="11"/>
+      <c r="H119" s="11"/>
+      <c r="I119" s="5"/>
+      <c r="J119" s="11"/>
+      <c r="K119" s="11"/>
+      <c r="L119" s="11"/>
+      <c r="M119" s="11"/>
+      <c r="N119" s="11"/>
+      <c r="O119" s="11"/>
+      <c r="P119" s="11"/>
+      <c r="Q119" s="11"/>
+      <c r="R119" s="11"/>
+      <c r="S119" s="11"/>
+      <c r="T119" s="17"/>
+    </row>
+    <row r="120" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A120" s="16"/>
+      <c r="B120" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C120" s="11"/>
+      <c r="D120" s="11"/>
+      <c r="E120" s="11"/>
+      <c r="F120" s="11"/>
+      <c r="G120" s="11"/>
+      <c r="H120" s="11"/>
+      <c r="I120" s="5"/>
+      <c r="J120" s="11"/>
+      <c r="K120" s="1"/>
+      <c r="L120" s="2"/>
+      <c r="M120" s="2"/>
+      <c r="N120" s="2"/>
+      <c r="O120" s="2"/>
+      <c r="P120" s="2"/>
+      <c r="Q120" s="2"/>
+      <c r="R120" s="2"/>
+      <c r="S120" s="3"/>
+      <c r="T120" s="17"/>
+    </row>
+    <row r="121" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A121" s="16"/>
+      <c r="B121" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C121" s="11"/>
+      <c r="D121" s="11"/>
+      <c r="E121" s="11"/>
+      <c r="F121" s="11"/>
+      <c r="G121" s="11"/>
+      <c r="H121" s="11"/>
+      <c r="I121" s="5"/>
+      <c r="J121" s="11"/>
+      <c r="K121" s="4"/>
+      <c r="L121" s="11"/>
+      <c r="M121" s="11"/>
+      <c r="N121" s="11"/>
+      <c r="O121" s="11"/>
+      <c r="P121" s="11"/>
+      <c r="Q121" s="11"/>
+      <c r="R121" s="11"/>
+      <c r="S121" s="5"/>
+      <c r="T121" s="17"/>
+    </row>
+    <row r="122" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A122" s="16"/>
+      <c r="B122" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C122" s="11"/>
+      <c r="D122" s="11"/>
+      <c r="E122" s="11"/>
+      <c r="F122" s="11"/>
+      <c r="G122" s="11"/>
+      <c r="H122" s="11"/>
+      <c r="I122" s="5"/>
+      <c r="J122" s="11"/>
+      <c r="K122" s="6"/>
+      <c r="L122" s="7"/>
+      <c r="M122" s="7"/>
+      <c r="N122" s="7"/>
+      <c r="O122" s="7"/>
+      <c r="P122" s="7"/>
+      <c r="Q122" s="7"/>
+      <c r="R122" s="7"/>
+      <c r="S122" s="9"/>
+      <c r="T122" s="17"/>
+    </row>
+    <row r="123" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A123" s="16"/>
+      <c r="B123" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C123" s="7"/>
+      <c r="D123" s="7"/>
+      <c r="E123" s="7"/>
+      <c r="F123" s="7"/>
+      <c r="G123" s="7"/>
+      <c r="H123" s="7"/>
+      <c r="I123" s="9"/>
+      <c r="J123" s="11"/>
+      <c r="K123" s="11"/>
+      <c r="L123" s="11"/>
+      <c r="M123" s="11"/>
+      <c r="N123" s="11"/>
+      <c r="O123" s="11"/>
+      <c r="P123" s="11"/>
+      <c r="Q123" s="11"/>
+      <c r="R123" s="11"/>
+      <c r="S123" s="11"/>
+      <c r="T123" s="17"/>
+    </row>
+    <row r="124" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="18"/>
+      <c r="B124" s="19"/>
+      <c r="C124" s="19"/>
+      <c r="D124" s="19"/>
+      <c r="E124" s="19"/>
+      <c r="F124" s="19"/>
+      <c r="G124" s="19"/>
+      <c r="H124" s="19"/>
+      <c r="I124" s="19"/>
+      <c r="J124" s="19"/>
+      <c r="K124" s="19"/>
+      <c r="L124" s="19"/>
+      <c r="M124" s="19"/>
+      <c r="N124" s="19"/>
+      <c r="O124" s="19"/>
+      <c r="P124" s="19"/>
+      <c r="Q124" s="19"/>
+      <c r="R124" s="19"/>
+      <c r="S124" s="19"/>
+      <c r="T124" s="20"/>
+    </row>
+    <row r="127" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="128" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A128" s="13"/>
+      <c r="B128" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C128" s="14"/>
+      <c r="D128" s="14"/>
+      <c r="E128" s="14"/>
+      <c r="F128" s="14"/>
+      <c r="G128" s="14"/>
+      <c r="H128" s="14"/>
+      <c r="I128" s="14"/>
+      <c r="J128" s="14"/>
+      <c r="K128" s="14"/>
+      <c r="L128" s="14"/>
+      <c r="M128" s="14"/>
+      <c r="N128" s="14"/>
+      <c r="O128" s="14"/>
+      <c r="P128" s="14"/>
+      <c r="Q128" s="14"/>
+      <c r="R128" s="14"/>
+      <c r="S128" s="14"/>
+      <c r="T128" s="15"/>
+    </row>
+    <row r="129" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A129" s="16"/>
+      <c r="B129" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C129" s="2"/>
+      <c r="D129" s="2"/>
+      <c r="E129" s="2"/>
+      <c r="F129" s="2"/>
+      <c r="G129" s="2"/>
+      <c r="H129" s="2"/>
+      <c r="I129" s="3"/>
+      <c r="J129" s="11"/>
+      <c r="K129" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L129" s="2"/>
+      <c r="M129" s="2"/>
+      <c r="N129" s="2"/>
+      <c r="O129" s="2"/>
+      <c r="P129" s="2"/>
+      <c r="Q129" s="2"/>
+      <c r="R129" s="2"/>
+      <c r="S129" s="2"/>
+      <c r="T129" s="3"/>
+    </row>
+    <row r="130" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A130" s="16"/>
+      <c r="B130" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C130" s="11"/>
+      <c r="D130" s="11"/>
+      <c r="E130" s="11"/>
+      <c r="F130" s="11"/>
+      <c r="G130" s="11"/>
+      <c r="H130" s="11"/>
+      <c r="I130" s="5"/>
+      <c r="J130" s="11"/>
+      <c r="K130" s="4"/>
+      <c r="L130" s="11"/>
+      <c r="M130" s="11"/>
+      <c r="N130" s="11"/>
+      <c r="O130" s="11"/>
+      <c r="P130" s="11"/>
+      <c r="Q130" s="11"/>
+      <c r="R130" s="11"/>
+      <c r="S130" s="11"/>
+      <c r="T130" s="5"/>
+    </row>
+    <row r="131" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A131" s="16"/>
+      <c r="B131" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C131" s="11"/>
+      <c r="D131" s="11"/>
+      <c r="E131" s="11"/>
+      <c r="F131" s="11"/>
+      <c r="G131" s="11"/>
+      <c r="H131" s="11"/>
+      <c r="I131" s="5"/>
+      <c r="J131" s="11"/>
+      <c r="K131" s="4"/>
+      <c r="L131" s="11"/>
+      <c r="M131" s="11"/>
+      <c r="N131" s="11"/>
+      <c r="O131" s="11"/>
+      <c r="P131" s="11"/>
+      <c r="Q131" s="11"/>
+      <c r="R131" s="11"/>
+      <c r="S131" s="11"/>
+      <c r="T131" s="5"/>
+    </row>
+    <row r="132" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A132" s="16"/>
+      <c r="B132" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C132" s="11"/>
+      <c r="D132" s="11"/>
+      <c r="E132" s="11"/>
+      <c r="F132" s="11"/>
+      <c r="G132" s="11"/>
+      <c r="H132" s="11"/>
+      <c r="I132" s="5"/>
+      <c r="J132" s="11"/>
+      <c r="K132" s="4"/>
+      <c r="L132" s="11"/>
+      <c r="M132" s="11"/>
+      <c r="N132" s="11"/>
+      <c r="O132" s="11"/>
+      <c r="P132" s="11"/>
+      <c r="Q132" s="11"/>
+      <c r="R132" s="11"/>
+      <c r="S132" s="11"/>
+      <c r="T132" s="5"/>
+    </row>
+    <row r="133" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A133" s="16"/>
+      <c r="B133" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C133" s="11"/>
+      <c r="D133" s="11"/>
+      <c r="E133" s="11"/>
+      <c r="F133" s="11"/>
+      <c r="G133" s="11"/>
+      <c r="H133" s="11"/>
+      <c r="I133" s="5"/>
+      <c r="J133" s="11"/>
+      <c r="K133" s="4"/>
+      <c r="L133" s="11"/>
+      <c r="M133" s="11"/>
+      <c r="N133" s="11"/>
+      <c r="O133" s="11"/>
+      <c r="P133" s="11"/>
+      <c r="Q133" s="11"/>
+      <c r="R133" s="11"/>
+      <c r="S133" s="11"/>
+      <c r="T133" s="5"/>
+    </row>
+    <row r="134" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A134" s="16"/>
+      <c r="B134" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C134" s="11"/>
+      <c r="D134" s="11"/>
+      <c r="E134" s="11"/>
+      <c r="F134" s="11"/>
+      <c r="G134" s="11"/>
+      <c r="H134" s="11"/>
+      <c r="I134" s="5"/>
+      <c r="J134" s="11"/>
+      <c r="K134" s="4"/>
+      <c r="L134" s="11"/>
+      <c r="M134" s="11"/>
+      <c r="N134" s="11"/>
+      <c r="O134" s="11"/>
+      <c r="P134" s="11"/>
+      <c r="Q134" s="11"/>
+      <c r="R134" s="11"/>
+      <c r="S134" s="11"/>
+      <c r="T134" s="5"/>
+    </row>
+    <row r="135" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A135" s="16"/>
+      <c r="B135" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C135" s="11"/>
+      <c r="D135" s="11"/>
+      <c r="E135" s="11"/>
+      <c r="F135" s="11"/>
+      <c r="G135" s="11"/>
+      <c r="H135" s="11"/>
+      <c r="I135" s="5"/>
+      <c r="J135" s="11"/>
+      <c r="K135" s="6"/>
+      <c r="L135" s="7"/>
+      <c r="M135" s="7"/>
+      <c r="N135" s="7"/>
+      <c r="O135" s="7"/>
+      <c r="P135" s="7"/>
+      <c r="Q135" s="7"/>
+      <c r="R135" s="7"/>
+      <c r="S135" s="7"/>
+      <c r="T135" s="9"/>
+    </row>
+    <row r="136" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A136" s="16"/>
+      <c r="B136" s="4"/>
+      <c r="C136" s="11"/>
+      <c r="D136" s="11"/>
+      <c r="E136" s="11"/>
+      <c r="F136" s="11"/>
+      <c r="G136" s="11"/>
+      <c r="H136" s="11"/>
+      <c r="I136" s="5"/>
+      <c r="J136" s="11"/>
+      <c r="K136" s="11"/>
+      <c r="L136" s="11"/>
+      <c r="M136" s="11"/>
+      <c r="N136" s="11"/>
+      <c r="O136" s="11"/>
+      <c r="P136" s="11"/>
+      <c r="Q136" s="11"/>
+      <c r="R136" s="11"/>
+      <c r="S136" s="11"/>
+      <c r="T136" s="17"/>
+    </row>
+    <row r="137" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A137" s="16"/>
+      <c r="B137" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C137" s="11"/>
+      <c r="D137" s="11"/>
+      <c r="E137" s="11"/>
+      <c r="F137" s="11"/>
+      <c r="G137" s="11"/>
+      <c r="H137" s="11"/>
+      <c r="I137" s="5"/>
+      <c r="J137" s="11"/>
+      <c r="K137" s="11"/>
+      <c r="L137" s="11"/>
+      <c r="M137" s="11"/>
+      <c r="N137" s="11"/>
+      <c r="O137" s="11"/>
+      <c r="P137" s="11"/>
+      <c r="Q137" s="11"/>
+      <c r="R137" s="11"/>
+      <c r="S137" s="11"/>
+      <c r="T137" s="17"/>
+    </row>
+    <row r="138" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A138" s="16"/>
+      <c r="B138" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C138" s="11"/>
+      <c r="D138" s="11"/>
+      <c r="E138" s="11"/>
+      <c r="F138" s="11"/>
+      <c r="G138" s="11"/>
+      <c r="H138" s="11"/>
+      <c r="I138" s="5"/>
+      <c r="J138" s="11"/>
+      <c r="K138" s="11"/>
+      <c r="L138" s="11"/>
+      <c r="M138" s="11"/>
+      <c r="N138" s="11"/>
+      <c r="O138" s="11"/>
+      <c r="P138" s="11"/>
+      <c r="Q138" s="11"/>
+      <c r="R138" s="11"/>
+      <c r="S138" s="11"/>
+      <c r="T138" s="17"/>
+    </row>
+    <row r="139" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A139" s="16"/>
+      <c r="B139" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C139" s="11"/>
+      <c r="D139" s="11"/>
+      <c r="E139" s="11"/>
+      <c r="F139" s="11"/>
+      <c r="G139" s="11"/>
+      <c r="H139" s="11"/>
+      <c r="I139" s="5"/>
+      <c r="J139" s="11"/>
+      <c r="K139" s="11"/>
+      <c r="L139" s="11"/>
+      <c r="M139" s="11"/>
+      <c r="N139" s="11"/>
+      <c r="O139" s="11"/>
+      <c r="P139" s="11"/>
+      <c r="Q139" s="11"/>
+      <c r="R139" s="11"/>
+      <c r="S139" s="11"/>
+      <c r="T139" s="17"/>
+    </row>
+    <row r="140" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A140" s="16"/>
+      <c r="B140" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C140" s="11"/>
+      <c r="D140" s="11"/>
+      <c r="E140" s="11"/>
+      <c r="F140" s="11"/>
+      <c r="G140" s="11"/>
+      <c r="H140" s="11"/>
+      <c r="I140" s="5"/>
+      <c r="J140" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K140" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="L140" s="11"/>
+      <c r="M140" s="11"/>
+      <c r="N140" s="11"/>
+      <c r="O140" s="11"/>
+      <c r="P140" s="11"/>
+      <c r="Q140" s="11"/>
+      <c r="R140" s="11"/>
+      <c r="S140" s="11"/>
+      <c r="T140" s="17"/>
+    </row>
+    <row r="141" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A141" s="16"/>
+      <c r="B141" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C141" s="11"/>
+      <c r="D141" s="11"/>
+      <c r="E141" s="11"/>
+      <c r="F141" s="11"/>
+      <c r="G141" s="11"/>
+      <c r="H141" s="11"/>
+      <c r="I141" s="5"/>
+      <c r="J141" s="11"/>
+      <c r="K141" s="11"/>
+      <c r="L141" s="11"/>
+      <c r="M141" s="11"/>
+      <c r="N141" s="11"/>
+      <c r="O141" s="11"/>
+      <c r="P141" s="11"/>
+      <c r="Q141" s="11"/>
+      <c r="R141" s="11"/>
+      <c r="S141" s="11"/>
+      <c r="T141" s="17"/>
+    </row>
+    <row r="142" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A142" s="16"/>
+      <c r="B142" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C142" s="11"/>
+      <c r="D142" s="11"/>
+      <c r="E142" s="11"/>
+      <c r="F142" s="11"/>
+      <c r="G142" s="11"/>
+      <c r="H142" s="11"/>
+      <c r="I142" s="5"/>
+      <c r="J142" s="11"/>
+      <c r="K142" s="11"/>
+      <c r="L142" s="11"/>
+      <c r="M142" s="11"/>
+      <c r="N142" s="11"/>
+      <c r="O142" s="11"/>
+      <c r="P142" s="11"/>
+      <c r="Q142" s="11"/>
+      <c r="R142" s="11"/>
+      <c r="S142" s="11"/>
+      <c r="T142" s="17"/>
+    </row>
+    <row r="143" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A143" s="16"/>
+      <c r="B143" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C143" s="11"/>
+      <c r="D143" s="11"/>
+      <c r="E143" s="11"/>
+      <c r="F143" s="11"/>
+      <c r="G143" s="11"/>
+      <c r="H143" s="11"/>
+      <c r="I143" s="5"/>
+      <c r="J143" s="11"/>
+      <c r="K143" s="11"/>
+      <c r="L143" s="11"/>
+      <c r="M143" s="11"/>
+      <c r="N143" s="11"/>
+      <c r="O143" s="11"/>
+      <c r="P143" s="11"/>
+      <c r="Q143" s="11"/>
+      <c r="R143" s="11"/>
+      <c r="S143" s="11"/>
+      <c r="T143" s="17"/>
+    </row>
+    <row r="144" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A144" s="16"/>
+      <c r="B144" s="4"/>
+      <c r="C144" s="11"/>
+      <c r="D144" s="11"/>
+      <c r="E144" s="11"/>
+      <c r="F144" s="11"/>
+      <c r="G144" s="11"/>
+      <c r="H144" s="11"/>
+      <c r="I144" s="5"/>
+      <c r="J144" s="11"/>
+      <c r="K144" s="11"/>
+      <c r="L144" s="11"/>
+      <c r="M144" s="11"/>
+      <c r="N144" s="11"/>
+      <c r="O144" s="11"/>
+      <c r="P144" s="11"/>
+      <c r="Q144" s="11"/>
+      <c r="R144" s="11"/>
+      <c r="S144" s="11"/>
+      <c r="T144" s="17"/>
+    </row>
+    <row r="145" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A145" s="16"/>
+      <c r="B145" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C145" s="11"/>
+      <c r="D145" s="11"/>
+      <c r="E145" s="11"/>
+      <c r="F145" s="11"/>
+      <c r="G145" s="11"/>
+      <c r="H145" s="11"/>
+      <c r="I145" s="5"/>
+      <c r="J145" s="11"/>
+      <c r="K145" s="11"/>
+      <c r="L145" s="11"/>
+      <c r="M145" s="11"/>
+      <c r="N145" s="11"/>
+      <c r="O145" s="11"/>
+      <c r="P145" s="11"/>
+      <c r="Q145" s="11"/>
+      <c r="R145" s="11"/>
+      <c r="S145" s="11"/>
+      <c r="T145" s="17"/>
+    </row>
+    <row r="146" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A146" s="16"/>
+      <c r="B146" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C146" s="11"/>
+      <c r="D146" s="11"/>
+      <c r="E146" s="11"/>
+      <c r="F146" s="11"/>
+      <c r="G146" s="11"/>
+      <c r="H146" s="11"/>
+      <c r="I146" s="5"/>
+      <c r="J146" s="11"/>
+      <c r="K146" s="11"/>
+      <c r="L146" s="11"/>
+      <c r="M146" s="11"/>
+      <c r="N146" s="11"/>
+      <c r="O146" s="11"/>
+      <c r="P146" s="11"/>
+      <c r="Q146" s="11"/>
+      <c r="R146" s="11"/>
+      <c r="S146" s="11"/>
+      <c r="T146" s="17"/>
+    </row>
+    <row r="147" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A147" s="16"/>
+      <c r="B147" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C147" s="11"/>
+      <c r="D147" s="11"/>
+      <c r="E147" s="11"/>
+      <c r="F147" s="11"/>
+      <c r="G147" s="11"/>
+      <c r="H147" s="11"/>
+      <c r="I147" s="5"/>
+      <c r="J147" s="11"/>
+      <c r="K147" s="11"/>
+      <c r="L147" s="11"/>
+      <c r="M147" s="11"/>
+      <c r="N147" s="11"/>
+      <c r="O147" s="11"/>
+      <c r="P147" s="11"/>
+      <c r="Q147" s="11"/>
+      <c r="R147" s="11"/>
+      <c r="S147" s="11"/>
+      <c r="T147" s="17"/>
+    </row>
+    <row r="148" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A148" s="16"/>
+      <c r="B148" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C148" s="11"/>
+      <c r="D148" s="11"/>
+      <c r="E148" s="11"/>
+      <c r="F148" s="11"/>
+      <c r="G148" s="11"/>
+      <c r="H148" s="11"/>
+      <c r="I148" s="5"/>
+      <c r="J148" s="11"/>
+      <c r="K148" s="11"/>
+      <c r="L148" s="11"/>
+      <c r="M148" s="11"/>
+      <c r="N148" s="11"/>
+      <c r="O148" s="11"/>
+      <c r="P148" s="11"/>
+      <c r="Q148" s="11"/>
+      <c r="R148" s="11"/>
+      <c r="S148" s="11"/>
+      <c r="T148" s="17"/>
+    </row>
+    <row r="149" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A149" s="16"/>
+      <c r="B149" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C149" s="11"/>
+      <c r="D149" s="11"/>
+      <c r="E149" s="11"/>
+      <c r="F149" s="11"/>
+      <c r="G149" s="11"/>
+      <c r="H149" s="11"/>
+      <c r="I149" s="5"/>
+      <c r="J149" s="11"/>
+      <c r="K149" s="11"/>
+      <c r="L149" s="11"/>
+      <c r="M149" s="11"/>
+      <c r="N149" s="11"/>
+      <c r="O149" s="11"/>
+      <c r="P149" s="11"/>
+      <c r="Q149" s="11"/>
+      <c r="R149" s="11"/>
+      <c r="S149" s="11"/>
+      <c r="T149" s="17"/>
+    </row>
+    <row r="150" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A150" s="16"/>
+      <c r="B150" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C150" s="11"/>
+      <c r="D150" s="11"/>
+      <c r="E150" s="11"/>
+      <c r="F150" s="11"/>
+      <c r="G150" s="11"/>
+      <c r="H150" s="11"/>
+      <c r="I150" s="5"/>
+      <c r="J150" s="11"/>
+      <c r="K150" s="11"/>
+      <c r="L150" s="11"/>
+      <c r="M150" s="11"/>
+      <c r="N150" s="11"/>
+      <c r="O150" s="11"/>
+      <c r="P150" s="11"/>
+      <c r="Q150" s="11"/>
+      <c r="R150" s="11"/>
+      <c r="S150" s="11"/>
+      <c r="T150" s="17"/>
+    </row>
+    <row r="151" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A151" s="16"/>
+      <c r="B151" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C151" s="11"/>
+      <c r="D151" s="11"/>
+      <c r="E151" s="11"/>
+      <c r="F151" s="11"/>
+      <c r="G151" s="11"/>
+      <c r="H151" s="11"/>
+      <c r="I151" s="5"/>
+      <c r="J151" s="11"/>
+      <c r="K151" s="11"/>
+      <c r="L151" s="11"/>
+      <c r="M151" s="11"/>
+      <c r="N151" s="11"/>
+      <c r="O151" s="11"/>
+      <c r="P151" s="11"/>
+      <c r="Q151" s="11"/>
+      <c r="R151" s="11"/>
+      <c r="S151" s="11"/>
+      <c r="T151" s="17"/>
+    </row>
+    <row r="152" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A152" s="16"/>
+      <c r="B152" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C152" s="11"/>
+      <c r="D152" s="11"/>
+      <c r="E152" s="11"/>
+      <c r="F152" s="11"/>
+      <c r="G152" s="11"/>
+      <c r="H152" s="11"/>
+      <c r="I152" s="5"/>
+      <c r="J152" s="11"/>
+      <c r="K152" s="11"/>
+      <c r="L152" s="11"/>
+      <c r="M152" s="11"/>
+      <c r="N152" s="11"/>
+      <c r="O152" s="11"/>
+      <c r="P152" s="11"/>
+      <c r="Q152" s="11"/>
+      <c r="R152" s="11"/>
+      <c r="S152" s="11"/>
+      <c r="T152" s="17"/>
+    </row>
+    <row r="153" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A153" s="16"/>
+      <c r="B153" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C153" s="11"/>
+      <c r="D153" s="11"/>
+      <c r="E153" s="11"/>
+      <c r="F153" s="11"/>
+      <c r="G153" s="11"/>
+      <c r="H153" s="11"/>
+      <c r="I153" s="5"/>
+      <c r="J153" s="11"/>
+      <c r="K153" s="11"/>
+      <c r="L153" s="11"/>
+      <c r="M153" s="11"/>
+      <c r="N153" s="11"/>
+      <c r="O153" s="11"/>
+      <c r="P153" s="11"/>
+      <c r="Q153" s="11"/>
+      <c r="R153" s="11"/>
+      <c r="S153" s="11"/>
+      <c r="T153" s="17"/>
+    </row>
+    <row r="154" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A154" s="16"/>
+      <c r="B154" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C154" s="11"/>
+      <c r="D154" s="11"/>
+      <c r="E154" s="11"/>
+      <c r="F154" s="11"/>
+      <c r="G154" s="11"/>
+      <c r="H154" s="11"/>
+      <c r="I154" s="5"/>
+      <c r="J154" s="11"/>
+      <c r="K154" s="11"/>
+      <c r="L154" s="11"/>
+      <c r="M154" s="11"/>
+      <c r="N154" s="11"/>
+      <c r="O154" s="11"/>
+      <c r="P154" s="11"/>
+      <c r="Q154" s="11"/>
+      <c r="R154" s="11"/>
+      <c r="S154" s="11"/>
+      <c r="T154" s="17"/>
+    </row>
+    <row r="155" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A155" s="16"/>
+      <c r="B155" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C155" s="11"/>
+      <c r="D155" s="11"/>
+      <c r="E155" s="11"/>
+      <c r="F155" s="11"/>
+      <c r="G155" s="11"/>
+      <c r="H155" s="11"/>
+      <c r="I155" s="5"/>
+      <c r="J155" s="11"/>
+      <c r="K155" s="11"/>
+      <c r="L155" s="11"/>
+      <c r="M155" s="11"/>
+      <c r="N155" s="11"/>
+      <c r="O155" s="11"/>
+      <c r="P155" s="11"/>
+      <c r="Q155" s="11"/>
+      <c r="R155" s="11"/>
+      <c r="S155" s="11"/>
+      <c r="T155" s="17"/>
+    </row>
+    <row r="156" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A156" s="16"/>
+      <c r="B156" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C156" s="11"/>
+      <c r="D156" s="11"/>
+      <c r="E156" s="11"/>
+      <c r="F156" s="11"/>
+      <c r="G156" s="11"/>
+      <c r="H156" s="11"/>
+      <c r="I156" s="5"/>
+      <c r="J156" s="11"/>
+      <c r="K156" s="11"/>
+      <c r="L156" s="11"/>
+      <c r="M156" s="11"/>
+      <c r="N156" s="11"/>
+      <c r="O156" s="11"/>
+      <c r="P156" s="11"/>
+      <c r="Q156" s="11"/>
+      <c r="R156" s="11"/>
+      <c r="S156" s="11"/>
+      <c r="T156" s="17"/>
+    </row>
+    <row r="157" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A157" s="16"/>
+      <c r="B157" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C157" s="11"/>
+      <c r="D157" s="11"/>
+      <c r="E157" s="11"/>
+      <c r="F157" s="11"/>
+      <c r="G157" s="11"/>
+      <c r="H157" s="11"/>
+      <c r="I157" s="5"/>
+      <c r="J157" s="11"/>
+      <c r="K157" s="1"/>
+      <c r="L157" s="2"/>
+      <c r="M157" s="2"/>
+      <c r="N157" s="2"/>
+      <c r="O157" s="2"/>
+      <c r="P157" s="2"/>
+      <c r="Q157" s="2"/>
+      <c r="R157" s="2"/>
+      <c r="S157" s="3"/>
+      <c r="T157" s="17"/>
+    </row>
+    <row r="158" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A158" s="16"/>
+      <c r="B158" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C158" s="11"/>
+      <c r="D158" s="11"/>
+      <c r="E158" s="11"/>
+      <c r="F158" s="11"/>
+      <c r="G158" s="11"/>
+      <c r="H158" s="11"/>
+      <c r="I158" s="5"/>
+      <c r="J158" s="11"/>
+      <c r="K158" s="4"/>
+      <c r="L158" s="11"/>
+      <c r="M158" s="11"/>
+      <c r="N158" s="11"/>
+      <c r="O158" s="11"/>
+      <c r="P158" s="11"/>
+      <c r="Q158" s="11"/>
+      <c r="R158" s="11"/>
+      <c r="S158" s="5"/>
+      <c r="T158" s="17"/>
+    </row>
+    <row r="159" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A159" s="16"/>
+      <c r="B159" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C159" s="11"/>
+      <c r="D159" s="11"/>
+      <c r="E159" s="11"/>
+      <c r="F159" s="11"/>
+      <c r="G159" s="11"/>
+      <c r="H159" s="11"/>
+      <c r="I159" s="5"/>
+      <c r="J159" s="11"/>
+      <c r="K159" s="6"/>
+      <c r="L159" s="7"/>
+      <c r="M159" s="7"/>
+      <c r="N159" s="7"/>
+      <c r="O159" s="7"/>
+      <c r="P159" s="7"/>
+      <c r="Q159" s="7"/>
+      <c r="R159" s="7"/>
+      <c r="S159" s="9"/>
+      <c r="T159" s="17"/>
+    </row>
+    <row r="160" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A160" s="16"/>
+      <c r="B160" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C160" s="7"/>
+      <c r="D160" s="7"/>
+      <c r="E160" s="7"/>
+      <c r="F160" s="7"/>
+      <c r="G160" s="7"/>
+      <c r="H160" s="7"/>
+      <c r="I160" s="9"/>
+      <c r="J160" s="11"/>
+      <c r="K160" s="11"/>
+      <c r="L160" s="11"/>
+      <c r="M160" s="11"/>
+      <c r="N160" s="11"/>
+      <c r="O160" s="11"/>
+      <c r="P160" s="11"/>
+      <c r="Q160" s="11"/>
+      <c r="R160" s="11"/>
+      <c r="S160" s="11"/>
+      <c r="T160" s="17"/>
+    </row>
+    <row r="161" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A161" s="18"/>
+      <c r="B161" s="19"/>
+      <c r="C161" s="19"/>
+      <c r="D161" s="19"/>
+      <c r="E161" s="19"/>
+      <c r="F161" s="19"/>
+      <c r="G161" s="19"/>
+      <c r="H161" s="19"/>
+      <c r="I161" s="19"/>
+      <c r="J161" s="19"/>
+      <c r="K161" s="19"/>
+      <c r="L161" s="19"/>
+      <c r="M161" s="19"/>
+      <c r="N161" s="19"/>
+      <c r="O161" s="19"/>
+      <c r="P161" s="19"/>
+      <c r="Q161" s="19"/>
+      <c r="R161" s="19"/>
+      <c r="S161" s="19"/>
+      <c r="T161" s="20"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/me/2.Flex-Container.xlsx
+++ b/me/2.Flex-Container.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\flexbox\me\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B491E34-4343-4205-B686-0FE51293ABF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9889EE28-3A91-44C0-A66C-E1A9293B0A19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Display flex" sheetId="2" r:id="rId1"/>
     <sheet name="Flex direction" sheetId="3" r:id="rId2"/>
     <sheet name="Flex wrap" sheetId="4" r:id="rId3"/>
+    <sheet name="Flex flow" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="93">
   <si>
     <t>構成</t>
   </si>
@@ -213,9 +214,6 @@
     <t>Trục main axis sẽ được bố trí từ trên xuống dưới. Các flex item bên trong cũng được bố trí</t>
   </si>
   <si>
-    <t>sẽ được bố trí từ trái sang phải(1,2 3..)</t>
-  </si>
-  <si>
     <t>lần lượt từ phải sang trái(1,2 3..)</t>
   </si>
   <si>
@@ -295,6 +293,42 @@
   </si>
   <si>
     <t>Lúc chưa co trình duyệt thì chiều dài flex contain vẫn đủ</t>
+  </si>
+  <si>
+    <t>Flex flow là cách viết tắt của flex direction và flex wrap</t>
+  </si>
+  <si>
+    <t>4.Flex-flow</t>
+  </si>
+  <si>
+    <t>flexbox\2.Flex-Container\2.Flex-direction\index.html</t>
+  </si>
+  <si>
+    <t>flexbox\2.Flex-Container\4.Flex-flow\index.html</t>
+  </si>
+  <si>
+    <t>        flex-flow: row nowrap;</t>
+  </si>
+  <si>
+    <t>flex-wrap: nowrap;</t>
+  </si>
+  <si>
+    <t>flex-direction: row;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đây cũng là giá trị mặc định, tương đương với </t>
+  </si>
+  <si>
+    <t>Các flex item sẽ được bố trí từ trái sang phải(1,2 3..)</t>
+  </si>
+  <si>
+    <t>Các flex item sẽ được bố trí từ trái qua phải và ko tự động xuống dòng</t>
+  </si>
+  <si>
+    <t>        flex-flow: row wrap;</t>
+  </si>
+  <si>
+    <t>Các flex item sẽ được bố trí từ trái qua phải và có tự động xuống dòng</t>
   </si>
 </sst>
 </file>
@@ -503,7 +537,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -526,6 +560,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2906,6 +2941,258 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>114757</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{090E6947-02F3-2228-5B89-A0F4A0EA5401}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6134100" y="6229350"/>
+          <a:ext cx="5895975" cy="1886407"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7732D97-B7B9-DC43-7242-599726BA411C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2247900" y="5467350"/>
+          <a:ext cx="3867150" cy="800100"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41DB0FC1-713A-7445-D036-C336CE88366D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2247900" y="5448300"/>
+          <a:ext cx="3829050" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>157170</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1452B17-C646-1ABD-799E-1521C77039C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5705475" y="12277726"/>
+          <a:ext cx="6276975" cy="2738444"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Straight Arrow Connector 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09F036CE-7816-A2B1-F660-1805B6FCBEE3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2114550" y="12144375"/>
+          <a:ext cx="3705225" cy="1000125"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3210,7 +3497,7 @@
         <v>7</v>
       </c>
       <c r="H7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -3617,8 +3904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0145470-2FF9-412A-A015-FB74F9A08082}">
   <dimension ref="A2:T174"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="S32" sqref="S32"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3711,7 +3998,7 @@
         <v>7</v>
       </c>
       <c r="H10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -3751,7 +4038,7 @@
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="13"/>
       <c r="B17" s="14" t="s">
-        <v>9</v>
+        <v>83</v>
       </c>
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
@@ -4028,7 +4315,7 @@
       <c r="I28" s="5"/>
       <c r="J28" s="11"/>
       <c r="K28" s="11" t="s">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="L28" s="11"/>
       <c r="M28" s="11"/>
@@ -4421,7 +4708,7 @@
     <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="16"/>
       <c r="B45" s="11" t="s">
-        <v>9</v>
+        <v>83</v>
       </c>
       <c r="C45" s="11"/>
       <c r="D45" s="11"/>
@@ -5088,7 +5375,7 @@
     <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76" s="13"/>
       <c r="B76" s="14" t="s">
-        <v>9</v>
+        <v>83</v>
       </c>
       <c r="C76" s="14"/>
       <c r="D76" s="14"/>
@@ -5413,7 +5700,7 @@
       <c r="I89" s="5"/>
       <c r="J89" s="11"/>
       <c r="K89" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L89" s="11"/>
       <c r="M89" s="11"/>
@@ -5765,7 +6052,7 @@
     <row r="107" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A107" s="13"/>
       <c r="B107" s="14" t="s">
-        <v>9</v>
+        <v>83</v>
       </c>
       <c r="C107" s="14"/>
       <c r="D107" s="14"/>
@@ -6090,7 +6377,7 @@
       <c r="I120" s="5"/>
       <c r="J120" s="11"/>
       <c r="K120" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L120" s="11"/>
       <c r="M120" s="11"/>
@@ -6546,12 +6833,14 @@
     </row>
     <row r="142" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="143" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A143" s="13"/>
-      <c r="B143" s="14"/>
+      <c r="B143" s="14" t="s">
+        <v>83</v>
+      </c>
       <c r="C143" s="14"/>
       <c r="D143" s="14"/>
       <c r="E143" s="14"/>
@@ -6836,7 +7125,7 @@
     <row r="155" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A155" s="16"/>
       <c r="B155" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C155" s="11"/>
       <c r="D155" s="11"/>
@@ -6849,7 +7138,7 @@
         <v>7</v>
       </c>
       <c r="K155" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L155" s="11"/>
       <c r="M155" s="11"/>
@@ -6875,7 +7164,7 @@
       <c r="I156" s="5"/>
       <c r="J156" s="11"/>
       <c r="K156" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L156" s="11"/>
       <c r="M156" s="11"/>
@@ -7318,15 +7607,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BF885D8-A1BC-4A89-AA30-E8D58E7CFAAA}">
   <dimension ref="A2:T161"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M86" sqref="M86"/>
+    <sheetView topLeftCell="A160" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -7344,7 +7633,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
@@ -7362,7 +7651,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
@@ -7380,7 +7669,7 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
@@ -7398,7 +7687,7 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -7451,14 +7740,14 @@
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B13" s="4"/>
       <c r="C13" s="21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" t="s">
         <v>7</v>
       </c>
       <c r="H13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -7498,7 +7787,7 @@
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="13"/>
       <c r="B20" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
@@ -7533,7 +7822,7 @@
       <c r="I21" s="3"/>
       <c r="J21" s="11"/>
       <c r="K21" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
@@ -7751,7 +8040,7 @@
         <v>7</v>
       </c>
       <c r="K30" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L30" s="11"/>
       <c r="M30" s="11"/>
@@ -7777,7 +8066,7 @@
       <c r="I31" s="5"/>
       <c r="J31" s="11"/>
       <c r="K31" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L31" s="11"/>
       <c r="M31" s="11"/>
@@ -7803,7 +8092,7 @@
       <c r="I32" s="5"/>
       <c r="J32" s="11"/>
       <c r="K32" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L32" s="11"/>
       <c r="M32" s="11"/>
@@ -7829,7 +8118,7 @@
       <c r="I33" s="5"/>
       <c r="J33" s="11"/>
       <c r="K33" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L33" s="11"/>
       <c r="M33" s="11"/>
@@ -8058,7 +8347,7 @@
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="16"/>
       <c r="B43" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C43" s="11"/>
       <c r="D43" s="11"/>
@@ -8082,7 +8371,7 @@
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="16"/>
       <c r="B44" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C44" s="11"/>
       <c r="D44" s="11"/>
@@ -8106,7 +8395,7 @@
     <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="16"/>
       <c r="B45" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C45" s="11"/>
       <c r="D45" s="11"/>
@@ -8130,7 +8419,7 @@
     <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="16"/>
       <c r="B46" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C46" s="11"/>
       <c r="D46" s="11"/>
@@ -8154,7 +8443,7 @@
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="16"/>
       <c r="B47" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C47" s="11"/>
       <c r="D47" s="11"/>
@@ -8178,7 +8467,7 @@
     <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="16"/>
       <c r="B48" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C48" s="11"/>
       <c r="D48" s="11"/>
@@ -8318,7 +8607,7 @@
     <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" s="16"/>
       <c r="B54" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C54" s="11"/>
       <c r="D54" s="11"/>
@@ -8604,7 +8893,7 @@
     <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66" s="16"/>
       <c r="B66" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C66" s="11"/>
       <c r="D66" s="11"/>
@@ -8890,7 +9179,7 @@
     <row r="78" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A78" s="16"/>
       <c r="B78" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C78" s="11"/>
       <c r="D78" s="11"/>
@@ -8914,7 +9203,7 @@
     <row r="79" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A79" s="16"/>
       <c r="B79" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C79" s="11"/>
       <c r="D79" s="11"/>
@@ -8938,7 +9227,7 @@
     <row r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A80" s="16"/>
       <c r="B80" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C80" s="11"/>
       <c r="D80" s="11"/>
@@ -8962,7 +9251,7 @@
     <row r="81" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A81" s="16"/>
       <c r="B81" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C81" s="11"/>
       <c r="D81" s="11"/>
@@ -8986,7 +9275,7 @@
     <row r="82" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A82" s="16"/>
       <c r="B82" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C82" s="11"/>
       <c r="D82" s="11"/>
@@ -9010,7 +9299,7 @@
     <row r="83" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A83" s="16"/>
       <c r="B83" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C83" s="11"/>
       <c r="D83" s="11"/>
@@ -9127,13 +9416,13 @@
     </row>
     <row r="90" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A91" s="13"/>
       <c r="B91" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C91" s="14"/>
       <c r="D91" s="14"/>
@@ -9168,7 +9457,7 @@
       <c r="I92" s="3"/>
       <c r="J92" s="11"/>
       <c r="K92" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L92" s="2"/>
       <c r="M92" s="2"/>
@@ -9421,7 +9710,7 @@
     <row r="103" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A103" s="16"/>
       <c r="B103" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C103" s="11"/>
       <c r="D103" s="11"/>
@@ -9434,7 +9723,7 @@
         <v>7</v>
       </c>
       <c r="K103" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L103" s="11"/>
       <c r="M103" s="11"/>
@@ -9711,7 +10000,7 @@
     <row r="115" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A115" s="16"/>
       <c r="B115" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C115" s="11"/>
       <c r="D115" s="11"/>
@@ -9735,7 +10024,7 @@
     <row r="116" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A116" s="16"/>
       <c r="B116" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C116" s="11"/>
       <c r="D116" s="11"/>
@@ -9759,7 +10048,7 @@
     <row r="117" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A117" s="16"/>
       <c r="B117" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C117" s="11"/>
       <c r="D117" s="11"/>
@@ -9783,7 +10072,7 @@
     <row r="118" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A118" s="16"/>
       <c r="B118" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C118" s="11"/>
       <c r="D118" s="11"/>
@@ -9807,7 +10096,7 @@
     <row r="119" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A119" s="16"/>
       <c r="B119" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C119" s="11"/>
       <c r="D119" s="11"/>
@@ -9831,7 +10120,7 @@
     <row r="120" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A120" s="16"/>
       <c r="B120" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C120" s="11"/>
       <c r="D120" s="11"/>
@@ -9948,13 +10237,13 @@
     </row>
     <row r="127" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="128" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A128" s="13"/>
       <c r="B128" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C128" s="14"/>
       <c r="D128" s="14"/>
@@ -9989,7 +10278,7 @@
       <c r="I129" s="3"/>
       <c r="J129" s="11"/>
       <c r="K129" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L129" s="2"/>
       <c r="M129" s="2"/>
@@ -10242,7 +10531,7 @@
     <row r="140" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A140" s="16"/>
       <c r="B140" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C140" s="11"/>
       <c r="D140" s="11"/>
@@ -10255,7 +10544,7 @@
         <v>7</v>
       </c>
       <c r="K140" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L140" s="11"/>
       <c r="M140" s="11"/>
@@ -10532,7 +10821,7 @@
     <row r="152" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A152" s="16"/>
       <c r="B152" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C152" s="11"/>
       <c r="D152" s="11"/>
@@ -10556,7 +10845,7 @@
     <row r="153" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A153" s="16"/>
       <c r="B153" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C153" s="11"/>
       <c r="D153" s="11"/>
@@ -10580,7 +10869,7 @@
     <row r="154" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A154" s="16"/>
       <c r="B154" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C154" s="11"/>
       <c r="D154" s="11"/>
@@ -10604,7 +10893,7 @@
     <row r="155" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A155" s="16"/>
       <c r="B155" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C155" s="11"/>
       <c r="D155" s="11"/>
@@ -10628,7 +10917,7 @@
     <row r="156" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A156" s="16"/>
       <c r="B156" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C156" s="11"/>
       <c r="D156" s="11"/>
@@ -10652,7 +10941,7 @@
     <row r="157" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A157" s="16"/>
       <c r="B157" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C157" s="11"/>
       <c r="D157" s="11"/>
@@ -10772,4 +11061,923 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84799764-1E2A-4068-A1CE-E2AB49A64777}">
+  <dimension ref="A2:Q84"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="K58" sqref="K58"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="4"/>
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="4"/>
+      <c r="C9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="4"/>
+      <c r="C10" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="4"/>
+      <c r="C11" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="4"/>
+      <c r="D12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="4"/>
+      <c r="E13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="6"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="9"/>
+      <c r="G14" t="s">
+        <v>7</v>
+      </c>
+      <c r="H14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="3"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="5"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="5"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="5"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B22" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="5"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B23" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="5"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B24" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="5"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B25" s="4"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="5"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B26" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="5"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B27" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="5"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B28" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="5"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B29" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="5"/>
+      <c r="J29" t="s">
+        <v>7</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="3"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B30" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="5"/>
+      <c r="K30" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="11"/>
+      <c r="Q30" s="5"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B31" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="5"/>
+      <c r="K31" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="11"/>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="5"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B32" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="5"/>
+      <c r="K32" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="7"/>
+      <c r="P32" s="7"/>
+      <c r="Q32" s="9"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B33" s="4"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="5"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B34" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="5"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B35" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="5"/>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B36" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="5"/>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B37" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="5"/>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B38" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="5"/>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B39" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="5"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B40" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="5"/>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B41" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="5"/>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B42" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="5"/>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B43" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="5"/>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B44" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="5"/>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B45" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="5"/>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B46" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="5"/>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B47" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="5"/>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B48" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="5"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B49" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="9"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B53" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="3"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B54" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="5"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B55" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11"/>
+      <c r="H55" s="11"/>
+      <c r="I55" s="5"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B56" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="11"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="5"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B57" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="11"/>
+      <c r="H57" s="11"/>
+      <c r="I57" s="5"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B58" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="11"/>
+      <c r="H58" s="11"/>
+      <c r="I58" s="5"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B59" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C59" s="11"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="11"/>
+      <c r="F59" s="11"/>
+      <c r="G59" s="11"/>
+      <c r="H59" s="11"/>
+      <c r="I59" s="5"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B60" s="4"/>
+      <c r="C60" s="11"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="11"/>
+      <c r="G60" s="11"/>
+      <c r="H60" s="11"/>
+      <c r="I60" s="5"/>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B61" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C61" s="11"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="11"/>
+      <c r="G61" s="11"/>
+      <c r="H61" s="11"/>
+      <c r="I61" s="5"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B62" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C62" s="11"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="11"/>
+      <c r="F62" s="11"/>
+      <c r="G62" s="11"/>
+      <c r="H62" s="11"/>
+      <c r="I62" s="5"/>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B63" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="11"/>
+      <c r="F63" s="11"/>
+      <c r="G63" s="11"/>
+      <c r="H63" s="11"/>
+      <c r="I63" s="5"/>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B64" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C64" s="11"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="11"/>
+      <c r="F64" s="11"/>
+      <c r="G64" s="11"/>
+      <c r="H64" s="11"/>
+      <c r="I64" s="5"/>
+      <c r="J64" t="s">
+        <v>7</v>
+      </c>
+      <c r="K64" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B65" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C65" s="11"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="11"/>
+      <c r="F65" s="11"/>
+      <c r="G65" s="11"/>
+      <c r="H65" s="11"/>
+      <c r="I65" s="5"/>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B66" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C66" s="11"/>
+      <c r="D66" s="11"/>
+      <c r="E66" s="11"/>
+      <c r="F66" s="11"/>
+      <c r="G66" s="11"/>
+      <c r="H66" s="11"/>
+      <c r="I66" s="5"/>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B67" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C67" s="11"/>
+      <c r="D67" s="11"/>
+      <c r="E67" s="11"/>
+      <c r="F67" s="11"/>
+      <c r="G67" s="11"/>
+      <c r="H67" s="11"/>
+      <c r="I67" s="5"/>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B68" s="4"/>
+      <c r="C68" s="11"/>
+      <c r="D68" s="11"/>
+      <c r="E68" s="11"/>
+      <c r="F68" s="11"/>
+      <c r="G68" s="11"/>
+      <c r="H68" s="11"/>
+      <c r="I68" s="5"/>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B69" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C69" s="11"/>
+      <c r="D69" s="11"/>
+      <c r="E69" s="11"/>
+      <c r="F69" s="11"/>
+      <c r="G69" s="11"/>
+      <c r="H69" s="11"/>
+      <c r="I69" s="5"/>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B70" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C70" s="11"/>
+      <c r="D70" s="11"/>
+      <c r="E70" s="11"/>
+      <c r="F70" s="11"/>
+      <c r="G70" s="11"/>
+      <c r="H70" s="11"/>
+      <c r="I70" s="5"/>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B71" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C71" s="11"/>
+      <c r="D71" s="11"/>
+      <c r="E71" s="11"/>
+      <c r="F71" s="11"/>
+      <c r="G71" s="11"/>
+      <c r="H71" s="11"/>
+      <c r="I71" s="5"/>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B72" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C72" s="11"/>
+      <c r="D72" s="11"/>
+      <c r="E72" s="11"/>
+      <c r="F72" s="11"/>
+      <c r="G72" s="11"/>
+      <c r="H72" s="11"/>
+      <c r="I72" s="5"/>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B73" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C73" s="11"/>
+      <c r="D73" s="11"/>
+      <c r="E73" s="11"/>
+      <c r="F73" s="11"/>
+      <c r="G73" s="11"/>
+      <c r="H73" s="11"/>
+      <c r="I73" s="5"/>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B74" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C74" s="11"/>
+      <c r="D74" s="11"/>
+      <c r="E74" s="11"/>
+      <c r="F74" s="11"/>
+      <c r="G74" s="11"/>
+      <c r="H74" s="11"/>
+      <c r="I74" s="5"/>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B75" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C75" s="11"/>
+      <c r="D75" s="11"/>
+      <c r="E75" s="11"/>
+      <c r="F75" s="11"/>
+      <c r="G75" s="11"/>
+      <c r="H75" s="11"/>
+      <c r="I75" s="5"/>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B76" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C76" s="11"/>
+      <c r="D76" s="11"/>
+      <c r="E76" s="11"/>
+      <c r="F76" s="11"/>
+      <c r="G76" s="11"/>
+      <c r="H76" s="11"/>
+      <c r="I76" s="5"/>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B77" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C77" s="11"/>
+      <c r="D77" s="11"/>
+      <c r="E77" s="11"/>
+      <c r="F77" s="11"/>
+      <c r="G77" s="11"/>
+      <c r="H77" s="11"/>
+      <c r="I77" s="5"/>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B78" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C78" s="11"/>
+      <c r="D78" s="11"/>
+      <c r="E78" s="11"/>
+      <c r="F78" s="11"/>
+      <c r="G78" s="11"/>
+      <c r="H78" s="11"/>
+      <c r="I78" s="5"/>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B79" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C79" s="11"/>
+      <c r="D79" s="11"/>
+      <c r="E79" s="11"/>
+      <c r="F79" s="11"/>
+      <c r="G79" s="11"/>
+      <c r="H79" s="11"/>
+      <c r="I79" s="5"/>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B80" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C80" s="11"/>
+      <c r="D80" s="11"/>
+      <c r="E80" s="11"/>
+      <c r="F80" s="11"/>
+      <c r="G80" s="11"/>
+      <c r="H80" s="11"/>
+      <c r="I80" s="5"/>
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B81" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C81" s="11"/>
+      <c r="D81" s="11"/>
+      <c r="E81" s="11"/>
+      <c r="F81" s="11"/>
+      <c r="G81" s="11"/>
+      <c r="H81" s="11"/>
+      <c r="I81" s="5"/>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B82" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C82" s="11"/>
+      <c r="D82" s="11"/>
+      <c r="E82" s="11"/>
+      <c r="F82" s="11"/>
+      <c r="G82" s="11"/>
+      <c r="H82" s="11"/>
+      <c r="I82" s="5"/>
+    </row>
+    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B83" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C83" s="11"/>
+      <c r="D83" s="11"/>
+      <c r="E83" s="11"/>
+      <c r="F83" s="11"/>
+      <c r="G83" s="11"/>
+      <c r="H83" s="11"/>
+      <c r="I83" s="5"/>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B84" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C84" s="7"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="7"/>
+      <c r="F84" s="7"/>
+      <c r="G84" s="7"/>
+      <c r="H84" s="7"/>
+      <c r="I84" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/me/2.Flex-Container.xlsx
+++ b/me/2.Flex-Container.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\flexbox\me\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9889EE28-3A91-44C0-A66C-E1A9293B0A19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2765F598-85A2-43FD-8510-334BB4DD9C4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Display flex" sheetId="2" r:id="rId1"/>
     <sheet name="Flex direction" sheetId="3" r:id="rId2"/>
     <sheet name="Flex wrap" sheetId="4" r:id="rId3"/>
     <sheet name="Flex flow" sheetId="5" r:id="rId4"/>
+    <sheet name="Justify content" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="121">
   <si>
     <t>構成</t>
   </si>
@@ -329,6 +330,263 @@
   </si>
   <si>
     <t>Các flex item sẽ được bố trí từ trái qua phải và có tự động xuống dòng</t>
+  </si>
+  <si>
+    <t>5.Justify-content</t>
+  </si>
+  <si>
+    <t>flexbox\2.Flex-Container\5.Justify-content\index.html</t>
+  </si>
+  <si>
+    <t>①flex-start</t>
+  </si>
+  <si>
+    <t>        justify-content: flex-start;</t>
+  </si>
+  <si>
+    <t>      &lt;div class="box box-5"&gt;6&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>      &lt;div class="box box-5"&gt;7&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>      &lt;div class="box box-5"&gt;8&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>      &lt;div class="box box-5"&gt;9&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>Có các giá trị là flex-start, flex-end, center, space-between, space-around, space-evenly và giá trị mặc định là flex-start</t>
+  </si>
+  <si>
+    <t>②flex-end</t>
+  </si>
+  <si>
+    <t>        justify-content: flex-end;</t>
+  </si>
+  <si>
+    <t>③center</t>
+  </si>
+  <si>
+    <t>        justify-content: center;</t>
+  </si>
+  <si>
+    <t>④space-between</t>
+  </si>
+  <si>
+    <t>        justify-content: space-between;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Justify content sẽ giúp căn chỉnh các flex item bên trong theo trục MAIN AXIS </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>theo từng dòng</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Tất cả các flex item  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>trên từng dòng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> sẽ được căn vào giữa flex contain</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Các phần tử </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>flex item</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> trên từng dòng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> sẽ nằm về cuối của flex contain</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Các phần tử flex item</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> trên từng dòng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> sẽ nằm về phía đầu trái của flex contain</t>
+    </r>
+  </si>
+  <si>
+    <t>container. Các phần tử ở trong sẽ tự động giãn cách ra sao cho các khoảng cách là đều nhau</t>
+  </si>
+  <si>
+    <t>⑤space-around</t>
+  </si>
+  <si>
+    <t>        justify-content: space-around;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Trên mỗi dòng thì các flex item sẽ tự động giãn cách ra và khoảng cách ở </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2 đầu trái phải</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> sẽ bằng một</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Trên từng dòng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> thì các phần tử flex item ở đầu và cuối sẽ nằm về 2 bên sát lề trái và phải của flex </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>nửa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> khoảng cách ở bên trong</t>
+    </r>
+  </si>
+  <si>
+    <t>⑥space-evenly</t>
+  </si>
+  <si>
+    <t>        justify-content: space-evenly;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Trên mỗi dòng thì các flex item sẽ tự đọng giãn cách. Tất cả các khoảng cách </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>đều bằng nhau</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> hết</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -3193,6 +3451,860 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>114301</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>170196</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42EDEB2B-D9AA-F3FC-7DF1-3553AFD2E91F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6210301" y="6143625"/>
+          <a:ext cx="5495924" cy="3361071"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC5FBB75-9F06-A8EC-FD86-794204C5746B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="790575" y="533400"/>
+          <a:ext cx="6448425" cy="2809875"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>494562</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>152015</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AD4AE08-2372-AF64-0FFA-6EF7C43B5C43}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6172200" y="12887325"/>
+          <a:ext cx="5904762" cy="3076190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEA11624-C6F2-4A32-6540-B18C716E92F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2381250" y="6029325"/>
+          <a:ext cx="4086225" cy="1676400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Straight Arrow Connector 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0EDA5B1-0D43-E7E0-35AE-967E73D18EE1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2381250" y="12696825"/>
+          <a:ext cx="9429750" cy="1847850"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>399317</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>123443</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0E26602-454E-E4F8-ED0B-93118CF03F26}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6115050" y="19545300"/>
+          <a:ext cx="5866667" cy="3057143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>265963</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>152011</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C55F176C-E80E-9706-A456-2C241C655FE7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5953125" y="26374725"/>
+          <a:ext cx="5895238" cy="3114286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Straight Arrow Connector 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39F97595-3DE0-79CF-511A-F0EE98C74866}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2771775" y="26060400"/>
+          <a:ext cx="3305175" cy="1628775"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="Straight Arrow Connector 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B75669E6-83B1-69B0-67F4-8B1F9C6D0A1B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2324100" y="19392900"/>
+          <a:ext cx="3943350" cy="1838325"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>173</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>189</xdr:row>
+      <xdr:rowOff>182789</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6D3628B-58A3-2BC5-9542-BE675D6F13FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6000750" y="33032700"/>
+          <a:ext cx="4953000" cy="3154589"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>185</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="Straight Arrow Connector 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A9E0100-3CD5-B8E7-69B8-B0DCE35D2641}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6362700" y="32756475"/>
+          <a:ext cx="4448175" cy="2562225"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>185</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="Straight Arrow Connector 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52270DB2-E0E8-232C-90AD-68B3E47A0DFE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="10525125" y="32756475"/>
+          <a:ext cx="285750" cy="2638425"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>172</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>185</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C205602C-AC12-E622-6128-3F751DC7E09F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6886575" y="32908875"/>
+          <a:ext cx="466725" cy="2371725"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>207</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>580430</xdr:colOff>
+      <xdr:row>223</xdr:row>
+      <xdr:rowOff>75820</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Picture 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFE1AF28-D2E4-231C-8096-966BB00AFE7F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6181725" y="39519225"/>
+          <a:ext cx="4761905" cy="3038095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>181</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CB189C4-32EA-778A-1EAC-3A62F7F76C73}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2686050" y="32727900"/>
+          <a:ext cx="3543300" cy="1847850"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>206</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>214</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="Straight Arrow Connector 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CE33D1A-1D6E-6DB8-D3EE-9258EB33E2EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="25" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2647950" y="39328725"/>
+          <a:ext cx="3495675" cy="1600200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>172</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>206</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="Straight Arrow Connector 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DEE9572-34F8-513E-196D-92D58BCFAE57}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6181725" y="32918400"/>
+          <a:ext cx="4591050" cy="6381750"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -11067,8 +12179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84799764-1E2A-4068-A1CE-E2AB49A64777}">
   <dimension ref="A2:Q84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="K58" sqref="K58"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11980,4 +13092,2430 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA836186-7093-422C-A57D-3064E650FE81}">
+  <dimension ref="A2:K225"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
+      <selection activeCell="L198" sqref="L198"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="4"/>
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="4"/>
+      <c r="C9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="4"/>
+      <c r="C10" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="4"/>
+      <c r="C11" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="4"/>
+      <c r="C12" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="F12" s="5"/>
+      <c r="G12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="4"/>
+      <c r="D13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="4"/>
+      <c r="E14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="6"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="9"/>
+      <c r="G15" t="s">
+        <v>7</v>
+      </c>
+      <c r="H15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="3"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="5"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="5"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="5"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B24" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="5"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B25" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="5"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B26" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="5"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B27" s="4"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="5"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B28" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="5"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B29" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="5"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B30" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="5"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B31" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="5"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B32" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="5"/>
+      <c r="J32" t="s">
+        <v>7</v>
+      </c>
+      <c r="K32" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B33" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="5"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B34" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="5"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B35" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="5"/>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B36" s="4"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="5"/>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B37" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="5"/>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B38" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="5"/>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B39" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="5"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B40" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="5"/>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B41" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="5"/>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B42" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="5"/>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B43" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="5"/>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B44" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="5"/>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B45" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="5"/>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B46" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="5"/>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B47" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="5"/>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B48" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="5"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B49" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="5"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B50" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="9"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B55" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="3"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B56" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="11"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="5"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B57" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="11"/>
+      <c r="H57" s="11"/>
+      <c r="I57" s="5"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B58" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="11"/>
+      <c r="H58" s="11"/>
+      <c r="I58" s="5"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B59" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C59" s="11"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="11"/>
+      <c r="F59" s="11"/>
+      <c r="G59" s="11"/>
+      <c r="H59" s="11"/>
+      <c r="I59" s="5"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B60" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C60" s="11"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="11"/>
+      <c r="G60" s="11"/>
+      <c r="H60" s="11"/>
+      <c r="I60" s="5"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B61" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C61" s="11"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="11"/>
+      <c r="G61" s="11"/>
+      <c r="H61" s="11"/>
+      <c r="I61" s="5"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B62" s="4"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="11"/>
+      <c r="F62" s="11"/>
+      <c r="G62" s="11"/>
+      <c r="H62" s="11"/>
+      <c r="I62" s="5"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B63" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="11"/>
+      <c r="F63" s="11"/>
+      <c r="G63" s="11"/>
+      <c r="H63" s="11"/>
+      <c r="I63" s="5"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B64" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C64" s="11"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="11"/>
+      <c r="F64" s="11"/>
+      <c r="G64" s="11"/>
+      <c r="H64" s="11"/>
+      <c r="I64" s="5"/>
+    </row>
+    <row r="65" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B65" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C65" s="11"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="11"/>
+      <c r="F65" s="11"/>
+      <c r="G65" s="11"/>
+      <c r="H65" s="11"/>
+      <c r="I65" s="5"/>
+    </row>
+    <row r="66" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B66" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C66" s="11"/>
+      <c r="D66" s="11"/>
+      <c r="E66" s="11"/>
+      <c r="F66" s="11"/>
+      <c r="G66" s="11"/>
+      <c r="H66" s="11"/>
+      <c r="I66" s="5"/>
+    </row>
+    <row r="67" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B67" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C67" s="11"/>
+      <c r="D67" s="11"/>
+      <c r="E67" s="11"/>
+      <c r="F67" s="11"/>
+      <c r="G67" s="11"/>
+      <c r="H67" s="11"/>
+      <c r="I67" s="5"/>
+      <c r="J67" t="s">
+        <v>7</v>
+      </c>
+      <c r="K67" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="68" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B68" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C68" s="11"/>
+      <c r="D68" s="11"/>
+      <c r="E68" s="11"/>
+      <c r="F68" s="11"/>
+      <c r="G68" s="11"/>
+      <c r="H68" s="11"/>
+      <c r="I68" s="5"/>
+    </row>
+    <row r="69" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B69" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C69" s="11"/>
+      <c r="D69" s="11"/>
+      <c r="E69" s="11"/>
+      <c r="F69" s="11"/>
+      <c r="G69" s="11"/>
+      <c r="H69" s="11"/>
+      <c r="I69" s="5"/>
+    </row>
+    <row r="70" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B70" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C70" s="11"/>
+      <c r="D70" s="11"/>
+      <c r="E70" s="11"/>
+      <c r="F70" s="11"/>
+      <c r="G70" s="11"/>
+      <c r="H70" s="11"/>
+      <c r="I70" s="5"/>
+    </row>
+    <row r="71" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B71" s="4"/>
+      <c r="C71" s="11"/>
+      <c r="D71" s="11"/>
+      <c r="E71" s="11"/>
+      <c r="F71" s="11"/>
+      <c r="G71" s="11"/>
+      <c r="H71" s="11"/>
+      <c r="I71" s="5"/>
+    </row>
+    <row r="72" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B72" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C72" s="11"/>
+      <c r="D72" s="11"/>
+      <c r="E72" s="11"/>
+      <c r="F72" s="11"/>
+      <c r="G72" s="11"/>
+      <c r="H72" s="11"/>
+      <c r="I72" s="5"/>
+    </row>
+    <row r="73" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B73" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C73" s="11"/>
+      <c r="D73" s="11"/>
+      <c r="E73" s="11"/>
+      <c r="F73" s="11"/>
+      <c r="G73" s="11"/>
+      <c r="H73" s="11"/>
+      <c r="I73" s="5"/>
+    </row>
+    <row r="74" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B74" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C74" s="11"/>
+      <c r="D74" s="11"/>
+      <c r="E74" s="11"/>
+      <c r="F74" s="11"/>
+      <c r="G74" s="11"/>
+      <c r="H74" s="11"/>
+      <c r="I74" s="5"/>
+    </row>
+    <row r="75" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B75" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C75" s="11"/>
+      <c r="D75" s="11"/>
+      <c r="E75" s="11"/>
+      <c r="F75" s="11"/>
+      <c r="G75" s="11"/>
+      <c r="H75" s="11"/>
+      <c r="I75" s="5"/>
+    </row>
+    <row r="76" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B76" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C76" s="11"/>
+      <c r="D76" s="11"/>
+      <c r="E76" s="11"/>
+      <c r="F76" s="11"/>
+      <c r="G76" s="11"/>
+      <c r="H76" s="11"/>
+      <c r="I76" s="5"/>
+    </row>
+    <row r="77" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B77" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C77" s="11"/>
+      <c r="D77" s="11"/>
+      <c r="E77" s="11"/>
+      <c r="F77" s="11"/>
+      <c r="G77" s="11"/>
+      <c r="H77" s="11"/>
+      <c r="I77" s="5"/>
+    </row>
+    <row r="78" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B78" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C78" s="11"/>
+      <c r="D78" s="11"/>
+      <c r="E78" s="11"/>
+      <c r="F78" s="11"/>
+      <c r="G78" s="11"/>
+      <c r="H78" s="11"/>
+      <c r="I78" s="5"/>
+    </row>
+    <row r="79" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B79" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C79" s="11"/>
+      <c r="D79" s="11"/>
+      <c r="E79" s="11"/>
+      <c r="F79" s="11"/>
+      <c r="G79" s="11"/>
+      <c r="H79" s="11"/>
+      <c r="I79" s="5"/>
+    </row>
+    <row r="80" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B80" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C80" s="11"/>
+      <c r="D80" s="11"/>
+      <c r="E80" s="11"/>
+      <c r="F80" s="11"/>
+      <c r="G80" s="11"/>
+      <c r="H80" s="11"/>
+      <c r="I80" s="5"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B81" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C81" s="11"/>
+      <c r="D81" s="11"/>
+      <c r="E81" s="11"/>
+      <c r="F81" s="11"/>
+      <c r="G81" s="11"/>
+      <c r="H81" s="11"/>
+      <c r="I81" s="5"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B82" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C82" s="11"/>
+      <c r="D82" s="11"/>
+      <c r="E82" s="11"/>
+      <c r="F82" s="11"/>
+      <c r="G82" s="11"/>
+      <c r="H82" s="11"/>
+      <c r="I82" s="5"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B83" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C83" s="11"/>
+      <c r="D83" s="11"/>
+      <c r="E83" s="11"/>
+      <c r="F83" s="11"/>
+      <c r="G83" s="11"/>
+      <c r="H83" s="11"/>
+      <c r="I83" s="5"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B84" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C84" s="11"/>
+      <c r="D84" s="11"/>
+      <c r="E84" s="11"/>
+      <c r="F84" s="11"/>
+      <c r="G84" s="11"/>
+      <c r="H84" s="11"/>
+      <c r="I84" s="5"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B85" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C85" s="7"/>
+      <c r="D85" s="7"/>
+      <c r="E85" s="7"/>
+      <c r="F85" s="7"/>
+      <c r="G85" s="7"/>
+      <c r="H85" s="7"/>
+      <c r="I85" s="9"/>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88" s="12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B90" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C90" s="2"/>
+      <c r="D90" s="2"/>
+      <c r="E90" s="2"/>
+      <c r="F90" s="2"/>
+      <c r="G90" s="2"/>
+      <c r="H90" s="2"/>
+      <c r="I90" s="3"/>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B91" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C91" s="11"/>
+      <c r="D91" s="11"/>
+      <c r="E91" s="11"/>
+      <c r="F91" s="11"/>
+      <c r="G91" s="11"/>
+      <c r="H91" s="11"/>
+      <c r="I91" s="5"/>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B92" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C92" s="11"/>
+      <c r="D92" s="11"/>
+      <c r="E92" s="11"/>
+      <c r="F92" s="11"/>
+      <c r="G92" s="11"/>
+      <c r="H92" s="11"/>
+      <c r="I92" s="5"/>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B93" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C93" s="11"/>
+      <c r="D93" s="11"/>
+      <c r="E93" s="11"/>
+      <c r="F93" s="11"/>
+      <c r="G93" s="11"/>
+      <c r="H93" s="11"/>
+      <c r="I93" s="5"/>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B94" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C94" s="11"/>
+      <c r="D94" s="11"/>
+      <c r="E94" s="11"/>
+      <c r="F94" s="11"/>
+      <c r="G94" s="11"/>
+      <c r="H94" s="11"/>
+      <c r="I94" s="5"/>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B95" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C95" s="11"/>
+      <c r="D95" s="11"/>
+      <c r="E95" s="11"/>
+      <c r="F95" s="11"/>
+      <c r="G95" s="11"/>
+      <c r="H95" s="11"/>
+      <c r="I95" s="5"/>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B96" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C96" s="11"/>
+      <c r="D96" s="11"/>
+      <c r="E96" s="11"/>
+      <c r="F96" s="11"/>
+      <c r="G96" s="11"/>
+      <c r="H96" s="11"/>
+      <c r="I96" s="5"/>
+    </row>
+    <row r="97" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B97" s="4"/>
+      <c r="C97" s="11"/>
+      <c r="D97" s="11"/>
+      <c r="E97" s="11"/>
+      <c r="F97" s="11"/>
+      <c r="G97" s="11"/>
+      <c r="H97" s="11"/>
+      <c r="I97" s="5"/>
+    </row>
+    <row r="98" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B98" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C98" s="11"/>
+      <c r="D98" s="11"/>
+      <c r="E98" s="11"/>
+      <c r="F98" s="11"/>
+      <c r="G98" s="11"/>
+      <c r="H98" s="11"/>
+      <c r="I98" s="5"/>
+    </row>
+    <row r="99" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B99" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C99" s="11"/>
+      <c r="D99" s="11"/>
+      <c r="E99" s="11"/>
+      <c r="F99" s="11"/>
+      <c r="G99" s="11"/>
+      <c r="H99" s="11"/>
+      <c r="I99" s="5"/>
+    </row>
+    <row r="100" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B100" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C100" s="11"/>
+      <c r="D100" s="11"/>
+      <c r="E100" s="11"/>
+      <c r="F100" s="11"/>
+      <c r="G100" s="11"/>
+      <c r="H100" s="11"/>
+      <c r="I100" s="5"/>
+    </row>
+    <row r="101" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B101" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C101" s="11"/>
+      <c r="D101" s="11"/>
+      <c r="E101" s="11"/>
+      <c r="F101" s="11"/>
+      <c r="G101" s="11"/>
+      <c r="H101" s="11"/>
+      <c r="I101" s="5"/>
+    </row>
+    <row r="102" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B102" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="C102" s="11"/>
+      <c r="D102" s="11"/>
+      <c r="E102" s="11"/>
+      <c r="F102" s="11"/>
+      <c r="G102" s="11"/>
+      <c r="H102" s="11"/>
+      <c r="I102" s="5"/>
+      <c r="J102" t="s">
+        <v>7</v>
+      </c>
+      <c r="K102" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="103" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B103" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C103" s="11"/>
+      <c r="D103" s="11"/>
+      <c r="E103" s="11"/>
+      <c r="F103" s="11"/>
+      <c r="G103" s="11"/>
+      <c r="H103" s="11"/>
+      <c r="I103" s="5"/>
+    </row>
+    <row r="104" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B104" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C104" s="11"/>
+      <c r="D104" s="11"/>
+      <c r="E104" s="11"/>
+      <c r="F104" s="11"/>
+      <c r="G104" s="11"/>
+      <c r="H104" s="11"/>
+      <c r="I104" s="5"/>
+    </row>
+    <row r="105" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B105" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C105" s="11"/>
+      <c r="D105" s="11"/>
+      <c r="E105" s="11"/>
+      <c r="F105" s="11"/>
+      <c r="G105" s="11"/>
+      <c r="H105" s="11"/>
+      <c r="I105" s="5"/>
+    </row>
+    <row r="106" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B106" s="4"/>
+      <c r="C106" s="11"/>
+      <c r="D106" s="11"/>
+      <c r="E106" s="11"/>
+      <c r="F106" s="11"/>
+      <c r="G106" s="11"/>
+      <c r="H106" s="11"/>
+      <c r="I106" s="5"/>
+    </row>
+    <row r="107" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B107" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C107" s="11"/>
+      <c r="D107" s="11"/>
+      <c r="E107" s="11"/>
+      <c r="F107" s="11"/>
+      <c r="G107" s="11"/>
+      <c r="H107" s="11"/>
+      <c r="I107" s="5"/>
+    </row>
+    <row r="108" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B108" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C108" s="11"/>
+      <c r="D108" s="11"/>
+      <c r="E108" s="11"/>
+      <c r="F108" s="11"/>
+      <c r="G108" s="11"/>
+      <c r="H108" s="11"/>
+      <c r="I108" s="5"/>
+    </row>
+    <row r="109" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B109" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C109" s="11"/>
+      <c r="D109" s="11"/>
+      <c r="E109" s="11"/>
+      <c r="F109" s="11"/>
+      <c r="G109" s="11"/>
+      <c r="H109" s="11"/>
+      <c r="I109" s="5"/>
+    </row>
+    <row r="110" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B110" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C110" s="11"/>
+      <c r="D110" s="11"/>
+      <c r="E110" s="11"/>
+      <c r="F110" s="11"/>
+      <c r="G110" s="11"/>
+      <c r="H110" s="11"/>
+      <c r="I110" s="5"/>
+    </row>
+    <row r="111" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B111" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C111" s="11"/>
+      <c r="D111" s="11"/>
+      <c r="E111" s="11"/>
+      <c r="F111" s="11"/>
+      <c r="G111" s="11"/>
+      <c r="H111" s="11"/>
+      <c r="I111" s="5"/>
+    </row>
+    <row r="112" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B112" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C112" s="11"/>
+      <c r="D112" s="11"/>
+      <c r="E112" s="11"/>
+      <c r="F112" s="11"/>
+      <c r="G112" s="11"/>
+      <c r="H112" s="11"/>
+      <c r="I112" s="5"/>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B113" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C113" s="11"/>
+      <c r="D113" s="11"/>
+      <c r="E113" s="11"/>
+      <c r="F113" s="11"/>
+      <c r="G113" s="11"/>
+      <c r="H113" s="11"/>
+      <c r="I113" s="5"/>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B114" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C114" s="11"/>
+      <c r="D114" s="11"/>
+      <c r="E114" s="11"/>
+      <c r="F114" s="11"/>
+      <c r="G114" s="11"/>
+      <c r="H114" s="11"/>
+      <c r="I114" s="5"/>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B115" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C115" s="11"/>
+      <c r="D115" s="11"/>
+      <c r="E115" s="11"/>
+      <c r="F115" s="11"/>
+      <c r="G115" s="11"/>
+      <c r="H115" s="11"/>
+      <c r="I115" s="5"/>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B116" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C116" s="11"/>
+      <c r="D116" s="11"/>
+      <c r="E116" s="11"/>
+      <c r="F116" s="11"/>
+      <c r="G116" s="11"/>
+      <c r="H116" s="11"/>
+      <c r="I116" s="5"/>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B117" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C117" s="11"/>
+      <c r="D117" s="11"/>
+      <c r="E117" s="11"/>
+      <c r="F117" s="11"/>
+      <c r="G117" s="11"/>
+      <c r="H117" s="11"/>
+      <c r="I117" s="5"/>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B118" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C118" s="11"/>
+      <c r="D118" s="11"/>
+      <c r="E118" s="11"/>
+      <c r="F118" s="11"/>
+      <c r="G118" s="11"/>
+      <c r="H118" s="11"/>
+      <c r="I118" s="5"/>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B119" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C119" s="11"/>
+      <c r="D119" s="11"/>
+      <c r="E119" s="11"/>
+      <c r="F119" s="11"/>
+      <c r="G119" s="11"/>
+      <c r="H119" s="11"/>
+      <c r="I119" s="5"/>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B120" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C120" s="7"/>
+      <c r="D120" s="7"/>
+      <c r="E120" s="7"/>
+      <c r="F120" s="7"/>
+      <c r="G120" s="7"/>
+      <c r="H120" s="7"/>
+      <c r="I120" s="9"/>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A123" s="12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B124" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B125" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C125" s="2"/>
+      <c r="D125" s="2"/>
+      <c r="E125" s="2"/>
+      <c r="F125" s="2"/>
+      <c r="G125" s="2"/>
+      <c r="H125" s="2"/>
+      <c r="I125" s="3"/>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B126" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C126" s="11"/>
+      <c r="D126" s="11"/>
+      <c r="E126" s="11"/>
+      <c r="F126" s="11"/>
+      <c r="G126" s="11"/>
+      <c r="H126" s="11"/>
+      <c r="I126" s="5"/>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B127" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C127" s="11"/>
+      <c r="D127" s="11"/>
+      <c r="E127" s="11"/>
+      <c r="F127" s="11"/>
+      <c r="G127" s="11"/>
+      <c r="H127" s="11"/>
+      <c r="I127" s="5"/>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B128" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C128" s="11"/>
+      <c r="D128" s="11"/>
+      <c r="E128" s="11"/>
+      <c r="F128" s="11"/>
+      <c r="G128" s="11"/>
+      <c r="H128" s="11"/>
+      <c r="I128" s="5"/>
+    </row>
+    <row r="129" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B129" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C129" s="11"/>
+      <c r="D129" s="11"/>
+      <c r="E129" s="11"/>
+      <c r="F129" s="11"/>
+      <c r="G129" s="11"/>
+      <c r="H129" s="11"/>
+      <c r="I129" s="5"/>
+    </row>
+    <row r="130" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B130" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C130" s="11"/>
+      <c r="D130" s="11"/>
+      <c r="E130" s="11"/>
+      <c r="F130" s="11"/>
+      <c r="G130" s="11"/>
+      <c r="H130" s="11"/>
+      <c r="I130" s="5"/>
+    </row>
+    <row r="131" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B131" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C131" s="11"/>
+      <c r="D131" s="11"/>
+      <c r="E131" s="11"/>
+      <c r="F131" s="11"/>
+      <c r="G131" s="11"/>
+      <c r="H131" s="11"/>
+      <c r="I131" s="5"/>
+    </row>
+    <row r="132" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B132" s="4"/>
+      <c r="C132" s="11"/>
+      <c r="D132" s="11"/>
+      <c r="E132" s="11"/>
+      <c r="F132" s="11"/>
+      <c r="G132" s="11"/>
+      <c r="H132" s="11"/>
+      <c r="I132" s="5"/>
+    </row>
+    <row r="133" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B133" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C133" s="11"/>
+      <c r="D133" s="11"/>
+      <c r="E133" s="11"/>
+      <c r="F133" s="11"/>
+      <c r="G133" s="11"/>
+      <c r="H133" s="11"/>
+      <c r="I133" s="5"/>
+    </row>
+    <row r="134" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B134" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C134" s="11"/>
+      <c r="D134" s="11"/>
+      <c r="E134" s="11"/>
+      <c r="F134" s="11"/>
+      <c r="G134" s="11"/>
+      <c r="H134" s="11"/>
+      <c r="I134" s="5"/>
+    </row>
+    <row r="135" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B135" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C135" s="11"/>
+      <c r="D135" s="11"/>
+      <c r="E135" s="11"/>
+      <c r="F135" s="11"/>
+      <c r="G135" s="11"/>
+      <c r="H135" s="11"/>
+      <c r="I135" s="5"/>
+    </row>
+    <row r="136" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B136" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C136" s="11"/>
+      <c r="D136" s="11"/>
+      <c r="E136" s="11"/>
+      <c r="F136" s="11"/>
+      <c r="G136" s="11"/>
+      <c r="H136" s="11"/>
+      <c r="I136" s="5"/>
+    </row>
+    <row r="137" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B137" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C137" s="11"/>
+      <c r="D137" s="11"/>
+      <c r="E137" s="11"/>
+      <c r="F137" s="11"/>
+      <c r="G137" s="11"/>
+      <c r="H137" s="11"/>
+      <c r="I137" s="5"/>
+      <c r="J137" t="s">
+        <v>7</v>
+      </c>
+      <c r="K137" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="138" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B138" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C138" s="11"/>
+      <c r="D138" s="11"/>
+      <c r="E138" s="11"/>
+      <c r="F138" s="11"/>
+      <c r="G138" s="11"/>
+      <c r="H138" s="11"/>
+      <c r="I138" s="5"/>
+      <c r="K138" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="139" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B139" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C139" s="11"/>
+      <c r="D139" s="11"/>
+      <c r="E139" s="11"/>
+      <c r="F139" s="11"/>
+      <c r="G139" s="11"/>
+      <c r="H139" s="11"/>
+      <c r="I139" s="5"/>
+    </row>
+    <row r="140" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B140" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C140" s="11"/>
+      <c r="D140" s="11"/>
+      <c r="E140" s="11"/>
+      <c r="F140" s="11"/>
+      <c r="G140" s="11"/>
+      <c r="H140" s="11"/>
+      <c r="I140" s="5"/>
+    </row>
+    <row r="141" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B141" s="4"/>
+      <c r="C141" s="11"/>
+      <c r="D141" s="11"/>
+      <c r="E141" s="11"/>
+      <c r="F141" s="11"/>
+      <c r="G141" s="11"/>
+      <c r="H141" s="11"/>
+      <c r="I141" s="5"/>
+    </row>
+    <row r="142" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B142" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C142" s="11"/>
+      <c r="D142" s="11"/>
+      <c r="E142" s="11"/>
+      <c r="F142" s="11"/>
+      <c r="G142" s="11"/>
+      <c r="H142" s="11"/>
+      <c r="I142" s="5"/>
+    </row>
+    <row r="143" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B143" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C143" s="11"/>
+      <c r="D143" s="11"/>
+      <c r="E143" s="11"/>
+      <c r="F143" s="11"/>
+      <c r="G143" s="11"/>
+      <c r="H143" s="11"/>
+      <c r="I143" s="5"/>
+    </row>
+    <row r="144" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B144" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C144" s="11"/>
+      <c r="D144" s="11"/>
+      <c r="E144" s="11"/>
+      <c r="F144" s="11"/>
+      <c r="G144" s="11"/>
+      <c r="H144" s="11"/>
+      <c r="I144" s="5"/>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B145" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C145" s="11"/>
+      <c r="D145" s="11"/>
+      <c r="E145" s="11"/>
+      <c r="F145" s="11"/>
+      <c r="G145" s="11"/>
+      <c r="H145" s="11"/>
+      <c r="I145" s="5"/>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B146" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C146" s="11"/>
+      <c r="D146" s="11"/>
+      <c r="E146" s="11"/>
+      <c r="F146" s="11"/>
+      <c r="G146" s="11"/>
+      <c r="H146" s="11"/>
+      <c r="I146" s="5"/>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B147" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C147" s="11"/>
+      <c r="D147" s="11"/>
+      <c r="E147" s="11"/>
+      <c r="F147" s="11"/>
+      <c r="G147" s="11"/>
+      <c r="H147" s="11"/>
+      <c r="I147" s="5"/>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B148" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C148" s="11"/>
+      <c r="D148" s="11"/>
+      <c r="E148" s="11"/>
+      <c r="F148" s="11"/>
+      <c r="G148" s="11"/>
+      <c r="H148" s="11"/>
+      <c r="I148" s="5"/>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B149" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C149" s="11"/>
+      <c r="D149" s="11"/>
+      <c r="E149" s="11"/>
+      <c r="F149" s="11"/>
+      <c r="G149" s="11"/>
+      <c r="H149" s="11"/>
+      <c r="I149" s="5"/>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B150" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C150" s="11"/>
+      <c r="D150" s="11"/>
+      <c r="E150" s="11"/>
+      <c r="F150" s="11"/>
+      <c r="G150" s="11"/>
+      <c r="H150" s="11"/>
+      <c r="I150" s="5"/>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B151" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C151" s="11"/>
+      <c r="D151" s="11"/>
+      <c r="E151" s="11"/>
+      <c r="F151" s="11"/>
+      <c r="G151" s="11"/>
+      <c r="H151" s="11"/>
+      <c r="I151" s="5"/>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B152" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C152" s="11"/>
+      <c r="D152" s="11"/>
+      <c r="E152" s="11"/>
+      <c r="F152" s="11"/>
+      <c r="G152" s="11"/>
+      <c r="H152" s="11"/>
+      <c r="I152" s="5"/>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B153" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C153" s="11"/>
+      <c r="D153" s="11"/>
+      <c r="E153" s="11"/>
+      <c r="F153" s="11"/>
+      <c r="G153" s="11"/>
+      <c r="H153" s="11"/>
+      <c r="I153" s="5"/>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B154" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C154" s="11"/>
+      <c r="D154" s="11"/>
+      <c r="E154" s="11"/>
+      <c r="F154" s="11"/>
+      <c r="G154" s="11"/>
+      <c r="H154" s="11"/>
+      <c r="I154" s="5"/>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B155" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C155" s="7"/>
+      <c r="D155" s="7"/>
+      <c r="E155" s="7"/>
+      <c r="F155" s="7"/>
+      <c r="G155" s="7"/>
+      <c r="H155" s="7"/>
+      <c r="I155" s="9"/>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A158" s="12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B159" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B160" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C160" s="2"/>
+      <c r="D160" s="2"/>
+      <c r="E160" s="2"/>
+      <c r="F160" s="2"/>
+      <c r="G160" s="2"/>
+      <c r="H160" s="2"/>
+      <c r="I160" s="3"/>
+    </row>
+    <row r="161" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B161" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C161" s="11"/>
+      <c r="D161" s="11"/>
+      <c r="E161" s="11"/>
+      <c r="F161" s="11"/>
+      <c r="G161" s="11"/>
+      <c r="H161" s="11"/>
+      <c r="I161" s="5"/>
+    </row>
+    <row r="162" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B162" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C162" s="11"/>
+      <c r="D162" s="11"/>
+      <c r="E162" s="11"/>
+      <c r="F162" s="11"/>
+      <c r="G162" s="11"/>
+      <c r="H162" s="11"/>
+      <c r="I162" s="5"/>
+    </row>
+    <row r="163" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B163" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C163" s="11"/>
+      <c r="D163" s="11"/>
+      <c r="E163" s="11"/>
+      <c r="F163" s="11"/>
+      <c r="G163" s="11"/>
+      <c r="H163" s="11"/>
+      <c r="I163" s="5"/>
+    </row>
+    <row r="164" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B164" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C164" s="11"/>
+      <c r="D164" s="11"/>
+      <c r="E164" s="11"/>
+      <c r="F164" s="11"/>
+      <c r="G164" s="11"/>
+      <c r="H164" s="11"/>
+      <c r="I164" s="5"/>
+    </row>
+    <row r="165" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B165" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C165" s="11"/>
+      <c r="D165" s="11"/>
+      <c r="E165" s="11"/>
+      <c r="F165" s="11"/>
+      <c r="G165" s="11"/>
+      <c r="H165" s="11"/>
+      <c r="I165" s="5"/>
+    </row>
+    <row r="166" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B166" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C166" s="11"/>
+      <c r="D166" s="11"/>
+      <c r="E166" s="11"/>
+      <c r="F166" s="11"/>
+      <c r="G166" s="11"/>
+      <c r="H166" s="11"/>
+      <c r="I166" s="5"/>
+    </row>
+    <row r="167" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B167" s="4"/>
+      <c r="C167" s="11"/>
+      <c r="D167" s="11"/>
+      <c r="E167" s="11"/>
+      <c r="F167" s="11"/>
+      <c r="G167" s="11"/>
+      <c r="H167" s="11"/>
+      <c r="I167" s="5"/>
+    </row>
+    <row r="168" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B168" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C168" s="11"/>
+      <c r="D168" s="11"/>
+      <c r="E168" s="11"/>
+      <c r="F168" s="11"/>
+      <c r="G168" s="11"/>
+      <c r="H168" s="11"/>
+      <c r="I168" s="5"/>
+    </row>
+    <row r="169" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B169" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C169" s="11"/>
+      <c r="D169" s="11"/>
+      <c r="E169" s="11"/>
+      <c r="F169" s="11"/>
+      <c r="G169" s="11"/>
+      <c r="H169" s="11"/>
+      <c r="I169" s="5"/>
+    </row>
+    <row r="170" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B170" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C170" s="11"/>
+      <c r="D170" s="11"/>
+      <c r="E170" s="11"/>
+      <c r="F170" s="11"/>
+      <c r="G170" s="11"/>
+      <c r="H170" s="11"/>
+      <c r="I170" s="5"/>
+    </row>
+    <row r="171" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B171" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C171" s="11"/>
+      <c r="D171" s="11"/>
+      <c r="E171" s="11"/>
+      <c r="F171" s="11"/>
+      <c r="G171" s="11"/>
+      <c r="H171" s="11"/>
+      <c r="I171" s="5"/>
+    </row>
+    <row r="172" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B172" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C172" s="11"/>
+      <c r="D172" s="11"/>
+      <c r="E172" s="11"/>
+      <c r="F172" s="11"/>
+      <c r="G172" s="11"/>
+      <c r="H172" s="11"/>
+      <c r="I172" s="5"/>
+      <c r="J172" t="s">
+        <v>7</v>
+      </c>
+      <c r="K172" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="173" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B173" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C173" s="11"/>
+      <c r="D173" s="11"/>
+      <c r="E173" s="11"/>
+      <c r="F173" s="11"/>
+      <c r="G173" s="11"/>
+      <c r="H173" s="11"/>
+      <c r="I173" s="5"/>
+      <c r="K173" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="174" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B174" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C174" s="11"/>
+      <c r="D174" s="11"/>
+      <c r="E174" s="11"/>
+      <c r="F174" s="11"/>
+      <c r="G174" s="11"/>
+      <c r="H174" s="11"/>
+      <c r="I174" s="5"/>
+    </row>
+    <row r="175" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B175" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C175" s="11"/>
+      <c r="D175" s="11"/>
+      <c r="E175" s="11"/>
+      <c r="F175" s="11"/>
+      <c r="G175" s="11"/>
+      <c r="H175" s="11"/>
+      <c r="I175" s="5"/>
+    </row>
+    <row r="176" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B176" s="4"/>
+      <c r="C176" s="11"/>
+      <c r="D176" s="11"/>
+      <c r="E176" s="11"/>
+      <c r="F176" s="11"/>
+      <c r="G176" s="11"/>
+      <c r="H176" s="11"/>
+      <c r="I176" s="5"/>
+    </row>
+    <row r="177" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B177" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C177" s="11"/>
+      <c r="D177" s="11"/>
+      <c r="E177" s="11"/>
+      <c r="F177" s="11"/>
+      <c r="G177" s="11"/>
+      <c r="H177" s="11"/>
+      <c r="I177" s="5"/>
+    </row>
+    <row r="178" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B178" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C178" s="11"/>
+      <c r="D178" s="11"/>
+      <c r="E178" s="11"/>
+      <c r="F178" s="11"/>
+      <c r="G178" s="11"/>
+      <c r="H178" s="11"/>
+      <c r="I178" s="5"/>
+    </row>
+    <row r="179" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B179" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C179" s="11"/>
+      <c r="D179" s="11"/>
+      <c r="E179" s="11"/>
+      <c r="F179" s="11"/>
+      <c r="G179" s="11"/>
+      <c r="H179" s="11"/>
+      <c r="I179" s="5"/>
+    </row>
+    <row r="180" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B180" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C180" s="11"/>
+      <c r="D180" s="11"/>
+      <c r="E180" s="11"/>
+      <c r="F180" s="11"/>
+      <c r="G180" s="11"/>
+      <c r="H180" s="11"/>
+      <c r="I180" s="5"/>
+    </row>
+    <row r="181" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B181" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C181" s="11"/>
+      <c r="D181" s="11"/>
+      <c r="E181" s="11"/>
+      <c r="F181" s="11"/>
+      <c r="G181" s="11"/>
+      <c r="H181" s="11"/>
+      <c r="I181" s="5"/>
+    </row>
+    <row r="182" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B182" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C182" s="11"/>
+      <c r="D182" s="11"/>
+      <c r="E182" s="11"/>
+      <c r="F182" s="11"/>
+      <c r="G182" s="11"/>
+      <c r="H182" s="11"/>
+      <c r="I182" s="5"/>
+    </row>
+    <row r="183" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B183" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C183" s="11"/>
+      <c r="D183" s="11"/>
+      <c r="E183" s="11"/>
+      <c r="F183" s="11"/>
+      <c r="G183" s="11"/>
+      <c r="H183" s="11"/>
+      <c r="I183" s="5"/>
+    </row>
+    <row r="184" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B184" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C184" s="11"/>
+      <c r="D184" s="11"/>
+      <c r="E184" s="11"/>
+      <c r="F184" s="11"/>
+      <c r="G184" s="11"/>
+      <c r="H184" s="11"/>
+      <c r="I184" s="5"/>
+    </row>
+    <row r="185" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B185" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C185" s="11"/>
+      <c r="D185" s="11"/>
+      <c r="E185" s="11"/>
+      <c r="F185" s="11"/>
+      <c r="G185" s="11"/>
+      <c r="H185" s="11"/>
+      <c r="I185" s="5"/>
+    </row>
+    <row r="186" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B186" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C186" s="11"/>
+      <c r="D186" s="11"/>
+      <c r="E186" s="11"/>
+      <c r="F186" s="11"/>
+      <c r="G186" s="11"/>
+      <c r="H186" s="11"/>
+      <c r="I186" s="5"/>
+    </row>
+    <row r="187" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B187" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C187" s="11"/>
+      <c r="D187" s="11"/>
+      <c r="E187" s="11"/>
+      <c r="F187" s="11"/>
+      <c r="G187" s="11"/>
+      <c r="H187" s="11"/>
+      <c r="I187" s="5"/>
+    </row>
+    <row r="188" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B188" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C188" s="11"/>
+      <c r="D188" s="11"/>
+      <c r="E188" s="11"/>
+      <c r="F188" s="11"/>
+      <c r="G188" s="11"/>
+      <c r="H188" s="11"/>
+      <c r="I188" s="5"/>
+    </row>
+    <row r="189" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B189" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C189" s="11"/>
+      <c r="D189" s="11"/>
+      <c r="E189" s="11"/>
+      <c r="F189" s="11"/>
+      <c r="G189" s="11"/>
+      <c r="H189" s="11"/>
+      <c r="I189" s="5"/>
+    </row>
+    <row r="190" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B190" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C190" s="7"/>
+      <c r="D190" s="7"/>
+      <c r="E190" s="7"/>
+      <c r="F190" s="7"/>
+      <c r="G190" s="7"/>
+      <c r="H190" s="7"/>
+      <c r="I190" s="9"/>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A193" s="12" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B194" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B195" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C195" s="2"/>
+      <c r="D195" s="2"/>
+      <c r="E195" s="2"/>
+      <c r="F195" s="2"/>
+      <c r="G195" s="2"/>
+      <c r="H195" s="2"/>
+      <c r="I195" s="3"/>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B196" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C196" s="11"/>
+      <c r="D196" s="11"/>
+      <c r="E196" s="11"/>
+      <c r="F196" s="11"/>
+      <c r="G196" s="11"/>
+      <c r="H196" s="11"/>
+      <c r="I196" s="5"/>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B197" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C197" s="11"/>
+      <c r="D197" s="11"/>
+      <c r="E197" s="11"/>
+      <c r="F197" s="11"/>
+      <c r="G197" s="11"/>
+      <c r="H197" s="11"/>
+      <c r="I197" s="5"/>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B198" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C198" s="11"/>
+      <c r="D198" s="11"/>
+      <c r="E198" s="11"/>
+      <c r="F198" s="11"/>
+      <c r="G198" s="11"/>
+      <c r="H198" s="11"/>
+      <c r="I198" s="5"/>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B199" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C199" s="11"/>
+      <c r="D199" s="11"/>
+      <c r="E199" s="11"/>
+      <c r="F199" s="11"/>
+      <c r="G199" s="11"/>
+      <c r="H199" s="11"/>
+      <c r="I199" s="5"/>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B200" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C200" s="11"/>
+      <c r="D200" s="11"/>
+      <c r="E200" s="11"/>
+      <c r="F200" s="11"/>
+      <c r="G200" s="11"/>
+      <c r="H200" s="11"/>
+      <c r="I200" s="5"/>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B201" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C201" s="11"/>
+      <c r="D201" s="11"/>
+      <c r="E201" s="11"/>
+      <c r="F201" s="11"/>
+      <c r="G201" s="11"/>
+      <c r="H201" s="11"/>
+      <c r="I201" s="5"/>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B202" s="4"/>
+      <c r="C202" s="11"/>
+      <c r="D202" s="11"/>
+      <c r="E202" s="11"/>
+      <c r="F202" s="11"/>
+      <c r="G202" s="11"/>
+      <c r="H202" s="11"/>
+      <c r="I202" s="5"/>
+    </row>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B203" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C203" s="11"/>
+      <c r="D203" s="11"/>
+      <c r="E203" s="11"/>
+      <c r="F203" s="11"/>
+      <c r="G203" s="11"/>
+      <c r="H203" s="11"/>
+      <c r="I203" s="5"/>
+    </row>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B204" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C204" s="11"/>
+      <c r="D204" s="11"/>
+      <c r="E204" s="11"/>
+      <c r="F204" s="11"/>
+      <c r="G204" s="11"/>
+      <c r="H204" s="11"/>
+      <c r="I204" s="5"/>
+    </row>
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B205" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C205" s="11"/>
+      <c r="D205" s="11"/>
+      <c r="E205" s="11"/>
+      <c r="F205" s="11"/>
+      <c r="G205" s="11"/>
+      <c r="H205" s="11"/>
+      <c r="I205" s="5"/>
+    </row>
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B206" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C206" s="11"/>
+      <c r="D206" s="11"/>
+      <c r="E206" s="11"/>
+      <c r="F206" s="11"/>
+      <c r="G206" s="11"/>
+      <c r="H206" s="11"/>
+      <c r="I206" s="5"/>
+    </row>
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B207" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="C207" s="11"/>
+      <c r="D207" s="11"/>
+      <c r="E207" s="11"/>
+      <c r="F207" s="11"/>
+      <c r="G207" s="11"/>
+      <c r="H207" s="11"/>
+      <c r="I207" s="5"/>
+      <c r="J207" t="s">
+        <v>7</v>
+      </c>
+      <c r="K207" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B208" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C208" s="11"/>
+      <c r="D208" s="11"/>
+      <c r="E208" s="11"/>
+      <c r="F208" s="11"/>
+      <c r="G208" s="11"/>
+      <c r="H208" s="11"/>
+      <c r="I208" s="5"/>
+    </row>
+    <row r="209" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B209" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C209" s="11"/>
+      <c r="D209" s="11"/>
+      <c r="E209" s="11"/>
+      <c r="F209" s="11"/>
+      <c r="G209" s="11"/>
+      <c r="H209" s="11"/>
+      <c r="I209" s="5"/>
+    </row>
+    <row r="210" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B210" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C210" s="11"/>
+      <c r="D210" s="11"/>
+      <c r="E210" s="11"/>
+      <c r="F210" s="11"/>
+      <c r="G210" s="11"/>
+      <c r="H210" s="11"/>
+      <c r="I210" s="5"/>
+    </row>
+    <row r="211" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B211" s="4"/>
+      <c r="C211" s="11"/>
+      <c r="D211" s="11"/>
+      <c r="E211" s="11"/>
+      <c r="F211" s="11"/>
+      <c r="G211" s="11"/>
+      <c r="H211" s="11"/>
+      <c r="I211" s="5"/>
+    </row>
+    <row r="212" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B212" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C212" s="11"/>
+      <c r="D212" s="11"/>
+      <c r="E212" s="11"/>
+      <c r="F212" s="11"/>
+      <c r="G212" s="11"/>
+      <c r="H212" s="11"/>
+      <c r="I212" s="5"/>
+    </row>
+    <row r="213" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B213" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C213" s="11"/>
+      <c r="D213" s="11"/>
+      <c r="E213" s="11"/>
+      <c r="F213" s="11"/>
+      <c r="G213" s="11"/>
+      <c r="H213" s="11"/>
+      <c r="I213" s="5"/>
+    </row>
+    <row r="214" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B214" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C214" s="11"/>
+      <c r="D214" s="11"/>
+      <c r="E214" s="11"/>
+      <c r="F214" s="11"/>
+      <c r="G214" s="11"/>
+      <c r="H214" s="11"/>
+      <c r="I214" s="5"/>
+    </row>
+    <row r="215" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B215" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C215" s="11"/>
+      <c r="D215" s="11"/>
+      <c r="E215" s="11"/>
+      <c r="F215" s="11"/>
+      <c r="G215" s="11"/>
+      <c r="H215" s="11"/>
+      <c r="I215" s="5"/>
+    </row>
+    <row r="216" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B216" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C216" s="11"/>
+      <c r="D216" s="11"/>
+      <c r="E216" s="11"/>
+      <c r="F216" s="11"/>
+      <c r="G216" s="11"/>
+      <c r="H216" s="11"/>
+      <c r="I216" s="5"/>
+    </row>
+    <row r="217" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B217" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C217" s="11"/>
+      <c r="D217" s="11"/>
+      <c r="E217" s="11"/>
+      <c r="F217" s="11"/>
+      <c r="G217" s="11"/>
+      <c r="H217" s="11"/>
+      <c r="I217" s="5"/>
+    </row>
+    <row r="218" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B218" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C218" s="11"/>
+      <c r="D218" s="11"/>
+      <c r="E218" s="11"/>
+      <c r="F218" s="11"/>
+      <c r="G218" s="11"/>
+      <c r="H218" s="11"/>
+      <c r="I218" s="5"/>
+    </row>
+    <row r="219" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B219" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C219" s="11"/>
+      <c r="D219" s="11"/>
+      <c r="E219" s="11"/>
+      <c r="F219" s="11"/>
+      <c r="G219" s="11"/>
+      <c r="H219" s="11"/>
+      <c r="I219" s="5"/>
+    </row>
+    <row r="220" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B220" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C220" s="11"/>
+      <c r="D220" s="11"/>
+      <c r="E220" s="11"/>
+      <c r="F220" s="11"/>
+      <c r="G220" s="11"/>
+      <c r="H220" s="11"/>
+      <c r="I220" s="5"/>
+    </row>
+    <row r="221" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B221" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C221" s="11"/>
+      <c r="D221" s="11"/>
+      <c r="E221" s="11"/>
+      <c r="F221" s="11"/>
+      <c r="G221" s="11"/>
+      <c r="H221" s="11"/>
+      <c r="I221" s="5"/>
+    </row>
+    <row r="222" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B222" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C222" s="11"/>
+      <c r="D222" s="11"/>
+      <c r="E222" s="11"/>
+      <c r="F222" s="11"/>
+      <c r="G222" s="11"/>
+      <c r="H222" s="11"/>
+      <c r="I222" s="5"/>
+    </row>
+    <row r="223" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B223" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C223" s="11"/>
+      <c r="D223" s="11"/>
+      <c r="E223" s="11"/>
+      <c r="F223" s="11"/>
+      <c r="G223" s="11"/>
+      <c r="H223" s="11"/>
+      <c r="I223" s="5"/>
+    </row>
+    <row r="224" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B224" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C224" s="11"/>
+      <c r="D224" s="11"/>
+      <c r="E224" s="11"/>
+      <c r="F224" s="11"/>
+      <c r="G224" s="11"/>
+      <c r="H224" s="11"/>
+      <c r="I224" s="5"/>
+    </row>
+    <row r="225" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B225" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C225" s="7"/>
+      <c r="D225" s="7"/>
+      <c r="E225" s="7"/>
+      <c r="F225" s="7"/>
+      <c r="G225" s="7"/>
+      <c r="H225" s="7"/>
+      <c r="I225" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/me/2.Flex-Container.xlsx
+++ b/me/2.Flex-Container.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\flexbox\me\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2765F598-85A2-43FD-8510-334BB4DD9C4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE9296E2-2A73-488F-8343-D85CAC417BBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Display flex" sheetId="2" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Flex wrap" sheetId="4" r:id="rId3"/>
     <sheet name="Flex flow" sheetId="5" r:id="rId4"/>
     <sheet name="Justify content" sheetId="6" r:id="rId5"/>
+    <sheet name="Align items" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="159">
   <si>
     <t>構成</t>
   </si>
@@ -588,6 +589,120 @@
       <t xml:space="preserve"> hết</t>
     </r>
   </si>
+  <si>
+    <t>6.Align-items</t>
+  </si>
+  <si>
+    <t>flexbox\2.Flex-Container\6.Align-items\index.html</t>
+  </si>
+  <si>
+    <t>        height: 400px;</t>
+  </si>
+  <si>
+    <t>        align-items: baseline;</t>
+  </si>
+  <si>
+    <t>      .box-4 {</t>
+  </si>
+  <si>
+    <t>        font-size: 70px;</t>
+  </si>
+  <si>
+    <t>      .box-5 {</t>
+  </si>
+  <si>
+    <t>        font-size: 100px;</t>
+  </si>
+  <si>
+    <t>      .box-1 {</t>
+  </si>
+  <si>
+    <t>      .box-3 {</t>
+  </si>
+  <si>
+    <t>        align-items: stretch;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xét chiều cao của flex contain cố định là 400px. </t>
+  </si>
+  <si>
+    <t>align-items giúp căn chỉnh các phần tử theo trục CROSS AXIS</t>
+  </si>
+  <si>
+    <t>Có các giá trị là stretch, flex-start, flex-end và baseline. Giá trị mặc định là stretch</t>
+  </si>
+  <si>
+    <t>①stretch</t>
+  </si>
+  <si>
+    <t>Các flex item bên trong sẽ tự động giãn ra bằng với chiều cao của flex contain</t>
+  </si>
+  <si>
+    <t>Thu nhỏ trình duyệt lại để các flex item bên trong xuống dòng. Lúc này chiều cao của mỗi flex item</t>
+  </si>
+  <si>
+    <t>Lúc chiều rộng của trình duyệt rộng nên các flex item chưa cần xuống dòng. Lúc này chiều cao của mỗi</t>
+  </si>
+  <si>
+    <t>được giãn dài bằng 1 nửa chiều cao của flex contain</t>
+  </si>
+  <si>
+    <t>flex item được giãn dài bằng với chiều cao của flex contain</t>
+  </si>
+  <si>
+    <t>②flex-start</t>
+  </si>
+  <si>
+    <t>        align-items: flex-start;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lúc chiều rộng của trình duyệt rộng nên các flex item chưa cần xuống dòng. Lúc này các flex item sẽ </t>
+  </si>
+  <si>
+    <t>nằm ở phía trên cùng của flex contain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thu nhỏ trình duyệt lại để các flex item bên trong xuống dòng. Lúc này các flex item sẽ nằm ở phía trên </t>
+  </si>
+  <si>
+    <t>Các flex item sẽ nằm từ phía trên(xuất phát từ phía trên của dòng theo trục CROSS AXIS. Chiều cao của các</t>
+  </si>
+  <si>
+    <t>flex item thì vẫn là chiều cao ban đầu của nó và ko được kéo dài giống như giá trị stretch</t>
+  </si>
+  <si>
+    <t>③flex-end</t>
+  </si>
+  <si>
+    <t>        align-items: flex-end;</t>
+  </si>
+  <si>
+    <t>Các flex item sẽ nằm từ phía trên(xuất phát từ phía dưới của dòng theo trục CROSS AXIS. Chiều cao của các</t>
+  </si>
+  <si>
+    <t>nằm ở phía dưới cùng của flex contain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thu nhỏ trình duyệt lại để các flex item bên trong xuống dòng. Lúc này các flex item sẽ nằm ở phía dưới </t>
+  </si>
+  <si>
+    <t>cùng của mỗi dòng, do có 2 dòng nên chiều cao của mỗi dòng là bằng 1 nửa chiều cao của flex contain</t>
+  </si>
+  <si>
+    <t>④baseline</t>
+  </si>
+  <si>
+    <t>Các flex item sẽ nằm căn theo chân của chữ bên trong các flex item</t>
+  </si>
+  <si>
+    <t>được căn theo chân của chữ bên trong các flex item</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thu nhỏ trình duyệt lại để các flex item bên trong xuống dòng. Lúc này các flex item sẽ được căn thep </t>
+  </si>
+  <si>
+    <t>chân chữ của mỗi dòng</t>
+  </si>
 </sst>
 </file>
 
@@ -623,7 +738,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -791,11 +906,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -819,6 +956,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4305,6 +4444,840 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA0E57A3-FC78-63EE-7C0B-75DBC279B217}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="600075" y="533400"/>
+          <a:ext cx="4543425" cy="2924175"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>135761</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DE251A2-7581-7F45-817B-337D9D65771A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6200775" y="7162800"/>
+          <a:ext cx="5819775" cy="2878961"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>146448</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04E61F04-8CC5-7BF3-031A-74604A514D3B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6238875" y="10515600"/>
+          <a:ext cx="5686425" cy="3727848"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D9D64DA-3168-8DBF-DF80-02B0BF0199F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2066925" y="6381750"/>
+          <a:ext cx="4019550" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Straight Arrow Connector 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6157ADC5-997C-82D1-F5F8-6C8FD1B6203F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2076450" y="6400800"/>
+          <a:ext cx="4029075" cy="3905250"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>497880</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F31EA6A-8A22-51DC-A498-26BCB120876E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6191250" y="18783301"/>
+          <a:ext cx="5889030" cy="3448050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>40878</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD862C59-377B-521A-CEED-A7BCD431BC06}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6162675" y="23136225"/>
+          <a:ext cx="5934075" cy="4355703"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Straight Arrow Connector 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E943168B-E0AF-B542-E519-E68988734211}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2171700" y="17840325"/>
+          <a:ext cx="3943350" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="Straight Arrow Connector 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C85E8A85-ABCE-245F-6B23-D302E0C9E1DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2162175" y="17840325"/>
+          <a:ext cx="3933825" cy="4867275"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>169</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>186</xdr:row>
+      <xdr:rowOff>185983</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{522B5437-4D86-D532-4438-73425AF725CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6191250" y="32232601"/>
+          <a:ext cx="5857875" cy="3405432"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>192</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>533948</xdr:colOff>
+      <xdr:row>213</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0702C80F-B71D-9B97-5AC3-FC5F20A53970}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6248400" y="36718875"/>
+          <a:ext cx="5867948" cy="4029075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>142876</xdr:colOff>
+      <xdr:row>236</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>457852</xdr:colOff>
+      <xdr:row>254</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Picture 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{726FAC8D-9376-B0A6-C770-70D5C6998842}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6238876" y="45319950"/>
+          <a:ext cx="5801376" cy="3448050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="Straight Arrow Connector 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAFE7B3C-DFF2-82CE-5C80-837B3D6192E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2200275" y="31203900"/>
+          <a:ext cx="3895725" cy="638175"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>189</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96B06754-AB38-5CB7-D030-4CEC56BC0E92}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2200275" y="31184850"/>
+          <a:ext cx="3886200" cy="5019675"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>231</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>234</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="Straight Arrow Connector 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1DD6555-8237-7336-91FA-D6DFA05A4958}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2171700" y="44396025"/>
+          <a:ext cx="3924300" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>104776</xdr:colOff>
+      <xdr:row>260</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>507078</xdr:colOff>
+      <xdr:row>282</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Picture 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{452E4CF4-36B5-DFF4-9263-51E6BDDD80FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6200776" y="49872900"/>
+          <a:ext cx="5888702" cy="4162425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>231</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>257</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2091A6D7-89C6-9299-8022-D49D75677338}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2190750" y="44386500"/>
+          <a:ext cx="3886200" cy="5000625"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -4570,7 +5543,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B93656DE-789A-442B-A01B-E363EE7FCBDC}">
   <dimension ref="A4:S81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="H7" activeCellId="1" sqref="G7 H7"/>
     </sheetView>
   </sheetViews>
@@ -5016,7 +5989,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0145470-2FF9-412A-A015-FB74F9A08082}">
   <dimension ref="A2:T174"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
@@ -8719,7 +9692,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BF885D8-A1BC-4A89-AA30-E8D58E7CFAAA}">
   <dimension ref="A2:T161"/>
   <sheetViews>
-    <sheetView topLeftCell="A160" workbookViewId="0">
+    <sheetView topLeftCell="A142" workbookViewId="0">
       <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
@@ -13098,8 +14071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA836186-7093-422C-A57D-3064E650FE81}">
   <dimension ref="A2:K225"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
-      <selection activeCell="L198" sqref="L198"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15518,4 +16491,6517 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B54DF9A-BB32-4B38-9BCD-5CB7E8288A8F}">
+  <dimension ref="A2:U284"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A271" workbookViewId="0">
+      <selection activeCell="E213" sqref="E213"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="4"/>
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="4"/>
+      <c r="C9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="4"/>
+      <c r="C10" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="4"/>
+      <c r="C11" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="4"/>
+      <c r="C12" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="4"/>
+      <c r="C13" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="F13" s="5"/>
+      <c r="G13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="4"/>
+      <c r="D14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="4"/>
+      <c r="E15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="6"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="F16" s="9"/>
+      <c r="G16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A20" s="13"/>
+      <c r="B20" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="14"/>
+      <c r="S20" s="14"/>
+      <c r="T20" s="14"/>
+      <c r="U20" s="15"/>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A21" s="16"/>
+      <c r="B21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="11"/>
+      <c r="T21" s="11"/>
+      <c r="U21" s="17"/>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A22" s="16"/>
+      <c r="B22" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="11"/>
+      <c r="T22" s="11"/>
+      <c r="U22" s="17"/>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A23" s="16"/>
+      <c r="B23" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="11"/>
+      <c r="R23" s="11"/>
+      <c r="S23" s="11"/>
+      <c r="T23" s="11"/>
+      <c r="U23" s="17"/>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A24" s="16"/>
+      <c r="B24" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="11"/>
+      <c r="S24" s="11"/>
+      <c r="T24" s="11"/>
+      <c r="U24" s="17"/>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A25" s="16"/>
+      <c r="B25" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="11"/>
+      <c r="R25" s="11"/>
+      <c r="S25" s="11"/>
+      <c r="T25" s="11"/>
+      <c r="U25" s="17"/>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A26" s="16"/>
+      <c r="B26" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11"/>
+      <c r="R26" s="11"/>
+      <c r="S26" s="11"/>
+      <c r="T26" s="11"/>
+      <c r="U26" s="17"/>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A27" s="16"/>
+      <c r="B27" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="11"/>
+      <c r="S27" s="11"/>
+      <c r="T27" s="11"/>
+      <c r="U27" s="17"/>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A28" s="16"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="11"/>
+      <c r="S28" s="11"/>
+      <c r="T28" s="11"/>
+      <c r="U28" s="17"/>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A29" s="16"/>
+      <c r="B29" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="11"/>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="11"/>
+      <c r="R29" s="11"/>
+      <c r="S29" s="11"/>
+      <c r="T29" s="11"/>
+      <c r="U29" s="17"/>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A30" s="16"/>
+      <c r="B30" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="11"/>
+      <c r="Q30" s="11"/>
+      <c r="R30" s="11"/>
+      <c r="S30" s="11"/>
+      <c r="T30" s="11"/>
+      <c r="U30" s="17"/>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A31" s="16"/>
+      <c r="B31" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K31" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="11"/>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="11"/>
+      <c r="R31" s="11"/>
+      <c r="S31" s="11"/>
+      <c r="T31" s="11"/>
+      <c r="U31" s="17"/>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A32" s="16"/>
+      <c r="B32" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="11"/>
+      <c r="P32" s="11"/>
+      <c r="Q32" s="11"/>
+      <c r="R32" s="11"/>
+      <c r="S32" s="11"/>
+      <c r="T32" s="11"/>
+      <c r="U32" s="17"/>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A33" s="16"/>
+      <c r="B33" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="11"/>
+      <c r="P33" s="11"/>
+      <c r="Q33" s="11"/>
+      <c r="R33" s="11"/>
+      <c r="S33" s="11"/>
+      <c r="T33" s="11"/>
+      <c r="U33" s="17"/>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A34" s="16"/>
+      <c r="B34" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K34" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="L34" s="11"/>
+      <c r="M34" s="11"/>
+      <c r="N34" s="11"/>
+      <c r="O34" s="11"/>
+      <c r="P34" s="11"/>
+      <c r="Q34" s="11"/>
+      <c r="R34" s="11"/>
+      <c r="S34" s="11"/>
+      <c r="T34" s="11"/>
+      <c r="U34" s="17"/>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A35" s="16"/>
+      <c r="B35" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
+      <c r="N35" s="11"/>
+      <c r="O35" s="11"/>
+      <c r="P35" s="11"/>
+      <c r="Q35" s="11"/>
+      <c r="R35" s="11"/>
+      <c r="S35" s="11"/>
+      <c r="T35" s="11"/>
+      <c r="U35" s="17"/>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A36" s="16"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="3"/>
+      <c r="U36" s="17"/>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A37" s="16"/>
+      <c r="B37" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="L37" s="11"/>
+      <c r="M37" s="11"/>
+      <c r="N37" s="11"/>
+      <c r="O37" s="11"/>
+      <c r="P37" s="11"/>
+      <c r="Q37" s="11"/>
+      <c r="R37" s="11"/>
+      <c r="S37" s="11"/>
+      <c r="T37" s="5"/>
+      <c r="U37" s="17"/>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A38" s="16"/>
+      <c r="B38" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="11"/>
+      <c r="N38" s="11"/>
+      <c r="O38" s="11"/>
+      <c r="P38" s="11"/>
+      <c r="Q38" s="11"/>
+      <c r="R38" s="11"/>
+      <c r="S38" s="11"/>
+      <c r="T38" s="5"/>
+      <c r="U38" s="17"/>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A39" s="16"/>
+      <c r="B39" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="11"/>
+      <c r="N39" s="11"/>
+      <c r="O39" s="11"/>
+      <c r="P39" s="11"/>
+      <c r="Q39" s="11"/>
+      <c r="R39" s="11"/>
+      <c r="S39" s="11"/>
+      <c r="T39" s="5"/>
+      <c r="U39" s="17"/>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A40" s="16"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="11"/>
+      <c r="M40" s="11"/>
+      <c r="N40" s="11"/>
+      <c r="O40" s="11"/>
+      <c r="P40" s="11"/>
+      <c r="Q40" s="11"/>
+      <c r="R40" s="11"/>
+      <c r="S40" s="11"/>
+      <c r="T40" s="5"/>
+      <c r="U40" s="17"/>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A41" s="16"/>
+      <c r="B41" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="11"/>
+      <c r="M41" s="11"/>
+      <c r="N41" s="11"/>
+      <c r="O41" s="11"/>
+      <c r="P41" s="11"/>
+      <c r="Q41" s="11"/>
+      <c r="R41" s="11"/>
+      <c r="S41" s="11"/>
+      <c r="T41" s="5"/>
+      <c r="U41" s="17"/>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A42" s="16"/>
+      <c r="B42" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="11"/>
+      <c r="M42" s="11"/>
+      <c r="N42" s="11"/>
+      <c r="O42" s="11"/>
+      <c r="P42" s="11"/>
+      <c r="Q42" s="11"/>
+      <c r="R42" s="11"/>
+      <c r="S42" s="11"/>
+      <c r="T42" s="5"/>
+      <c r="U42" s="17"/>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A43" s="16"/>
+      <c r="B43" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="11"/>
+      <c r="M43" s="11"/>
+      <c r="N43" s="11"/>
+      <c r="O43" s="11"/>
+      <c r="P43" s="11"/>
+      <c r="Q43" s="11"/>
+      <c r="R43" s="11"/>
+      <c r="S43" s="11"/>
+      <c r="T43" s="5"/>
+      <c r="U43" s="17"/>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A44" s="16"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="11"/>
+      <c r="M44" s="11"/>
+      <c r="N44" s="11"/>
+      <c r="O44" s="11"/>
+      <c r="P44" s="11"/>
+      <c r="Q44" s="11"/>
+      <c r="R44" s="11"/>
+      <c r="S44" s="11"/>
+      <c r="T44" s="5"/>
+      <c r="U44" s="17"/>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A45" s="16"/>
+      <c r="B45" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="4"/>
+      <c r="L45" s="11"/>
+      <c r="M45" s="11"/>
+      <c r="N45" s="11"/>
+      <c r="O45" s="11"/>
+      <c r="P45" s="11"/>
+      <c r="Q45" s="11"/>
+      <c r="R45" s="11"/>
+      <c r="S45" s="11"/>
+      <c r="T45" s="5"/>
+      <c r="U45" s="17"/>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A46" s="16"/>
+      <c r="B46" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="4"/>
+      <c r="L46" s="11"/>
+      <c r="M46" s="11"/>
+      <c r="N46" s="11"/>
+      <c r="O46" s="11"/>
+      <c r="P46" s="11"/>
+      <c r="Q46" s="11"/>
+      <c r="R46" s="11"/>
+      <c r="S46" s="11"/>
+      <c r="T46" s="5"/>
+      <c r="U46" s="17"/>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A47" s="16"/>
+      <c r="B47" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="4"/>
+      <c r="L47" s="11"/>
+      <c r="M47" s="11"/>
+      <c r="N47" s="11"/>
+      <c r="O47" s="11"/>
+      <c r="P47" s="11"/>
+      <c r="Q47" s="11"/>
+      <c r="R47" s="11"/>
+      <c r="S47" s="11"/>
+      <c r="T47" s="5"/>
+      <c r="U47" s="17"/>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A48" s="16"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="5"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="4"/>
+      <c r="L48" s="11"/>
+      <c r="M48" s="11"/>
+      <c r="N48" s="11"/>
+      <c r="O48" s="11"/>
+      <c r="P48" s="11"/>
+      <c r="Q48" s="11"/>
+      <c r="R48" s="11"/>
+      <c r="S48" s="11"/>
+      <c r="T48" s="5"/>
+      <c r="U48" s="17"/>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A49" s="16"/>
+      <c r="B49" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="5"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="4"/>
+      <c r="L49" s="11"/>
+      <c r="M49" s="11"/>
+      <c r="N49" s="11"/>
+      <c r="O49" s="11"/>
+      <c r="P49" s="11"/>
+      <c r="Q49" s="11"/>
+      <c r="R49" s="11"/>
+      <c r="S49" s="11"/>
+      <c r="T49" s="5"/>
+      <c r="U49" s="17"/>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A50" s="16"/>
+      <c r="B50" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="5"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="4"/>
+      <c r="L50" s="11"/>
+      <c r="M50" s="11"/>
+      <c r="N50" s="11"/>
+      <c r="O50" s="11"/>
+      <c r="P50" s="11"/>
+      <c r="Q50" s="11"/>
+      <c r="R50" s="11"/>
+      <c r="S50" s="11"/>
+      <c r="T50" s="5"/>
+      <c r="U50" s="17"/>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A51" s="16"/>
+      <c r="B51" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="5"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="4"/>
+      <c r="L51" s="11"/>
+      <c r="M51" s="11"/>
+      <c r="N51" s="11"/>
+      <c r="O51" s="11"/>
+      <c r="P51" s="11"/>
+      <c r="Q51" s="11"/>
+      <c r="R51" s="11"/>
+      <c r="S51" s="11"/>
+      <c r="T51" s="5"/>
+      <c r="U51" s="17"/>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A52" s="16"/>
+      <c r="B52" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="11"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="5"/>
+      <c r="J52" s="11"/>
+      <c r="K52" s="4"/>
+      <c r="L52" s="11"/>
+      <c r="M52" s="11"/>
+      <c r="N52" s="11"/>
+      <c r="O52" s="11"/>
+      <c r="P52" s="11"/>
+      <c r="Q52" s="11"/>
+      <c r="R52" s="11"/>
+      <c r="S52" s="11"/>
+      <c r="T52" s="5"/>
+      <c r="U52" s="17"/>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A53" s="16"/>
+      <c r="B53" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="5"/>
+      <c r="J53" s="11"/>
+      <c r="K53" s="6"/>
+      <c r="L53" s="7"/>
+      <c r="M53" s="7"/>
+      <c r="N53" s="7"/>
+      <c r="O53" s="7"/>
+      <c r="P53" s="7"/>
+      <c r="Q53" s="7"/>
+      <c r="R53" s="7"/>
+      <c r="S53" s="7"/>
+      <c r="T53" s="9"/>
+      <c r="U53" s="17"/>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A54" s="16"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="5"/>
+      <c r="J54" s="11"/>
+      <c r="K54" s="11"/>
+      <c r="L54" s="11"/>
+      <c r="M54" s="11"/>
+      <c r="N54" s="11"/>
+      <c r="O54" s="11"/>
+      <c r="P54" s="11"/>
+      <c r="Q54" s="11"/>
+      <c r="R54" s="11"/>
+      <c r="S54" s="11"/>
+      <c r="T54" s="11"/>
+      <c r="U54" s="17"/>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A55" s="16"/>
+      <c r="B55" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11"/>
+      <c r="H55" s="11"/>
+      <c r="I55" s="5"/>
+      <c r="J55" s="11"/>
+      <c r="K55" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="L55" s="2"/>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
+      <c r="O55" s="2"/>
+      <c r="P55" s="2"/>
+      <c r="Q55" s="2"/>
+      <c r="R55" s="2"/>
+      <c r="S55" s="2"/>
+      <c r="T55" s="3"/>
+      <c r="U55" s="17"/>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A56" s="16"/>
+      <c r="B56" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="11"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="5"/>
+      <c r="J56" s="11"/>
+      <c r="K56" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="L56" s="11"/>
+      <c r="M56" s="11"/>
+      <c r="N56" s="11"/>
+      <c r="O56" s="11"/>
+      <c r="P56" s="11"/>
+      <c r="Q56" s="11"/>
+      <c r="R56" s="11"/>
+      <c r="S56" s="11"/>
+      <c r="T56" s="5"/>
+      <c r="U56" s="17"/>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A57" s="16"/>
+      <c r="B57" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="11"/>
+      <c r="H57" s="11"/>
+      <c r="I57" s="5"/>
+      <c r="J57" s="11"/>
+      <c r="K57" s="4"/>
+      <c r="L57" s="11"/>
+      <c r="M57" s="11"/>
+      <c r="N57" s="11"/>
+      <c r="O57" s="11"/>
+      <c r="P57" s="11"/>
+      <c r="Q57" s="11"/>
+      <c r="R57" s="11"/>
+      <c r="S57" s="11"/>
+      <c r="T57" s="5"/>
+      <c r="U57" s="17"/>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A58" s="16"/>
+      <c r="B58" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="11"/>
+      <c r="H58" s="11"/>
+      <c r="I58" s="5"/>
+      <c r="J58" s="11"/>
+      <c r="K58" s="4"/>
+      <c r="L58" s="11"/>
+      <c r="M58" s="11"/>
+      <c r="N58" s="11"/>
+      <c r="O58" s="11"/>
+      <c r="P58" s="11"/>
+      <c r="Q58" s="11"/>
+      <c r="R58" s="11"/>
+      <c r="S58" s="11"/>
+      <c r="T58" s="5"/>
+      <c r="U58" s="17"/>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A59" s="16"/>
+      <c r="B59" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C59" s="11"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="11"/>
+      <c r="F59" s="11"/>
+      <c r="G59" s="11"/>
+      <c r="H59" s="11"/>
+      <c r="I59" s="5"/>
+      <c r="J59" s="11"/>
+      <c r="K59" s="4"/>
+      <c r="L59" s="11"/>
+      <c r="M59" s="11"/>
+      <c r="N59" s="11"/>
+      <c r="O59" s="11"/>
+      <c r="P59" s="11"/>
+      <c r="Q59" s="11"/>
+      <c r="R59" s="11"/>
+      <c r="S59" s="11"/>
+      <c r="T59" s="5"/>
+      <c r="U59" s="17"/>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A60" s="16"/>
+      <c r="B60" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C60" s="11"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="11"/>
+      <c r="G60" s="11"/>
+      <c r="H60" s="11"/>
+      <c r="I60" s="5"/>
+      <c r="J60" s="11"/>
+      <c r="K60" s="4"/>
+      <c r="L60" s="11"/>
+      <c r="M60" s="11"/>
+      <c r="N60" s="11"/>
+      <c r="O60" s="11"/>
+      <c r="P60" s="11"/>
+      <c r="Q60" s="11"/>
+      <c r="R60" s="11"/>
+      <c r="S60" s="11"/>
+      <c r="T60" s="5"/>
+      <c r="U60" s="17"/>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A61" s="16"/>
+      <c r="B61" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C61" s="11"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="11"/>
+      <c r="G61" s="11"/>
+      <c r="H61" s="11"/>
+      <c r="I61" s="5"/>
+      <c r="J61" s="11"/>
+      <c r="K61" s="4"/>
+      <c r="L61" s="11"/>
+      <c r="M61" s="11"/>
+      <c r="N61" s="11"/>
+      <c r="O61" s="11"/>
+      <c r="P61" s="11"/>
+      <c r="Q61" s="11"/>
+      <c r="R61" s="11"/>
+      <c r="S61" s="11"/>
+      <c r="T61" s="5"/>
+      <c r="U61" s="17"/>
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A62" s="16"/>
+      <c r="B62" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C62" s="11"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="11"/>
+      <c r="F62" s="11"/>
+      <c r="G62" s="11"/>
+      <c r="H62" s="11"/>
+      <c r="I62" s="5"/>
+      <c r="J62" s="11"/>
+      <c r="K62" s="4"/>
+      <c r="L62" s="11"/>
+      <c r="M62" s="11"/>
+      <c r="N62" s="11"/>
+      <c r="O62" s="11"/>
+      <c r="P62" s="11"/>
+      <c r="Q62" s="11"/>
+      <c r="R62" s="11"/>
+      <c r="S62" s="11"/>
+      <c r="T62" s="5"/>
+      <c r="U62" s="17"/>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A63" s="16"/>
+      <c r="B63" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="11"/>
+      <c r="F63" s="11"/>
+      <c r="G63" s="11"/>
+      <c r="H63" s="11"/>
+      <c r="I63" s="5"/>
+      <c r="J63" s="11"/>
+      <c r="K63" s="4"/>
+      <c r="L63" s="11"/>
+      <c r="M63" s="11"/>
+      <c r="N63" s="11"/>
+      <c r="O63" s="11"/>
+      <c r="P63" s="11"/>
+      <c r="Q63" s="11"/>
+      <c r="R63" s="11"/>
+      <c r="S63" s="11"/>
+      <c r="T63" s="5"/>
+      <c r="U63" s="17"/>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A64" s="16"/>
+      <c r="B64" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C64" s="11"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="11"/>
+      <c r="F64" s="11"/>
+      <c r="G64" s="11"/>
+      <c r="H64" s="11"/>
+      <c r="I64" s="5"/>
+      <c r="J64" s="11"/>
+      <c r="K64" s="4"/>
+      <c r="L64" s="11"/>
+      <c r="M64" s="11"/>
+      <c r="N64" s="11"/>
+      <c r="O64" s="11"/>
+      <c r="P64" s="11"/>
+      <c r="Q64" s="11"/>
+      <c r="R64" s="11"/>
+      <c r="S64" s="11"/>
+      <c r="T64" s="5"/>
+      <c r="U64" s="17"/>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A65" s="16"/>
+      <c r="B65" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C65" s="11"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="11"/>
+      <c r="F65" s="11"/>
+      <c r="G65" s="11"/>
+      <c r="H65" s="11"/>
+      <c r="I65" s="5"/>
+      <c r="J65" s="11"/>
+      <c r="K65" s="4"/>
+      <c r="L65" s="11"/>
+      <c r="M65" s="11"/>
+      <c r="N65" s="11"/>
+      <c r="O65" s="11"/>
+      <c r="P65" s="11"/>
+      <c r="Q65" s="11"/>
+      <c r="R65" s="11"/>
+      <c r="S65" s="11"/>
+      <c r="T65" s="5"/>
+      <c r="U65" s="17"/>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A66" s="16"/>
+      <c r="B66" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C66" s="11"/>
+      <c r="D66" s="11"/>
+      <c r="E66" s="11"/>
+      <c r="F66" s="11"/>
+      <c r="G66" s="11"/>
+      <c r="H66" s="11"/>
+      <c r="I66" s="5"/>
+      <c r="J66" s="11"/>
+      <c r="K66" s="4"/>
+      <c r="L66" s="11"/>
+      <c r="M66" s="11"/>
+      <c r="N66" s="11"/>
+      <c r="O66" s="11"/>
+      <c r="P66" s="11"/>
+      <c r="Q66" s="11"/>
+      <c r="R66" s="11"/>
+      <c r="S66" s="11"/>
+      <c r="T66" s="5"/>
+      <c r="U66" s="17"/>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A67" s="16"/>
+      <c r="B67" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
+      <c r="H67" s="7"/>
+      <c r="I67" s="9"/>
+      <c r="J67" s="11"/>
+      <c r="K67" s="4"/>
+      <c r="L67" s="11"/>
+      <c r="M67" s="11"/>
+      <c r="N67" s="11"/>
+      <c r="O67" s="11"/>
+      <c r="P67" s="11"/>
+      <c r="Q67" s="11"/>
+      <c r="R67" s="11"/>
+      <c r="S67" s="11"/>
+      <c r="T67" s="5"/>
+      <c r="U67" s="17"/>
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A68" s="16"/>
+      <c r="B68" s="11"/>
+      <c r="C68" s="11"/>
+      <c r="D68" s="11"/>
+      <c r="E68" s="11"/>
+      <c r="F68" s="11"/>
+      <c r="G68" s="11"/>
+      <c r="H68" s="11"/>
+      <c r="I68" s="11"/>
+      <c r="J68" s="11"/>
+      <c r="K68" s="4"/>
+      <c r="L68" s="11"/>
+      <c r="M68" s="11"/>
+      <c r="N68" s="11"/>
+      <c r="O68" s="11"/>
+      <c r="P68" s="11"/>
+      <c r="Q68" s="11"/>
+      <c r="R68" s="11"/>
+      <c r="S68" s="11"/>
+      <c r="T68" s="5"/>
+      <c r="U68" s="17"/>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A69" s="16"/>
+      <c r="B69" s="11"/>
+      <c r="C69" s="11"/>
+      <c r="D69" s="11"/>
+      <c r="E69" s="11"/>
+      <c r="F69" s="11"/>
+      <c r="G69" s="11"/>
+      <c r="H69" s="11"/>
+      <c r="I69" s="11"/>
+      <c r="J69" s="11"/>
+      <c r="K69" s="4"/>
+      <c r="L69" s="11"/>
+      <c r="M69" s="11"/>
+      <c r="N69" s="11"/>
+      <c r="O69" s="11"/>
+      <c r="P69" s="11"/>
+      <c r="Q69" s="11"/>
+      <c r="R69" s="11"/>
+      <c r="S69" s="11"/>
+      <c r="T69" s="5"/>
+      <c r="U69" s="17"/>
+    </row>
+    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A70" s="16"/>
+      <c r="B70" s="11"/>
+      <c r="C70" s="11"/>
+      <c r="D70" s="11"/>
+      <c r="E70" s="11"/>
+      <c r="F70" s="11"/>
+      <c r="G70" s="11"/>
+      <c r="H70" s="11"/>
+      <c r="I70" s="11"/>
+      <c r="J70" s="11"/>
+      <c r="K70" s="4"/>
+      <c r="L70" s="11"/>
+      <c r="M70" s="11"/>
+      <c r="N70" s="11"/>
+      <c r="O70" s="11"/>
+      <c r="P70" s="11"/>
+      <c r="Q70" s="11"/>
+      <c r="R70" s="11"/>
+      <c r="S70" s="11"/>
+      <c r="T70" s="5"/>
+      <c r="U70" s="17"/>
+    </row>
+    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A71" s="16"/>
+      <c r="B71" s="11"/>
+      <c r="C71" s="11"/>
+      <c r="D71" s="11"/>
+      <c r="E71" s="11"/>
+      <c r="F71" s="11"/>
+      <c r="G71" s="11"/>
+      <c r="H71" s="11"/>
+      <c r="I71" s="11"/>
+      <c r="J71" s="11"/>
+      <c r="K71" s="4"/>
+      <c r="L71" s="11"/>
+      <c r="M71" s="11"/>
+      <c r="N71" s="11"/>
+      <c r="O71" s="11"/>
+      <c r="P71" s="11"/>
+      <c r="Q71" s="11"/>
+      <c r="R71" s="11"/>
+      <c r="S71" s="11"/>
+      <c r="T71" s="5"/>
+      <c r="U71" s="17"/>
+    </row>
+    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A72" s="16"/>
+      <c r="B72" s="11"/>
+      <c r="C72" s="11"/>
+      <c r="D72" s="11"/>
+      <c r="E72" s="11"/>
+      <c r="F72" s="11"/>
+      <c r="G72" s="11"/>
+      <c r="H72" s="11"/>
+      <c r="I72" s="11"/>
+      <c r="J72" s="11"/>
+      <c r="K72" s="4"/>
+      <c r="L72" s="11"/>
+      <c r="M72" s="11"/>
+      <c r="N72" s="11"/>
+      <c r="O72" s="11"/>
+      <c r="P72" s="11"/>
+      <c r="Q72" s="11"/>
+      <c r="R72" s="11"/>
+      <c r="S72" s="11"/>
+      <c r="T72" s="5"/>
+      <c r="U72" s="17"/>
+    </row>
+    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A73" s="16"/>
+      <c r="B73" s="11"/>
+      <c r="C73" s="11"/>
+      <c r="D73" s="11"/>
+      <c r="E73" s="11"/>
+      <c r="F73" s="11"/>
+      <c r="G73" s="11"/>
+      <c r="H73" s="11"/>
+      <c r="I73" s="11"/>
+      <c r="J73" s="11"/>
+      <c r="K73" s="4"/>
+      <c r="L73" s="11"/>
+      <c r="M73" s="11"/>
+      <c r="N73" s="11"/>
+      <c r="O73" s="11"/>
+      <c r="P73" s="11"/>
+      <c r="Q73" s="11"/>
+      <c r="R73" s="11"/>
+      <c r="S73" s="11"/>
+      <c r="T73" s="5"/>
+      <c r="U73" s="17"/>
+    </row>
+    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A74" s="16"/>
+      <c r="B74" s="11"/>
+      <c r="C74" s="11"/>
+      <c r="D74" s="11"/>
+      <c r="E74" s="11"/>
+      <c r="F74" s="11"/>
+      <c r="G74" s="11"/>
+      <c r="H74" s="11"/>
+      <c r="I74" s="11"/>
+      <c r="J74" s="11"/>
+      <c r="K74" s="4"/>
+      <c r="L74" s="11"/>
+      <c r="M74" s="11"/>
+      <c r="N74" s="11"/>
+      <c r="O74" s="11"/>
+      <c r="P74" s="11"/>
+      <c r="Q74" s="11"/>
+      <c r="R74" s="11"/>
+      <c r="S74" s="11"/>
+      <c r="T74" s="5"/>
+      <c r="U74" s="17"/>
+    </row>
+    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A75" s="16"/>
+      <c r="B75" s="11"/>
+      <c r="C75" s="11"/>
+      <c r="D75" s="11"/>
+      <c r="E75" s="11"/>
+      <c r="F75" s="11"/>
+      <c r="G75" s="11"/>
+      <c r="H75" s="11"/>
+      <c r="I75" s="11"/>
+      <c r="J75" s="11"/>
+      <c r="K75" s="4"/>
+      <c r="L75" s="11"/>
+      <c r="M75" s="11"/>
+      <c r="N75" s="11"/>
+      <c r="O75" s="11"/>
+      <c r="P75" s="11"/>
+      <c r="Q75" s="11"/>
+      <c r="R75" s="11"/>
+      <c r="S75" s="11"/>
+      <c r="T75" s="5"/>
+      <c r="U75" s="17"/>
+    </row>
+    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A76" s="16"/>
+      <c r="B76" s="11"/>
+      <c r="C76" s="11"/>
+      <c r="D76" s="11"/>
+      <c r="E76" s="11"/>
+      <c r="F76" s="11"/>
+      <c r="G76" s="11"/>
+      <c r="H76" s="11"/>
+      <c r="I76" s="11"/>
+      <c r="J76" s="11"/>
+      <c r="K76" s="6"/>
+      <c r="L76" s="7"/>
+      <c r="M76" s="7"/>
+      <c r="N76" s="7"/>
+      <c r="O76" s="7"/>
+      <c r="P76" s="7"/>
+      <c r="Q76" s="7"/>
+      <c r="R76" s="7"/>
+      <c r="S76" s="7"/>
+      <c r="T76" s="9"/>
+      <c r="U76" s="17"/>
+    </row>
+    <row r="77" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="18"/>
+      <c r="B77" s="19"/>
+      <c r="C77" s="19"/>
+      <c r="D77" s="19"/>
+      <c r="E77" s="19"/>
+      <c r="F77" s="19"/>
+      <c r="G77" s="19"/>
+      <c r="H77" s="19"/>
+      <c r="I77" s="19"/>
+      <c r="J77" s="19"/>
+      <c r="K77" s="19"/>
+      <c r="L77" s="19"/>
+      <c r="M77" s="19"/>
+      <c r="N77" s="19"/>
+      <c r="O77" s="19"/>
+      <c r="P77" s="19"/>
+      <c r="Q77" s="19"/>
+      <c r="R77" s="19"/>
+      <c r="S77" s="19"/>
+      <c r="T77" s="19"/>
+      <c r="U77" s="20"/>
+    </row>
+    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A78" s="11"/>
+      <c r="B78" s="11"/>
+      <c r="C78" s="11"/>
+      <c r="D78" s="11"/>
+      <c r="E78" s="11"/>
+      <c r="F78" s="11"/>
+      <c r="G78" s="11"/>
+      <c r="H78" s="11"/>
+      <c r="I78" s="11"/>
+      <c r="J78" s="11"/>
+      <c r="K78" s="11"/>
+      <c r="L78" s="11"/>
+      <c r="M78" s="11"/>
+      <c r="N78" s="11"/>
+      <c r="O78" s="11"/>
+      <c r="P78" s="11"/>
+      <c r="Q78" s="11"/>
+      <c r="R78" s="11"/>
+      <c r="S78" s="11"/>
+      <c r="T78" s="11"/>
+      <c r="U78" s="11"/>
+    </row>
+    <row r="79" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="12" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A80" s="13"/>
+      <c r="B80" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="C80" s="14"/>
+      <c r="D80" s="14"/>
+      <c r="E80" s="14"/>
+      <c r="F80" s="14"/>
+      <c r="G80" s="14"/>
+      <c r="H80" s="14"/>
+      <c r="I80" s="14"/>
+      <c r="J80" s="14"/>
+      <c r="K80" s="14"/>
+      <c r="L80" s="14"/>
+      <c r="M80" s="14"/>
+      <c r="N80" s="14"/>
+      <c r="O80" s="14"/>
+      <c r="P80" s="14"/>
+      <c r="Q80" s="14"/>
+      <c r="R80" s="14"/>
+      <c r="S80" s="14"/>
+      <c r="T80" s="14"/>
+      <c r="U80" s="15"/>
+    </row>
+    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A81" s="16"/>
+      <c r="B81" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="2"/>
+      <c r="G81" s="2"/>
+      <c r="H81" s="2"/>
+      <c r="I81" s="3"/>
+      <c r="J81" s="11"/>
+      <c r="K81" s="11"/>
+      <c r="L81" s="11"/>
+      <c r="M81" s="11"/>
+      <c r="N81" s="11"/>
+      <c r="O81" s="11"/>
+      <c r="P81" s="11"/>
+      <c r="Q81" s="11"/>
+      <c r="R81" s="11"/>
+      <c r="S81" s="11"/>
+      <c r="T81" s="11"/>
+      <c r="U81" s="17"/>
+    </row>
+    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A82" s="16"/>
+      <c r="B82" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C82" s="11"/>
+      <c r="D82" s="11"/>
+      <c r="E82" s="11"/>
+      <c r="F82" s="11"/>
+      <c r="G82" s="11"/>
+      <c r="H82" s="11"/>
+      <c r="I82" s="5"/>
+      <c r="J82" s="11"/>
+      <c r="K82" s="11"/>
+      <c r="L82" s="11"/>
+      <c r="M82" s="11"/>
+      <c r="N82" s="11"/>
+      <c r="O82" s="11"/>
+      <c r="P82" s="11"/>
+      <c r="Q82" s="11"/>
+      <c r="R82" s="11"/>
+      <c r="S82" s="11"/>
+      <c r="T82" s="11"/>
+      <c r="U82" s="17"/>
+    </row>
+    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A83" s="16"/>
+      <c r="B83" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C83" s="11"/>
+      <c r="D83" s="11"/>
+      <c r="E83" s="11"/>
+      <c r="F83" s="11"/>
+      <c r="G83" s="11"/>
+      <c r="H83" s="11"/>
+      <c r="I83" s="5"/>
+      <c r="J83" s="11"/>
+      <c r="K83" s="11"/>
+      <c r="L83" s="11"/>
+      <c r="M83" s="11"/>
+      <c r="N83" s="11"/>
+      <c r="O83" s="11"/>
+      <c r="P83" s="11"/>
+      <c r="Q83" s="11"/>
+      <c r="R83" s="11"/>
+      <c r="S83" s="11"/>
+      <c r="T83" s="11"/>
+      <c r="U83" s="17"/>
+    </row>
+    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A84" s="16"/>
+      <c r="B84" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C84" s="11"/>
+      <c r="D84" s="11"/>
+      <c r="E84" s="11"/>
+      <c r="F84" s="11"/>
+      <c r="G84" s="11"/>
+      <c r="H84" s="11"/>
+      <c r="I84" s="5"/>
+      <c r="J84" s="11"/>
+      <c r="K84" s="11"/>
+      <c r="L84" s="11"/>
+      <c r="M84" s="11"/>
+      <c r="N84" s="11"/>
+      <c r="O84" s="11"/>
+      <c r="P84" s="11"/>
+      <c r="Q84" s="11"/>
+      <c r="R84" s="11"/>
+      <c r="S84" s="11"/>
+      <c r="T84" s="11"/>
+      <c r="U84" s="17"/>
+    </row>
+    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A85" s="16"/>
+      <c r="B85" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C85" s="11"/>
+      <c r="D85" s="11"/>
+      <c r="E85" s="11"/>
+      <c r="F85" s="11"/>
+      <c r="G85" s="11"/>
+      <c r="H85" s="11"/>
+      <c r="I85" s="5"/>
+      <c r="J85" s="11"/>
+      <c r="K85" s="11"/>
+      <c r="L85" s="11"/>
+      <c r="M85" s="11"/>
+      <c r="N85" s="11"/>
+      <c r="O85" s="11"/>
+      <c r="P85" s="11"/>
+      <c r="Q85" s="11"/>
+      <c r="R85" s="11"/>
+      <c r="S85" s="11"/>
+      <c r="T85" s="11"/>
+      <c r="U85" s="17"/>
+    </row>
+    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A86" s="16"/>
+      <c r="B86" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C86" s="11"/>
+      <c r="D86" s="11"/>
+      <c r="E86" s="11"/>
+      <c r="F86" s="11"/>
+      <c r="G86" s="11"/>
+      <c r="H86" s="11"/>
+      <c r="I86" s="5"/>
+      <c r="J86" s="11"/>
+      <c r="K86" s="11"/>
+      <c r="L86" s="11"/>
+      <c r="M86" s="11"/>
+      <c r="N86" s="11"/>
+      <c r="O86" s="11"/>
+      <c r="P86" s="11"/>
+      <c r="Q86" s="11"/>
+      <c r="R86" s="11"/>
+      <c r="S86" s="11"/>
+      <c r="T86" s="11"/>
+      <c r="U86" s="17"/>
+    </row>
+    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A87" s="16"/>
+      <c r="B87" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C87" s="11"/>
+      <c r="D87" s="11"/>
+      <c r="E87" s="11"/>
+      <c r="F87" s="11"/>
+      <c r="G87" s="11"/>
+      <c r="H87" s="11"/>
+      <c r="I87" s="5"/>
+      <c r="J87" s="11"/>
+      <c r="K87" s="11"/>
+      <c r="L87" s="11"/>
+      <c r="M87" s="11"/>
+      <c r="N87" s="11"/>
+      <c r="O87" s="11"/>
+      <c r="P87" s="11"/>
+      <c r="Q87" s="11"/>
+      <c r="R87" s="11"/>
+      <c r="S87" s="11"/>
+      <c r="T87" s="11"/>
+      <c r="U87" s="17"/>
+    </row>
+    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A88" s="16"/>
+      <c r="B88" s="4"/>
+      <c r="C88" s="11"/>
+      <c r="D88" s="11"/>
+      <c r="E88" s="11"/>
+      <c r="F88" s="11"/>
+      <c r="G88" s="11"/>
+      <c r="H88" s="11"/>
+      <c r="I88" s="5"/>
+      <c r="J88" s="11"/>
+      <c r="K88" s="11"/>
+      <c r="L88" s="11"/>
+      <c r="M88" s="11"/>
+      <c r="N88" s="11"/>
+      <c r="O88" s="11"/>
+      <c r="P88" s="11"/>
+      <c r="Q88" s="11"/>
+      <c r="R88" s="11"/>
+      <c r="S88" s="11"/>
+      <c r="T88" s="11"/>
+      <c r="U88" s="17"/>
+    </row>
+    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A89" s="16"/>
+      <c r="B89" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C89" s="11"/>
+      <c r="D89" s="11"/>
+      <c r="E89" s="11"/>
+      <c r="F89" s="11"/>
+      <c r="G89" s="11"/>
+      <c r="H89" s="11"/>
+      <c r="I89" s="5"/>
+      <c r="J89" s="11"/>
+      <c r="K89" s="11"/>
+      <c r="L89" s="11"/>
+      <c r="M89" s="11"/>
+      <c r="N89" s="11"/>
+      <c r="O89" s="11"/>
+      <c r="P89" s="11"/>
+      <c r="Q89" s="11"/>
+      <c r="R89" s="11"/>
+      <c r="S89" s="11"/>
+      <c r="T89" s="11"/>
+      <c r="U89" s="17"/>
+    </row>
+    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A90" s="16"/>
+      <c r="B90" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C90" s="11"/>
+      <c r="D90" s="11"/>
+      <c r="E90" s="11"/>
+      <c r="F90" s="11"/>
+      <c r="G90" s="11"/>
+      <c r="H90" s="11"/>
+      <c r="I90" s="5"/>
+      <c r="J90" s="11"/>
+      <c r="K90" s="11"/>
+      <c r="L90" s="11"/>
+      <c r="M90" s="11"/>
+      <c r="N90" s="11"/>
+      <c r="O90" s="11"/>
+      <c r="P90" s="11"/>
+      <c r="Q90" s="11"/>
+      <c r="R90" s="11"/>
+      <c r="S90" s="11"/>
+      <c r="T90" s="11"/>
+      <c r="U90" s="17"/>
+    </row>
+    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A91" s="16"/>
+      <c r="B91" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C91" s="11"/>
+      <c r="D91" s="11"/>
+      <c r="E91" s="11"/>
+      <c r="F91" s="11"/>
+      <c r="G91" s="11"/>
+      <c r="H91" s="11"/>
+      <c r="I91" s="5"/>
+      <c r="J91" s="11"/>
+      <c r="K91" s="11"/>
+      <c r="L91" s="11"/>
+      <c r="M91" s="11"/>
+      <c r="N91" s="11"/>
+      <c r="O91" s="11"/>
+      <c r="P91" s="11"/>
+      <c r="Q91" s="11"/>
+      <c r="R91" s="11"/>
+      <c r="S91" s="11"/>
+      <c r="T91" s="11"/>
+      <c r="U91" s="17"/>
+    </row>
+    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A92" s="16"/>
+      <c r="B92" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C92" s="11"/>
+      <c r="D92" s="11"/>
+      <c r="E92" s="11"/>
+      <c r="F92" s="11"/>
+      <c r="G92" s="11"/>
+      <c r="H92" s="11"/>
+      <c r="I92" s="5"/>
+      <c r="J92" s="11"/>
+      <c r="K92" s="11"/>
+      <c r="L92" s="11"/>
+      <c r="M92" s="11"/>
+      <c r="N92" s="11"/>
+      <c r="O92" s="11"/>
+      <c r="P92" s="11"/>
+      <c r="Q92" s="11"/>
+      <c r="R92" s="11"/>
+      <c r="S92" s="11"/>
+      <c r="T92" s="11"/>
+      <c r="U92" s="17"/>
+    </row>
+    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A93" s="16"/>
+      <c r="B93" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C93" s="11"/>
+      <c r="D93" s="11"/>
+      <c r="E93" s="11"/>
+      <c r="F93" s="11"/>
+      <c r="G93" s="11"/>
+      <c r="H93" s="11"/>
+      <c r="I93" s="5"/>
+      <c r="J93" s="11"/>
+      <c r="K93" s="11"/>
+      <c r="L93" s="11"/>
+      <c r="M93" s="11"/>
+      <c r="N93" s="11"/>
+      <c r="O93" s="11"/>
+      <c r="P93" s="11"/>
+      <c r="Q93" s="11"/>
+      <c r="R93" s="11"/>
+      <c r="S93" s="11"/>
+      <c r="T93" s="11"/>
+      <c r="U93" s="17"/>
+    </row>
+    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A94" s="16"/>
+      <c r="B94" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="C94" s="11"/>
+      <c r="D94" s="11"/>
+      <c r="E94" s="11"/>
+      <c r="F94" s="11"/>
+      <c r="G94" s="11"/>
+      <c r="H94" s="11"/>
+      <c r="I94" s="5"/>
+      <c r="J94" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K94" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="L94" s="11"/>
+      <c r="M94" s="11"/>
+      <c r="N94" s="11"/>
+      <c r="O94" s="11"/>
+      <c r="P94" s="11"/>
+      <c r="Q94" s="11"/>
+      <c r="R94" s="11"/>
+      <c r="S94" s="11"/>
+      <c r="T94" s="11"/>
+      <c r="U94" s="17"/>
+    </row>
+    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A95" s="16"/>
+      <c r="B95" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C95" s="11"/>
+      <c r="D95" s="11"/>
+      <c r="E95" s="11"/>
+      <c r="F95" s="11"/>
+      <c r="G95" s="11"/>
+      <c r="H95" s="11"/>
+      <c r="I95" s="5"/>
+      <c r="J95" s="11"/>
+      <c r="K95" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="L95" s="11"/>
+      <c r="M95" s="11"/>
+      <c r="N95" s="11"/>
+      <c r="O95" s="11"/>
+      <c r="P95" s="11"/>
+      <c r="Q95" s="11"/>
+      <c r="R95" s="11"/>
+      <c r="S95" s="11"/>
+      <c r="T95" s="11"/>
+      <c r="U95" s="17"/>
+    </row>
+    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A96" s="16"/>
+      <c r="B96" s="4"/>
+      <c r="C96" s="11"/>
+      <c r="D96" s="11"/>
+      <c r="E96" s="11"/>
+      <c r="F96" s="11"/>
+      <c r="G96" s="11"/>
+      <c r="H96" s="11"/>
+      <c r="I96" s="5"/>
+      <c r="J96" s="11"/>
+      <c r="K96" s="11"/>
+      <c r="L96" s="11"/>
+      <c r="M96" s="11"/>
+      <c r="N96" s="11"/>
+      <c r="O96" s="11"/>
+      <c r="P96" s="11"/>
+      <c r="Q96" s="11"/>
+      <c r="R96" s="11"/>
+      <c r="S96" s="11"/>
+      <c r="T96" s="11"/>
+      <c r="U96" s="17"/>
+    </row>
+    <row r="97" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A97" s="16"/>
+      <c r="B97" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C97" s="11"/>
+      <c r="D97" s="11"/>
+      <c r="E97" s="11"/>
+      <c r="F97" s="11"/>
+      <c r="G97" s="11"/>
+      <c r="H97" s="11"/>
+      <c r="I97" s="5"/>
+      <c r="J97" s="11"/>
+      <c r="K97" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="L97" s="2"/>
+      <c r="M97" s="2"/>
+      <c r="N97" s="2"/>
+      <c r="O97" s="2"/>
+      <c r="P97" s="2"/>
+      <c r="Q97" s="2"/>
+      <c r="R97" s="2"/>
+      <c r="S97" s="2"/>
+      <c r="T97" s="3"/>
+      <c r="U97" s="17"/>
+    </row>
+    <row r="98" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A98" s="16"/>
+      <c r="B98" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C98" s="11"/>
+      <c r="D98" s="11"/>
+      <c r="E98" s="11"/>
+      <c r="F98" s="11"/>
+      <c r="G98" s="11"/>
+      <c r="H98" s="11"/>
+      <c r="I98" s="5"/>
+      <c r="J98" s="11"/>
+      <c r="K98" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="L98" s="11"/>
+      <c r="M98" s="11"/>
+      <c r="N98" s="11"/>
+      <c r="O98" s="11"/>
+      <c r="P98" s="11"/>
+      <c r="Q98" s="11"/>
+      <c r="R98" s="11"/>
+      <c r="S98" s="11"/>
+      <c r="T98" s="5"/>
+      <c r="U98" s="17"/>
+    </row>
+    <row r="99" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A99" s="16"/>
+      <c r="B99" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C99" s="11"/>
+      <c r="D99" s="11"/>
+      <c r="E99" s="11"/>
+      <c r="F99" s="11"/>
+      <c r="G99" s="11"/>
+      <c r="H99" s="11"/>
+      <c r="I99" s="5"/>
+      <c r="J99" s="11"/>
+      <c r="K99" s="4"/>
+      <c r="L99" s="11"/>
+      <c r="M99" s="11"/>
+      <c r="N99" s="11"/>
+      <c r="O99" s="11"/>
+      <c r="P99" s="11"/>
+      <c r="Q99" s="11"/>
+      <c r="R99" s="11"/>
+      <c r="S99" s="11"/>
+      <c r="T99" s="5"/>
+      <c r="U99" s="17"/>
+    </row>
+    <row r="100" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A100" s="16"/>
+      <c r="B100" s="4"/>
+      <c r="C100" s="11"/>
+      <c r="D100" s="11"/>
+      <c r="E100" s="11"/>
+      <c r="F100" s="11"/>
+      <c r="G100" s="11"/>
+      <c r="H100" s="11"/>
+      <c r="I100" s="5"/>
+      <c r="J100" s="11"/>
+      <c r="K100" s="4"/>
+      <c r="L100" s="11"/>
+      <c r="M100" s="11"/>
+      <c r="N100" s="11"/>
+      <c r="O100" s="11"/>
+      <c r="P100" s="11"/>
+      <c r="Q100" s="11"/>
+      <c r="R100" s="11"/>
+      <c r="S100" s="11"/>
+      <c r="T100" s="5"/>
+      <c r="U100" s="17"/>
+    </row>
+    <row r="101" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A101" s="16"/>
+      <c r="B101" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C101" s="11"/>
+      <c r="D101" s="11"/>
+      <c r="E101" s="11"/>
+      <c r="F101" s="11"/>
+      <c r="G101" s="11"/>
+      <c r="H101" s="11"/>
+      <c r="I101" s="5"/>
+      <c r="J101" s="11"/>
+      <c r="K101" s="4"/>
+      <c r="L101" s="11"/>
+      <c r="M101" s="11"/>
+      <c r="N101" s="11"/>
+      <c r="O101" s="11"/>
+      <c r="P101" s="11"/>
+      <c r="Q101" s="11"/>
+      <c r="R101" s="11"/>
+      <c r="S101" s="11"/>
+      <c r="T101" s="5"/>
+      <c r="U101" s="17"/>
+    </row>
+    <row r="102" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A102" s="16"/>
+      <c r="B102" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C102" s="11"/>
+      <c r="D102" s="11"/>
+      <c r="E102" s="11"/>
+      <c r="F102" s="11"/>
+      <c r="G102" s="11"/>
+      <c r="H102" s="11"/>
+      <c r="I102" s="5"/>
+      <c r="J102" s="11"/>
+      <c r="K102" s="4"/>
+      <c r="L102" s="11"/>
+      <c r="M102" s="11"/>
+      <c r="N102" s="11"/>
+      <c r="O102" s="11"/>
+      <c r="P102" s="11"/>
+      <c r="Q102" s="11"/>
+      <c r="R102" s="11"/>
+      <c r="S102" s="11"/>
+      <c r="T102" s="5"/>
+      <c r="U102" s="17"/>
+    </row>
+    <row r="103" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A103" s="16"/>
+      <c r="B103" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C103" s="11"/>
+      <c r="D103" s="11"/>
+      <c r="E103" s="11"/>
+      <c r="F103" s="11"/>
+      <c r="G103" s="11"/>
+      <c r="H103" s="11"/>
+      <c r="I103" s="5"/>
+      <c r="J103" s="11"/>
+      <c r="K103" s="4"/>
+      <c r="L103" s="11"/>
+      <c r="M103" s="11"/>
+      <c r="N103" s="11"/>
+      <c r="O103" s="11"/>
+      <c r="P103" s="11"/>
+      <c r="Q103" s="11"/>
+      <c r="R103" s="11"/>
+      <c r="S103" s="11"/>
+      <c r="T103" s="5"/>
+      <c r="U103" s="17"/>
+    </row>
+    <row r="104" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A104" s="16"/>
+      <c r="B104" s="4"/>
+      <c r="C104" s="11"/>
+      <c r="D104" s="11"/>
+      <c r="E104" s="11"/>
+      <c r="F104" s="11"/>
+      <c r="G104" s="11"/>
+      <c r="H104" s="11"/>
+      <c r="I104" s="5"/>
+      <c r="J104" s="11"/>
+      <c r="K104" s="4"/>
+      <c r="L104" s="11"/>
+      <c r="M104" s="11"/>
+      <c r="N104" s="11"/>
+      <c r="O104" s="11"/>
+      <c r="P104" s="11"/>
+      <c r="Q104" s="11"/>
+      <c r="R104" s="11"/>
+      <c r="S104" s="11"/>
+      <c r="T104" s="5"/>
+      <c r="U104" s="17"/>
+    </row>
+    <row r="105" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A105" s="16"/>
+      <c r="B105" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C105" s="11"/>
+      <c r="D105" s="11"/>
+      <c r="E105" s="11"/>
+      <c r="F105" s="11"/>
+      <c r="G105" s="11"/>
+      <c r="H105" s="11"/>
+      <c r="I105" s="5"/>
+      <c r="J105" s="11"/>
+      <c r="K105" s="4"/>
+      <c r="L105" s="11"/>
+      <c r="M105" s="11"/>
+      <c r="N105" s="11"/>
+      <c r="O105" s="11"/>
+      <c r="P105" s="11"/>
+      <c r="Q105" s="11"/>
+      <c r="R105" s="11"/>
+      <c r="S105" s="11"/>
+      <c r="T105" s="5"/>
+      <c r="U105" s="17"/>
+    </row>
+    <row r="106" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A106" s="16"/>
+      <c r="B106" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C106" s="11"/>
+      <c r="D106" s="11"/>
+      <c r="E106" s="11"/>
+      <c r="F106" s="11"/>
+      <c r="G106" s="11"/>
+      <c r="H106" s="11"/>
+      <c r="I106" s="5"/>
+      <c r="J106" s="11"/>
+      <c r="K106" s="4"/>
+      <c r="L106" s="11"/>
+      <c r="M106" s="11"/>
+      <c r="N106" s="11"/>
+      <c r="O106" s="11"/>
+      <c r="P106" s="11"/>
+      <c r="Q106" s="11"/>
+      <c r="R106" s="11"/>
+      <c r="S106" s="11"/>
+      <c r="T106" s="5"/>
+      <c r="U106" s="17"/>
+    </row>
+    <row r="107" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A107" s="16"/>
+      <c r="B107" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C107" s="11"/>
+      <c r="D107" s="11"/>
+      <c r="E107" s="11"/>
+      <c r="F107" s="11"/>
+      <c r="G107" s="11"/>
+      <c r="H107" s="11"/>
+      <c r="I107" s="5"/>
+      <c r="J107" s="11"/>
+      <c r="K107" s="4"/>
+      <c r="L107" s="11"/>
+      <c r="M107" s="11"/>
+      <c r="N107" s="11"/>
+      <c r="O107" s="11"/>
+      <c r="P107" s="11"/>
+      <c r="Q107" s="11"/>
+      <c r="R107" s="11"/>
+      <c r="S107" s="11"/>
+      <c r="T107" s="5"/>
+      <c r="U107" s="17"/>
+    </row>
+    <row r="108" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A108" s="16"/>
+      <c r="B108" s="4"/>
+      <c r="C108" s="11"/>
+      <c r="D108" s="11"/>
+      <c r="E108" s="11"/>
+      <c r="F108" s="11"/>
+      <c r="G108" s="11"/>
+      <c r="H108" s="11"/>
+      <c r="I108" s="5"/>
+      <c r="J108" s="11"/>
+      <c r="K108" s="4"/>
+      <c r="L108" s="11"/>
+      <c r="M108" s="11"/>
+      <c r="N108" s="11"/>
+      <c r="O108" s="11"/>
+      <c r="P108" s="11"/>
+      <c r="Q108" s="11"/>
+      <c r="R108" s="11"/>
+      <c r="S108" s="11"/>
+      <c r="T108" s="5"/>
+      <c r="U108" s="17"/>
+    </row>
+    <row r="109" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A109" s="16"/>
+      <c r="B109" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C109" s="11"/>
+      <c r="D109" s="11"/>
+      <c r="E109" s="11"/>
+      <c r="F109" s="11"/>
+      <c r="G109" s="11"/>
+      <c r="H109" s="11"/>
+      <c r="I109" s="5"/>
+      <c r="J109" s="11"/>
+      <c r="K109" s="4"/>
+      <c r="L109" s="11"/>
+      <c r="M109" s="11"/>
+      <c r="N109" s="11"/>
+      <c r="O109" s="11"/>
+      <c r="P109" s="11"/>
+      <c r="Q109" s="11"/>
+      <c r="R109" s="11"/>
+      <c r="S109" s="11"/>
+      <c r="T109" s="5"/>
+      <c r="U109" s="17"/>
+    </row>
+    <row r="110" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A110" s="16"/>
+      <c r="B110" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C110" s="11"/>
+      <c r="D110" s="11"/>
+      <c r="E110" s="11"/>
+      <c r="F110" s="11"/>
+      <c r="G110" s="11"/>
+      <c r="H110" s="11"/>
+      <c r="I110" s="5"/>
+      <c r="J110" s="11"/>
+      <c r="K110" s="4"/>
+      <c r="L110" s="11"/>
+      <c r="M110" s="11"/>
+      <c r="N110" s="11"/>
+      <c r="O110" s="11"/>
+      <c r="P110" s="11"/>
+      <c r="Q110" s="11"/>
+      <c r="R110" s="11"/>
+      <c r="S110" s="11"/>
+      <c r="T110" s="5"/>
+      <c r="U110" s="17"/>
+    </row>
+    <row r="111" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A111" s="16"/>
+      <c r="B111" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C111" s="11"/>
+      <c r="D111" s="11"/>
+      <c r="E111" s="11"/>
+      <c r="F111" s="11"/>
+      <c r="G111" s="11"/>
+      <c r="H111" s="11"/>
+      <c r="I111" s="5"/>
+      <c r="J111" s="11"/>
+      <c r="K111" s="4"/>
+      <c r="L111" s="11"/>
+      <c r="M111" s="11"/>
+      <c r="N111" s="11"/>
+      <c r="O111" s="11"/>
+      <c r="P111" s="11"/>
+      <c r="Q111" s="11"/>
+      <c r="R111" s="11"/>
+      <c r="S111" s="11"/>
+      <c r="T111" s="5"/>
+      <c r="U111" s="17"/>
+    </row>
+    <row r="112" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A112" s="16"/>
+      <c r="B112" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C112" s="11"/>
+      <c r="D112" s="11"/>
+      <c r="E112" s="11"/>
+      <c r="F112" s="11"/>
+      <c r="G112" s="11"/>
+      <c r="H112" s="11"/>
+      <c r="I112" s="5"/>
+      <c r="J112" s="11"/>
+      <c r="K112" s="4"/>
+      <c r="L112" s="11"/>
+      <c r="M112" s="11"/>
+      <c r="N112" s="11"/>
+      <c r="O112" s="11"/>
+      <c r="P112" s="11"/>
+      <c r="Q112" s="11"/>
+      <c r="R112" s="11"/>
+      <c r="S112" s="11"/>
+      <c r="T112" s="5"/>
+      <c r="U112" s="17"/>
+    </row>
+    <row r="113" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A113" s="16"/>
+      <c r="B113" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C113" s="11"/>
+      <c r="D113" s="11"/>
+      <c r="E113" s="11"/>
+      <c r="F113" s="11"/>
+      <c r="G113" s="11"/>
+      <c r="H113" s="11"/>
+      <c r="I113" s="5"/>
+      <c r="J113" s="11"/>
+      <c r="K113" s="4"/>
+      <c r="L113" s="11"/>
+      <c r="M113" s="11"/>
+      <c r="N113" s="11"/>
+      <c r="O113" s="11"/>
+      <c r="P113" s="11"/>
+      <c r="Q113" s="11"/>
+      <c r="R113" s="11"/>
+      <c r="S113" s="11"/>
+      <c r="T113" s="5"/>
+      <c r="U113" s="17"/>
+    </row>
+    <row r="114" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A114" s="16"/>
+      <c r="B114" s="4"/>
+      <c r="C114" s="11"/>
+      <c r="D114" s="11"/>
+      <c r="E114" s="11"/>
+      <c r="F114" s="11"/>
+      <c r="G114" s="11"/>
+      <c r="H114" s="11"/>
+      <c r="I114" s="5"/>
+      <c r="J114" s="11"/>
+      <c r="K114" s="4"/>
+      <c r="L114" s="11"/>
+      <c r="M114" s="11"/>
+      <c r="N114" s="11"/>
+      <c r="O114" s="11"/>
+      <c r="P114" s="11"/>
+      <c r="Q114" s="11"/>
+      <c r="R114" s="11"/>
+      <c r="S114" s="11"/>
+      <c r="T114" s="5"/>
+      <c r="U114" s="17"/>
+    </row>
+    <row r="115" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A115" s="16"/>
+      <c r="B115" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C115" s="11"/>
+      <c r="D115" s="11"/>
+      <c r="E115" s="11"/>
+      <c r="F115" s="11"/>
+      <c r="G115" s="11"/>
+      <c r="H115" s="11"/>
+      <c r="I115" s="5"/>
+      <c r="J115" s="11"/>
+      <c r="K115" s="4"/>
+      <c r="L115" s="11"/>
+      <c r="M115" s="11"/>
+      <c r="N115" s="11"/>
+      <c r="O115" s="11"/>
+      <c r="P115" s="11"/>
+      <c r="Q115" s="11"/>
+      <c r="R115" s="11"/>
+      <c r="S115" s="11"/>
+      <c r="T115" s="5"/>
+      <c r="U115" s="17"/>
+    </row>
+    <row r="116" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A116" s="16"/>
+      <c r="B116" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C116" s="11"/>
+      <c r="D116" s="11"/>
+      <c r="E116" s="11"/>
+      <c r="F116" s="11"/>
+      <c r="G116" s="11"/>
+      <c r="H116" s="11"/>
+      <c r="I116" s="5"/>
+      <c r="J116" s="11"/>
+      <c r="K116" s="4"/>
+      <c r="L116" s="11"/>
+      <c r="M116" s="11"/>
+      <c r="N116" s="11"/>
+      <c r="O116" s="11"/>
+      <c r="P116" s="11"/>
+      <c r="Q116" s="11"/>
+      <c r="R116" s="11"/>
+      <c r="S116" s="11"/>
+      <c r="T116" s="5"/>
+      <c r="U116" s="17"/>
+    </row>
+    <row r="117" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A117" s="16"/>
+      <c r="B117" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C117" s="11"/>
+      <c r="D117" s="11"/>
+      <c r="E117" s="11"/>
+      <c r="F117" s="11"/>
+      <c r="G117" s="11"/>
+      <c r="H117" s="11"/>
+      <c r="I117" s="5"/>
+      <c r="J117" s="11"/>
+      <c r="K117" s="6"/>
+      <c r="L117" s="7"/>
+      <c r="M117" s="7"/>
+      <c r="N117" s="7"/>
+      <c r="O117" s="7"/>
+      <c r="P117" s="7"/>
+      <c r="Q117" s="7"/>
+      <c r="R117" s="7"/>
+      <c r="S117" s="7"/>
+      <c r="T117" s="9"/>
+      <c r="U117" s="17"/>
+    </row>
+    <row r="118" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A118" s="16"/>
+      <c r="B118" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C118" s="11"/>
+      <c r="D118" s="11"/>
+      <c r="E118" s="11"/>
+      <c r="F118" s="11"/>
+      <c r="G118" s="11"/>
+      <c r="H118" s="11"/>
+      <c r="I118" s="5"/>
+      <c r="J118" s="11"/>
+      <c r="K118" s="11"/>
+      <c r="L118" s="11"/>
+      <c r="M118" s="11"/>
+      <c r="N118" s="11"/>
+      <c r="O118" s="11"/>
+      <c r="P118" s="11"/>
+      <c r="Q118" s="11"/>
+      <c r="R118" s="11"/>
+      <c r="S118" s="11"/>
+      <c r="T118" s="11"/>
+      <c r="U118" s="17"/>
+    </row>
+    <row r="119" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A119" s="16"/>
+      <c r="B119" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C119" s="11"/>
+      <c r="D119" s="11"/>
+      <c r="E119" s="11"/>
+      <c r="F119" s="11"/>
+      <c r="G119" s="11"/>
+      <c r="H119" s="11"/>
+      <c r="I119" s="5"/>
+      <c r="J119" s="11"/>
+      <c r="K119" s="11"/>
+      <c r="L119" s="11"/>
+      <c r="M119" s="11"/>
+      <c r="N119" s="11"/>
+      <c r="O119" s="11"/>
+      <c r="P119" s="11"/>
+      <c r="Q119" s="11"/>
+      <c r="R119" s="11"/>
+      <c r="S119" s="11"/>
+      <c r="T119" s="11"/>
+      <c r="U119" s="17"/>
+    </row>
+    <row r="120" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A120" s="16"/>
+      <c r="B120" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C120" s="11"/>
+      <c r="D120" s="11"/>
+      <c r="E120" s="11"/>
+      <c r="F120" s="11"/>
+      <c r="G120" s="11"/>
+      <c r="H120" s="11"/>
+      <c r="I120" s="5"/>
+      <c r="J120" s="11"/>
+      <c r="K120" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="L120" s="2"/>
+      <c r="M120" s="2"/>
+      <c r="N120" s="2"/>
+      <c r="O120" s="2"/>
+      <c r="P120" s="2"/>
+      <c r="Q120" s="2"/>
+      <c r="R120" s="2"/>
+      <c r="S120" s="2"/>
+      <c r="T120" s="3"/>
+      <c r="U120" s="17"/>
+    </row>
+    <row r="121" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A121" s="16"/>
+      <c r="B121" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C121" s="11"/>
+      <c r="D121" s="11"/>
+      <c r="E121" s="11"/>
+      <c r="F121" s="11"/>
+      <c r="G121" s="11"/>
+      <c r="H121" s="11"/>
+      <c r="I121" s="5"/>
+      <c r="J121" s="11"/>
+      <c r="K121" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="L121" s="11"/>
+      <c r="M121" s="11"/>
+      <c r="N121" s="11"/>
+      <c r="O121" s="11"/>
+      <c r="P121" s="11"/>
+      <c r="Q121" s="11"/>
+      <c r="R121" s="11"/>
+      <c r="S121" s="11"/>
+      <c r="T121" s="5"/>
+      <c r="U121" s="17"/>
+    </row>
+    <row r="122" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A122" s="16"/>
+      <c r="B122" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C122" s="11"/>
+      <c r="D122" s="11"/>
+      <c r="E122" s="11"/>
+      <c r="F122" s="11"/>
+      <c r="G122" s="11"/>
+      <c r="H122" s="11"/>
+      <c r="I122" s="5"/>
+      <c r="J122" s="11"/>
+      <c r="K122" s="4"/>
+      <c r="L122" s="11"/>
+      <c r="M122" s="11"/>
+      <c r="N122" s="11"/>
+      <c r="O122" s="11"/>
+      <c r="P122" s="11"/>
+      <c r="Q122" s="11"/>
+      <c r="R122" s="11"/>
+      <c r="S122" s="11"/>
+      <c r="T122" s="5"/>
+      <c r="U122" s="17"/>
+    </row>
+    <row r="123" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A123" s="16"/>
+      <c r="B123" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C123" s="11"/>
+      <c r="D123" s="11"/>
+      <c r="E123" s="11"/>
+      <c r="F123" s="11"/>
+      <c r="G123" s="11"/>
+      <c r="H123" s="11"/>
+      <c r="I123" s="5"/>
+      <c r="J123" s="11"/>
+      <c r="K123" s="4"/>
+      <c r="L123" s="11"/>
+      <c r="M123" s="11"/>
+      <c r="N123" s="11"/>
+      <c r="O123" s="11"/>
+      <c r="P123" s="11"/>
+      <c r="Q123" s="11"/>
+      <c r="R123" s="11"/>
+      <c r="S123" s="11"/>
+      <c r="T123" s="5"/>
+      <c r="U123" s="17"/>
+    </row>
+    <row r="124" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A124" s="16"/>
+      <c r="B124" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C124" s="11"/>
+      <c r="D124" s="11"/>
+      <c r="E124" s="11"/>
+      <c r="F124" s="11"/>
+      <c r="G124" s="11"/>
+      <c r="H124" s="11"/>
+      <c r="I124" s="5"/>
+      <c r="J124" s="11"/>
+      <c r="K124" s="4"/>
+      <c r="L124" s="11"/>
+      <c r="M124" s="11"/>
+      <c r="N124" s="11"/>
+      <c r="O124" s="11"/>
+      <c r="P124" s="11"/>
+      <c r="Q124" s="11"/>
+      <c r="R124" s="11"/>
+      <c r="S124" s="11"/>
+      <c r="T124" s="5"/>
+      <c r="U124" s="17"/>
+    </row>
+    <row r="125" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A125" s="16"/>
+      <c r="B125" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C125" s="11"/>
+      <c r="D125" s="11"/>
+      <c r="E125" s="11"/>
+      <c r="F125" s="11"/>
+      <c r="G125" s="11"/>
+      <c r="H125" s="11"/>
+      <c r="I125" s="5"/>
+      <c r="J125" s="11"/>
+      <c r="K125" s="4"/>
+      <c r="L125" s="11"/>
+      <c r="M125" s="11"/>
+      <c r="N125" s="11"/>
+      <c r="O125" s="11"/>
+      <c r="P125" s="11"/>
+      <c r="Q125" s="11"/>
+      <c r="R125" s="11"/>
+      <c r="S125" s="11"/>
+      <c r="T125" s="5"/>
+      <c r="U125" s="17"/>
+    </row>
+    <row r="126" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A126" s="16"/>
+      <c r="B126" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C126" s="11"/>
+      <c r="D126" s="11"/>
+      <c r="E126" s="11"/>
+      <c r="F126" s="11"/>
+      <c r="G126" s="11"/>
+      <c r="H126" s="11"/>
+      <c r="I126" s="5"/>
+      <c r="J126" s="11"/>
+      <c r="K126" s="4"/>
+      <c r="L126" s="11"/>
+      <c r="M126" s="11"/>
+      <c r="N126" s="11"/>
+      <c r="O126" s="11"/>
+      <c r="P126" s="11"/>
+      <c r="Q126" s="11"/>
+      <c r="R126" s="11"/>
+      <c r="S126" s="11"/>
+      <c r="T126" s="5"/>
+      <c r="U126" s="17"/>
+    </row>
+    <row r="127" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A127" s="16"/>
+      <c r="B127" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C127" s="7"/>
+      <c r="D127" s="7"/>
+      <c r="E127" s="7"/>
+      <c r="F127" s="7"/>
+      <c r="G127" s="7"/>
+      <c r="H127" s="7"/>
+      <c r="I127" s="9"/>
+      <c r="J127" s="11"/>
+      <c r="K127" s="4"/>
+      <c r="L127" s="11"/>
+      <c r="M127" s="11"/>
+      <c r="N127" s="11"/>
+      <c r="O127" s="11"/>
+      <c r="P127" s="11"/>
+      <c r="Q127" s="11"/>
+      <c r="R127" s="11"/>
+      <c r="S127" s="11"/>
+      <c r="T127" s="5"/>
+      <c r="U127" s="17"/>
+    </row>
+    <row r="128" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A128" s="16"/>
+      <c r="B128" s="11"/>
+      <c r="C128" s="11"/>
+      <c r="D128" s="11"/>
+      <c r="E128" s="11"/>
+      <c r="F128" s="11"/>
+      <c r="G128" s="11"/>
+      <c r="H128" s="11"/>
+      <c r="I128" s="11"/>
+      <c r="J128" s="11"/>
+      <c r="K128" s="4"/>
+      <c r="L128" s="11"/>
+      <c r="M128" s="11"/>
+      <c r="N128" s="11"/>
+      <c r="O128" s="11"/>
+      <c r="P128" s="11"/>
+      <c r="Q128" s="11"/>
+      <c r="R128" s="11"/>
+      <c r="S128" s="11"/>
+      <c r="T128" s="5"/>
+      <c r="U128" s="17"/>
+    </row>
+    <row r="129" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A129" s="16"/>
+      <c r="B129" s="11"/>
+      <c r="C129" s="11"/>
+      <c r="D129" s="11"/>
+      <c r="E129" s="11"/>
+      <c r="F129" s="11"/>
+      <c r="G129" s="11"/>
+      <c r="H129" s="11"/>
+      <c r="I129" s="11"/>
+      <c r="J129" s="11"/>
+      <c r="K129" s="4"/>
+      <c r="L129" s="11"/>
+      <c r="M129" s="11"/>
+      <c r="N129" s="11"/>
+      <c r="O129" s="11"/>
+      <c r="P129" s="11"/>
+      <c r="Q129" s="11"/>
+      <c r="R129" s="11"/>
+      <c r="S129" s="11"/>
+      <c r="T129" s="5"/>
+      <c r="U129" s="17"/>
+    </row>
+    <row r="130" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A130" s="16"/>
+      <c r="B130" s="11"/>
+      <c r="C130" s="11"/>
+      <c r="D130" s="11"/>
+      <c r="E130" s="11"/>
+      <c r="F130" s="11"/>
+      <c r="G130" s="11"/>
+      <c r="H130" s="11"/>
+      <c r="I130" s="11"/>
+      <c r="J130" s="11"/>
+      <c r="K130" s="4"/>
+      <c r="L130" s="11"/>
+      <c r="M130" s="11"/>
+      <c r="N130" s="11"/>
+      <c r="O130" s="11"/>
+      <c r="P130" s="11"/>
+      <c r="Q130" s="11"/>
+      <c r="R130" s="11"/>
+      <c r="S130" s="11"/>
+      <c r="T130" s="5"/>
+      <c r="U130" s="17"/>
+    </row>
+    <row r="131" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A131" s="16"/>
+      <c r="B131" s="11"/>
+      <c r="C131" s="11"/>
+      <c r="D131" s="11"/>
+      <c r="E131" s="11"/>
+      <c r="F131" s="11"/>
+      <c r="G131" s="11"/>
+      <c r="H131" s="11"/>
+      <c r="I131" s="11"/>
+      <c r="J131" s="11"/>
+      <c r="K131" s="4"/>
+      <c r="L131" s="11"/>
+      <c r="M131" s="11"/>
+      <c r="N131" s="11"/>
+      <c r="O131" s="11"/>
+      <c r="P131" s="11"/>
+      <c r="Q131" s="11"/>
+      <c r="R131" s="11"/>
+      <c r="S131" s="11"/>
+      <c r="T131" s="5"/>
+      <c r="U131" s="17"/>
+    </row>
+    <row r="132" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A132" s="16"/>
+      <c r="B132" s="11"/>
+      <c r="C132" s="11"/>
+      <c r="D132" s="11"/>
+      <c r="E132" s="11"/>
+      <c r="F132" s="11"/>
+      <c r="G132" s="11"/>
+      <c r="H132" s="11"/>
+      <c r="I132" s="11"/>
+      <c r="J132" s="11"/>
+      <c r="K132" s="4"/>
+      <c r="L132" s="11"/>
+      <c r="M132" s="11"/>
+      <c r="N132" s="11"/>
+      <c r="O132" s="11"/>
+      <c r="P132" s="11"/>
+      <c r="Q132" s="11"/>
+      <c r="R132" s="11"/>
+      <c r="S132" s="11"/>
+      <c r="T132" s="5"/>
+      <c r="U132" s="17"/>
+    </row>
+    <row r="133" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A133" s="16"/>
+      <c r="B133" s="11"/>
+      <c r="C133" s="11"/>
+      <c r="D133" s="11"/>
+      <c r="E133" s="11"/>
+      <c r="F133" s="11"/>
+      <c r="G133" s="11"/>
+      <c r="H133" s="11"/>
+      <c r="I133" s="11"/>
+      <c r="J133" s="11"/>
+      <c r="K133" s="4"/>
+      <c r="L133" s="11"/>
+      <c r="M133" s="11"/>
+      <c r="N133" s="11"/>
+      <c r="O133" s="11"/>
+      <c r="P133" s="11"/>
+      <c r="Q133" s="11"/>
+      <c r="R133" s="11"/>
+      <c r="S133" s="11"/>
+      <c r="T133" s="5"/>
+      <c r="U133" s="17"/>
+    </row>
+    <row r="134" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A134" s="16"/>
+      <c r="B134" s="11"/>
+      <c r="C134" s="11"/>
+      <c r="D134" s="11"/>
+      <c r="E134" s="11"/>
+      <c r="F134" s="11"/>
+      <c r="G134" s="11"/>
+      <c r="H134" s="11"/>
+      <c r="I134" s="11"/>
+      <c r="J134" s="11"/>
+      <c r="K134" s="4"/>
+      <c r="L134" s="11"/>
+      <c r="M134" s="11"/>
+      <c r="N134" s="11"/>
+      <c r="O134" s="11"/>
+      <c r="P134" s="11"/>
+      <c r="Q134" s="11"/>
+      <c r="R134" s="11"/>
+      <c r="S134" s="11"/>
+      <c r="T134" s="5"/>
+      <c r="U134" s="17"/>
+    </row>
+    <row r="135" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A135" s="16"/>
+      <c r="B135" s="11"/>
+      <c r="C135" s="11"/>
+      <c r="D135" s="11"/>
+      <c r="E135" s="11"/>
+      <c r="F135" s="11"/>
+      <c r="G135" s="11"/>
+      <c r="H135" s="11"/>
+      <c r="I135" s="11"/>
+      <c r="J135" s="11"/>
+      <c r="K135" s="4"/>
+      <c r="L135" s="11"/>
+      <c r="M135" s="11"/>
+      <c r="N135" s="11"/>
+      <c r="O135" s="11"/>
+      <c r="P135" s="11"/>
+      <c r="Q135" s="11"/>
+      <c r="R135" s="11"/>
+      <c r="S135" s="11"/>
+      <c r="T135" s="5"/>
+      <c r="U135" s="17"/>
+    </row>
+    <row r="136" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A136" s="16"/>
+      <c r="B136" s="11"/>
+      <c r="C136" s="11"/>
+      <c r="D136" s="11"/>
+      <c r="E136" s="11"/>
+      <c r="F136" s="11"/>
+      <c r="G136" s="11"/>
+      <c r="H136" s="11"/>
+      <c r="I136" s="11"/>
+      <c r="J136" s="11"/>
+      <c r="K136" s="4"/>
+      <c r="L136" s="11"/>
+      <c r="M136" s="11"/>
+      <c r="N136" s="11"/>
+      <c r="O136" s="11"/>
+      <c r="P136" s="11"/>
+      <c r="Q136" s="11"/>
+      <c r="R136" s="11"/>
+      <c r="S136" s="11"/>
+      <c r="T136" s="5"/>
+      <c r="U136" s="17"/>
+    </row>
+    <row r="137" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A137" s="16"/>
+      <c r="B137" s="11"/>
+      <c r="C137" s="11"/>
+      <c r="D137" s="11"/>
+      <c r="E137" s="11"/>
+      <c r="F137" s="11"/>
+      <c r="G137" s="11"/>
+      <c r="H137" s="11"/>
+      <c r="I137" s="11"/>
+      <c r="J137" s="11"/>
+      <c r="K137" s="4"/>
+      <c r="L137" s="11"/>
+      <c r="M137" s="11"/>
+      <c r="N137" s="11"/>
+      <c r="O137" s="11"/>
+      <c r="P137" s="11"/>
+      <c r="Q137" s="11"/>
+      <c r="R137" s="11"/>
+      <c r="S137" s="11"/>
+      <c r="T137" s="5"/>
+      <c r="U137" s="17"/>
+    </row>
+    <row r="138" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A138" s="16"/>
+      <c r="B138" s="11"/>
+      <c r="C138" s="11"/>
+      <c r="D138" s="11"/>
+      <c r="E138" s="11"/>
+      <c r="F138" s="11"/>
+      <c r="G138" s="11"/>
+      <c r="H138" s="11"/>
+      <c r="I138" s="11"/>
+      <c r="J138" s="11"/>
+      <c r="K138" s="4"/>
+      <c r="L138" s="11"/>
+      <c r="M138" s="11"/>
+      <c r="N138" s="11"/>
+      <c r="O138" s="11"/>
+      <c r="P138" s="11"/>
+      <c r="Q138" s="11"/>
+      <c r="R138" s="11"/>
+      <c r="S138" s="11"/>
+      <c r="T138" s="5"/>
+      <c r="U138" s="17"/>
+    </row>
+    <row r="139" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A139" s="16"/>
+      <c r="B139" s="11"/>
+      <c r="C139" s="11"/>
+      <c r="D139" s="11"/>
+      <c r="E139" s="11"/>
+      <c r="F139" s="11"/>
+      <c r="G139" s="11"/>
+      <c r="H139" s="11"/>
+      <c r="I139" s="11"/>
+      <c r="J139" s="11"/>
+      <c r="K139" s="4"/>
+      <c r="L139" s="11"/>
+      <c r="M139" s="11"/>
+      <c r="N139" s="11"/>
+      <c r="O139" s="11"/>
+      <c r="P139" s="11"/>
+      <c r="Q139" s="11"/>
+      <c r="R139" s="11"/>
+      <c r="S139" s="11"/>
+      <c r="T139" s="5"/>
+      <c r="U139" s="17"/>
+    </row>
+    <row r="140" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A140" s="16"/>
+      <c r="B140" s="11"/>
+      <c r="C140" s="11"/>
+      <c r="D140" s="11"/>
+      <c r="E140" s="11"/>
+      <c r="F140" s="11"/>
+      <c r="G140" s="11"/>
+      <c r="H140" s="11"/>
+      <c r="I140" s="11"/>
+      <c r="J140" s="11"/>
+      <c r="K140" s="4"/>
+      <c r="L140" s="11"/>
+      <c r="M140" s="11"/>
+      <c r="N140" s="11"/>
+      <c r="O140" s="11"/>
+      <c r="P140" s="11"/>
+      <c r="Q140" s="11"/>
+      <c r="R140" s="11"/>
+      <c r="S140" s="11"/>
+      <c r="T140" s="5"/>
+      <c r="U140" s="17"/>
+    </row>
+    <row r="141" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A141" s="16"/>
+      <c r="B141" s="11"/>
+      <c r="C141" s="11"/>
+      <c r="D141" s="11"/>
+      <c r="E141" s="11"/>
+      <c r="F141" s="11"/>
+      <c r="G141" s="11"/>
+      <c r="H141" s="11"/>
+      <c r="I141" s="11"/>
+      <c r="J141" s="11"/>
+      <c r="K141" s="4"/>
+      <c r="L141" s="11"/>
+      <c r="M141" s="11"/>
+      <c r="N141" s="11"/>
+      <c r="O141" s="11"/>
+      <c r="P141" s="11"/>
+      <c r="Q141" s="11"/>
+      <c r="R141" s="11"/>
+      <c r="S141" s="11"/>
+      <c r="T141" s="5"/>
+      <c r="U141" s="17"/>
+    </row>
+    <row r="142" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A142" s="16"/>
+      <c r="B142" s="11"/>
+      <c r="C142" s="11"/>
+      <c r="D142" s="11"/>
+      <c r="E142" s="11"/>
+      <c r="F142" s="11"/>
+      <c r="G142" s="11"/>
+      <c r="H142" s="11"/>
+      <c r="I142" s="11"/>
+      <c r="J142" s="11"/>
+      <c r="K142" s="4"/>
+      <c r="L142" s="11"/>
+      <c r="M142" s="11"/>
+      <c r="N142" s="11"/>
+      <c r="O142" s="11"/>
+      <c r="P142" s="11"/>
+      <c r="Q142" s="11"/>
+      <c r="R142" s="11"/>
+      <c r="S142" s="11"/>
+      <c r="T142" s="5"/>
+      <c r="U142" s="17"/>
+    </row>
+    <row r="143" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A143" s="16"/>
+      <c r="B143" s="11"/>
+      <c r="C143" s="11"/>
+      <c r="D143" s="11"/>
+      <c r="E143" s="11"/>
+      <c r="F143" s="11"/>
+      <c r="G143" s="11"/>
+      <c r="H143" s="11"/>
+      <c r="I143" s="11"/>
+      <c r="J143" s="11"/>
+      <c r="K143" s="4"/>
+      <c r="L143" s="11"/>
+      <c r="M143" s="11"/>
+      <c r="N143" s="11"/>
+      <c r="O143" s="11"/>
+      <c r="P143" s="11"/>
+      <c r="Q143" s="11"/>
+      <c r="R143" s="11"/>
+      <c r="S143" s="11"/>
+      <c r="T143" s="5"/>
+      <c r="U143" s="17"/>
+    </row>
+    <row r="144" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A144" s="16"/>
+      <c r="B144" s="11"/>
+      <c r="C144" s="11"/>
+      <c r="D144" s="11"/>
+      <c r="E144" s="11"/>
+      <c r="F144" s="11"/>
+      <c r="G144" s="11"/>
+      <c r="H144" s="11"/>
+      <c r="I144" s="11"/>
+      <c r="J144" s="11"/>
+      <c r="K144" s="4"/>
+      <c r="L144" s="11"/>
+      <c r="M144" s="11"/>
+      <c r="N144" s="11"/>
+      <c r="O144" s="11"/>
+      <c r="P144" s="11"/>
+      <c r="Q144" s="11"/>
+      <c r="R144" s="11"/>
+      <c r="S144" s="11"/>
+      <c r="T144" s="5"/>
+      <c r="U144" s="17"/>
+    </row>
+    <row r="145" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A145" s="16"/>
+      <c r="B145" s="11"/>
+      <c r="C145" s="11"/>
+      <c r="D145" s="11"/>
+      <c r="E145" s="11"/>
+      <c r="F145" s="11"/>
+      <c r="G145" s="11"/>
+      <c r="H145" s="11"/>
+      <c r="I145" s="11"/>
+      <c r="J145" s="11"/>
+      <c r="K145" s="4"/>
+      <c r="L145" s="11"/>
+      <c r="M145" s="11"/>
+      <c r="N145" s="11"/>
+      <c r="O145" s="11"/>
+      <c r="P145" s="11"/>
+      <c r="Q145" s="11"/>
+      <c r="R145" s="11"/>
+      <c r="S145" s="11"/>
+      <c r="T145" s="5"/>
+      <c r="U145" s="17"/>
+    </row>
+    <row r="146" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A146" s="16"/>
+      <c r="B146" s="11"/>
+      <c r="C146" s="11"/>
+      <c r="D146" s="11"/>
+      <c r="E146" s="11"/>
+      <c r="F146" s="11"/>
+      <c r="G146" s="11"/>
+      <c r="H146" s="11"/>
+      <c r="I146" s="11"/>
+      <c r="J146" s="11"/>
+      <c r="K146" s="6"/>
+      <c r="L146" s="7"/>
+      <c r="M146" s="7"/>
+      <c r="N146" s="7"/>
+      <c r="O146" s="7"/>
+      <c r="P146" s="7"/>
+      <c r="Q146" s="7"/>
+      <c r="R146" s="7"/>
+      <c r="S146" s="7"/>
+      <c r="T146" s="9"/>
+      <c r="U146" s="17"/>
+    </row>
+    <row r="147" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="18"/>
+      <c r="B147" s="19"/>
+      <c r="C147" s="19"/>
+      <c r="D147" s="19"/>
+      <c r="E147" s="19"/>
+      <c r="F147" s="19"/>
+      <c r="G147" s="19"/>
+      <c r="H147" s="19"/>
+      <c r="I147" s="19"/>
+      <c r="J147" s="19"/>
+      <c r="K147" s="19"/>
+      <c r="L147" s="19"/>
+      <c r="M147" s="19"/>
+      <c r="N147" s="19"/>
+      <c r="O147" s="19"/>
+      <c r="P147" s="19"/>
+      <c r="Q147" s="19"/>
+      <c r="R147" s="19"/>
+      <c r="S147" s="19"/>
+      <c r="T147" s="19"/>
+      <c r="U147" s="20"/>
+    </row>
+    <row r="149" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="12" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="150" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A150" s="13"/>
+      <c r="B150" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="C150" s="14"/>
+      <c r="D150" s="14"/>
+      <c r="E150" s="14"/>
+      <c r="F150" s="14"/>
+      <c r="G150" s="14"/>
+      <c r="H150" s="14"/>
+      <c r="I150" s="14"/>
+      <c r="J150" s="14"/>
+      <c r="K150" s="14"/>
+      <c r="L150" s="14"/>
+      <c r="M150" s="14"/>
+      <c r="N150" s="14"/>
+      <c r="O150" s="14"/>
+      <c r="P150" s="14"/>
+      <c r="Q150" s="14"/>
+      <c r="R150" s="14"/>
+      <c r="S150" s="14"/>
+      <c r="T150" s="14"/>
+      <c r="U150" s="15"/>
+    </row>
+    <row r="151" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A151" s="16"/>
+      <c r="B151" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C151" s="2"/>
+      <c r="D151" s="2"/>
+      <c r="E151" s="2"/>
+      <c r="F151" s="2"/>
+      <c r="G151" s="2"/>
+      <c r="H151" s="2"/>
+      <c r="I151" s="3"/>
+      <c r="J151" s="11"/>
+      <c r="K151" s="11"/>
+      <c r="L151" s="11"/>
+      <c r="M151" s="11"/>
+      <c r="N151" s="11"/>
+      <c r="O151" s="11"/>
+      <c r="P151" s="11"/>
+      <c r="Q151" s="11"/>
+      <c r="R151" s="11"/>
+      <c r="S151" s="11"/>
+      <c r="T151" s="11"/>
+      <c r="U151" s="17"/>
+    </row>
+    <row r="152" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A152" s="16"/>
+      <c r="B152" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C152" s="11"/>
+      <c r="D152" s="11"/>
+      <c r="E152" s="11"/>
+      <c r="F152" s="11"/>
+      <c r="G152" s="11"/>
+      <c r="H152" s="11"/>
+      <c r="I152" s="5"/>
+      <c r="J152" s="11"/>
+      <c r="K152" s="11"/>
+      <c r="L152" s="11"/>
+      <c r="M152" s="11"/>
+      <c r="N152" s="11"/>
+      <c r="O152" s="11"/>
+      <c r="P152" s="11"/>
+      <c r="Q152" s="11"/>
+      <c r="R152" s="11"/>
+      <c r="S152" s="11"/>
+      <c r="T152" s="11"/>
+      <c r="U152" s="17"/>
+    </row>
+    <row r="153" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A153" s="16"/>
+      <c r="B153" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C153" s="11"/>
+      <c r="D153" s="11"/>
+      <c r="E153" s="11"/>
+      <c r="F153" s="11"/>
+      <c r="G153" s="11"/>
+      <c r="H153" s="11"/>
+      <c r="I153" s="5"/>
+      <c r="J153" s="11"/>
+      <c r="K153" s="11"/>
+      <c r="L153" s="11"/>
+      <c r="M153" s="11"/>
+      <c r="N153" s="11"/>
+      <c r="O153" s="11"/>
+      <c r="P153" s="11"/>
+      <c r="Q153" s="11"/>
+      <c r="R153" s="11"/>
+      <c r="S153" s="11"/>
+      <c r="T153" s="11"/>
+      <c r="U153" s="17"/>
+    </row>
+    <row r="154" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A154" s="16"/>
+      <c r="B154" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C154" s="11"/>
+      <c r="D154" s="11"/>
+      <c r="E154" s="11"/>
+      <c r="F154" s="11"/>
+      <c r="G154" s="11"/>
+      <c r="H154" s="11"/>
+      <c r="I154" s="5"/>
+      <c r="J154" s="11"/>
+      <c r="K154" s="11"/>
+      <c r="L154" s="11"/>
+      <c r="M154" s="11"/>
+      <c r="N154" s="11"/>
+      <c r="O154" s="11"/>
+      <c r="P154" s="11"/>
+      <c r="Q154" s="11"/>
+      <c r="R154" s="11"/>
+      <c r="S154" s="11"/>
+      <c r="T154" s="11"/>
+      <c r="U154" s="17"/>
+    </row>
+    <row r="155" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A155" s="16"/>
+      <c r="B155" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C155" s="11"/>
+      <c r="D155" s="11"/>
+      <c r="E155" s="11"/>
+      <c r="F155" s="11"/>
+      <c r="G155" s="11"/>
+      <c r="H155" s="11"/>
+      <c r="I155" s="5"/>
+      <c r="J155" s="11"/>
+      <c r="K155" s="11"/>
+      <c r="L155" s="11"/>
+      <c r="M155" s="11"/>
+      <c r="N155" s="11"/>
+      <c r="O155" s="11"/>
+      <c r="P155" s="11"/>
+      <c r="Q155" s="11"/>
+      <c r="R155" s="11"/>
+      <c r="S155" s="11"/>
+      <c r="T155" s="11"/>
+      <c r="U155" s="17"/>
+    </row>
+    <row r="156" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A156" s="16"/>
+      <c r="B156" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C156" s="11"/>
+      <c r="D156" s="11"/>
+      <c r="E156" s="11"/>
+      <c r="F156" s="11"/>
+      <c r="G156" s="11"/>
+      <c r="H156" s="11"/>
+      <c r="I156" s="5"/>
+      <c r="J156" s="11"/>
+      <c r="K156" s="11"/>
+      <c r="L156" s="11"/>
+      <c r="M156" s="11"/>
+      <c r="N156" s="11"/>
+      <c r="O156" s="11"/>
+      <c r="P156" s="11"/>
+      <c r="Q156" s="11"/>
+      <c r="R156" s="11"/>
+      <c r="S156" s="11"/>
+      <c r="T156" s="11"/>
+      <c r="U156" s="17"/>
+    </row>
+    <row r="157" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A157" s="16"/>
+      <c r="B157" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C157" s="11"/>
+      <c r="D157" s="11"/>
+      <c r="E157" s="11"/>
+      <c r="F157" s="11"/>
+      <c r="G157" s="11"/>
+      <c r="H157" s="11"/>
+      <c r="I157" s="5"/>
+      <c r="J157" s="11"/>
+      <c r="K157" s="11"/>
+      <c r="L157" s="11"/>
+      <c r="M157" s="11"/>
+      <c r="N157" s="11"/>
+      <c r="O157" s="11"/>
+      <c r="P157" s="11"/>
+      <c r="Q157" s="11"/>
+      <c r="R157" s="11"/>
+      <c r="S157" s="11"/>
+      <c r="T157" s="11"/>
+      <c r="U157" s="17"/>
+    </row>
+    <row r="158" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A158" s="16"/>
+      <c r="B158" s="4"/>
+      <c r="C158" s="11"/>
+      <c r="D158" s="11"/>
+      <c r="E158" s="11"/>
+      <c r="F158" s="11"/>
+      <c r="G158" s="11"/>
+      <c r="H158" s="11"/>
+      <c r="I158" s="5"/>
+      <c r="J158" s="11"/>
+      <c r="K158" s="11"/>
+      <c r="L158" s="11"/>
+      <c r="M158" s="11"/>
+      <c r="N158" s="11"/>
+      <c r="O158" s="11"/>
+      <c r="P158" s="11"/>
+      <c r="Q158" s="11"/>
+      <c r="R158" s="11"/>
+      <c r="S158" s="11"/>
+      <c r="T158" s="11"/>
+      <c r="U158" s="17"/>
+    </row>
+    <row r="159" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A159" s="16"/>
+      <c r="B159" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C159" s="11"/>
+      <c r="D159" s="11"/>
+      <c r="E159" s="11"/>
+      <c r="F159" s="11"/>
+      <c r="G159" s="11"/>
+      <c r="H159" s="11"/>
+      <c r="I159" s="5"/>
+      <c r="J159" s="11"/>
+      <c r="K159" s="11"/>
+      <c r="L159" s="11"/>
+      <c r="M159" s="11"/>
+      <c r="N159" s="11"/>
+      <c r="O159" s="11"/>
+      <c r="P159" s="11"/>
+      <c r="Q159" s="11"/>
+      <c r="R159" s="11"/>
+      <c r="S159" s="11"/>
+      <c r="T159" s="11"/>
+      <c r="U159" s="17"/>
+    </row>
+    <row r="160" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A160" s="16"/>
+      <c r="B160" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C160" s="11"/>
+      <c r="D160" s="11"/>
+      <c r="E160" s="11"/>
+      <c r="F160" s="11"/>
+      <c r="G160" s="11"/>
+      <c r="H160" s="11"/>
+      <c r="I160" s="5"/>
+      <c r="J160" s="11"/>
+      <c r="K160" s="11"/>
+      <c r="L160" s="11"/>
+      <c r="M160" s="11"/>
+      <c r="N160" s="11"/>
+      <c r="O160" s="11"/>
+      <c r="P160" s="11"/>
+      <c r="Q160" s="11"/>
+      <c r="R160" s="11"/>
+      <c r="S160" s="11"/>
+      <c r="T160" s="11"/>
+      <c r="U160" s="17"/>
+    </row>
+    <row r="161" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A161" s="16"/>
+      <c r="B161" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C161" s="11"/>
+      <c r="D161" s="11"/>
+      <c r="E161" s="11"/>
+      <c r="F161" s="11"/>
+      <c r="G161" s="11"/>
+      <c r="H161" s="11"/>
+      <c r="I161" s="5"/>
+      <c r="J161" s="11"/>
+      <c r="K161" s="11"/>
+      <c r="L161" s="11"/>
+      <c r="M161" s="11"/>
+      <c r="N161" s="11"/>
+      <c r="O161" s="11"/>
+      <c r="P161" s="11"/>
+      <c r="Q161" s="11"/>
+      <c r="R161" s="11"/>
+      <c r="S161" s="11"/>
+      <c r="T161" s="11"/>
+      <c r="U161" s="17"/>
+    </row>
+    <row r="162" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A162" s="16"/>
+      <c r="B162" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C162" s="11"/>
+      <c r="D162" s="11"/>
+      <c r="E162" s="11"/>
+      <c r="F162" s="11"/>
+      <c r="G162" s="11"/>
+      <c r="H162" s="11"/>
+      <c r="I162" s="5"/>
+      <c r="J162" s="11"/>
+      <c r="K162" s="11"/>
+      <c r="L162" s="11"/>
+      <c r="M162" s="11"/>
+      <c r="N162" s="11"/>
+      <c r="O162" s="11"/>
+      <c r="P162" s="11"/>
+      <c r="Q162" s="11"/>
+      <c r="R162" s="11"/>
+      <c r="S162" s="11"/>
+      <c r="T162" s="11"/>
+      <c r="U162" s="17"/>
+    </row>
+    <row r="163" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A163" s="16"/>
+      <c r="B163" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C163" s="11"/>
+      <c r="D163" s="11"/>
+      <c r="E163" s="11"/>
+      <c r="F163" s="11"/>
+      <c r="G163" s="11"/>
+      <c r="H163" s="11"/>
+      <c r="I163" s="5"/>
+      <c r="J163" s="11"/>
+      <c r="K163" s="11"/>
+      <c r="L163" s="11"/>
+      <c r="M163" s="11"/>
+      <c r="N163" s="11"/>
+      <c r="O163" s="11"/>
+      <c r="P163" s="11"/>
+      <c r="Q163" s="11"/>
+      <c r="R163" s="11"/>
+      <c r="S163" s="11"/>
+      <c r="T163" s="11"/>
+      <c r="U163" s="17"/>
+    </row>
+    <row r="164" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A164" s="16"/>
+      <c r="B164" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C164" s="11"/>
+      <c r="D164" s="11"/>
+      <c r="E164" s="11"/>
+      <c r="F164" s="11"/>
+      <c r="G164" s="11"/>
+      <c r="H164" s="11"/>
+      <c r="I164" s="5"/>
+      <c r="J164" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K164" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="L164" s="11"/>
+      <c r="M164" s="11"/>
+      <c r="N164" s="11"/>
+      <c r="O164" s="11"/>
+      <c r="P164" s="11"/>
+      <c r="Q164" s="11"/>
+      <c r="R164" s="11"/>
+      <c r="S164" s="11"/>
+      <c r="T164" s="11"/>
+      <c r="U164" s="17"/>
+    </row>
+    <row r="165" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A165" s="16"/>
+      <c r="B165" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C165" s="11"/>
+      <c r="D165" s="11"/>
+      <c r="E165" s="11"/>
+      <c r="F165" s="11"/>
+      <c r="G165" s="11"/>
+      <c r="H165" s="11"/>
+      <c r="I165" s="5"/>
+      <c r="J165" s="11"/>
+      <c r="K165" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="L165" s="11"/>
+      <c r="M165" s="11"/>
+      <c r="N165" s="11"/>
+      <c r="O165" s="11"/>
+      <c r="P165" s="11"/>
+      <c r="Q165" s="11"/>
+      <c r="R165" s="11"/>
+      <c r="S165" s="11"/>
+      <c r="T165" s="11"/>
+      <c r="U165" s="17"/>
+    </row>
+    <row r="166" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A166" s="16"/>
+      <c r="B166" s="4"/>
+      <c r="C166" s="11"/>
+      <c r="D166" s="11"/>
+      <c r="E166" s="11"/>
+      <c r="F166" s="11"/>
+      <c r="G166" s="11"/>
+      <c r="H166" s="11"/>
+      <c r="I166" s="5"/>
+      <c r="J166" s="11"/>
+      <c r="K166" s="11"/>
+      <c r="L166" s="11"/>
+      <c r="M166" s="11"/>
+      <c r="N166" s="11"/>
+      <c r="O166" s="11"/>
+      <c r="P166" s="11"/>
+      <c r="Q166" s="11"/>
+      <c r="R166" s="11"/>
+      <c r="S166" s="11"/>
+      <c r="T166" s="11"/>
+      <c r="U166" s="17"/>
+    </row>
+    <row r="167" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A167" s="16"/>
+      <c r="B167" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C167" s="11"/>
+      <c r="D167" s="11"/>
+      <c r="E167" s="11"/>
+      <c r="F167" s="11"/>
+      <c r="G167" s="11"/>
+      <c r="H167" s="11"/>
+      <c r="I167" s="5"/>
+      <c r="J167" s="11"/>
+      <c r="K167" s="11"/>
+      <c r="L167" s="11"/>
+      <c r="M167" s="11"/>
+      <c r="N167" s="11"/>
+      <c r="O167" s="11"/>
+      <c r="P167" s="11"/>
+      <c r="Q167" s="11"/>
+      <c r="R167" s="11"/>
+      <c r="S167" s="11"/>
+      <c r="T167" s="11"/>
+      <c r="U167" s="17"/>
+    </row>
+    <row r="168" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A168" s="16"/>
+      <c r="B168" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C168" s="11"/>
+      <c r="D168" s="11"/>
+      <c r="E168" s="11"/>
+      <c r="F168" s="11"/>
+      <c r="G168" s="11"/>
+      <c r="H168" s="11"/>
+      <c r="I168" s="5"/>
+      <c r="J168" s="11"/>
+      <c r="K168" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="L168" s="2"/>
+      <c r="M168" s="2"/>
+      <c r="N168" s="2"/>
+      <c r="O168" s="2"/>
+      <c r="P168" s="2"/>
+      <c r="Q168" s="2"/>
+      <c r="R168" s="2"/>
+      <c r="S168" s="2"/>
+      <c r="T168" s="3"/>
+      <c r="U168" s="17"/>
+    </row>
+    <row r="169" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A169" s="16"/>
+      <c r="B169" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C169" s="11"/>
+      <c r="D169" s="11"/>
+      <c r="E169" s="11"/>
+      <c r="F169" s="11"/>
+      <c r="G169" s="11"/>
+      <c r="H169" s="11"/>
+      <c r="I169" s="5"/>
+      <c r="J169" s="11"/>
+      <c r="K169" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="L169" s="11"/>
+      <c r="M169" s="11"/>
+      <c r="N169" s="11"/>
+      <c r="O169" s="11"/>
+      <c r="P169" s="11"/>
+      <c r="Q169" s="11"/>
+      <c r="R169" s="11"/>
+      <c r="S169" s="11"/>
+      <c r="T169" s="5"/>
+      <c r="U169" s="17"/>
+    </row>
+    <row r="170" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A170" s="16"/>
+      <c r="B170" s="4"/>
+      <c r="C170" s="11"/>
+      <c r="D170" s="11"/>
+      <c r="E170" s="11"/>
+      <c r="F170" s="11"/>
+      <c r="G170" s="11"/>
+      <c r="H170" s="11"/>
+      <c r="I170" s="5"/>
+      <c r="J170" s="11"/>
+      <c r="K170" s="4"/>
+      <c r="L170" s="11"/>
+      <c r="M170" s="11"/>
+      <c r="N170" s="11"/>
+      <c r="O170" s="11"/>
+      <c r="P170" s="11"/>
+      <c r="Q170" s="11"/>
+      <c r="R170" s="11"/>
+      <c r="S170" s="11"/>
+      <c r="T170" s="5"/>
+      <c r="U170" s="17"/>
+    </row>
+    <row r="171" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A171" s="16"/>
+      <c r="B171" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C171" s="11"/>
+      <c r="D171" s="11"/>
+      <c r="E171" s="11"/>
+      <c r="F171" s="11"/>
+      <c r="G171" s="11"/>
+      <c r="H171" s="11"/>
+      <c r="I171" s="5"/>
+      <c r="J171" s="11"/>
+      <c r="K171" s="4"/>
+      <c r="L171" s="11"/>
+      <c r="M171" s="11"/>
+      <c r="N171" s="11"/>
+      <c r="O171" s="11"/>
+      <c r="P171" s="11"/>
+      <c r="Q171" s="11"/>
+      <c r="R171" s="11"/>
+      <c r="S171" s="11"/>
+      <c r="T171" s="5"/>
+      <c r="U171" s="17"/>
+    </row>
+    <row r="172" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A172" s="16"/>
+      <c r="B172" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C172" s="11"/>
+      <c r="D172" s="11"/>
+      <c r="E172" s="11"/>
+      <c r="F172" s="11"/>
+      <c r="G172" s="11"/>
+      <c r="H172" s="11"/>
+      <c r="I172" s="5"/>
+      <c r="J172" s="11"/>
+      <c r="K172" s="4"/>
+      <c r="L172" s="11"/>
+      <c r="M172" s="11"/>
+      <c r="N172" s="11"/>
+      <c r="O172" s="11"/>
+      <c r="P172" s="11"/>
+      <c r="Q172" s="11"/>
+      <c r="R172" s="11"/>
+      <c r="S172" s="11"/>
+      <c r="T172" s="5"/>
+      <c r="U172" s="17"/>
+    </row>
+    <row r="173" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A173" s="16"/>
+      <c r="B173" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C173" s="11"/>
+      <c r="D173" s="11"/>
+      <c r="E173" s="11"/>
+      <c r="F173" s="11"/>
+      <c r="G173" s="11"/>
+      <c r="H173" s="11"/>
+      <c r="I173" s="5"/>
+      <c r="J173" s="11"/>
+      <c r="K173" s="4"/>
+      <c r="L173" s="11"/>
+      <c r="M173" s="11"/>
+      <c r="N173" s="11"/>
+      <c r="O173" s="11"/>
+      <c r="P173" s="11"/>
+      <c r="Q173" s="11"/>
+      <c r="R173" s="11"/>
+      <c r="S173" s="11"/>
+      <c r="T173" s="5"/>
+      <c r="U173" s="17"/>
+    </row>
+    <row r="174" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A174" s="16"/>
+      <c r="B174" s="4"/>
+      <c r="C174" s="11"/>
+      <c r="D174" s="11"/>
+      <c r="E174" s="11"/>
+      <c r="F174" s="11"/>
+      <c r="G174" s="11"/>
+      <c r="H174" s="11"/>
+      <c r="I174" s="5"/>
+      <c r="J174" s="11"/>
+      <c r="K174" s="4"/>
+      <c r="L174" s="11"/>
+      <c r="M174" s="11"/>
+      <c r="N174" s="11"/>
+      <c r="O174" s="11"/>
+      <c r="P174" s="11"/>
+      <c r="Q174" s="11"/>
+      <c r="R174" s="11"/>
+      <c r="S174" s="11"/>
+      <c r="T174" s="5"/>
+      <c r="U174" s="17"/>
+    </row>
+    <row r="175" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A175" s="16"/>
+      <c r="B175" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C175" s="11"/>
+      <c r="D175" s="11"/>
+      <c r="E175" s="11"/>
+      <c r="F175" s="11"/>
+      <c r="G175" s="11"/>
+      <c r="H175" s="11"/>
+      <c r="I175" s="5"/>
+      <c r="J175" s="11"/>
+      <c r="K175" s="4"/>
+      <c r="L175" s="11"/>
+      <c r="M175" s="11"/>
+      <c r="N175" s="11"/>
+      <c r="O175" s="11"/>
+      <c r="P175" s="11"/>
+      <c r="Q175" s="11"/>
+      <c r="R175" s="11"/>
+      <c r="S175" s="11"/>
+      <c r="T175" s="5"/>
+      <c r="U175" s="17"/>
+    </row>
+    <row r="176" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A176" s="16"/>
+      <c r="B176" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C176" s="11"/>
+      <c r="D176" s="11"/>
+      <c r="E176" s="11"/>
+      <c r="F176" s="11"/>
+      <c r="G176" s="11"/>
+      <c r="H176" s="11"/>
+      <c r="I176" s="5"/>
+      <c r="J176" s="11"/>
+      <c r="K176" s="4"/>
+      <c r="L176" s="11"/>
+      <c r="M176" s="11"/>
+      <c r="N176" s="11"/>
+      <c r="O176" s="11"/>
+      <c r="P176" s="11"/>
+      <c r="Q176" s="11"/>
+      <c r="R176" s="11"/>
+      <c r="S176" s="11"/>
+      <c r="T176" s="5"/>
+      <c r="U176" s="17"/>
+    </row>
+    <row r="177" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A177" s="16"/>
+      <c r="B177" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C177" s="11"/>
+      <c r="D177" s="11"/>
+      <c r="E177" s="11"/>
+      <c r="F177" s="11"/>
+      <c r="G177" s="11"/>
+      <c r="H177" s="11"/>
+      <c r="I177" s="5"/>
+      <c r="J177" s="11"/>
+      <c r="K177" s="4"/>
+      <c r="L177" s="11"/>
+      <c r="M177" s="11"/>
+      <c r="N177" s="11"/>
+      <c r="O177" s="11"/>
+      <c r="P177" s="11"/>
+      <c r="Q177" s="11"/>
+      <c r="R177" s="11"/>
+      <c r="S177" s="11"/>
+      <c r="T177" s="5"/>
+      <c r="U177" s="17"/>
+    </row>
+    <row r="178" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A178" s="16"/>
+      <c r="B178" s="4"/>
+      <c r="C178" s="11"/>
+      <c r="D178" s="11"/>
+      <c r="E178" s="11"/>
+      <c r="F178" s="11"/>
+      <c r="G178" s="11"/>
+      <c r="H178" s="11"/>
+      <c r="I178" s="5"/>
+      <c r="J178" s="11"/>
+      <c r="K178" s="4"/>
+      <c r="L178" s="11"/>
+      <c r="M178" s="11"/>
+      <c r="N178" s="11"/>
+      <c r="O178" s="11"/>
+      <c r="P178" s="11"/>
+      <c r="Q178" s="11"/>
+      <c r="R178" s="11"/>
+      <c r="S178" s="11"/>
+      <c r="T178" s="5"/>
+      <c r="U178" s="17"/>
+    </row>
+    <row r="179" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A179" s="16"/>
+      <c r="B179" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C179" s="11"/>
+      <c r="D179" s="11"/>
+      <c r="E179" s="11"/>
+      <c r="F179" s="11"/>
+      <c r="G179" s="11"/>
+      <c r="H179" s="11"/>
+      <c r="I179" s="5"/>
+      <c r="J179" s="11"/>
+      <c r="K179" s="4"/>
+      <c r="L179" s="11"/>
+      <c r="M179" s="11"/>
+      <c r="N179" s="11"/>
+      <c r="O179" s="11"/>
+      <c r="P179" s="11"/>
+      <c r="Q179" s="11"/>
+      <c r="R179" s="11"/>
+      <c r="S179" s="11"/>
+      <c r="T179" s="5"/>
+      <c r="U179" s="17"/>
+    </row>
+    <row r="180" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A180" s="16"/>
+      <c r="B180" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C180" s="11"/>
+      <c r="D180" s="11"/>
+      <c r="E180" s="11"/>
+      <c r="F180" s="11"/>
+      <c r="G180" s="11"/>
+      <c r="H180" s="11"/>
+      <c r="I180" s="5"/>
+      <c r="J180" s="11"/>
+      <c r="K180" s="4"/>
+      <c r="L180" s="11"/>
+      <c r="M180" s="11"/>
+      <c r="N180" s="11"/>
+      <c r="O180" s="11"/>
+      <c r="P180" s="11"/>
+      <c r="Q180" s="11"/>
+      <c r="R180" s="11"/>
+      <c r="S180" s="11"/>
+      <c r="T180" s="5"/>
+      <c r="U180" s="17"/>
+    </row>
+    <row r="181" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A181" s="16"/>
+      <c r="B181" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C181" s="11"/>
+      <c r="D181" s="11"/>
+      <c r="E181" s="11"/>
+      <c r="F181" s="11"/>
+      <c r="G181" s="11"/>
+      <c r="H181" s="11"/>
+      <c r="I181" s="5"/>
+      <c r="J181" s="11"/>
+      <c r="K181" s="4"/>
+      <c r="L181" s="11"/>
+      <c r="M181" s="11"/>
+      <c r="N181" s="11"/>
+      <c r="O181" s="11"/>
+      <c r="P181" s="11"/>
+      <c r="Q181" s="11"/>
+      <c r="R181" s="11"/>
+      <c r="S181" s="11"/>
+      <c r="T181" s="5"/>
+      <c r="U181" s="17"/>
+    </row>
+    <row r="182" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A182" s="16"/>
+      <c r="B182" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C182" s="11"/>
+      <c r="D182" s="11"/>
+      <c r="E182" s="11"/>
+      <c r="F182" s="11"/>
+      <c r="G182" s="11"/>
+      <c r="H182" s="11"/>
+      <c r="I182" s="5"/>
+      <c r="J182" s="11"/>
+      <c r="K182" s="4"/>
+      <c r="L182" s="11"/>
+      <c r="M182" s="11"/>
+      <c r="N182" s="11"/>
+      <c r="O182" s="11"/>
+      <c r="P182" s="11"/>
+      <c r="Q182" s="11"/>
+      <c r="R182" s="11"/>
+      <c r="S182" s="11"/>
+      <c r="T182" s="5"/>
+      <c r="U182" s="17"/>
+    </row>
+    <row r="183" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A183" s="16"/>
+      <c r="B183" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C183" s="11"/>
+      <c r="D183" s="11"/>
+      <c r="E183" s="11"/>
+      <c r="F183" s="11"/>
+      <c r="G183" s="11"/>
+      <c r="H183" s="11"/>
+      <c r="I183" s="5"/>
+      <c r="J183" s="11"/>
+      <c r="K183" s="4"/>
+      <c r="L183" s="11"/>
+      <c r="M183" s="11"/>
+      <c r="N183" s="11"/>
+      <c r="O183" s="11"/>
+      <c r="P183" s="11"/>
+      <c r="Q183" s="11"/>
+      <c r="R183" s="11"/>
+      <c r="S183" s="11"/>
+      <c r="T183" s="5"/>
+      <c r="U183" s="17"/>
+    </row>
+    <row r="184" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A184" s="16"/>
+      <c r="B184" s="4"/>
+      <c r="C184" s="11"/>
+      <c r="D184" s="11"/>
+      <c r="E184" s="11"/>
+      <c r="F184" s="11"/>
+      <c r="G184" s="11"/>
+      <c r="H184" s="11"/>
+      <c r="I184" s="5"/>
+      <c r="J184" s="11"/>
+      <c r="K184" s="4"/>
+      <c r="L184" s="11"/>
+      <c r="M184" s="11"/>
+      <c r="N184" s="11"/>
+      <c r="O184" s="11"/>
+      <c r="P184" s="11"/>
+      <c r="Q184" s="11"/>
+      <c r="R184" s="11"/>
+      <c r="S184" s="11"/>
+      <c r="T184" s="5"/>
+      <c r="U184" s="17"/>
+    </row>
+    <row r="185" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A185" s="16"/>
+      <c r="B185" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C185" s="11"/>
+      <c r="D185" s="11"/>
+      <c r="E185" s="11"/>
+      <c r="F185" s="11"/>
+      <c r="G185" s="11"/>
+      <c r="H185" s="11"/>
+      <c r="I185" s="5"/>
+      <c r="J185" s="11"/>
+      <c r="K185" s="4"/>
+      <c r="L185" s="11"/>
+      <c r="M185" s="11"/>
+      <c r="N185" s="11"/>
+      <c r="O185" s="11"/>
+      <c r="P185" s="11"/>
+      <c r="Q185" s="11"/>
+      <c r="R185" s="11"/>
+      <c r="S185" s="11"/>
+      <c r="T185" s="5"/>
+      <c r="U185" s="17"/>
+    </row>
+    <row r="186" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A186" s="16"/>
+      <c r="B186" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C186" s="11"/>
+      <c r="D186" s="11"/>
+      <c r="E186" s="11"/>
+      <c r="F186" s="11"/>
+      <c r="G186" s="11"/>
+      <c r="H186" s="11"/>
+      <c r="I186" s="5"/>
+      <c r="J186" s="11"/>
+      <c r="K186" s="4"/>
+      <c r="L186" s="11"/>
+      <c r="M186" s="11"/>
+      <c r="N186" s="11"/>
+      <c r="O186" s="11"/>
+      <c r="P186" s="11"/>
+      <c r="Q186" s="11"/>
+      <c r="R186" s="11"/>
+      <c r="S186" s="11"/>
+      <c r="T186" s="5"/>
+      <c r="U186" s="17"/>
+    </row>
+    <row r="187" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A187" s="16"/>
+      <c r="B187" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C187" s="11"/>
+      <c r="D187" s="11"/>
+      <c r="E187" s="11"/>
+      <c r="F187" s="11"/>
+      <c r="G187" s="11"/>
+      <c r="H187" s="11"/>
+      <c r="I187" s="5"/>
+      <c r="J187" s="11"/>
+      <c r="K187" s="4"/>
+      <c r="L187" s="11"/>
+      <c r="M187" s="11"/>
+      <c r="N187" s="11"/>
+      <c r="O187" s="11"/>
+      <c r="P187" s="11"/>
+      <c r="Q187" s="11"/>
+      <c r="R187" s="11"/>
+      <c r="S187" s="11"/>
+      <c r="T187" s="5"/>
+      <c r="U187" s="17"/>
+    </row>
+    <row r="188" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A188" s="16"/>
+      <c r="B188" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C188" s="11"/>
+      <c r="D188" s="11"/>
+      <c r="E188" s="11"/>
+      <c r="F188" s="11"/>
+      <c r="G188" s="11"/>
+      <c r="H188" s="11"/>
+      <c r="I188" s="5"/>
+      <c r="J188" s="11"/>
+      <c r="K188" s="6"/>
+      <c r="L188" s="7"/>
+      <c r="M188" s="7"/>
+      <c r="N188" s="7"/>
+      <c r="O188" s="7"/>
+      <c r="P188" s="7"/>
+      <c r="Q188" s="7"/>
+      <c r="R188" s="7"/>
+      <c r="S188" s="7"/>
+      <c r="T188" s="9"/>
+      <c r="U188" s="17"/>
+    </row>
+    <row r="189" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A189" s="16"/>
+      <c r="B189" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C189" s="11"/>
+      <c r="D189" s="11"/>
+      <c r="E189" s="11"/>
+      <c r="F189" s="11"/>
+      <c r="G189" s="11"/>
+      <c r="H189" s="11"/>
+      <c r="I189" s="5"/>
+      <c r="J189" s="11"/>
+      <c r="K189" s="11"/>
+      <c r="L189" s="11"/>
+      <c r="M189" s="11"/>
+      <c r="N189" s="11"/>
+      <c r="O189" s="11"/>
+      <c r="P189" s="11"/>
+      <c r="Q189" s="11"/>
+      <c r="R189" s="11"/>
+      <c r="S189" s="11"/>
+      <c r="T189" s="11"/>
+      <c r="U189" s="17"/>
+    </row>
+    <row r="190" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A190" s="16"/>
+      <c r="B190" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C190" s="11"/>
+      <c r="D190" s="11"/>
+      <c r="E190" s="11"/>
+      <c r="F190" s="11"/>
+      <c r="G190" s="11"/>
+      <c r="H190" s="11"/>
+      <c r="I190" s="5"/>
+      <c r="J190" s="11"/>
+      <c r="K190" s="11"/>
+      <c r="L190" s="11"/>
+      <c r="M190" s="11"/>
+      <c r="N190" s="11"/>
+      <c r="O190" s="11"/>
+      <c r="P190" s="11"/>
+      <c r="Q190" s="11"/>
+      <c r="R190" s="11"/>
+      <c r="S190" s="11"/>
+      <c r="T190" s="11"/>
+      <c r="U190" s="17"/>
+    </row>
+    <row r="191" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A191" s="16"/>
+      <c r="B191" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C191" s="11"/>
+      <c r="D191" s="11"/>
+      <c r="E191" s="11"/>
+      <c r="F191" s="11"/>
+      <c r="G191" s="11"/>
+      <c r="H191" s="11"/>
+      <c r="I191" s="5"/>
+      <c r="J191" s="11"/>
+      <c r="K191" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="L191" s="2"/>
+      <c r="M191" s="2"/>
+      <c r="N191" s="2"/>
+      <c r="O191" s="2"/>
+      <c r="P191" s="2"/>
+      <c r="Q191" s="2"/>
+      <c r="R191" s="2"/>
+      <c r="S191" s="2"/>
+      <c r="T191" s="3"/>
+      <c r="U191" s="17"/>
+    </row>
+    <row r="192" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A192" s="16"/>
+      <c r="B192" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C192" s="11"/>
+      <c r="D192" s="11"/>
+      <c r="E192" s="11"/>
+      <c r="F192" s="11"/>
+      <c r="G192" s="11"/>
+      <c r="H192" s="11"/>
+      <c r="I192" s="5"/>
+      <c r="J192" s="11"/>
+      <c r="K192" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="L192" s="11"/>
+      <c r="M192" s="11"/>
+      <c r="N192" s="11"/>
+      <c r="O192" s="11"/>
+      <c r="P192" s="11"/>
+      <c r="Q192" s="11"/>
+      <c r="R192" s="11"/>
+      <c r="S192" s="11"/>
+      <c r="T192" s="5"/>
+      <c r="U192" s="17"/>
+    </row>
+    <row r="193" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A193" s="16"/>
+      <c r="B193" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C193" s="11"/>
+      <c r="D193" s="11"/>
+      <c r="E193" s="11"/>
+      <c r="F193" s="11"/>
+      <c r="G193" s="11"/>
+      <c r="H193" s="11"/>
+      <c r="I193" s="5"/>
+      <c r="J193" s="11"/>
+      <c r="K193" s="4"/>
+      <c r="L193" s="11"/>
+      <c r="M193" s="11"/>
+      <c r="N193" s="11"/>
+      <c r="O193" s="11"/>
+      <c r="P193" s="11"/>
+      <c r="Q193" s="11"/>
+      <c r="R193" s="11"/>
+      <c r="S193" s="11"/>
+      <c r="T193" s="5"/>
+      <c r="U193" s="17"/>
+    </row>
+    <row r="194" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A194" s="16"/>
+      <c r="B194" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C194" s="11"/>
+      <c r="D194" s="11"/>
+      <c r="E194" s="11"/>
+      <c r="F194" s="11"/>
+      <c r="G194" s="11"/>
+      <c r="H194" s="11"/>
+      <c r="I194" s="5"/>
+      <c r="J194" s="11"/>
+      <c r="K194" s="4"/>
+      <c r="L194" s="11"/>
+      <c r="M194" s="11"/>
+      <c r="N194" s="11"/>
+      <c r="O194" s="11"/>
+      <c r="P194" s="11"/>
+      <c r="Q194" s="11"/>
+      <c r="R194" s="11"/>
+      <c r="S194" s="11"/>
+      <c r="T194" s="5"/>
+      <c r="U194" s="17"/>
+    </row>
+    <row r="195" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A195" s="16"/>
+      <c r="B195" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C195" s="11"/>
+      <c r="D195" s="11"/>
+      <c r="E195" s="11"/>
+      <c r="F195" s="11"/>
+      <c r="G195" s="11"/>
+      <c r="H195" s="11"/>
+      <c r="I195" s="5"/>
+      <c r="J195" s="11"/>
+      <c r="K195" s="4"/>
+      <c r="L195" s="11"/>
+      <c r="M195" s="11"/>
+      <c r="N195" s="11"/>
+      <c r="O195" s="11"/>
+      <c r="P195" s="11"/>
+      <c r="Q195" s="11"/>
+      <c r="R195" s="11"/>
+      <c r="S195" s="11"/>
+      <c r="T195" s="5"/>
+      <c r="U195" s="17"/>
+    </row>
+    <row r="196" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A196" s="16"/>
+      <c r="B196" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C196" s="11"/>
+      <c r="D196" s="11"/>
+      <c r="E196" s="11"/>
+      <c r="F196" s="11"/>
+      <c r="G196" s="11"/>
+      <c r="H196" s="11"/>
+      <c r="I196" s="5"/>
+      <c r="J196" s="11"/>
+      <c r="K196" s="4"/>
+      <c r="L196" s="11"/>
+      <c r="M196" s="11"/>
+      <c r="N196" s="11"/>
+      <c r="O196" s="11"/>
+      <c r="P196" s="11"/>
+      <c r="Q196" s="11"/>
+      <c r="R196" s="11"/>
+      <c r="S196" s="11"/>
+      <c r="T196" s="5"/>
+      <c r="U196" s="17"/>
+    </row>
+    <row r="197" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A197" s="16"/>
+      <c r="B197" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C197" s="7"/>
+      <c r="D197" s="7"/>
+      <c r="E197" s="7"/>
+      <c r="F197" s="7"/>
+      <c r="G197" s="7"/>
+      <c r="H197" s="7"/>
+      <c r="I197" s="9"/>
+      <c r="J197" s="11"/>
+      <c r="K197" s="4"/>
+      <c r="L197" s="11"/>
+      <c r="M197" s="11"/>
+      <c r="N197" s="11"/>
+      <c r="O197" s="11"/>
+      <c r="P197" s="11"/>
+      <c r="Q197" s="11"/>
+      <c r="R197" s="11"/>
+      <c r="S197" s="11"/>
+      <c r="T197" s="5"/>
+      <c r="U197" s="17"/>
+    </row>
+    <row r="198" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A198" s="16"/>
+      <c r="B198" s="11"/>
+      <c r="C198" s="11"/>
+      <c r="D198" s="11"/>
+      <c r="E198" s="11"/>
+      <c r="F198" s="11"/>
+      <c r="G198" s="11"/>
+      <c r="H198" s="11"/>
+      <c r="I198" s="11"/>
+      <c r="J198" s="11"/>
+      <c r="K198" s="4"/>
+      <c r="L198" s="11"/>
+      <c r="M198" s="11"/>
+      <c r="N198" s="11"/>
+      <c r="O198" s="11"/>
+      <c r="P198" s="11"/>
+      <c r="Q198" s="11"/>
+      <c r="R198" s="11"/>
+      <c r="S198" s="11"/>
+      <c r="T198" s="5"/>
+      <c r="U198" s="17"/>
+    </row>
+    <row r="199" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A199" s="16"/>
+      <c r="B199" s="11"/>
+      <c r="C199" s="11"/>
+      <c r="D199" s="11"/>
+      <c r="E199" s="11"/>
+      <c r="F199" s="11"/>
+      <c r="G199" s="11"/>
+      <c r="H199" s="11"/>
+      <c r="I199" s="11"/>
+      <c r="J199" s="11"/>
+      <c r="K199" s="4"/>
+      <c r="L199" s="11"/>
+      <c r="M199" s="11"/>
+      <c r="N199" s="11"/>
+      <c r="O199" s="11"/>
+      <c r="P199" s="11"/>
+      <c r="Q199" s="11"/>
+      <c r="R199" s="11"/>
+      <c r="S199" s="11"/>
+      <c r="T199" s="5"/>
+      <c r="U199" s="17"/>
+    </row>
+    <row r="200" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A200" s="16"/>
+      <c r="B200" s="11"/>
+      <c r="C200" s="11"/>
+      <c r="D200" s="11"/>
+      <c r="E200" s="11"/>
+      <c r="F200" s="11"/>
+      <c r="G200" s="11"/>
+      <c r="H200" s="11"/>
+      <c r="I200" s="11"/>
+      <c r="J200" s="11"/>
+      <c r="K200" s="4"/>
+      <c r="L200" s="11"/>
+      <c r="M200" s="11"/>
+      <c r="N200" s="11"/>
+      <c r="O200" s="11"/>
+      <c r="P200" s="11"/>
+      <c r="Q200" s="11"/>
+      <c r="R200" s="11"/>
+      <c r="S200" s="11"/>
+      <c r="T200" s="5"/>
+      <c r="U200" s="17"/>
+    </row>
+    <row r="201" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A201" s="16"/>
+      <c r="B201" s="11"/>
+      <c r="C201" s="11"/>
+      <c r="D201" s="11"/>
+      <c r="E201" s="11"/>
+      <c r="F201" s="11"/>
+      <c r="G201" s="11"/>
+      <c r="H201" s="11"/>
+      <c r="I201" s="11"/>
+      <c r="J201" s="11"/>
+      <c r="K201" s="4"/>
+      <c r="L201" s="11"/>
+      <c r="M201" s="11"/>
+      <c r="N201" s="11"/>
+      <c r="O201" s="11"/>
+      <c r="P201" s="11"/>
+      <c r="Q201" s="11"/>
+      <c r="R201" s="11"/>
+      <c r="S201" s="11"/>
+      <c r="T201" s="5"/>
+      <c r="U201" s="17"/>
+    </row>
+    <row r="202" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A202" s="16"/>
+      <c r="B202" s="11"/>
+      <c r="C202" s="11"/>
+      <c r="D202" s="11"/>
+      <c r="E202" s="11"/>
+      <c r="F202" s="11"/>
+      <c r="G202" s="11"/>
+      <c r="H202" s="11"/>
+      <c r="I202" s="11"/>
+      <c r="J202" s="11"/>
+      <c r="K202" s="4"/>
+      <c r="L202" s="11"/>
+      <c r="M202" s="11"/>
+      <c r="N202" s="11"/>
+      <c r="O202" s="11"/>
+      <c r="P202" s="11"/>
+      <c r="Q202" s="11"/>
+      <c r="R202" s="11"/>
+      <c r="S202" s="11"/>
+      <c r="T202" s="5"/>
+      <c r="U202" s="17"/>
+    </row>
+    <row r="203" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A203" s="16"/>
+      <c r="B203" s="11"/>
+      <c r="C203" s="11"/>
+      <c r="D203" s="11"/>
+      <c r="E203" s="11"/>
+      <c r="F203" s="11"/>
+      <c r="G203" s="11"/>
+      <c r="H203" s="11"/>
+      <c r="I203" s="11"/>
+      <c r="J203" s="11"/>
+      <c r="K203" s="4"/>
+      <c r="L203" s="11"/>
+      <c r="M203" s="11"/>
+      <c r="N203" s="11"/>
+      <c r="O203" s="11"/>
+      <c r="P203" s="11"/>
+      <c r="Q203" s="11"/>
+      <c r="R203" s="11"/>
+      <c r="S203" s="11"/>
+      <c r="T203" s="5"/>
+      <c r="U203" s="17"/>
+    </row>
+    <row r="204" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A204" s="16"/>
+      <c r="B204" s="11"/>
+      <c r="C204" s="11"/>
+      <c r="D204" s="11"/>
+      <c r="E204" s="11"/>
+      <c r="F204" s="11"/>
+      <c r="G204" s="11"/>
+      <c r="H204" s="11"/>
+      <c r="I204" s="11"/>
+      <c r="J204" s="11"/>
+      <c r="K204" s="4"/>
+      <c r="L204" s="11"/>
+      <c r="M204" s="11"/>
+      <c r="N204" s="11"/>
+      <c r="O204" s="11"/>
+      <c r="P204" s="11"/>
+      <c r="Q204" s="11"/>
+      <c r="R204" s="11"/>
+      <c r="S204" s="11"/>
+      <c r="T204" s="5"/>
+      <c r="U204" s="17"/>
+    </row>
+    <row r="205" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A205" s="16"/>
+      <c r="B205" s="11"/>
+      <c r="C205" s="11"/>
+      <c r="D205" s="11"/>
+      <c r="E205" s="11"/>
+      <c r="F205" s="11"/>
+      <c r="G205" s="11"/>
+      <c r="H205" s="11"/>
+      <c r="I205" s="11"/>
+      <c r="J205" s="11"/>
+      <c r="K205" s="4"/>
+      <c r="L205" s="11"/>
+      <c r="M205" s="11"/>
+      <c r="N205" s="11"/>
+      <c r="O205" s="11"/>
+      <c r="P205" s="11"/>
+      <c r="Q205" s="11"/>
+      <c r="R205" s="11"/>
+      <c r="S205" s="11"/>
+      <c r="T205" s="5"/>
+      <c r="U205" s="17"/>
+    </row>
+    <row r="206" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A206" s="16"/>
+      <c r="B206" s="11"/>
+      <c r="C206" s="11"/>
+      <c r="D206" s="11"/>
+      <c r="E206" s="11"/>
+      <c r="F206" s="11"/>
+      <c r="G206" s="11"/>
+      <c r="H206" s="11"/>
+      <c r="I206" s="11"/>
+      <c r="J206" s="11"/>
+      <c r="K206" s="4"/>
+      <c r="L206" s="11"/>
+      <c r="M206" s="11"/>
+      <c r="N206" s="11"/>
+      <c r="O206" s="11"/>
+      <c r="P206" s="11"/>
+      <c r="Q206" s="11"/>
+      <c r="R206" s="11"/>
+      <c r="S206" s="11"/>
+      <c r="T206" s="5"/>
+      <c r="U206" s="17"/>
+    </row>
+    <row r="207" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A207" s="16"/>
+      <c r="B207" s="11"/>
+      <c r="C207" s="11"/>
+      <c r="D207" s="11"/>
+      <c r="E207" s="11"/>
+      <c r="F207" s="11"/>
+      <c r="G207" s="11"/>
+      <c r="H207" s="11"/>
+      <c r="I207" s="11"/>
+      <c r="J207" s="11"/>
+      <c r="K207" s="4"/>
+      <c r="L207" s="11"/>
+      <c r="M207" s="11"/>
+      <c r="N207" s="11"/>
+      <c r="O207" s="11"/>
+      <c r="P207" s="11"/>
+      <c r="Q207" s="11"/>
+      <c r="R207" s="11"/>
+      <c r="S207" s="11"/>
+      <c r="T207" s="5"/>
+      <c r="U207" s="17"/>
+    </row>
+    <row r="208" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A208" s="16"/>
+      <c r="B208" s="11"/>
+      <c r="C208" s="11"/>
+      <c r="D208" s="11"/>
+      <c r="E208" s="11"/>
+      <c r="F208" s="11"/>
+      <c r="G208" s="11"/>
+      <c r="H208" s="11"/>
+      <c r="I208" s="11"/>
+      <c r="J208" s="11"/>
+      <c r="K208" s="4"/>
+      <c r="L208" s="11"/>
+      <c r="M208" s="11"/>
+      <c r="N208" s="11"/>
+      <c r="O208" s="11"/>
+      <c r="P208" s="11"/>
+      <c r="Q208" s="11"/>
+      <c r="R208" s="11"/>
+      <c r="S208" s="11"/>
+      <c r="T208" s="5"/>
+      <c r="U208" s="17"/>
+    </row>
+    <row r="209" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A209" s="16"/>
+      <c r="B209" s="11"/>
+      <c r="C209" s="11"/>
+      <c r="D209" s="11"/>
+      <c r="E209" s="11"/>
+      <c r="F209" s="11"/>
+      <c r="G209" s="11"/>
+      <c r="H209" s="11"/>
+      <c r="I209" s="11"/>
+      <c r="J209" s="11"/>
+      <c r="K209" s="4"/>
+      <c r="L209" s="11"/>
+      <c r="M209" s="11"/>
+      <c r="N209" s="11"/>
+      <c r="O209" s="11"/>
+      <c r="P209" s="11"/>
+      <c r="Q209" s="11"/>
+      <c r="R209" s="11"/>
+      <c r="S209" s="11"/>
+      <c r="T209" s="5"/>
+      <c r="U209" s="17"/>
+    </row>
+    <row r="210" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A210" s="16"/>
+      <c r="B210" s="11"/>
+      <c r="C210" s="11"/>
+      <c r="D210" s="11"/>
+      <c r="E210" s="11"/>
+      <c r="F210" s="11"/>
+      <c r="G210" s="11"/>
+      <c r="H210" s="11"/>
+      <c r="I210" s="11"/>
+      <c r="J210" s="11"/>
+      <c r="K210" s="4"/>
+      <c r="L210" s="11"/>
+      <c r="M210" s="11"/>
+      <c r="N210" s="11"/>
+      <c r="O210" s="11"/>
+      <c r="P210" s="11"/>
+      <c r="Q210" s="11"/>
+      <c r="R210" s="11"/>
+      <c r="S210" s="11"/>
+      <c r="T210" s="5"/>
+      <c r="U210" s="17"/>
+    </row>
+    <row r="211" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A211" s="16"/>
+      <c r="B211" s="11"/>
+      <c r="C211" s="11"/>
+      <c r="D211" s="11"/>
+      <c r="E211" s="11"/>
+      <c r="F211" s="11"/>
+      <c r="G211" s="11"/>
+      <c r="H211" s="11"/>
+      <c r="I211" s="11"/>
+      <c r="J211" s="11"/>
+      <c r="K211" s="4"/>
+      <c r="L211" s="11"/>
+      <c r="M211" s="11"/>
+      <c r="N211" s="11"/>
+      <c r="O211" s="11"/>
+      <c r="P211" s="11"/>
+      <c r="Q211" s="11"/>
+      <c r="R211" s="11"/>
+      <c r="S211" s="11"/>
+      <c r="T211" s="5"/>
+      <c r="U211" s="17"/>
+    </row>
+    <row r="212" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A212" s="16"/>
+      <c r="B212" s="11"/>
+      <c r="C212" s="11"/>
+      <c r="D212" s="11"/>
+      <c r="E212" s="11"/>
+      <c r="F212" s="11"/>
+      <c r="G212" s="11"/>
+      <c r="H212" s="11"/>
+      <c r="I212" s="11"/>
+      <c r="J212" s="11"/>
+      <c r="K212" s="4"/>
+      <c r="L212" s="11"/>
+      <c r="M212" s="11"/>
+      <c r="N212" s="11"/>
+      <c r="O212" s="11"/>
+      <c r="P212" s="11"/>
+      <c r="Q212" s="11"/>
+      <c r="R212" s="11"/>
+      <c r="S212" s="11"/>
+      <c r="T212" s="5"/>
+      <c r="U212" s="17"/>
+    </row>
+    <row r="213" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A213" s="16"/>
+      <c r="B213" s="11"/>
+      <c r="C213" s="11"/>
+      <c r="D213" s="11"/>
+      <c r="E213" s="11"/>
+      <c r="F213" s="11"/>
+      <c r="G213" s="11"/>
+      <c r="H213" s="11"/>
+      <c r="I213" s="11"/>
+      <c r="J213" s="11"/>
+      <c r="K213" s="4"/>
+      <c r="L213" s="11"/>
+      <c r="M213" s="11"/>
+      <c r="N213" s="11"/>
+      <c r="O213" s="11"/>
+      <c r="P213" s="11"/>
+      <c r="Q213" s="11"/>
+      <c r="R213" s="11"/>
+      <c r="S213" s="11"/>
+      <c r="T213" s="5"/>
+      <c r="U213" s="17"/>
+    </row>
+    <row r="214" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A214" s="16"/>
+      <c r="B214" s="11"/>
+      <c r="C214" s="11"/>
+      <c r="D214" s="11"/>
+      <c r="E214" s="11"/>
+      <c r="F214" s="11"/>
+      <c r="G214" s="11"/>
+      <c r="H214" s="11"/>
+      <c r="I214" s="11"/>
+      <c r="J214" s="11"/>
+      <c r="K214" s="4"/>
+      <c r="L214" s="11"/>
+      <c r="M214" s="11"/>
+      <c r="N214" s="11"/>
+      <c r="O214" s="11"/>
+      <c r="P214" s="11"/>
+      <c r="Q214" s="11"/>
+      <c r="R214" s="11"/>
+      <c r="S214" s="11"/>
+      <c r="T214" s="5"/>
+      <c r="U214" s="17"/>
+    </row>
+    <row r="215" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A215" s="16"/>
+      <c r="B215" s="11"/>
+      <c r="C215" s="11"/>
+      <c r="D215" s="11"/>
+      <c r="E215" s="11"/>
+      <c r="F215" s="11"/>
+      <c r="G215" s="11"/>
+      <c r="H215" s="11"/>
+      <c r="I215" s="11"/>
+      <c r="J215" s="11"/>
+      <c r="K215" s="6"/>
+      <c r="L215" s="7"/>
+      <c r="M215" s="7"/>
+      <c r="N215" s="7"/>
+      <c r="O215" s="7"/>
+      <c r="P215" s="7"/>
+      <c r="Q215" s="7"/>
+      <c r="R215" s="7"/>
+      <c r="S215" s="7"/>
+      <c r="T215" s="9"/>
+      <c r="U215" s="17"/>
+    </row>
+    <row r="216" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A216" s="18"/>
+      <c r="B216" s="19"/>
+      <c r="C216" s="19"/>
+      <c r="D216" s="19"/>
+      <c r="E216" s="19"/>
+      <c r="F216" s="19"/>
+      <c r="G216" s="19"/>
+      <c r="H216" s="19"/>
+      <c r="I216" s="19"/>
+      <c r="J216" s="19"/>
+      <c r="K216" s="19"/>
+      <c r="L216" s="19"/>
+      <c r="M216" s="19"/>
+      <c r="N216" s="19"/>
+      <c r="O216" s="19"/>
+      <c r="P216" s="19"/>
+      <c r="Q216" s="19"/>
+      <c r="R216" s="19"/>
+      <c r="S216" s="19"/>
+      <c r="T216" s="19"/>
+      <c r="U216" s="20"/>
+    </row>
+    <row r="218" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A218" s="12" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="219" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A219" s="13"/>
+      <c r="B219" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C219" s="14"/>
+      <c r="D219" s="14"/>
+      <c r="E219" s="14"/>
+      <c r="F219" s="14"/>
+      <c r="G219" s="14"/>
+      <c r="H219" s="14"/>
+      <c r="I219" s="24"/>
+      <c r="J219" s="14"/>
+      <c r="K219" s="14"/>
+      <c r="L219" s="14"/>
+      <c r="M219" s="14"/>
+      <c r="N219" s="14"/>
+      <c r="O219" s="14"/>
+      <c r="P219" s="14"/>
+      <c r="Q219" s="14"/>
+      <c r="R219" s="14"/>
+      <c r="S219" s="14"/>
+      <c r="T219" s="14"/>
+      <c r="U219" s="15"/>
+    </row>
+    <row r="220" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A220" s="16"/>
+      <c r="B220" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C220" s="11"/>
+      <c r="D220" s="11"/>
+      <c r="E220" s="11"/>
+      <c r="F220" s="11"/>
+      <c r="G220" s="11"/>
+      <c r="H220" s="11"/>
+      <c r="I220" s="5"/>
+      <c r="J220" s="11"/>
+      <c r="K220" s="11"/>
+      <c r="L220" s="11"/>
+      <c r="M220" s="11"/>
+      <c r="N220" s="11"/>
+      <c r="O220" s="11"/>
+      <c r="P220" s="11"/>
+      <c r="Q220" s="11"/>
+      <c r="R220" s="11"/>
+      <c r="S220" s="11"/>
+      <c r="T220" s="11"/>
+      <c r="U220" s="17"/>
+    </row>
+    <row r="221" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A221" s="16"/>
+      <c r="B221" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C221" s="11"/>
+      <c r="D221" s="11"/>
+      <c r="E221" s="11"/>
+      <c r="F221" s="11"/>
+      <c r="G221" s="11"/>
+      <c r="H221" s="11"/>
+      <c r="I221" s="5"/>
+      <c r="J221" s="11"/>
+      <c r="K221" s="11"/>
+      <c r="L221" s="11"/>
+      <c r="M221" s="11"/>
+      <c r="N221" s="11"/>
+      <c r="O221" s="11"/>
+      <c r="P221" s="11"/>
+      <c r="Q221" s="11"/>
+      <c r="R221" s="11"/>
+      <c r="S221" s="11"/>
+      <c r="T221" s="11"/>
+      <c r="U221" s="17"/>
+    </row>
+    <row r="222" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A222" s="16"/>
+      <c r="B222" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C222" s="11"/>
+      <c r="D222" s="11"/>
+      <c r="E222" s="11"/>
+      <c r="F222" s="11"/>
+      <c r="G222" s="11"/>
+      <c r="H222" s="11"/>
+      <c r="I222" s="5"/>
+      <c r="J222" s="11"/>
+      <c r="K222" s="11"/>
+      <c r="L222" s="11"/>
+      <c r="M222" s="11"/>
+      <c r="N222" s="11"/>
+      <c r="O222" s="11"/>
+      <c r="P222" s="11"/>
+      <c r="Q222" s="11"/>
+      <c r="R222" s="11"/>
+      <c r="S222" s="11"/>
+      <c r="T222" s="11"/>
+      <c r="U222" s="17"/>
+    </row>
+    <row r="223" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A223" s="16"/>
+      <c r="B223" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C223" s="11"/>
+      <c r="D223" s="11"/>
+      <c r="E223" s="11"/>
+      <c r="F223" s="11"/>
+      <c r="G223" s="11"/>
+      <c r="H223" s="11"/>
+      <c r="I223" s="5"/>
+      <c r="J223" s="11"/>
+      <c r="K223" s="11"/>
+      <c r="L223" s="11"/>
+      <c r="M223" s="11"/>
+      <c r="N223" s="11"/>
+      <c r="O223" s="11"/>
+      <c r="P223" s="11"/>
+      <c r="Q223" s="11"/>
+      <c r="R223" s="11"/>
+      <c r="S223" s="11"/>
+      <c r="T223" s="11"/>
+      <c r="U223" s="17"/>
+    </row>
+    <row r="224" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A224" s="16"/>
+      <c r="B224" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C224" s="11"/>
+      <c r="D224" s="11"/>
+      <c r="E224" s="11"/>
+      <c r="F224" s="11"/>
+      <c r="G224" s="11"/>
+      <c r="H224" s="11"/>
+      <c r="I224" s="5"/>
+      <c r="J224" s="11"/>
+      <c r="K224" s="11"/>
+      <c r="L224" s="11"/>
+      <c r="M224" s="11"/>
+      <c r="N224" s="11"/>
+      <c r="O224" s="11"/>
+      <c r="P224" s="11"/>
+      <c r="Q224" s="11"/>
+      <c r="R224" s="11"/>
+      <c r="S224" s="11"/>
+      <c r="T224" s="11"/>
+      <c r="U224" s="17"/>
+    </row>
+    <row r="225" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A225" s="16"/>
+      <c r="B225" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C225" s="11"/>
+      <c r="D225" s="11"/>
+      <c r="E225" s="11"/>
+      <c r="F225" s="11"/>
+      <c r="G225" s="11"/>
+      <c r="H225" s="11"/>
+      <c r="I225" s="5"/>
+      <c r="J225" s="11"/>
+      <c r="K225" s="11"/>
+      <c r="L225" s="11"/>
+      <c r="M225" s="11"/>
+      <c r="N225" s="11"/>
+      <c r="O225" s="11"/>
+      <c r="P225" s="11"/>
+      <c r="Q225" s="11"/>
+      <c r="R225" s="11"/>
+      <c r="S225" s="11"/>
+      <c r="T225" s="11"/>
+      <c r="U225" s="17"/>
+    </row>
+    <row r="226" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A226" s="16"/>
+      <c r="B226" s="4"/>
+      <c r="C226" s="11"/>
+      <c r="D226" s="11"/>
+      <c r="E226" s="11"/>
+      <c r="F226" s="11"/>
+      <c r="G226" s="11"/>
+      <c r="H226" s="11"/>
+      <c r="I226" s="5"/>
+      <c r="J226" s="11"/>
+      <c r="K226" s="11"/>
+      <c r="L226" s="11"/>
+      <c r="M226" s="11"/>
+      <c r="N226" s="11"/>
+      <c r="O226" s="11"/>
+      <c r="P226" s="11"/>
+      <c r="Q226" s="11"/>
+      <c r="R226" s="11"/>
+      <c r="S226" s="11"/>
+      <c r="T226" s="11"/>
+      <c r="U226" s="17"/>
+    </row>
+    <row r="227" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A227" s="16"/>
+      <c r="B227" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C227" s="11"/>
+      <c r="D227" s="11"/>
+      <c r="E227" s="11"/>
+      <c r="F227" s="11"/>
+      <c r="G227" s="11"/>
+      <c r="H227" s="11"/>
+      <c r="I227" s="5"/>
+      <c r="J227" s="11"/>
+      <c r="K227" s="11"/>
+      <c r="L227" s="11"/>
+      <c r="M227" s="11"/>
+      <c r="N227" s="11"/>
+      <c r="O227" s="11"/>
+      <c r="P227" s="11"/>
+      <c r="Q227" s="11"/>
+      <c r="R227" s="11"/>
+      <c r="S227" s="11"/>
+      <c r="T227" s="11"/>
+      <c r="U227" s="17"/>
+    </row>
+    <row r="228" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A228" s="16"/>
+      <c r="B228" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C228" s="11"/>
+      <c r="D228" s="11"/>
+      <c r="E228" s="11"/>
+      <c r="F228" s="11"/>
+      <c r="G228" s="11"/>
+      <c r="H228" s="11"/>
+      <c r="I228" s="5"/>
+      <c r="J228" s="11"/>
+      <c r="K228" s="11"/>
+      <c r="L228" s="11"/>
+      <c r="M228" s="11"/>
+      <c r="N228" s="11"/>
+      <c r="O228" s="11"/>
+      <c r="P228" s="11"/>
+      <c r="Q228" s="11"/>
+      <c r="R228" s="11"/>
+      <c r="S228" s="11"/>
+      <c r="T228" s="11"/>
+      <c r="U228" s="17"/>
+    </row>
+    <row r="229" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A229" s="16"/>
+      <c r="B229" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C229" s="11"/>
+      <c r="D229" s="11"/>
+      <c r="E229" s="11"/>
+      <c r="F229" s="11"/>
+      <c r="G229" s="11"/>
+      <c r="H229" s="11"/>
+      <c r="I229" s="5"/>
+      <c r="J229" s="11"/>
+      <c r="K229" s="11"/>
+      <c r="L229" s="11"/>
+      <c r="M229" s="11"/>
+      <c r="N229" s="11"/>
+      <c r="O229" s="11"/>
+      <c r="P229" s="11"/>
+      <c r="Q229" s="11"/>
+      <c r="R229" s="11"/>
+      <c r="S229" s="11"/>
+      <c r="T229" s="11"/>
+      <c r="U229" s="17"/>
+    </row>
+    <row r="230" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A230" s="16"/>
+      <c r="B230" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C230" s="11"/>
+      <c r="D230" s="11"/>
+      <c r="E230" s="11"/>
+      <c r="F230" s="11"/>
+      <c r="G230" s="11"/>
+      <c r="H230" s="11"/>
+      <c r="I230" s="5"/>
+      <c r="J230" s="11"/>
+      <c r="K230" s="11"/>
+      <c r="L230" s="11"/>
+      <c r="M230" s="11"/>
+      <c r="N230" s="11"/>
+      <c r="O230" s="11"/>
+      <c r="P230" s="11"/>
+      <c r="Q230" s="11"/>
+      <c r="R230" s="11"/>
+      <c r="S230" s="11"/>
+      <c r="T230" s="11"/>
+      <c r="U230" s="17"/>
+    </row>
+    <row r="231" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A231" s="16"/>
+      <c r="B231" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C231" s="11"/>
+      <c r="D231" s="11"/>
+      <c r="E231" s="11"/>
+      <c r="F231" s="11"/>
+      <c r="G231" s="11"/>
+      <c r="H231" s="11"/>
+      <c r="I231" s="5"/>
+      <c r="J231" s="11"/>
+      <c r="K231" s="11"/>
+      <c r="L231" s="11"/>
+      <c r="M231" s="11"/>
+      <c r="N231" s="11"/>
+      <c r="O231" s="11"/>
+      <c r="P231" s="11"/>
+      <c r="Q231" s="11"/>
+      <c r="R231" s="11"/>
+      <c r="S231" s="11"/>
+      <c r="T231" s="11"/>
+      <c r="U231" s="17"/>
+    </row>
+    <row r="232" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A232" s="16"/>
+      <c r="B232" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C232" s="11"/>
+      <c r="D232" s="11"/>
+      <c r="E232" s="11"/>
+      <c r="F232" s="11"/>
+      <c r="G232" s="11"/>
+      <c r="H232" s="11"/>
+      <c r="I232" s="5"/>
+      <c r="J232" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K232" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="L232" s="11"/>
+      <c r="M232" s="11"/>
+      <c r="N232" s="11"/>
+      <c r="O232" s="11"/>
+      <c r="P232" s="11"/>
+      <c r="Q232" s="11"/>
+      <c r="R232" s="11"/>
+      <c r="S232" s="11"/>
+      <c r="T232" s="11"/>
+      <c r="U232" s="17"/>
+    </row>
+    <row r="233" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A233" s="16"/>
+      <c r="B233" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C233" s="11"/>
+      <c r="D233" s="11"/>
+      <c r="E233" s="11"/>
+      <c r="F233" s="11"/>
+      <c r="G233" s="11"/>
+      <c r="H233" s="11"/>
+      <c r="I233" s="5"/>
+      <c r="J233" s="11"/>
+      <c r="K233" s="11"/>
+      <c r="L233" s="11"/>
+      <c r="M233" s="11"/>
+      <c r="N233" s="11"/>
+      <c r="O233" s="11"/>
+      <c r="P233" s="11"/>
+      <c r="Q233" s="11"/>
+      <c r="R233" s="11"/>
+      <c r="S233" s="11"/>
+      <c r="T233" s="11"/>
+      <c r="U233" s="17"/>
+    </row>
+    <row r="234" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A234" s="16"/>
+      <c r="B234" s="4"/>
+      <c r="C234" s="11"/>
+      <c r="D234" s="11"/>
+      <c r="E234" s="11"/>
+      <c r="F234" s="11"/>
+      <c r="G234" s="11"/>
+      <c r="H234" s="11"/>
+      <c r="I234" s="5"/>
+      <c r="J234" s="11"/>
+      <c r="K234" s="11"/>
+      <c r="L234" s="11"/>
+      <c r="M234" s="11"/>
+      <c r="N234" s="11"/>
+      <c r="O234" s="11"/>
+      <c r="P234" s="11"/>
+      <c r="Q234" s="11"/>
+      <c r="R234" s="11"/>
+      <c r="S234" s="11"/>
+      <c r="T234" s="11"/>
+      <c r="U234" s="17"/>
+    </row>
+    <row r="235" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A235" s="16"/>
+      <c r="B235" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C235" s="11"/>
+      <c r="D235" s="11"/>
+      <c r="E235" s="11"/>
+      <c r="F235" s="11"/>
+      <c r="G235" s="11"/>
+      <c r="H235" s="11"/>
+      <c r="I235" s="5"/>
+      <c r="J235" s="11"/>
+      <c r="K235" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="L235" s="2"/>
+      <c r="M235" s="2"/>
+      <c r="N235" s="2"/>
+      <c r="O235" s="2"/>
+      <c r="P235" s="2"/>
+      <c r="Q235" s="2"/>
+      <c r="R235" s="2"/>
+      <c r="S235" s="2"/>
+      <c r="T235" s="3"/>
+      <c r="U235" s="17"/>
+    </row>
+    <row r="236" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A236" s="16"/>
+      <c r="B236" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C236" s="11"/>
+      <c r="D236" s="11"/>
+      <c r="E236" s="11"/>
+      <c r="F236" s="11"/>
+      <c r="G236" s="11"/>
+      <c r="H236" s="11"/>
+      <c r="I236" s="5"/>
+      <c r="J236" s="11"/>
+      <c r="K236" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="L236" s="11"/>
+      <c r="M236" s="11"/>
+      <c r="N236" s="11"/>
+      <c r="O236" s="11"/>
+      <c r="P236" s="11"/>
+      <c r="Q236" s="11"/>
+      <c r="R236" s="11"/>
+      <c r="S236" s="11"/>
+      <c r="T236" s="5"/>
+      <c r="U236" s="17"/>
+    </row>
+    <row r="237" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A237" s="16"/>
+      <c r="B237" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C237" s="11"/>
+      <c r="D237" s="11"/>
+      <c r="E237" s="11"/>
+      <c r="F237" s="11"/>
+      <c r="G237" s="11"/>
+      <c r="H237" s="11"/>
+      <c r="I237" s="5"/>
+      <c r="J237" s="11"/>
+      <c r="K237" s="4"/>
+      <c r="L237" s="11"/>
+      <c r="M237" s="11"/>
+      <c r="N237" s="11"/>
+      <c r="O237" s="11"/>
+      <c r="P237" s="11"/>
+      <c r="Q237" s="11"/>
+      <c r="R237" s="11"/>
+      <c r="S237" s="11"/>
+      <c r="T237" s="5"/>
+      <c r="U237" s="17"/>
+    </row>
+    <row r="238" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A238" s="16"/>
+      <c r="B238" s="4"/>
+      <c r="C238" s="11"/>
+      <c r="D238" s="11"/>
+      <c r="E238" s="11"/>
+      <c r="F238" s="11"/>
+      <c r="G238" s="11"/>
+      <c r="H238" s="11"/>
+      <c r="I238" s="5"/>
+      <c r="J238" s="11"/>
+      <c r="K238" s="4"/>
+      <c r="L238" s="11"/>
+      <c r="M238" s="11"/>
+      <c r="N238" s="11"/>
+      <c r="O238" s="11"/>
+      <c r="P238" s="11"/>
+      <c r="Q238" s="11"/>
+      <c r="R238" s="11"/>
+      <c r="S238" s="11"/>
+      <c r="T238" s="5"/>
+      <c r="U238" s="17"/>
+    </row>
+    <row r="239" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A239" s="16"/>
+      <c r="B239" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C239" s="11"/>
+      <c r="D239" s="11"/>
+      <c r="E239" s="11"/>
+      <c r="F239" s="11"/>
+      <c r="G239" s="11"/>
+      <c r="H239" s="11"/>
+      <c r="I239" s="5"/>
+      <c r="J239" s="11"/>
+      <c r="K239" s="4"/>
+      <c r="L239" s="11"/>
+      <c r="M239" s="11"/>
+      <c r="N239" s="11"/>
+      <c r="O239" s="11"/>
+      <c r="P239" s="11"/>
+      <c r="Q239" s="11"/>
+      <c r="R239" s="11"/>
+      <c r="S239" s="11"/>
+      <c r="T239" s="5"/>
+      <c r="U239" s="17"/>
+    </row>
+    <row r="240" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A240" s="16"/>
+      <c r="B240" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C240" s="11"/>
+      <c r="D240" s="11"/>
+      <c r="E240" s="11"/>
+      <c r="F240" s="11"/>
+      <c r="G240" s="11"/>
+      <c r="H240" s="11"/>
+      <c r="I240" s="5"/>
+      <c r="J240" s="11"/>
+      <c r="K240" s="4"/>
+      <c r="L240" s="11"/>
+      <c r="M240" s="11"/>
+      <c r="N240" s="11"/>
+      <c r="O240" s="11"/>
+      <c r="P240" s="11"/>
+      <c r="Q240" s="11"/>
+      <c r="R240" s="11"/>
+      <c r="S240" s="11"/>
+      <c r="T240" s="5"/>
+      <c r="U240" s="17"/>
+    </row>
+    <row r="241" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A241" s="16"/>
+      <c r="B241" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C241" s="11"/>
+      <c r="D241" s="11"/>
+      <c r="E241" s="11"/>
+      <c r="F241" s="11"/>
+      <c r="G241" s="11"/>
+      <c r="H241" s="11"/>
+      <c r="I241" s="5"/>
+      <c r="J241" s="11"/>
+      <c r="K241" s="4"/>
+      <c r="L241" s="11"/>
+      <c r="M241" s="11"/>
+      <c r="N241" s="11"/>
+      <c r="O241" s="11"/>
+      <c r="P241" s="11"/>
+      <c r="Q241" s="11"/>
+      <c r="R241" s="11"/>
+      <c r="S241" s="11"/>
+      <c r="T241" s="5"/>
+      <c r="U241" s="17"/>
+    </row>
+    <row r="242" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A242" s="16"/>
+      <c r="B242" s="4"/>
+      <c r="C242" s="11"/>
+      <c r="D242" s="11"/>
+      <c r="E242" s="11"/>
+      <c r="F242" s="11"/>
+      <c r="G242" s="11"/>
+      <c r="H242" s="11"/>
+      <c r="I242" s="5"/>
+      <c r="J242" s="11"/>
+      <c r="K242" s="4"/>
+      <c r="L242" s="11"/>
+      <c r="M242" s="11"/>
+      <c r="N242" s="11"/>
+      <c r="O242" s="11"/>
+      <c r="P242" s="11"/>
+      <c r="Q242" s="11"/>
+      <c r="R242" s="11"/>
+      <c r="S242" s="11"/>
+      <c r="T242" s="5"/>
+      <c r="U242" s="17"/>
+    </row>
+    <row r="243" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A243" s="16"/>
+      <c r="B243" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C243" s="11"/>
+      <c r="D243" s="11"/>
+      <c r="E243" s="11"/>
+      <c r="F243" s="11"/>
+      <c r="G243" s="11"/>
+      <c r="H243" s="11"/>
+      <c r="I243" s="5"/>
+      <c r="J243" s="11"/>
+      <c r="K243" s="4"/>
+      <c r="L243" s="11"/>
+      <c r="M243" s="11"/>
+      <c r="N243" s="11"/>
+      <c r="O243" s="11"/>
+      <c r="P243" s="11"/>
+      <c r="Q243" s="11"/>
+      <c r="R243" s="11"/>
+      <c r="S243" s="11"/>
+      <c r="T243" s="5"/>
+      <c r="U243" s="17"/>
+    </row>
+    <row r="244" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A244" s="16"/>
+      <c r="B244" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C244" s="11"/>
+      <c r="D244" s="11"/>
+      <c r="E244" s="11"/>
+      <c r="F244" s="11"/>
+      <c r="G244" s="11"/>
+      <c r="H244" s="11"/>
+      <c r="I244" s="5"/>
+      <c r="J244" s="11"/>
+      <c r="K244" s="4"/>
+      <c r="L244" s="11"/>
+      <c r="M244" s="11"/>
+      <c r="N244" s="11"/>
+      <c r="O244" s="11"/>
+      <c r="P244" s="11"/>
+      <c r="Q244" s="11"/>
+      <c r="R244" s="11"/>
+      <c r="S244" s="11"/>
+      <c r="T244" s="5"/>
+      <c r="U244" s="17"/>
+    </row>
+    <row r="245" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A245" s="16"/>
+      <c r="B245" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C245" s="11"/>
+      <c r="D245" s="11"/>
+      <c r="E245" s="11"/>
+      <c r="F245" s="11"/>
+      <c r="G245" s="11"/>
+      <c r="H245" s="11"/>
+      <c r="I245" s="5"/>
+      <c r="J245" s="11"/>
+      <c r="K245" s="4"/>
+      <c r="L245" s="11"/>
+      <c r="M245" s="11"/>
+      <c r="N245" s="11"/>
+      <c r="O245" s="11"/>
+      <c r="P245" s="11"/>
+      <c r="Q245" s="11"/>
+      <c r="R245" s="11"/>
+      <c r="S245" s="11"/>
+      <c r="T245" s="5"/>
+      <c r="U245" s="17"/>
+    </row>
+    <row r="246" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A246" s="16"/>
+      <c r="B246" s="4"/>
+      <c r="C246" s="11"/>
+      <c r="D246" s="11"/>
+      <c r="E246" s="11"/>
+      <c r="F246" s="11"/>
+      <c r="G246" s="11"/>
+      <c r="H246" s="11"/>
+      <c r="I246" s="5"/>
+      <c r="J246" s="11"/>
+      <c r="K246" s="4"/>
+      <c r="L246" s="11"/>
+      <c r="M246" s="11"/>
+      <c r="N246" s="11"/>
+      <c r="O246" s="11"/>
+      <c r="P246" s="11"/>
+      <c r="Q246" s="11"/>
+      <c r="R246" s="11"/>
+      <c r="S246" s="11"/>
+      <c r="T246" s="5"/>
+      <c r="U246" s="17"/>
+    </row>
+    <row r="247" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A247" s="16"/>
+      <c r="B247" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C247" s="11"/>
+      <c r="D247" s="11"/>
+      <c r="E247" s="11"/>
+      <c r="F247" s="11"/>
+      <c r="G247" s="11"/>
+      <c r="H247" s="11"/>
+      <c r="I247" s="5"/>
+      <c r="J247" s="11"/>
+      <c r="K247" s="4"/>
+      <c r="L247" s="11"/>
+      <c r="M247" s="11"/>
+      <c r="N247" s="11"/>
+      <c r="O247" s="11"/>
+      <c r="P247" s="11"/>
+      <c r="Q247" s="11"/>
+      <c r="R247" s="11"/>
+      <c r="S247" s="11"/>
+      <c r="T247" s="5"/>
+      <c r="U247" s="17"/>
+    </row>
+    <row r="248" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A248" s="16"/>
+      <c r="B248" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C248" s="11"/>
+      <c r="D248" s="11"/>
+      <c r="E248" s="11"/>
+      <c r="F248" s="11"/>
+      <c r="G248" s="11"/>
+      <c r="H248" s="11"/>
+      <c r="I248" s="5"/>
+      <c r="J248" s="11"/>
+      <c r="K248" s="4"/>
+      <c r="L248" s="11"/>
+      <c r="M248" s="11"/>
+      <c r="N248" s="11"/>
+      <c r="O248" s="11"/>
+      <c r="P248" s="11"/>
+      <c r="Q248" s="11"/>
+      <c r="R248" s="11"/>
+      <c r="S248" s="11"/>
+      <c r="T248" s="5"/>
+      <c r="U248" s="17"/>
+    </row>
+    <row r="249" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A249" s="16"/>
+      <c r="B249" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C249" s="11"/>
+      <c r="D249" s="11"/>
+      <c r="E249" s="11"/>
+      <c r="F249" s="11"/>
+      <c r="G249" s="11"/>
+      <c r="H249" s="11"/>
+      <c r="I249" s="5"/>
+      <c r="J249" s="11"/>
+      <c r="K249" s="4"/>
+      <c r="L249" s="11"/>
+      <c r="M249" s="11"/>
+      <c r="N249" s="11"/>
+      <c r="O249" s="11"/>
+      <c r="P249" s="11"/>
+      <c r="Q249" s="11"/>
+      <c r="R249" s="11"/>
+      <c r="S249" s="11"/>
+      <c r="T249" s="5"/>
+      <c r="U249" s="17"/>
+    </row>
+    <row r="250" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A250" s="16"/>
+      <c r="B250" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C250" s="11"/>
+      <c r="D250" s="11"/>
+      <c r="E250" s="11"/>
+      <c r="F250" s="11"/>
+      <c r="G250" s="11"/>
+      <c r="H250" s="11"/>
+      <c r="I250" s="5"/>
+      <c r="J250" s="11"/>
+      <c r="K250" s="4"/>
+      <c r="L250" s="11"/>
+      <c r="M250" s="11"/>
+      <c r="N250" s="11"/>
+      <c r="O250" s="11"/>
+      <c r="P250" s="11"/>
+      <c r="Q250" s="11"/>
+      <c r="R250" s="11"/>
+      <c r="S250" s="11"/>
+      <c r="T250" s="5"/>
+      <c r="U250" s="17"/>
+    </row>
+    <row r="251" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A251" s="16"/>
+      <c r="B251" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C251" s="11"/>
+      <c r="D251" s="11"/>
+      <c r="E251" s="11"/>
+      <c r="F251" s="11"/>
+      <c r="G251" s="11"/>
+      <c r="H251" s="11"/>
+      <c r="I251" s="5"/>
+      <c r="J251" s="11"/>
+      <c r="K251" s="4"/>
+      <c r="L251" s="11"/>
+      <c r="M251" s="11"/>
+      <c r="N251" s="11"/>
+      <c r="O251" s="11"/>
+      <c r="P251" s="11"/>
+      <c r="Q251" s="11"/>
+      <c r="R251" s="11"/>
+      <c r="S251" s="11"/>
+      <c r="T251" s="5"/>
+      <c r="U251" s="17"/>
+    </row>
+    <row r="252" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A252" s="16"/>
+      <c r="B252" s="4"/>
+      <c r="C252" s="11"/>
+      <c r="D252" s="11"/>
+      <c r="E252" s="11"/>
+      <c r="F252" s="11"/>
+      <c r="G252" s="11"/>
+      <c r="H252" s="11"/>
+      <c r="I252" s="5"/>
+      <c r="J252" s="11"/>
+      <c r="K252" s="4"/>
+      <c r="L252" s="11"/>
+      <c r="M252" s="11"/>
+      <c r="N252" s="11"/>
+      <c r="O252" s="11"/>
+      <c r="P252" s="11"/>
+      <c r="Q252" s="11"/>
+      <c r="R252" s="11"/>
+      <c r="S252" s="11"/>
+      <c r="T252" s="5"/>
+      <c r="U252" s="17"/>
+    </row>
+    <row r="253" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A253" s="16"/>
+      <c r="B253" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C253" s="11"/>
+      <c r="D253" s="11"/>
+      <c r="E253" s="11"/>
+      <c r="F253" s="11"/>
+      <c r="G253" s="11"/>
+      <c r="H253" s="11"/>
+      <c r="I253" s="5"/>
+      <c r="J253" s="11"/>
+      <c r="K253" s="4"/>
+      <c r="L253" s="11"/>
+      <c r="M253" s="11"/>
+      <c r="N253" s="11"/>
+      <c r="O253" s="11"/>
+      <c r="P253" s="11"/>
+      <c r="Q253" s="11"/>
+      <c r="R253" s="11"/>
+      <c r="S253" s="11"/>
+      <c r="T253" s="5"/>
+      <c r="U253" s="17"/>
+    </row>
+    <row r="254" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A254" s="16"/>
+      <c r="B254" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C254" s="11"/>
+      <c r="D254" s="11"/>
+      <c r="E254" s="11"/>
+      <c r="F254" s="11"/>
+      <c r="G254" s="11"/>
+      <c r="H254" s="11"/>
+      <c r="I254" s="5"/>
+      <c r="J254" s="11"/>
+      <c r="K254" s="4"/>
+      <c r="L254" s="11"/>
+      <c r="M254" s="11"/>
+      <c r="N254" s="11"/>
+      <c r="O254" s="11"/>
+      <c r="P254" s="11"/>
+      <c r="Q254" s="11"/>
+      <c r="R254" s="11"/>
+      <c r="S254" s="11"/>
+      <c r="T254" s="5"/>
+      <c r="U254" s="17"/>
+    </row>
+    <row r="255" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A255" s="16"/>
+      <c r="B255" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C255" s="11"/>
+      <c r="D255" s="11"/>
+      <c r="E255" s="11"/>
+      <c r="F255" s="11"/>
+      <c r="G255" s="11"/>
+      <c r="H255" s="11"/>
+      <c r="I255" s="5"/>
+      <c r="J255" s="11"/>
+      <c r="K255" s="4"/>
+      <c r="L255" s="11"/>
+      <c r="M255" s="11"/>
+      <c r="N255" s="11"/>
+      <c r="O255" s="11"/>
+      <c r="P255" s="11"/>
+      <c r="Q255" s="11"/>
+      <c r="R255" s="11"/>
+      <c r="S255" s="11"/>
+      <c r="T255" s="5"/>
+      <c r="U255" s="17"/>
+    </row>
+    <row r="256" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A256" s="16"/>
+      <c r="B256" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C256" s="11"/>
+      <c r="D256" s="11"/>
+      <c r="E256" s="11"/>
+      <c r="F256" s="11"/>
+      <c r="G256" s="11"/>
+      <c r="H256" s="11"/>
+      <c r="I256" s="5"/>
+      <c r="J256" s="11"/>
+      <c r="K256" s="6"/>
+      <c r="L256" s="7"/>
+      <c r="M256" s="7"/>
+      <c r="N256" s="7"/>
+      <c r="O256" s="7"/>
+      <c r="P256" s="7"/>
+      <c r="Q256" s="7"/>
+      <c r="R256" s="7"/>
+      <c r="S256" s="7"/>
+      <c r="T256" s="9"/>
+      <c r="U256" s="17"/>
+    </row>
+    <row r="257" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A257" s="16"/>
+      <c r="B257" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C257" s="11"/>
+      <c r="D257" s="11"/>
+      <c r="E257" s="11"/>
+      <c r="F257" s="11"/>
+      <c r="G257" s="11"/>
+      <c r="H257" s="11"/>
+      <c r="I257" s="5"/>
+      <c r="J257" s="11"/>
+      <c r="K257" s="11"/>
+      <c r="L257" s="11"/>
+      <c r="M257" s="11"/>
+      <c r="N257" s="11"/>
+      <c r="O257" s="11"/>
+      <c r="P257" s="11"/>
+      <c r="Q257" s="11"/>
+      <c r="R257" s="11"/>
+      <c r="S257" s="11"/>
+      <c r="T257" s="11"/>
+      <c r="U257" s="17"/>
+    </row>
+    <row r="258" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A258" s="16"/>
+      <c r="B258" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C258" s="11"/>
+      <c r="D258" s="11"/>
+      <c r="E258" s="11"/>
+      <c r="F258" s="11"/>
+      <c r="G258" s="11"/>
+      <c r="H258" s="11"/>
+      <c r="I258" s="5"/>
+      <c r="J258" s="11"/>
+      <c r="K258" s="11"/>
+      <c r="L258" s="11"/>
+      <c r="M258" s="11"/>
+      <c r="N258" s="11"/>
+      <c r="O258" s="11"/>
+      <c r="P258" s="11"/>
+      <c r="Q258" s="11"/>
+      <c r="R258" s="11"/>
+      <c r="S258" s="11"/>
+      <c r="T258" s="11"/>
+      <c r="U258" s="17"/>
+    </row>
+    <row r="259" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A259" s="16"/>
+      <c r="B259" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C259" s="11"/>
+      <c r="D259" s="11"/>
+      <c r="E259" s="11"/>
+      <c r="F259" s="11"/>
+      <c r="G259" s="11"/>
+      <c r="H259" s="11"/>
+      <c r="I259" s="5"/>
+      <c r="J259" s="11"/>
+      <c r="K259" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="L259" s="2"/>
+      <c r="M259" s="2"/>
+      <c r="N259" s="2"/>
+      <c r="O259" s="2"/>
+      <c r="P259" s="2"/>
+      <c r="Q259" s="2"/>
+      <c r="R259" s="2"/>
+      <c r="S259" s="2"/>
+      <c r="T259" s="3"/>
+      <c r="U259" s="17"/>
+    </row>
+    <row r="260" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A260" s="16"/>
+      <c r="B260" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C260" s="11"/>
+      <c r="D260" s="11"/>
+      <c r="E260" s="11"/>
+      <c r="F260" s="11"/>
+      <c r="G260" s="11"/>
+      <c r="H260" s="11"/>
+      <c r="I260" s="5"/>
+      <c r="J260" s="11"/>
+      <c r="K260" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="L260" s="11"/>
+      <c r="M260" s="11"/>
+      <c r="N260" s="11"/>
+      <c r="O260" s="11"/>
+      <c r="P260" s="11"/>
+      <c r="Q260" s="11"/>
+      <c r="R260" s="11"/>
+      <c r="S260" s="11"/>
+      <c r="T260" s="5"/>
+      <c r="U260" s="17"/>
+    </row>
+    <row r="261" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A261" s="16"/>
+      <c r="B261" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C261" s="11"/>
+      <c r="D261" s="11"/>
+      <c r="E261" s="11"/>
+      <c r="F261" s="11"/>
+      <c r="G261" s="11"/>
+      <c r="H261" s="11"/>
+      <c r="I261" s="5"/>
+      <c r="J261" s="11"/>
+      <c r="K261" s="4"/>
+      <c r="L261" s="11"/>
+      <c r="M261" s="11"/>
+      <c r="N261" s="11"/>
+      <c r="O261" s="11"/>
+      <c r="P261" s="11"/>
+      <c r="Q261" s="11"/>
+      <c r="R261" s="11"/>
+      <c r="S261" s="11"/>
+      <c r="T261" s="5"/>
+      <c r="U261" s="17"/>
+    </row>
+    <row r="262" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A262" s="16"/>
+      <c r="B262" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C262" s="11"/>
+      <c r="D262" s="11"/>
+      <c r="E262" s="11"/>
+      <c r="F262" s="11"/>
+      <c r="G262" s="11"/>
+      <c r="H262" s="11"/>
+      <c r="I262" s="5"/>
+      <c r="J262" s="11"/>
+      <c r="K262" s="4"/>
+      <c r="L262" s="11"/>
+      <c r="M262" s="11"/>
+      <c r="N262" s="11"/>
+      <c r="O262" s="11"/>
+      <c r="P262" s="11"/>
+      <c r="Q262" s="11"/>
+      <c r="R262" s="11"/>
+      <c r="S262" s="11"/>
+      <c r="T262" s="5"/>
+      <c r="U262" s="17"/>
+    </row>
+    <row r="263" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A263" s="16"/>
+      <c r="B263" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C263" s="11"/>
+      <c r="D263" s="11"/>
+      <c r="E263" s="11"/>
+      <c r="F263" s="11"/>
+      <c r="G263" s="11"/>
+      <c r="H263" s="11"/>
+      <c r="I263" s="5"/>
+      <c r="J263" s="11"/>
+      <c r="K263" s="4"/>
+      <c r="L263" s="11"/>
+      <c r="M263" s="11"/>
+      <c r="N263" s="11"/>
+      <c r="O263" s="11"/>
+      <c r="P263" s="11"/>
+      <c r="Q263" s="11"/>
+      <c r="R263" s="11"/>
+      <c r="S263" s="11"/>
+      <c r="T263" s="5"/>
+      <c r="U263" s="17"/>
+    </row>
+    <row r="264" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A264" s="16"/>
+      <c r="B264" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C264" s="11"/>
+      <c r="D264" s="11"/>
+      <c r="E264" s="11"/>
+      <c r="F264" s="11"/>
+      <c r="G264" s="11"/>
+      <c r="H264" s="11"/>
+      <c r="I264" s="5"/>
+      <c r="J264" s="11"/>
+      <c r="K264" s="4"/>
+      <c r="L264" s="11"/>
+      <c r="M264" s="11"/>
+      <c r="N264" s="11"/>
+      <c r="O264" s="11"/>
+      <c r="P264" s="11"/>
+      <c r="Q264" s="11"/>
+      <c r="R264" s="11"/>
+      <c r="S264" s="11"/>
+      <c r="T264" s="5"/>
+      <c r="U264" s="17"/>
+    </row>
+    <row r="265" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A265" s="16"/>
+      <c r="B265" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C265" s="7"/>
+      <c r="D265" s="7"/>
+      <c r="E265" s="7"/>
+      <c r="F265" s="7"/>
+      <c r="G265" s="7"/>
+      <c r="H265" s="7"/>
+      <c r="I265" s="9"/>
+      <c r="J265" s="11"/>
+      <c r="K265" s="4"/>
+      <c r="L265" s="11"/>
+      <c r="M265" s="11"/>
+      <c r="N265" s="11"/>
+      <c r="O265" s="11"/>
+      <c r="P265" s="11"/>
+      <c r="Q265" s="11"/>
+      <c r="R265" s="11"/>
+      <c r="S265" s="11"/>
+      <c r="T265" s="5"/>
+      <c r="U265" s="17"/>
+    </row>
+    <row r="266" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A266" s="16"/>
+      <c r="B266" s="11"/>
+      <c r="C266" s="11"/>
+      <c r="D266" s="11"/>
+      <c r="E266" s="11"/>
+      <c r="F266" s="11"/>
+      <c r="G266" s="11"/>
+      <c r="H266" s="11"/>
+      <c r="I266" s="11"/>
+      <c r="J266" s="11"/>
+      <c r="K266" s="4"/>
+      <c r="L266" s="11"/>
+      <c r="M266" s="11"/>
+      <c r="N266" s="11"/>
+      <c r="O266" s="11"/>
+      <c r="P266" s="11"/>
+      <c r="Q266" s="11"/>
+      <c r="R266" s="11"/>
+      <c r="S266" s="11"/>
+      <c r="T266" s="5"/>
+      <c r="U266" s="17"/>
+    </row>
+    <row r="267" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A267" s="16"/>
+      <c r="B267" s="11"/>
+      <c r="C267" s="11"/>
+      <c r="D267" s="11"/>
+      <c r="E267" s="11"/>
+      <c r="F267" s="11"/>
+      <c r="G267" s="11"/>
+      <c r="H267" s="11"/>
+      <c r="I267" s="11"/>
+      <c r="J267" s="11"/>
+      <c r="K267" s="4"/>
+      <c r="L267" s="11"/>
+      <c r="M267" s="11"/>
+      <c r="N267" s="11"/>
+      <c r="O267" s="11"/>
+      <c r="P267" s="11"/>
+      <c r="Q267" s="11"/>
+      <c r="R267" s="11"/>
+      <c r="S267" s="11"/>
+      <c r="T267" s="5"/>
+      <c r="U267" s="17"/>
+    </row>
+    <row r="268" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A268" s="16"/>
+      <c r="B268" s="11"/>
+      <c r="C268" s="11"/>
+      <c r="D268" s="11"/>
+      <c r="E268" s="11"/>
+      <c r="F268" s="11"/>
+      <c r="G268" s="11"/>
+      <c r="H268" s="11"/>
+      <c r="I268" s="11"/>
+      <c r="J268" s="11"/>
+      <c r="K268" s="4"/>
+      <c r="L268" s="11"/>
+      <c r="M268" s="11"/>
+      <c r="N268" s="11"/>
+      <c r="O268" s="11"/>
+      <c r="P268" s="11"/>
+      <c r="Q268" s="11"/>
+      <c r="R268" s="11"/>
+      <c r="S268" s="11"/>
+      <c r="T268" s="5"/>
+      <c r="U268" s="17"/>
+    </row>
+    <row r="269" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A269" s="16"/>
+      <c r="B269" s="11"/>
+      <c r="C269" s="11"/>
+      <c r="D269" s="11"/>
+      <c r="E269" s="11"/>
+      <c r="F269" s="11"/>
+      <c r="G269" s="11"/>
+      <c r="H269" s="11"/>
+      <c r="I269" s="11"/>
+      <c r="J269" s="11"/>
+      <c r="K269" s="4"/>
+      <c r="L269" s="11"/>
+      <c r="M269" s="11"/>
+      <c r="N269" s="11"/>
+      <c r="O269" s="11"/>
+      <c r="P269" s="11"/>
+      <c r="Q269" s="11"/>
+      <c r="R269" s="11"/>
+      <c r="S269" s="11"/>
+      <c r="T269" s="5"/>
+      <c r="U269" s="17"/>
+    </row>
+    <row r="270" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A270" s="16"/>
+      <c r="B270" s="11"/>
+      <c r="C270" s="11"/>
+      <c r="D270" s="11"/>
+      <c r="E270" s="11"/>
+      <c r="F270" s="11"/>
+      <c r="G270" s="11"/>
+      <c r="H270" s="11"/>
+      <c r="I270" s="11"/>
+      <c r="J270" s="11"/>
+      <c r="K270" s="4"/>
+      <c r="L270" s="11"/>
+      <c r="M270" s="11"/>
+      <c r="N270" s="11"/>
+      <c r="O270" s="11"/>
+      <c r="P270" s="11"/>
+      <c r="Q270" s="11"/>
+      <c r="R270" s="11"/>
+      <c r="S270" s="11"/>
+      <c r="T270" s="5"/>
+      <c r="U270" s="17"/>
+    </row>
+    <row r="271" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A271" s="16"/>
+      <c r="B271" s="11"/>
+      <c r="C271" s="11"/>
+      <c r="D271" s="11"/>
+      <c r="E271" s="11"/>
+      <c r="F271" s="11"/>
+      <c r="G271" s="11"/>
+      <c r="H271" s="11"/>
+      <c r="I271" s="11"/>
+      <c r="J271" s="11"/>
+      <c r="K271" s="4"/>
+      <c r="L271" s="11"/>
+      <c r="M271" s="11"/>
+      <c r="N271" s="11"/>
+      <c r="O271" s="11"/>
+      <c r="P271" s="11"/>
+      <c r="Q271" s="11"/>
+      <c r="R271" s="11"/>
+      <c r="S271" s="11"/>
+      <c r="T271" s="5"/>
+      <c r="U271" s="17"/>
+    </row>
+    <row r="272" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A272" s="16"/>
+      <c r="B272" s="11"/>
+      <c r="C272" s="11"/>
+      <c r="D272" s="11"/>
+      <c r="E272" s="11"/>
+      <c r="F272" s="11"/>
+      <c r="G272" s="11"/>
+      <c r="H272" s="11"/>
+      <c r="I272" s="11"/>
+      <c r="J272" s="11"/>
+      <c r="K272" s="4"/>
+      <c r="L272" s="11"/>
+      <c r="M272" s="11"/>
+      <c r="N272" s="11"/>
+      <c r="O272" s="11"/>
+      <c r="P272" s="11"/>
+      <c r="Q272" s="11"/>
+      <c r="R272" s="11"/>
+      <c r="S272" s="11"/>
+      <c r="T272" s="5"/>
+      <c r="U272" s="17"/>
+    </row>
+    <row r="273" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A273" s="16"/>
+      <c r="B273" s="11"/>
+      <c r="C273" s="11"/>
+      <c r="D273" s="11"/>
+      <c r="E273" s="11"/>
+      <c r="F273" s="11"/>
+      <c r="G273" s="11"/>
+      <c r="H273" s="11"/>
+      <c r="I273" s="11"/>
+      <c r="J273" s="11"/>
+      <c r="K273" s="4"/>
+      <c r="L273" s="11"/>
+      <c r="M273" s="11"/>
+      <c r="N273" s="11"/>
+      <c r="O273" s="11"/>
+      <c r="P273" s="11"/>
+      <c r="Q273" s="11"/>
+      <c r="R273" s="11"/>
+      <c r="S273" s="11"/>
+      <c r="T273" s="5"/>
+      <c r="U273" s="17"/>
+    </row>
+    <row r="274" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A274" s="16"/>
+      <c r="B274" s="11"/>
+      <c r="C274" s="11"/>
+      <c r="D274" s="11"/>
+      <c r="E274" s="11"/>
+      <c r="F274" s="11"/>
+      <c r="G274" s="11"/>
+      <c r="H274" s="11"/>
+      <c r="I274" s="11"/>
+      <c r="J274" s="11"/>
+      <c r="K274" s="4"/>
+      <c r="L274" s="11"/>
+      <c r="M274" s="11"/>
+      <c r="N274" s="11"/>
+      <c r="O274" s="11"/>
+      <c r="P274" s="11"/>
+      <c r="Q274" s="11"/>
+      <c r="R274" s="11"/>
+      <c r="S274" s="11"/>
+      <c r="T274" s="5"/>
+      <c r="U274" s="17"/>
+    </row>
+    <row r="275" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A275" s="16"/>
+      <c r="B275" s="11"/>
+      <c r="C275" s="11"/>
+      <c r="D275" s="11"/>
+      <c r="E275" s="11"/>
+      <c r="F275" s="11"/>
+      <c r="G275" s="11"/>
+      <c r="H275" s="11"/>
+      <c r="I275" s="11"/>
+      <c r="J275" s="11"/>
+      <c r="K275" s="4"/>
+      <c r="L275" s="11"/>
+      <c r="M275" s="11"/>
+      <c r="N275" s="11"/>
+      <c r="O275" s="11"/>
+      <c r="P275" s="11"/>
+      <c r="Q275" s="11"/>
+      <c r="R275" s="11"/>
+      <c r="S275" s="11"/>
+      <c r="T275" s="5"/>
+      <c r="U275" s="17"/>
+    </row>
+    <row r="276" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A276" s="16"/>
+      <c r="B276" s="11"/>
+      <c r="C276" s="11"/>
+      <c r="D276" s="11"/>
+      <c r="E276" s="11"/>
+      <c r="F276" s="11"/>
+      <c r="G276" s="11"/>
+      <c r="H276" s="11"/>
+      <c r="I276" s="11"/>
+      <c r="J276" s="11"/>
+      <c r="K276" s="4"/>
+      <c r="L276" s="11"/>
+      <c r="M276" s="11"/>
+      <c r="N276" s="11"/>
+      <c r="O276" s="11"/>
+      <c r="P276" s="11"/>
+      <c r="Q276" s="11"/>
+      <c r="R276" s="11"/>
+      <c r="S276" s="11"/>
+      <c r="T276" s="5"/>
+      <c r="U276" s="17"/>
+    </row>
+    <row r="277" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A277" s="16"/>
+      <c r="B277" s="11"/>
+      <c r="C277" s="11"/>
+      <c r="D277" s="11"/>
+      <c r="E277" s="11"/>
+      <c r="F277" s="11"/>
+      <c r="G277" s="11"/>
+      <c r="H277" s="11"/>
+      <c r="I277" s="11"/>
+      <c r="J277" s="11"/>
+      <c r="K277" s="4"/>
+      <c r="L277" s="11"/>
+      <c r="M277" s="11"/>
+      <c r="N277" s="11"/>
+      <c r="O277" s="11"/>
+      <c r="P277" s="11"/>
+      <c r="Q277" s="11"/>
+      <c r="R277" s="11"/>
+      <c r="S277" s="11"/>
+      <c r="T277" s="5"/>
+      <c r="U277" s="17"/>
+    </row>
+    <row r="278" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A278" s="16"/>
+      <c r="B278" s="11"/>
+      <c r="C278" s="11"/>
+      <c r="D278" s="11"/>
+      <c r="E278" s="11"/>
+      <c r="F278" s="11"/>
+      <c r="G278" s="11"/>
+      <c r="H278" s="11"/>
+      <c r="I278" s="11"/>
+      <c r="J278" s="11"/>
+      <c r="K278" s="4"/>
+      <c r="L278" s="11"/>
+      <c r="M278" s="11"/>
+      <c r="N278" s="11"/>
+      <c r="O278" s="11"/>
+      <c r="P278" s="11"/>
+      <c r="Q278" s="11"/>
+      <c r="R278" s="11"/>
+      <c r="S278" s="11"/>
+      <c r="T278" s="5"/>
+      <c r="U278" s="17"/>
+    </row>
+    <row r="279" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A279" s="16"/>
+      <c r="B279" s="11"/>
+      <c r="C279" s="11"/>
+      <c r="D279" s="11"/>
+      <c r="E279" s="11"/>
+      <c r="F279" s="11"/>
+      <c r="G279" s="11"/>
+      <c r="H279" s="11"/>
+      <c r="I279" s="11"/>
+      <c r="J279" s="11"/>
+      <c r="K279" s="4"/>
+      <c r="L279" s="11"/>
+      <c r="M279" s="11"/>
+      <c r="N279" s="11"/>
+      <c r="O279" s="11"/>
+      <c r="P279" s="11"/>
+      <c r="Q279" s="11"/>
+      <c r="R279" s="11"/>
+      <c r="S279" s="11"/>
+      <c r="T279" s="5"/>
+      <c r="U279" s="17"/>
+    </row>
+    <row r="280" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A280" s="16"/>
+      <c r="B280" s="11"/>
+      <c r="C280" s="11"/>
+      <c r="D280" s="11"/>
+      <c r="E280" s="11"/>
+      <c r="F280" s="11"/>
+      <c r="G280" s="11"/>
+      <c r="H280" s="11"/>
+      <c r="I280" s="11"/>
+      <c r="J280" s="11"/>
+      <c r="K280" s="4"/>
+      <c r="L280" s="11"/>
+      <c r="M280" s="11"/>
+      <c r="N280" s="11"/>
+      <c r="O280" s="11"/>
+      <c r="P280" s="11"/>
+      <c r="Q280" s="11"/>
+      <c r="R280" s="11"/>
+      <c r="S280" s="11"/>
+      <c r="T280" s="5"/>
+      <c r="U280" s="17"/>
+    </row>
+    <row r="281" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A281" s="16"/>
+      <c r="B281" s="11"/>
+      <c r="C281" s="11"/>
+      <c r="D281" s="11"/>
+      <c r="E281" s="11"/>
+      <c r="F281" s="11"/>
+      <c r="G281" s="11"/>
+      <c r="H281" s="11"/>
+      <c r="I281" s="11"/>
+      <c r="J281" s="11"/>
+      <c r="K281" s="4"/>
+      <c r="L281" s="11"/>
+      <c r="M281" s="11"/>
+      <c r="N281" s="11"/>
+      <c r="O281" s="11"/>
+      <c r="P281" s="11"/>
+      <c r="Q281" s="11"/>
+      <c r="R281" s="11"/>
+      <c r="S281" s="11"/>
+      <c r="T281" s="5"/>
+      <c r="U281" s="17"/>
+    </row>
+    <row r="282" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A282" s="16"/>
+      <c r="B282" s="11"/>
+      <c r="C282" s="11"/>
+      <c r="D282" s="11"/>
+      <c r="E282" s="11"/>
+      <c r="F282" s="11"/>
+      <c r="G282" s="11"/>
+      <c r="H282" s="11"/>
+      <c r="I282" s="11"/>
+      <c r="J282" s="11"/>
+      <c r="K282" s="4"/>
+      <c r="L282" s="11"/>
+      <c r="M282" s="11"/>
+      <c r="N282" s="11"/>
+      <c r="O282" s="11"/>
+      <c r="P282" s="11"/>
+      <c r="Q282" s="11"/>
+      <c r="R282" s="11"/>
+      <c r="S282" s="11"/>
+      <c r="T282" s="5"/>
+      <c r="U282" s="17"/>
+    </row>
+    <row r="283" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A283" s="16"/>
+      <c r="B283" s="11"/>
+      <c r="C283" s="11"/>
+      <c r="D283" s="11"/>
+      <c r="E283" s="11"/>
+      <c r="F283" s="11"/>
+      <c r="G283" s="11"/>
+      <c r="H283" s="11"/>
+      <c r="I283" s="11"/>
+      <c r="J283" s="11"/>
+      <c r="K283" s="6"/>
+      <c r="L283" s="7"/>
+      <c r="M283" s="7"/>
+      <c r="N283" s="7"/>
+      <c r="O283" s="7"/>
+      <c r="P283" s="7"/>
+      <c r="Q283" s="7"/>
+      <c r="R283" s="7"/>
+      <c r="S283" s="7"/>
+      <c r="T283" s="9"/>
+      <c r="U283" s="17"/>
+    </row>
+    <row r="284" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A284" s="18"/>
+      <c r="B284" s="19"/>
+      <c r="C284" s="19"/>
+      <c r="D284" s="19"/>
+      <c r="E284" s="19"/>
+      <c r="F284" s="19"/>
+      <c r="G284" s="19"/>
+      <c r="H284" s="19"/>
+      <c r="I284" s="19"/>
+      <c r="J284" s="19"/>
+      <c r="K284" s="19"/>
+      <c r="L284" s="19"/>
+      <c r="M284" s="19"/>
+      <c r="N284" s="19"/>
+      <c r="O284" s="19"/>
+      <c r="P284" s="19"/>
+      <c r="Q284" s="19"/>
+      <c r="R284" s="19"/>
+      <c r="S284" s="19"/>
+      <c r="T284" s="19"/>
+      <c r="U284" s="20"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/me/2.Flex-Container.xlsx
+++ b/me/2.Flex-Container.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\flexbox\me\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE9296E2-2A73-488F-8343-D85CAC417BBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E78E6F36-0FED-4785-8ACC-ABD1316F6315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Display flex" sheetId="2" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Flex flow" sheetId="5" r:id="rId4"/>
     <sheet name="Justify content" sheetId="6" r:id="rId5"/>
     <sheet name="Align items" sheetId="7" r:id="rId6"/>
+    <sheet name="Align content" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="184">
   <si>
     <t>構成</t>
   </si>
@@ -703,6 +704,81 @@
   <si>
     <t>chân chữ của mỗi dòng</t>
   </si>
+  <si>
+    <t>7.Align-content</t>
+  </si>
+  <si>
+    <t>các flex item theo trục CROSS AXIS</t>
+  </si>
+  <si>
+    <t>        align-content: flex-start;</t>
+  </si>
+  <si>
+    <t>      &lt;div class="box more"&gt;M&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>flexbox\2.Flex-Container\7.Align-content\index.html</t>
+  </si>
+  <si>
+    <t>Align content có cách hoạt động tương tự như Justify content nhưng Justify content căn chỉnh các flex item theo trục MAIN AXIS còn Align content sẽ căn chỉnh</t>
+  </si>
+  <si>
+    <t>align-items: flex-start thì các flex item sẽ nằm ở phía trên cùng của mỗi dòng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">align-content: flex-start thì sẽ đẩy các flex item lên phía trên(Hay nói cách khác là đẩy dòng dưới lên </t>
+  </si>
+  <si>
+    <t>        align-content: flex-end;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Các phần tử flex item sẽ nằm dồn về phía cuối giống như Justify content nhưng các phần tử flex item sẽ </t>
+  </si>
+  <si>
+    <t>nằm theo trục CROSS AXIS</t>
+  </si>
+  <si>
+    <t>ngay dưới dòng trên, hiển thị giống như Justify content). Các flex item sẽ nằm từ trên xuống theo trục CROSS AXIS</t>
+  </si>
+  <si>
+    <t>③space-between</t>
+  </si>
+  <si>
+    <t>        align-content: center;</t>
+  </si>
+  <si>
+    <t>Tất cả các flex item  sẽ được căn vào giữa flex contain theo trục CROSS AXIS</t>
+  </si>
+  <si>
+    <t>Đối với Justify content thì các phần tử flex item sẽ nằm giữa theo trục MAIN AXIS</t>
+  </si>
+  <si>
+    <t>        align-content: space-between;</t>
+  </si>
+  <si>
+    <t>Các phần tử flex item sẽ giãn cách đều theo trục CROSS AXIS</t>
+  </si>
+  <si>
+    <t>Còn đối với Justify content thì các phần tử sẽ giãn cách theo trục MAIN AXIS</t>
+  </si>
+  <si>
+    <t>        align-content: space-around;</t>
+  </si>
+  <si>
+    <t>Đối với Justify content thì khoảng cách ở 2 bên trái phải sẽ bằng 1 nửa khoảng cách bên trong</t>
+  </si>
+  <si>
+    <t>        align-content: space-evenly;</t>
+  </si>
+  <si>
+    <t>Các khoảng cách theo trục CROSS AXIS cách đều nhau</t>
+  </si>
+  <si>
+    <t>Khoảng cách ở trên và dưới sẽ bằng 1 nửa khoảng cách ở giữa</t>
+  </si>
+  <si>
+    <t>Đối với Justify content thì các khoảng cách theo trục MAIN AXIS sẽ cách đều nhau</t>
+  </si>
 </sst>
 </file>
 
@@ -738,7 +814,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -928,11 +1004,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -958,6 +1045,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2253,6 +2342,112 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A792223C-AEB1-557E-50F6-35AA8AA619A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2238375" y="22640925"/>
+          <a:ext cx="3400425" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB2063B5-D682-A998-9587-76E97C74B16C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2762250" y="29537025"/>
+          <a:ext cx="2847975" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3335,6 +3530,224 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>4621</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>24253</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{364F0F50-8820-8A95-4B6E-7B3AE9818090}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="3" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1752600" y="4586146"/>
+          <a:ext cx="4367653" cy="1281254"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>4621</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>24253</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Straight Arrow Connector 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4187344-CA92-28DA-4303-D8FF197631CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="21" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1866900" y="18130696"/>
+          <a:ext cx="4253353" cy="1471754"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>4621</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>24253</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Straight Arrow Connector 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C26A9103-CAE0-D9AD-A0FD-8FF7039EA3F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="24" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2400300" y="25198246"/>
+          <a:ext cx="3719953" cy="1443179"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="Straight Arrow Connector 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1585ACBE-78D7-9E51-20D9-479842C7BDCE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2419350" y="26622375"/>
+          <a:ext cx="3228975" cy="1104900"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3592,50 +4005,6 @@
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>114301</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>170196</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42EDEB2B-D9AA-F3FC-7DF1-3553AFD2E91F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6210301" y="6143625"/>
-          <a:ext cx="5495924" cy="3361071"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -3716,7 +4085,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3731,59 +4100,6 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEA11624-C6F2-4A32-6540-B18C716E92F1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2381250" y="6029325"/>
-          <a:ext cx="4086225" cy="1676400"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -3866,7 +4182,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3910,7 +4226,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -4060,7 +4376,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -4263,7 +4579,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -4416,6 +4732,103 @@
         <a:xfrm>
           <a:off x="6181725" y="32918400"/>
           <a:ext cx="4591050" cy="6381750"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>580348</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>47271</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26DB3DC1-0020-C487-433D-27E45A33C5B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6134100" y="6172200"/>
+          <a:ext cx="5419048" cy="2828571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEA11624-C6F2-4A32-6540-B18C716E92F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2381250" y="6029325"/>
+          <a:ext cx="3952875" cy="1228725"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5278,6 +5691,1380 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>142876</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>512692</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>136128</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0583286C-7A0B-4F3F-876D-8C2A07DC7D1E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6238876" y="4410075"/>
+          <a:ext cx="5856216" cy="4298553"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{367B7906-B7DB-4167-DF58-015B5B505783}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="7067550" y="5143500"/>
+          <a:ext cx="3286125" cy="3695700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E3EE741-2518-E12C-B55D-24520A4DECE7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="7058025" y="6629400"/>
+          <a:ext cx="3305175" cy="2219325"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>465996</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>104171</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F000C919-2F36-3C88-31FB-53557E2A1AD1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6219825" y="9382125"/>
+          <a:ext cx="5828571" cy="4828571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Straight Arrow Connector 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08F99E18-D608-A687-D3E9-F36AC62DDE6A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2314575" y="8905875"/>
+          <a:ext cx="4171950" cy="1333500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Straight Arrow Connector 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A5FFD8C-9139-0179-62C3-3CBB45DC320E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2305050" y="8915400"/>
+          <a:ext cx="4171950" cy="2200275"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>50772</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Picture 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3207B965-450D-F030-CED5-52A5DB564BB2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6210300" y="18202275"/>
+          <a:ext cx="5857875" cy="4156047"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>123148</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>161571</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Picture 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0D998DD-C630-4EEB-95CA-A9848BCEE6EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12992100" y="9344025"/>
+          <a:ext cx="5419048" cy="2828571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="Straight Arrow Connector 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EE65602-4419-4423-14C2-DB949CA04B3A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5457825" y="352425"/>
+          <a:ext cx="7543800" cy="8905875"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="Straight Arrow Connector 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16F5599B-5891-FBBA-19A9-061F7009162A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9296400" y="9286875"/>
+          <a:ext cx="3914775" cy="1057275"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>380038</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Picture 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B434A0E3-8247-4F57-E07D-360A80FBB7DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6191250" y="26431875"/>
+          <a:ext cx="5771188" cy="4533900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>323112</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>66290</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="Picture 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8727B762-ACFE-4321-8E12-73728D0CFCB7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13315950" y="18354675"/>
+          <a:ext cx="5904762" cy="3076190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="34" name="Straight Arrow Connector 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96CD50CE-73CE-9981-E80F-CDA39537F968}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10315575" y="17897475"/>
+          <a:ext cx="3295650" cy="1371600"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="38" name="Straight Arrow Connector 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7692544C-F28A-9AD1-9191-9C2EAAF3C43D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2305050" y="17878425"/>
+          <a:ext cx="4086225" cy="4171950"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>37367</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>190118</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="Picture 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA0E609E-DD30-415B-A8BE-39A6A0E43987}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13068300" y="26517600"/>
+          <a:ext cx="5866667" cy="3057143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="42" name="Straight Arrow Connector 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B8CD9E4-80A1-7A5B-8DC0-9041A242E77B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10868025" y="26250900"/>
+          <a:ext cx="2438400" cy="1181100"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="44" name="Straight Arrow Connector 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FBC9756-B44C-F0AB-754E-DCF910832682}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="31" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2181225" y="26088975"/>
+          <a:ext cx="4010025" cy="2609850"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>184</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>65938</xdr:colOff>
+      <xdr:row>200</xdr:row>
+      <xdr:rowOff>180586</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="46" name="Picture 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0B174B3-4632-4A46-A561-97F0053DFEFB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13068300" y="35232975"/>
+          <a:ext cx="5895238" cy="3114286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>184</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>285126</xdr:colOff>
+      <xdr:row>211</xdr:row>
+      <xdr:rowOff>85087</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="50" name="Picture 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49B53E4D-7E1F-7C96-EF5C-FC3F1660895F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6267450" y="35242500"/>
+          <a:ext cx="4990476" cy="5104762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>183</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>190</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="48" name="Straight Arrow Connector 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{715A3399-F44F-9343-3487-AC5DBB132338}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10534650" y="35013900"/>
+          <a:ext cx="2657475" cy="1257300"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>182</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>191</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="52" name="Straight Arrow Connector 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E939E81-A29B-CA7E-FB99-DE8274CCDC38}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2705100" y="34861500"/>
+          <a:ext cx="3905250" cy="1600200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>233</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>435553</xdr:colOff>
+      <xdr:row>258</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="53" name="Picture 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F59D5460-4907-1819-9ADA-A1CFA77E58B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6181725" y="44567476"/>
+          <a:ext cx="5836228" cy="4667250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>231</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>238</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="55" name="Straight Arrow Connector 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19DC4705-873B-100C-8811-851DE262547D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2581275" y="44243625"/>
+          <a:ext cx="3819525" cy="1295400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>233</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>250</xdr:row>
+      <xdr:rowOff>11339</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="56" name="Picture 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A72E5AA-5351-4C2F-84A8-392DDF5D000B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13001625" y="44567475"/>
+          <a:ext cx="4953000" cy="3154589"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>232</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>238</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="58" name="Straight Arrow Connector 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26EDEB0F-55DE-6E8E-4D61-5F06FAF6A258}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11534775" y="44405550"/>
+          <a:ext cx="1752600" cy="1133475"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>279</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>37500</xdr:colOff>
+      <xdr:row>306</xdr:row>
+      <xdr:rowOff>75562</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="59" name="Picture 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56BB97E6-5871-4B95-A583-CCF912A33A8F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6210300" y="53368575"/>
+          <a:ext cx="4800000" cy="5104762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>279</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>56555</xdr:colOff>
+      <xdr:row>295</xdr:row>
+      <xdr:rowOff>47245</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="60" name="Picture 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A568B692-378C-4764-A5B9-284EAD17D2DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12363450" y="53311425"/>
+          <a:ext cx="4761905" cy="3038095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>278</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>284</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="62" name="Straight Arrow Connector 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{959CDDDC-58B6-D378-D809-E5F0226A656D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10839450" y="53168550"/>
+          <a:ext cx="1819275" cy="1104900"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -5543,7 +7330,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B93656DE-789A-442B-A01B-E363EE7FCBDC}">
   <dimension ref="A4:S81"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A88" workbookViewId="0">
       <selection activeCell="H7" activeCellId="1" sqref="G7 H7"/>
     </sheetView>
   </sheetViews>
@@ -5989,8 +7776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0145470-2FF9-412A-A015-FB74F9A08082}">
   <dimension ref="A2:T174"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+    <sheetView topLeftCell="A160" workbookViewId="0">
+      <selection activeCell="K151" sqref="K151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9692,8 +11479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BF885D8-A1BC-4A89-AA30-E8D58E7CFAAA}">
   <dimension ref="A2:T161"/>
   <sheetViews>
-    <sheetView topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13152,8 +14939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84799764-1E2A-4068-A1CE-E2AB49A64777}">
   <dimension ref="A2:Q84"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:H14"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14071,8 +15858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA836186-7093-422C-A57D-3064E650FE81}">
   <dimension ref="A2:K225"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:F15"/>
+    <sheetView topLeftCell="A196" workbookViewId="0">
+      <selection activeCell="L203" sqref="L203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16497,8 +18284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B54DF9A-BB32-4B38-9BCD-5CB7E8288A8F}">
   <dimension ref="A2:U284"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A271" workbookViewId="0">
-      <selection activeCell="E213" sqref="E213"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K121" sqref="K121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23004,4 +24791,6910 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4518A032-AF1B-4D9E-8DF4-D2B6566BA28F}">
+  <dimension ref="A2:U308"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A295" workbookViewId="0">
+      <selection activeCell="L313" sqref="L313"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B9" s="4"/>
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B10" s="4"/>
+      <c r="C10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B11" s="4"/>
+      <c r="C11" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B12" s="4"/>
+      <c r="C12" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="F12" s="5"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B13" s="4"/>
+      <c r="C13" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="F13" s="5"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B14" s="4"/>
+      <c r="C14" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="F14" s="5"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="11"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B15" s="4"/>
+      <c r="C15" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="F15" s="5"/>
+      <c r="G15" t="s">
+        <v>7</v>
+      </c>
+      <c r="H15" t="s">
+        <v>61</v>
+      </c>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B16" s="4"/>
+      <c r="D16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" s="5"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="11"/>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B17" s="4"/>
+      <c r="E17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="5"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11"/>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B18" s="6"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="7"/>
+      <c r="F18" s="9"/>
+      <c r="G18" t="s">
+        <v>7</v>
+      </c>
+      <c r="H18" t="s">
+        <v>8</v>
+      </c>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="11"/>
+      <c r="T18" s="11"/>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="11"/>
+      <c r="T19" s="11"/>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="11"/>
+    </row>
+    <row r="21" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="11"/>
+      <c r="T21" s="11"/>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A22" s="13"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="25"/>
+      <c r="N22" s="25"/>
+      <c r="O22" s="25"/>
+      <c r="P22" s="25"/>
+      <c r="Q22" s="25"/>
+      <c r="R22" s="25"/>
+      <c r="S22" s="25"/>
+      <c r="T22" s="25"/>
+      <c r="U22" s="15"/>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A23" s="16"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="11"/>
+      <c r="R23" s="11"/>
+      <c r="S23" s="11"/>
+      <c r="T23" s="5"/>
+      <c r="U23" s="17"/>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A24" s="16"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="11"/>
+      <c r="S24" s="11"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="17"/>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A25" s="16"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="11"/>
+      <c r="R25" s="11"/>
+      <c r="S25" s="11"/>
+      <c r="T25" s="5"/>
+      <c r="U25" s="17"/>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A26" s="16"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11"/>
+      <c r="R26" s="11"/>
+      <c r="S26" s="11"/>
+      <c r="T26" s="5"/>
+      <c r="U26" s="17"/>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A27" s="16"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="11"/>
+      <c r="S27" s="11"/>
+      <c r="T27" s="5"/>
+      <c r="U27" s="17"/>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A28" s="16"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="11"/>
+      <c r="S28" s="11"/>
+      <c r="T28" s="5"/>
+      <c r="U28" s="17"/>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A29" s="16"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="11"/>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="11"/>
+      <c r="R29" s="11"/>
+      <c r="S29" s="11"/>
+      <c r="T29" s="5"/>
+      <c r="U29" s="17"/>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A30" s="16"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="11"/>
+      <c r="Q30" s="11"/>
+      <c r="R30" s="11"/>
+      <c r="S30" s="11"/>
+      <c r="T30" s="5"/>
+      <c r="U30" s="17"/>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A31" s="16"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="11"/>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="11"/>
+      <c r="R31" s="11"/>
+      <c r="S31" s="11"/>
+      <c r="T31" s="5"/>
+      <c r="U31" s="17"/>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A32" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="11"/>
+      <c r="P32" s="11"/>
+      <c r="Q32" s="11"/>
+      <c r="R32" s="11"/>
+      <c r="S32" s="11"/>
+      <c r="T32" s="5"/>
+      <c r="U32" s="17"/>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A33" s="16"/>
+      <c r="B33" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="11"/>
+      <c r="P33" s="11"/>
+      <c r="Q33" s="11"/>
+      <c r="R33" s="11"/>
+      <c r="S33" s="11"/>
+      <c r="T33" s="5"/>
+      <c r="U33" s="17"/>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A34" s="16"/>
+      <c r="B34" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="11"/>
+      <c r="N34" s="11"/>
+      <c r="O34" s="11"/>
+      <c r="P34" s="11"/>
+      <c r="Q34" s="11"/>
+      <c r="R34" s="11"/>
+      <c r="S34" s="11"/>
+      <c r="T34" s="5"/>
+      <c r="U34" s="17"/>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A35" s="16"/>
+      <c r="B35" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
+      <c r="N35" s="11"/>
+      <c r="O35" s="11"/>
+      <c r="P35" s="11"/>
+      <c r="Q35" s="11"/>
+      <c r="R35" s="11"/>
+      <c r="S35" s="11"/>
+      <c r="T35" s="5"/>
+      <c r="U35" s="17"/>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A36" s="16"/>
+      <c r="B36" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="11"/>
+      <c r="N36" s="11"/>
+      <c r="O36" s="11"/>
+      <c r="P36" s="11"/>
+      <c r="Q36" s="11"/>
+      <c r="R36" s="11"/>
+      <c r="S36" s="11"/>
+      <c r="T36" s="5"/>
+      <c r="U36" s="17"/>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A37" s="16"/>
+      <c r="B37" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="11"/>
+      <c r="N37" s="11"/>
+      <c r="O37" s="11"/>
+      <c r="P37" s="11"/>
+      <c r="Q37" s="11"/>
+      <c r="R37" s="11"/>
+      <c r="S37" s="11"/>
+      <c r="T37" s="5"/>
+      <c r="U37" s="17"/>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A38" s="16"/>
+      <c r="B38" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="11"/>
+      <c r="N38" s="11"/>
+      <c r="O38" s="11"/>
+      <c r="P38" s="11"/>
+      <c r="Q38" s="11"/>
+      <c r="R38" s="11"/>
+      <c r="S38" s="11"/>
+      <c r="T38" s="5"/>
+      <c r="U38" s="17"/>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A39" s="16"/>
+      <c r="B39" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="11"/>
+      <c r="N39" s="11"/>
+      <c r="O39" s="11"/>
+      <c r="P39" s="11"/>
+      <c r="Q39" s="11"/>
+      <c r="R39" s="11"/>
+      <c r="S39" s="11"/>
+      <c r="T39" s="5"/>
+      <c r="U39" s="17"/>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A40" s="16"/>
+      <c r="B40" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="11"/>
+      <c r="M40" s="11"/>
+      <c r="N40" s="11"/>
+      <c r="O40" s="11"/>
+      <c r="P40" s="11"/>
+      <c r="Q40" s="11"/>
+      <c r="R40" s="11"/>
+      <c r="S40" s="11"/>
+      <c r="T40" s="5"/>
+      <c r="U40" s="17"/>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A41" s="16"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="11"/>
+      <c r="M41" s="11"/>
+      <c r="N41" s="11"/>
+      <c r="O41" s="11"/>
+      <c r="P41" s="11"/>
+      <c r="Q41" s="11"/>
+      <c r="R41" s="11"/>
+      <c r="S41" s="11"/>
+      <c r="T41" s="5"/>
+      <c r="U41" s="17"/>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A42" s="16"/>
+      <c r="B42" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="11"/>
+      <c r="M42" s="11"/>
+      <c r="N42" s="11"/>
+      <c r="O42" s="11"/>
+      <c r="P42" s="11"/>
+      <c r="Q42" s="11"/>
+      <c r="R42" s="11"/>
+      <c r="S42" s="11"/>
+      <c r="T42" s="5"/>
+      <c r="U42" s="17"/>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A43" s="16"/>
+      <c r="B43" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="11"/>
+      <c r="M43" s="11"/>
+      <c r="N43" s="11"/>
+      <c r="O43" s="11"/>
+      <c r="P43" s="11"/>
+      <c r="Q43" s="11"/>
+      <c r="R43" s="11"/>
+      <c r="S43" s="11"/>
+      <c r="T43" s="5"/>
+      <c r="U43" s="17"/>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A44" s="16"/>
+      <c r="B44" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="11"/>
+      <c r="M44" s="11"/>
+      <c r="N44" s="11"/>
+      <c r="O44" s="11"/>
+      <c r="P44" s="11"/>
+      <c r="Q44" s="11"/>
+      <c r="R44" s="11"/>
+      <c r="S44" s="11"/>
+      <c r="T44" s="5"/>
+      <c r="U44" s="17"/>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A45" s="16"/>
+      <c r="B45" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="4"/>
+      <c r="L45" s="11"/>
+      <c r="M45" s="11"/>
+      <c r="N45" s="11"/>
+      <c r="O45" s="11"/>
+      <c r="P45" s="11"/>
+      <c r="Q45" s="11"/>
+      <c r="R45" s="11"/>
+      <c r="S45" s="11"/>
+      <c r="T45" s="5"/>
+      <c r="U45" s="17"/>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A46" s="16"/>
+      <c r="B46" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="4"/>
+      <c r="L46" s="11"/>
+      <c r="M46" s="11"/>
+      <c r="N46" s="11"/>
+      <c r="O46" s="11"/>
+      <c r="P46" s="11"/>
+      <c r="Q46" s="11"/>
+      <c r="R46" s="11"/>
+      <c r="S46" s="11"/>
+      <c r="T46" s="5"/>
+      <c r="U46" s="17"/>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A47" s="16"/>
+      <c r="B47" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K47" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="L47" s="11"/>
+      <c r="M47" s="11"/>
+      <c r="N47" s="11"/>
+      <c r="O47" s="11"/>
+      <c r="P47" s="11"/>
+      <c r="Q47" s="11"/>
+      <c r="R47" s="11"/>
+      <c r="S47" s="11"/>
+      <c r="T47" s="5"/>
+      <c r="U47" s="17"/>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A48" s="16"/>
+      <c r="B48" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="5"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="L48" s="11"/>
+      <c r="M48" s="11"/>
+      <c r="N48" s="11"/>
+      <c r="O48" s="11"/>
+      <c r="P48" s="11"/>
+      <c r="Q48" s="11"/>
+      <c r="R48" s="11"/>
+      <c r="S48" s="11"/>
+      <c r="T48" s="5"/>
+      <c r="U48" s="17"/>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A49" s="16"/>
+      <c r="B49" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="5"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="L49" s="11"/>
+      <c r="M49" s="11"/>
+      <c r="N49" s="11"/>
+      <c r="O49" s="11"/>
+      <c r="P49" s="11"/>
+      <c r="Q49" s="11"/>
+      <c r="R49" s="11"/>
+      <c r="S49" s="11"/>
+      <c r="T49" s="5"/>
+      <c r="U49" s="17"/>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A50" s="16"/>
+      <c r="B50" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="5"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="4"/>
+      <c r="L50" s="11"/>
+      <c r="M50" s="11"/>
+      <c r="N50" s="11"/>
+      <c r="O50" s="11"/>
+      <c r="P50" s="11"/>
+      <c r="Q50" s="11"/>
+      <c r="R50" s="11"/>
+      <c r="S50" s="11"/>
+      <c r="T50" s="5"/>
+      <c r="U50" s="17"/>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A51" s="16"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="5"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="4"/>
+      <c r="L51" s="11"/>
+      <c r="M51" s="11"/>
+      <c r="N51" s="11"/>
+      <c r="O51" s="11"/>
+      <c r="P51" s="11"/>
+      <c r="Q51" s="11"/>
+      <c r="R51" s="11"/>
+      <c r="S51" s="11"/>
+      <c r="T51" s="5"/>
+      <c r="U51" s="17"/>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A52" s="16"/>
+      <c r="B52" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="11"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="5"/>
+      <c r="J52" s="11"/>
+      <c r="K52" s="4"/>
+      <c r="L52" s="11"/>
+      <c r="M52" s="11"/>
+      <c r="N52" s="11"/>
+      <c r="O52" s="11"/>
+      <c r="P52" s="11"/>
+      <c r="Q52" s="11"/>
+      <c r="R52" s="11"/>
+      <c r="S52" s="11"/>
+      <c r="T52" s="5"/>
+      <c r="U52" s="17"/>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A53" s="16"/>
+      <c r="B53" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="5"/>
+      <c r="J53" s="11"/>
+      <c r="K53" s="4"/>
+      <c r="L53" s="11"/>
+      <c r="M53" s="11"/>
+      <c r="N53" s="11"/>
+      <c r="O53" s="11"/>
+      <c r="P53" s="11"/>
+      <c r="Q53" s="11"/>
+      <c r="R53" s="11"/>
+      <c r="S53" s="11"/>
+      <c r="T53" s="5"/>
+      <c r="U53" s="17"/>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A54" s="16"/>
+      <c r="B54" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="5"/>
+      <c r="J54" s="11"/>
+      <c r="K54" s="4"/>
+      <c r="L54" s="11"/>
+      <c r="M54" s="11"/>
+      <c r="N54" s="11"/>
+      <c r="O54" s="11"/>
+      <c r="P54" s="11"/>
+      <c r="Q54" s="11"/>
+      <c r="R54" s="11"/>
+      <c r="S54" s="11"/>
+      <c r="T54" s="5"/>
+      <c r="U54" s="17"/>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A55" s="16"/>
+      <c r="B55" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11"/>
+      <c r="H55" s="11"/>
+      <c r="I55" s="5"/>
+      <c r="J55" s="11"/>
+      <c r="K55" s="4"/>
+      <c r="L55" s="11"/>
+      <c r="M55" s="11"/>
+      <c r="N55" s="11"/>
+      <c r="O55" s="11"/>
+      <c r="P55" s="11"/>
+      <c r="Q55" s="11"/>
+      <c r="R55" s="11"/>
+      <c r="S55" s="11"/>
+      <c r="T55" s="5"/>
+      <c r="U55" s="17"/>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A56" s="16"/>
+      <c r="B56" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="11"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="5"/>
+      <c r="J56" s="11"/>
+      <c r="K56" s="4"/>
+      <c r="L56" s="11"/>
+      <c r="M56" s="11"/>
+      <c r="N56" s="11"/>
+      <c r="O56" s="11"/>
+      <c r="P56" s="11"/>
+      <c r="Q56" s="11"/>
+      <c r="R56" s="11"/>
+      <c r="S56" s="11"/>
+      <c r="T56" s="5"/>
+      <c r="U56" s="17"/>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A57" s="16"/>
+      <c r="B57" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="11"/>
+      <c r="H57" s="11"/>
+      <c r="I57" s="5"/>
+      <c r="J57" s="11"/>
+      <c r="K57" s="4"/>
+      <c r="L57" s="11"/>
+      <c r="M57" s="11"/>
+      <c r="N57" s="11"/>
+      <c r="O57" s="11"/>
+      <c r="P57" s="11"/>
+      <c r="Q57" s="11"/>
+      <c r="R57" s="11"/>
+      <c r="S57" s="11"/>
+      <c r="T57" s="5"/>
+      <c r="U57" s="17"/>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A58" s="16"/>
+      <c r="B58" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="11"/>
+      <c r="H58" s="11"/>
+      <c r="I58" s="5"/>
+      <c r="J58" s="11"/>
+      <c r="K58" s="4"/>
+      <c r="L58" s="11"/>
+      <c r="M58" s="11"/>
+      <c r="N58" s="11"/>
+      <c r="O58" s="11"/>
+      <c r="P58" s="11"/>
+      <c r="Q58" s="11"/>
+      <c r="R58" s="11"/>
+      <c r="S58" s="11"/>
+      <c r="T58" s="5"/>
+      <c r="U58" s="17"/>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A59" s="16"/>
+      <c r="B59" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C59" s="11"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="11"/>
+      <c r="F59" s="11"/>
+      <c r="G59" s="11"/>
+      <c r="H59" s="11"/>
+      <c r="I59" s="5"/>
+      <c r="J59" s="11"/>
+      <c r="K59" s="4"/>
+      <c r="L59" s="11"/>
+      <c r="M59" s="11"/>
+      <c r="N59" s="11"/>
+      <c r="O59" s="11"/>
+      <c r="P59" s="11"/>
+      <c r="Q59" s="11"/>
+      <c r="R59" s="11"/>
+      <c r="S59" s="11"/>
+      <c r="T59" s="5"/>
+      <c r="U59" s="17"/>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A60" s="16"/>
+      <c r="B60" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C60" s="11"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="11"/>
+      <c r="G60" s="11"/>
+      <c r="H60" s="11"/>
+      <c r="I60" s="5"/>
+      <c r="J60" s="11"/>
+      <c r="K60" s="4"/>
+      <c r="L60" s="11"/>
+      <c r="M60" s="11"/>
+      <c r="N60" s="11"/>
+      <c r="O60" s="11"/>
+      <c r="P60" s="11"/>
+      <c r="Q60" s="11"/>
+      <c r="R60" s="11"/>
+      <c r="S60" s="11"/>
+      <c r="T60" s="5"/>
+      <c r="U60" s="17"/>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A61" s="16"/>
+      <c r="B61" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C61" s="11"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="11"/>
+      <c r="G61" s="11"/>
+      <c r="H61" s="11"/>
+      <c r="I61" s="5"/>
+      <c r="J61" s="11"/>
+      <c r="K61" s="4"/>
+      <c r="L61" s="11"/>
+      <c r="M61" s="11"/>
+      <c r="N61" s="11"/>
+      <c r="O61" s="11"/>
+      <c r="P61" s="11"/>
+      <c r="Q61" s="11"/>
+      <c r="R61" s="11"/>
+      <c r="S61" s="11"/>
+      <c r="T61" s="5"/>
+      <c r="U61" s="17"/>
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A62" s="16"/>
+      <c r="B62" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C62" s="11"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="11"/>
+      <c r="F62" s="11"/>
+      <c r="G62" s="11"/>
+      <c r="H62" s="11"/>
+      <c r="I62" s="5"/>
+      <c r="J62" s="11"/>
+      <c r="K62" s="4"/>
+      <c r="L62" s="11"/>
+      <c r="M62" s="11"/>
+      <c r="N62" s="11"/>
+      <c r="O62" s="11"/>
+      <c r="P62" s="11"/>
+      <c r="Q62" s="11"/>
+      <c r="R62" s="11"/>
+      <c r="S62" s="11"/>
+      <c r="T62" s="5"/>
+      <c r="U62" s="17"/>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A63" s="16"/>
+      <c r="B63" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="11"/>
+      <c r="F63" s="11"/>
+      <c r="G63" s="11"/>
+      <c r="H63" s="11"/>
+      <c r="I63" s="5"/>
+      <c r="J63" s="11"/>
+      <c r="K63" s="4"/>
+      <c r="L63" s="11"/>
+      <c r="M63" s="11"/>
+      <c r="N63" s="11"/>
+      <c r="O63" s="11"/>
+      <c r="P63" s="11"/>
+      <c r="Q63" s="11"/>
+      <c r="R63" s="11"/>
+      <c r="S63" s="11"/>
+      <c r="T63" s="5"/>
+      <c r="U63" s="17"/>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A64" s="16"/>
+      <c r="B64" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C64" s="11"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="11"/>
+      <c r="F64" s="11"/>
+      <c r="G64" s="11"/>
+      <c r="H64" s="11"/>
+      <c r="I64" s="5"/>
+      <c r="J64" s="11"/>
+      <c r="K64" s="4"/>
+      <c r="L64" s="11"/>
+      <c r="M64" s="11"/>
+      <c r="N64" s="11"/>
+      <c r="O64" s="11"/>
+      <c r="P64" s="11"/>
+      <c r="Q64" s="11"/>
+      <c r="R64" s="11"/>
+      <c r="S64" s="11"/>
+      <c r="T64" s="5"/>
+      <c r="U64" s="17"/>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A65" s="16"/>
+      <c r="B65" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C65" s="11"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="11"/>
+      <c r="F65" s="11"/>
+      <c r="G65" s="11"/>
+      <c r="H65" s="11"/>
+      <c r="I65" s="5"/>
+      <c r="J65" s="11"/>
+      <c r="K65" s="4"/>
+      <c r="L65" s="11"/>
+      <c r="M65" s="11"/>
+      <c r="N65" s="11"/>
+      <c r="O65" s="11"/>
+      <c r="P65" s="11"/>
+      <c r="Q65" s="11"/>
+      <c r="R65" s="11"/>
+      <c r="S65" s="11"/>
+      <c r="T65" s="5"/>
+      <c r="U65" s="17"/>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A66" s="16"/>
+      <c r="B66" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
+      <c r="H66" s="7"/>
+      <c r="I66" s="9"/>
+      <c r="J66" s="11"/>
+      <c r="K66" s="4"/>
+      <c r="L66" s="11"/>
+      <c r="M66" s="11"/>
+      <c r="N66" s="11"/>
+      <c r="O66" s="11"/>
+      <c r="P66" s="11"/>
+      <c r="Q66" s="11"/>
+      <c r="R66" s="11"/>
+      <c r="S66" s="11"/>
+      <c r="T66" s="5"/>
+      <c r="U66" s="17"/>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A67" s="16"/>
+      <c r="B67" s="11"/>
+      <c r="C67" s="11"/>
+      <c r="D67" s="11"/>
+      <c r="E67" s="11"/>
+      <c r="F67" s="11"/>
+      <c r="G67" s="11"/>
+      <c r="H67" s="11"/>
+      <c r="I67" s="11"/>
+      <c r="J67" s="11"/>
+      <c r="K67" s="4"/>
+      <c r="L67" s="11"/>
+      <c r="M67" s="11"/>
+      <c r="N67" s="11"/>
+      <c r="O67" s="11"/>
+      <c r="P67" s="11"/>
+      <c r="Q67" s="11"/>
+      <c r="R67" s="11"/>
+      <c r="S67" s="11"/>
+      <c r="T67" s="5"/>
+      <c r="U67" s="17"/>
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A68" s="16"/>
+      <c r="B68" s="11"/>
+      <c r="C68" s="11"/>
+      <c r="D68" s="11"/>
+      <c r="E68" s="11"/>
+      <c r="F68" s="11"/>
+      <c r="G68" s="11"/>
+      <c r="H68" s="11"/>
+      <c r="I68" s="11"/>
+      <c r="J68" s="11"/>
+      <c r="K68" s="4"/>
+      <c r="L68" s="11"/>
+      <c r="M68" s="11"/>
+      <c r="N68" s="11"/>
+      <c r="O68" s="11"/>
+      <c r="P68" s="11"/>
+      <c r="Q68" s="11"/>
+      <c r="R68" s="11"/>
+      <c r="S68" s="11"/>
+      <c r="T68" s="5"/>
+      <c r="U68" s="17"/>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A69" s="16"/>
+      <c r="B69" s="11"/>
+      <c r="C69" s="11"/>
+      <c r="D69" s="11"/>
+      <c r="E69" s="11"/>
+      <c r="F69" s="11"/>
+      <c r="G69" s="11"/>
+      <c r="H69" s="11"/>
+      <c r="I69" s="11"/>
+      <c r="J69" s="11"/>
+      <c r="K69" s="4"/>
+      <c r="L69" s="11"/>
+      <c r="M69" s="11"/>
+      <c r="N69" s="11"/>
+      <c r="O69" s="11"/>
+      <c r="P69" s="11"/>
+      <c r="Q69" s="11"/>
+      <c r="R69" s="11"/>
+      <c r="S69" s="11"/>
+      <c r="T69" s="5"/>
+      <c r="U69" s="17"/>
+    </row>
+    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A70" s="16"/>
+      <c r="B70" s="11"/>
+      <c r="C70" s="11"/>
+      <c r="D70" s="11"/>
+      <c r="E70" s="11"/>
+      <c r="F70" s="11"/>
+      <c r="G70" s="11"/>
+      <c r="H70" s="11"/>
+      <c r="I70" s="11"/>
+      <c r="J70" s="11"/>
+      <c r="K70" s="4"/>
+      <c r="L70" s="11"/>
+      <c r="M70" s="11"/>
+      <c r="N70" s="11"/>
+      <c r="O70" s="11"/>
+      <c r="P70" s="11"/>
+      <c r="Q70" s="11"/>
+      <c r="R70" s="11"/>
+      <c r="S70" s="11"/>
+      <c r="T70" s="5"/>
+      <c r="U70" s="17"/>
+    </row>
+    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A71" s="16"/>
+      <c r="B71" s="11"/>
+      <c r="C71" s="11"/>
+      <c r="D71" s="11"/>
+      <c r="E71" s="11"/>
+      <c r="F71" s="11"/>
+      <c r="G71" s="11"/>
+      <c r="H71" s="11"/>
+      <c r="I71" s="11"/>
+      <c r="J71" s="11"/>
+      <c r="K71" s="4"/>
+      <c r="L71" s="11"/>
+      <c r="M71" s="11"/>
+      <c r="N71" s="11"/>
+      <c r="O71" s="11"/>
+      <c r="P71" s="11"/>
+      <c r="Q71" s="11"/>
+      <c r="R71" s="11"/>
+      <c r="S71" s="11"/>
+      <c r="T71" s="5"/>
+      <c r="U71" s="17"/>
+    </row>
+    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A72" s="16"/>
+      <c r="B72" s="11"/>
+      <c r="C72" s="11"/>
+      <c r="D72" s="11"/>
+      <c r="E72" s="11"/>
+      <c r="F72" s="11"/>
+      <c r="G72" s="11"/>
+      <c r="H72" s="11"/>
+      <c r="I72" s="11"/>
+      <c r="J72" s="11"/>
+      <c r="K72" s="4"/>
+      <c r="L72" s="11"/>
+      <c r="M72" s="11"/>
+      <c r="N72" s="11"/>
+      <c r="O72" s="11"/>
+      <c r="P72" s="11"/>
+      <c r="Q72" s="11"/>
+      <c r="R72" s="11"/>
+      <c r="S72" s="11"/>
+      <c r="T72" s="5"/>
+      <c r="U72" s="17"/>
+    </row>
+    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A73" s="16"/>
+      <c r="B73" s="11"/>
+      <c r="C73" s="11"/>
+      <c r="D73" s="11"/>
+      <c r="E73" s="11"/>
+      <c r="F73" s="11"/>
+      <c r="G73" s="11"/>
+      <c r="H73" s="11"/>
+      <c r="I73" s="11"/>
+      <c r="J73" s="11"/>
+      <c r="K73" s="4"/>
+      <c r="L73" s="11"/>
+      <c r="M73" s="11"/>
+      <c r="N73" s="11"/>
+      <c r="O73" s="11"/>
+      <c r="P73" s="11"/>
+      <c r="Q73" s="11"/>
+      <c r="R73" s="11"/>
+      <c r="S73" s="11"/>
+      <c r="T73" s="5"/>
+      <c r="U73" s="17"/>
+    </row>
+    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A74" s="16"/>
+      <c r="B74" s="11"/>
+      <c r="C74" s="11"/>
+      <c r="D74" s="11"/>
+      <c r="E74" s="11"/>
+      <c r="F74" s="11"/>
+      <c r="G74" s="11"/>
+      <c r="H74" s="11"/>
+      <c r="I74" s="11"/>
+      <c r="J74" s="11"/>
+      <c r="K74" s="4"/>
+      <c r="L74" s="11"/>
+      <c r="M74" s="11"/>
+      <c r="N74" s="11"/>
+      <c r="O74" s="11"/>
+      <c r="P74" s="11"/>
+      <c r="Q74" s="11"/>
+      <c r="R74" s="11"/>
+      <c r="S74" s="11"/>
+      <c r="T74" s="5"/>
+      <c r="U74" s="17"/>
+    </row>
+    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A75" s="16"/>
+      <c r="B75" s="11"/>
+      <c r="C75" s="11"/>
+      <c r="D75" s="11"/>
+      <c r="E75" s="11"/>
+      <c r="F75" s="11"/>
+      <c r="G75" s="11"/>
+      <c r="H75" s="11"/>
+      <c r="I75" s="11"/>
+      <c r="J75" s="11"/>
+      <c r="K75" s="6"/>
+      <c r="L75" s="7"/>
+      <c r="M75" s="7"/>
+      <c r="N75" s="7"/>
+      <c r="O75" s="7"/>
+      <c r="P75" s="7"/>
+      <c r="Q75" s="7"/>
+      <c r="R75" s="7"/>
+      <c r="S75" s="7"/>
+      <c r="T75" s="9"/>
+      <c r="U75" s="17"/>
+    </row>
+    <row r="76" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="18"/>
+      <c r="B76" s="19"/>
+      <c r="C76" s="19"/>
+      <c r="D76" s="19"/>
+      <c r="E76" s="19"/>
+      <c r="F76" s="19"/>
+      <c r="G76" s="19"/>
+      <c r="H76" s="19"/>
+      <c r="I76" s="19"/>
+      <c r="J76" s="19"/>
+      <c r="K76" s="19"/>
+      <c r="L76" s="19"/>
+      <c r="M76" s="19"/>
+      <c r="N76" s="19"/>
+      <c r="O76" s="19"/>
+      <c r="P76" s="19"/>
+      <c r="Q76" s="19"/>
+      <c r="R76" s="19"/>
+      <c r="S76" s="19"/>
+      <c r="T76" s="19"/>
+      <c r="U76" s="20"/>
+    </row>
+    <row r="79" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A80" s="13"/>
+      <c r="B80" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="C80" s="14"/>
+      <c r="D80" s="14"/>
+      <c r="E80" s="14"/>
+      <c r="F80" s="14"/>
+      <c r="G80" s="14"/>
+      <c r="H80" s="14"/>
+      <c r="I80" s="14"/>
+      <c r="J80" s="14"/>
+      <c r="K80" s="14"/>
+      <c r="L80" s="14"/>
+      <c r="M80" s="14"/>
+      <c r="N80" s="14"/>
+      <c r="O80" s="14"/>
+      <c r="P80" s="14"/>
+      <c r="Q80" s="14"/>
+      <c r="R80" s="14"/>
+      <c r="S80" s="14"/>
+      <c r="T80" s="14"/>
+      <c r="U80" s="15"/>
+    </row>
+    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A81" s="16"/>
+      <c r="B81" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="2"/>
+      <c r="G81" s="2"/>
+      <c r="H81" s="2"/>
+      <c r="I81" s="3"/>
+      <c r="J81" s="11"/>
+      <c r="K81" s="11"/>
+      <c r="L81" s="11"/>
+      <c r="M81" s="11"/>
+      <c r="N81" s="11"/>
+      <c r="O81" s="11"/>
+      <c r="P81" s="11"/>
+      <c r="Q81" s="11"/>
+      <c r="R81" s="11"/>
+      <c r="S81" s="11"/>
+      <c r="T81" s="11"/>
+      <c r="U81" s="17"/>
+    </row>
+    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A82" s="16"/>
+      <c r="B82" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C82" s="11"/>
+      <c r="D82" s="11"/>
+      <c r="E82" s="11"/>
+      <c r="F82" s="11"/>
+      <c r="G82" s="11"/>
+      <c r="H82" s="11"/>
+      <c r="I82" s="5"/>
+      <c r="J82" s="11"/>
+      <c r="K82" s="11"/>
+      <c r="L82" s="11"/>
+      <c r="M82" s="11"/>
+      <c r="N82" s="11"/>
+      <c r="O82" s="11"/>
+      <c r="P82" s="11"/>
+      <c r="Q82" s="11"/>
+      <c r="R82" s="11"/>
+      <c r="S82" s="11"/>
+      <c r="T82" s="11"/>
+      <c r="U82" s="17"/>
+    </row>
+    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A83" s="16"/>
+      <c r="B83" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C83" s="11"/>
+      <c r="D83" s="11"/>
+      <c r="E83" s="11"/>
+      <c r="F83" s="11"/>
+      <c r="G83" s="11"/>
+      <c r="H83" s="11"/>
+      <c r="I83" s="5"/>
+      <c r="J83" s="11"/>
+      <c r="K83" s="11"/>
+      <c r="L83" s="11"/>
+      <c r="M83" s="11"/>
+      <c r="N83" s="11"/>
+      <c r="O83" s="11"/>
+      <c r="P83" s="11"/>
+      <c r="Q83" s="11"/>
+      <c r="R83" s="11"/>
+      <c r="S83" s="11"/>
+      <c r="T83" s="11"/>
+      <c r="U83" s="17"/>
+    </row>
+    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A84" s="16"/>
+      <c r="B84" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C84" s="11"/>
+      <c r="D84" s="11"/>
+      <c r="E84" s="11"/>
+      <c r="F84" s="11"/>
+      <c r="G84" s="11"/>
+      <c r="H84" s="11"/>
+      <c r="I84" s="5"/>
+      <c r="J84" s="11"/>
+      <c r="K84" s="11"/>
+      <c r="L84" s="11"/>
+      <c r="M84" s="11"/>
+      <c r="N84" s="11"/>
+      <c r="O84" s="11"/>
+      <c r="P84" s="11"/>
+      <c r="Q84" s="11"/>
+      <c r="R84" s="11"/>
+      <c r="S84" s="11"/>
+      <c r="T84" s="11"/>
+      <c r="U84" s="17"/>
+    </row>
+    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A85" s="16"/>
+      <c r="B85" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C85" s="11"/>
+      <c r="D85" s="11"/>
+      <c r="E85" s="11"/>
+      <c r="F85" s="11"/>
+      <c r="G85" s="11"/>
+      <c r="H85" s="11"/>
+      <c r="I85" s="5"/>
+      <c r="J85" s="11"/>
+      <c r="K85" s="11"/>
+      <c r="L85" s="11"/>
+      <c r="M85" s="11"/>
+      <c r="N85" s="11"/>
+      <c r="O85" s="11"/>
+      <c r="P85" s="11"/>
+      <c r="Q85" s="11"/>
+      <c r="R85" s="11"/>
+      <c r="S85" s="11"/>
+      <c r="T85" s="11"/>
+      <c r="U85" s="17"/>
+    </row>
+    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A86" s="16"/>
+      <c r="B86" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C86" s="11"/>
+      <c r="D86" s="11"/>
+      <c r="E86" s="11"/>
+      <c r="F86" s="11"/>
+      <c r="G86" s="11"/>
+      <c r="H86" s="11"/>
+      <c r="I86" s="5"/>
+      <c r="J86" s="11"/>
+      <c r="K86" s="11"/>
+      <c r="L86" s="11"/>
+      <c r="M86" s="11"/>
+      <c r="N86" s="11"/>
+      <c r="O86" s="11"/>
+      <c r="P86" s="11"/>
+      <c r="Q86" s="11"/>
+      <c r="R86" s="11"/>
+      <c r="S86" s="11"/>
+      <c r="T86" s="11"/>
+      <c r="U86" s="17"/>
+    </row>
+    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A87" s="16"/>
+      <c r="B87" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C87" s="11"/>
+      <c r="D87" s="11"/>
+      <c r="E87" s="11"/>
+      <c r="F87" s="11"/>
+      <c r="G87" s="11"/>
+      <c r="H87" s="11"/>
+      <c r="I87" s="5"/>
+      <c r="J87" s="11"/>
+      <c r="K87" s="11"/>
+      <c r="L87" s="11"/>
+      <c r="M87" s="11"/>
+      <c r="N87" s="11"/>
+      <c r="O87" s="11"/>
+      <c r="P87" s="11"/>
+      <c r="Q87" s="11"/>
+      <c r="R87" s="11"/>
+      <c r="S87" s="11"/>
+      <c r="T87" s="11"/>
+      <c r="U87" s="17"/>
+    </row>
+    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A88" s="16"/>
+      <c r="B88" s="4"/>
+      <c r="C88" s="11"/>
+      <c r="D88" s="11"/>
+      <c r="E88" s="11"/>
+      <c r="F88" s="11"/>
+      <c r="G88" s="11"/>
+      <c r="H88" s="11"/>
+      <c r="I88" s="5"/>
+      <c r="J88" s="11"/>
+      <c r="K88" s="11"/>
+      <c r="L88" s="11"/>
+      <c r="M88" s="11"/>
+      <c r="N88" s="11"/>
+      <c r="O88" s="11"/>
+      <c r="P88" s="11"/>
+      <c r="Q88" s="11"/>
+      <c r="R88" s="11"/>
+      <c r="S88" s="11"/>
+      <c r="T88" s="11"/>
+      <c r="U88" s="17"/>
+    </row>
+    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A89" s="16"/>
+      <c r="B89" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C89" s="11"/>
+      <c r="D89" s="11"/>
+      <c r="E89" s="11"/>
+      <c r="F89" s="11"/>
+      <c r="G89" s="11"/>
+      <c r="H89" s="11"/>
+      <c r="I89" s="5"/>
+      <c r="J89" s="11"/>
+      <c r="K89" s="11"/>
+      <c r="L89" s="11"/>
+      <c r="M89" s="11"/>
+      <c r="N89" s="11"/>
+      <c r="O89" s="11"/>
+      <c r="P89" s="11"/>
+      <c r="Q89" s="11"/>
+      <c r="R89" s="11"/>
+      <c r="S89" s="11"/>
+      <c r="T89" s="11"/>
+      <c r="U89" s="17"/>
+    </row>
+    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A90" s="16"/>
+      <c r="B90" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C90" s="11"/>
+      <c r="D90" s="11"/>
+      <c r="E90" s="11"/>
+      <c r="F90" s="11"/>
+      <c r="G90" s="11"/>
+      <c r="H90" s="11"/>
+      <c r="I90" s="5"/>
+      <c r="J90" s="11"/>
+      <c r="K90" s="11"/>
+      <c r="L90" s="11"/>
+      <c r="M90" s="11"/>
+      <c r="N90" s="11"/>
+      <c r="O90" s="11"/>
+      <c r="P90" s="11"/>
+      <c r="Q90" s="11"/>
+      <c r="R90" s="11"/>
+      <c r="S90" s="11"/>
+      <c r="T90" s="11"/>
+      <c r="U90" s="17"/>
+    </row>
+    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A91" s="16"/>
+      <c r="B91" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C91" s="11"/>
+      <c r="D91" s="11"/>
+      <c r="E91" s="11"/>
+      <c r="F91" s="11"/>
+      <c r="G91" s="11"/>
+      <c r="H91" s="11"/>
+      <c r="I91" s="5"/>
+      <c r="J91" s="11"/>
+      <c r="K91" s="11"/>
+      <c r="L91" s="11"/>
+      <c r="M91" s="11"/>
+      <c r="N91" s="11"/>
+      <c r="O91" s="11"/>
+      <c r="P91" s="11"/>
+      <c r="Q91" s="11"/>
+      <c r="R91" s="11"/>
+      <c r="S91" s="11"/>
+      <c r="T91" s="11"/>
+      <c r="U91" s="17"/>
+    </row>
+    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A92" s="16"/>
+      <c r="B92" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C92" s="11"/>
+      <c r="D92" s="11"/>
+      <c r="E92" s="11"/>
+      <c r="F92" s="11"/>
+      <c r="G92" s="11"/>
+      <c r="H92" s="11"/>
+      <c r="I92" s="5"/>
+      <c r="J92" s="11"/>
+      <c r="K92" s="11"/>
+      <c r="L92" s="11"/>
+      <c r="M92" s="11"/>
+      <c r="N92" s="11"/>
+      <c r="O92" s="11"/>
+      <c r="P92" s="11"/>
+      <c r="Q92" s="11"/>
+      <c r="R92" s="11"/>
+      <c r="S92" s="11"/>
+      <c r="T92" s="11"/>
+      <c r="U92" s="17"/>
+    </row>
+    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A93" s="16"/>
+      <c r="B93" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C93" s="11"/>
+      <c r="D93" s="11"/>
+      <c r="E93" s="11"/>
+      <c r="F93" s="11"/>
+      <c r="G93" s="11"/>
+      <c r="H93" s="11"/>
+      <c r="I93" s="5"/>
+      <c r="J93" s="11"/>
+      <c r="K93" s="11"/>
+      <c r="L93" s="11"/>
+      <c r="M93" s="11"/>
+      <c r="N93" s="11"/>
+      <c r="O93" s="11"/>
+      <c r="P93" s="11"/>
+      <c r="Q93" s="11"/>
+      <c r="R93" s="11"/>
+      <c r="S93" s="11"/>
+      <c r="T93" s="11"/>
+      <c r="U93" s="17"/>
+    </row>
+    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A94" s="16"/>
+      <c r="B94" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="C94" s="11"/>
+      <c r="D94" s="11"/>
+      <c r="E94" s="11"/>
+      <c r="F94" s="11"/>
+      <c r="G94" s="11"/>
+      <c r="H94" s="11"/>
+      <c r="I94" s="5"/>
+      <c r="J94" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K94" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="L94" s="2"/>
+      <c r="M94" s="2"/>
+      <c r="N94" s="2"/>
+      <c r="O94" s="2"/>
+      <c r="P94" s="2"/>
+      <c r="Q94" s="2"/>
+      <c r="R94" s="2"/>
+      <c r="S94" s="2"/>
+      <c r="T94" s="3"/>
+      <c r="U94" s="17"/>
+    </row>
+    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A95" s="16"/>
+      <c r="B95" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C95" s="11"/>
+      <c r="D95" s="11"/>
+      <c r="E95" s="11"/>
+      <c r="F95" s="11"/>
+      <c r="G95" s="11"/>
+      <c r="H95" s="11"/>
+      <c r="I95" s="5"/>
+      <c r="J95" s="11"/>
+      <c r="K95" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="L95" s="11"/>
+      <c r="M95" s="11"/>
+      <c r="N95" s="11"/>
+      <c r="O95" s="11"/>
+      <c r="P95" s="11"/>
+      <c r="Q95" s="11"/>
+      <c r="R95" s="11"/>
+      <c r="S95" s="11"/>
+      <c r="T95" s="5"/>
+      <c r="U95" s="17"/>
+    </row>
+    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A96" s="16"/>
+      <c r="B96" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C96" s="11"/>
+      <c r="D96" s="11"/>
+      <c r="E96" s="11"/>
+      <c r="F96" s="11"/>
+      <c r="G96" s="11"/>
+      <c r="H96" s="11"/>
+      <c r="I96" s="5"/>
+      <c r="J96" s="11"/>
+      <c r="K96" s="4"/>
+      <c r="L96" s="11"/>
+      <c r="M96" s="11"/>
+      <c r="N96" s="11"/>
+      <c r="O96" s="11"/>
+      <c r="P96" s="11"/>
+      <c r="Q96" s="11"/>
+      <c r="R96" s="11"/>
+      <c r="S96" s="11"/>
+      <c r="T96" s="5"/>
+      <c r="U96" s="17"/>
+    </row>
+    <row r="97" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A97" s="16"/>
+      <c r="B97" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C97" s="11"/>
+      <c r="D97" s="11"/>
+      <c r="E97" s="11"/>
+      <c r="F97" s="11"/>
+      <c r="G97" s="11"/>
+      <c r="H97" s="11"/>
+      <c r="I97" s="5"/>
+      <c r="J97" s="11"/>
+      <c r="K97" s="4"/>
+      <c r="L97" s="11"/>
+      <c r="M97" s="11"/>
+      <c r="N97" s="11"/>
+      <c r="O97" s="11"/>
+      <c r="P97" s="11"/>
+      <c r="Q97" s="11"/>
+      <c r="R97" s="11"/>
+      <c r="S97" s="11"/>
+      <c r="T97" s="5"/>
+      <c r="U97" s="17"/>
+    </row>
+    <row r="98" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A98" s="16"/>
+      <c r="B98" s="4"/>
+      <c r="C98" s="11"/>
+      <c r="D98" s="11"/>
+      <c r="E98" s="11"/>
+      <c r="F98" s="11"/>
+      <c r="G98" s="11"/>
+      <c r="H98" s="11"/>
+      <c r="I98" s="5"/>
+      <c r="J98" s="11"/>
+      <c r="K98" s="4"/>
+      <c r="L98" s="11"/>
+      <c r="M98" s="11"/>
+      <c r="N98" s="11"/>
+      <c r="O98" s="11"/>
+      <c r="P98" s="11"/>
+      <c r="Q98" s="11"/>
+      <c r="R98" s="11"/>
+      <c r="S98" s="11"/>
+      <c r="T98" s="5"/>
+      <c r="U98" s="17"/>
+    </row>
+    <row r="99" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A99" s="16"/>
+      <c r="B99" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C99" s="11"/>
+      <c r="D99" s="11"/>
+      <c r="E99" s="11"/>
+      <c r="F99" s="11"/>
+      <c r="G99" s="11"/>
+      <c r="H99" s="11"/>
+      <c r="I99" s="5"/>
+      <c r="J99" s="11"/>
+      <c r="K99" s="4"/>
+      <c r="L99" s="11"/>
+      <c r="M99" s="11"/>
+      <c r="N99" s="11"/>
+      <c r="O99" s="11"/>
+      <c r="P99" s="11"/>
+      <c r="Q99" s="11"/>
+      <c r="R99" s="11"/>
+      <c r="S99" s="11"/>
+      <c r="T99" s="5"/>
+      <c r="U99" s="17"/>
+    </row>
+    <row r="100" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A100" s="16"/>
+      <c r="B100" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C100" s="11"/>
+      <c r="D100" s="11"/>
+      <c r="E100" s="11"/>
+      <c r="F100" s="11"/>
+      <c r="G100" s="11"/>
+      <c r="H100" s="11"/>
+      <c r="I100" s="5"/>
+      <c r="J100" s="11"/>
+      <c r="K100" s="4"/>
+      <c r="L100" s="11"/>
+      <c r="M100" s="11"/>
+      <c r="N100" s="11"/>
+      <c r="O100" s="11"/>
+      <c r="P100" s="11"/>
+      <c r="Q100" s="11"/>
+      <c r="R100" s="11"/>
+      <c r="S100" s="11"/>
+      <c r="T100" s="5"/>
+      <c r="U100" s="17"/>
+    </row>
+    <row r="101" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A101" s="16"/>
+      <c r="B101" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C101" s="11"/>
+      <c r="D101" s="11"/>
+      <c r="E101" s="11"/>
+      <c r="F101" s="11"/>
+      <c r="G101" s="11"/>
+      <c r="H101" s="11"/>
+      <c r="I101" s="5"/>
+      <c r="J101" s="11"/>
+      <c r="K101" s="4"/>
+      <c r="L101" s="11"/>
+      <c r="M101" s="11"/>
+      <c r="N101" s="11"/>
+      <c r="O101" s="11"/>
+      <c r="P101" s="11"/>
+      <c r="Q101" s="11"/>
+      <c r="R101" s="11"/>
+      <c r="S101" s="11"/>
+      <c r="T101" s="5"/>
+      <c r="U101" s="17"/>
+    </row>
+    <row r="102" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A102" s="16"/>
+      <c r="B102" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C102" s="11"/>
+      <c r="D102" s="11"/>
+      <c r="E102" s="11"/>
+      <c r="F102" s="11"/>
+      <c r="G102" s="11"/>
+      <c r="H102" s="11"/>
+      <c r="I102" s="5"/>
+      <c r="J102" s="11"/>
+      <c r="K102" s="4"/>
+      <c r="L102" s="11"/>
+      <c r="M102" s="11"/>
+      <c r="N102" s="11"/>
+      <c r="O102" s="11"/>
+      <c r="P102" s="11"/>
+      <c r="Q102" s="11"/>
+      <c r="R102" s="11"/>
+      <c r="S102" s="11"/>
+      <c r="T102" s="5"/>
+      <c r="U102" s="17"/>
+    </row>
+    <row r="103" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A103" s="16"/>
+      <c r="B103" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C103" s="11"/>
+      <c r="D103" s="11"/>
+      <c r="E103" s="11"/>
+      <c r="F103" s="11"/>
+      <c r="G103" s="11"/>
+      <c r="H103" s="11"/>
+      <c r="I103" s="5"/>
+      <c r="J103" s="11"/>
+      <c r="K103" s="4"/>
+      <c r="L103" s="11"/>
+      <c r="M103" s="11"/>
+      <c r="N103" s="11"/>
+      <c r="O103" s="11"/>
+      <c r="P103" s="11"/>
+      <c r="Q103" s="11"/>
+      <c r="R103" s="11"/>
+      <c r="S103" s="11"/>
+      <c r="T103" s="5"/>
+      <c r="U103" s="17"/>
+    </row>
+    <row r="104" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A104" s="16"/>
+      <c r="B104" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C104" s="11"/>
+      <c r="D104" s="11"/>
+      <c r="E104" s="11"/>
+      <c r="F104" s="11"/>
+      <c r="G104" s="11"/>
+      <c r="H104" s="11"/>
+      <c r="I104" s="5"/>
+      <c r="J104" s="11"/>
+      <c r="K104" s="4"/>
+      <c r="L104" s="11"/>
+      <c r="M104" s="11"/>
+      <c r="N104" s="11"/>
+      <c r="O104" s="11"/>
+      <c r="P104" s="11"/>
+      <c r="Q104" s="11"/>
+      <c r="R104" s="11"/>
+      <c r="S104" s="11"/>
+      <c r="T104" s="5"/>
+      <c r="U104" s="17"/>
+    </row>
+    <row r="105" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A105" s="16"/>
+      <c r="B105" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C105" s="11"/>
+      <c r="D105" s="11"/>
+      <c r="E105" s="11"/>
+      <c r="F105" s="11"/>
+      <c r="G105" s="11"/>
+      <c r="H105" s="11"/>
+      <c r="I105" s="5"/>
+      <c r="J105" s="11"/>
+      <c r="K105" s="4"/>
+      <c r="L105" s="11"/>
+      <c r="M105" s="11"/>
+      <c r="N105" s="11"/>
+      <c r="O105" s="11"/>
+      <c r="P105" s="11"/>
+      <c r="Q105" s="11"/>
+      <c r="R105" s="11"/>
+      <c r="S105" s="11"/>
+      <c r="T105" s="5"/>
+      <c r="U105" s="17"/>
+    </row>
+    <row r="106" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A106" s="16"/>
+      <c r="B106" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C106" s="11"/>
+      <c r="D106" s="11"/>
+      <c r="E106" s="11"/>
+      <c r="F106" s="11"/>
+      <c r="G106" s="11"/>
+      <c r="H106" s="11"/>
+      <c r="I106" s="5"/>
+      <c r="J106" s="11"/>
+      <c r="K106" s="4"/>
+      <c r="L106" s="11"/>
+      <c r="M106" s="11"/>
+      <c r="N106" s="11"/>
+      <c r="O106" s="11"/>
+      <c r="P106" s="11"/>
+      <c r="Q106" s="11"/>
+      <c r="R106" s="11"/>
+      <c r="S106" s="11"/>
+      <c r="T106" s="5"/>
+      <c r="U106" s="17"/>
+    </row>
+    <row r="107" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A107" s="16"/>
+      <c r="B107" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C107" s="11"/>
+      <c r="D107" s="11"/>
+      <c r="E107" s="11"/>
+      <c r="F107" s="11"/>
+      <c r="G107" s="11"/>
+      <c r="H107" s="11"/>
+      <c r="I107" s="5"/>
+      <c r="J107" s="11"/>
+      <c r="K107" s="4"/>
+      <c r="L107" s="11"/>
+      <c r="M107" s="11"/>
+      <c r="N107" s="11"/>
+      <c r="O107" s="11"/>
+      <c r="P107" s="11"/>
+      <c r="Q107" s="11"/>
+      <c r="R107" s="11"/>
+      <c r="S107" s="11"/>
+      <c r="T107" s="5"/>
+      <c r="U107" s="17"/>
+    </row>
+    <row r="108" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A108" s="16"/>
+      <c r="B108" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C108" s="11"/>
+      <c r="D108" s="11"/>
+      <c r="E108" s="11"/>
+      <c r="F108" s="11"/>
+      <c r="G108" s="11"/>
+      <c r="H108" s="11"/>
+      <c r="I108" s="5"/>
+      <c r="J108" s="11"/>
+      <c r="K108" s="4"/>
+      <c r="L108" s="11"/>
+      <c r="M108" s="11"/>
+      <c r="N108" s="11"/>
+      <c r="O108" s="11"/>
+      <c r="P108" s="11"/>
+      <c r="Q108" s="11"/>
+      <c r="R108" s="11"/>
+      <c r="S108" s="11"/>
+      <c r="T108" s="5"/>
+      <c r="U108" s="17"/>
+    </row>
+    <row r="109" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A109" s="16"/>
+      <c r="B109" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C109" s="11"/>
+      <c r="D109" s="11"/>
+      <c r="E109" s="11"/>
+      <c r="F109" s="11"/>
+      <c r="G109" s="11"/>
+      <c r="H109" s="11"/>
+      <c r="I109" s="5"/>
+      <c r="J109" s="11"/>
+      <c r="K109" s="4"/>
+      <c r="L109" s="11"/>
+      <c r="M109" s="11"/>
+      <c r="N109" s="11"/>
+      <c r="O109" s="11"/>
+      <c r="P109" s="11"/>
+      <c r="Q109" s="11"/>
+      <c r="R109" s="11"/>
+      <c r="S109" s="11"/>
+      <c r="T109" s="5"/>
+      <c r="U109" s="17"/>
+    </row>
+    <row r="110" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A110" s="16"/>
+      <c r="B110" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C110" s="11"/>
+      <c r="D110" s="11"/>
+      <c r="E110" s="11"/>
+      <c r="F110" s="11"/>
+      <c r="G110" s="11"/>
+      <c r="H110" s="11"/>
+      <c r="I110" s="5"/>
+      <c r="J110" s="11"/>
+      <c r="K110" s="4"/>
+      <c r="L110" s="11"/>
+      <c r="M110" s="11"/>
+      <c r="N110" s="11"/>
+      <c r="O110" s="11"/>
+      <c r="P110" s="11"/>
+      <c r="Q110" s="11"/>
+      <c r="R110" s="11"/>
+      <c r="S110" s="11"/>
+      <c r="T110" s="5"/>
+      <c r="U110" s="17"/>
+    </row>
+    <row r="111" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A111" s="16"/>
+      <c r="B111" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C111" s="11"/>
+      <c r="D111" s="11"/>
+      <c r="E111" s="11"/>
+      <c r="F111" s="11"/>
+      <c r="G111" s="11"/>
+      <c r="H111" s="11"/>
+      <c r="I111" s="5"/>
+      <c r="J111" s="11"/>
+      <c r="K111" s="4"/>
+      <c r="L111" s="11"/>
+      <c r="M111" s="11"/>
+      <c r="N111" s="11"/>
+      <c r="O111" s="11"/>
+      <c r="P111" s="11"/>
+      <c r="Q111" s="11"/>
+      <c r="R111" s="11"/>
+      <c r="S111" s="11"/>
+      <c r="T111" s="5"/>
+      <c r="U111" s="17"/>
+    </row>
+    <row r="112" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A112" s="16"/>
+      <c r="B112" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C112" s="11"/>
+      <c r="D112" s="11"/>
+      <c r="E112" s="11"/>
+      <c r="F112" s="11"/>
+      <c r="G112" s="11"/>
+      <c r="H112" s="11"/>
+      <c r="I112" s="5"/>
+      <c r="J112" s="11"/>
+      <c r="K112" s="4"/>
+      <c r="L112" s="11"/>
+      <c r="M112" s="11"/>
+      <c r="N112" s="11"/>
+      <c r="O112" s="11"/>
+      <c r="P112" s="11"/>
+      <c r="Q112" s="11"/>
+      <c r="R112" s="11"/>
+      <c r="S112" s="11"/>
+      <c r="T112" s="5"/>
+      <c r="U112" s="17"/>
+    </row>
+    <row r="113" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A113" s="16"/>
+      <c r="B113" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C113" s="7"/>
+      <c r="D113" s="7"/>
+      <c r="E113" s="7"/>
+      <c r="F113" s="7"/>
+      <c r="G113" s="7"/>
+      <c r="H113" s="7"/>
+      <c r="I113" s="9"/>
+      <c r="J113" s="11"/>
+      <c r="K113" s="4"/>
+      <c r="L113" s="11"/>
+      <c r="M113" s="11"/>
+      <c r="N113" s="11"/>
+      <c r="O113" s="11"/>
+      <c r="P113" s="11"/>
+      <c r="Q113" s="11"/>
+      <c r="R113" s="11"/>
+      <c r="S113" s="11"/>
+      <c r="T113" s="5"/>
+      <c r="U113" s="17"/>
+    </row>
+    <row r="114" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A114" s="16"/>
+      <c r="B114" s="11"/>
+      <c r="C114" s="11"/>
+      <c r="D114" s="11"/>
+      <c r="E114" s="11"/>
+      <c r="F114" s="11"/>
+      <c r="G114" s="11"/>
+      <c r="H114" s="11"/>
+      <c r="I114" s="11"/>
+      <c r="J114" s="11"/>
+      <c r="K114" s="4"/>
+      <c r="L114" s="11"/>
+      <c r="M114" s="11"/>
+      <c r="N114" s="11"/>
+      <c r="O114" s="11"/>
+      <c r="P114" s="11"/>
+      <c r="Q114" s="11"/>
+      <c r="R114" s="11"/>
+      <c r="S114" s="11"/>
+      <c r="T114" s="5"/>
+      <c r="U114" s="17"/>
+    </row>
+    <row r="115" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A115" s="16"/>
+      <c r="B115" s="11"/>
+      <c r="C115" s="11"/>
+      <c r="D115" s="11"/>
+      <c r="E115" s="11"/>
+      <c r="F115" s="11"/>
+      <c r="G115" s="11"/>
+      <c r="H115" s="11"/>
+      <c r="I115" s="11"/>
+      <c r="J115" s="11"/>
+      <c r="K115" s="4"/>
+      <c r="L115" s="11"/>
+      <c r="M115" s="11"/>
+      <c r="N115" s="11"/>
+      <c r="O115" s="11"/>
+      <c r="P115" s="11"/>
+      <c r="Q115" s="11"/>
+      <c r="R115" s="11"/>
+      <c r="S115" s="11"/>
+      <c r="T115" s="5"/>
+      <c r="U115" s="17"/>
+    </row>
+    <row r="116" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A116" s="16"/>
+      <c r="B116" s="11"/>
+      <c r="C116" s="11"/>
+      <c r="D116" s="11"/>
+      <c r="E116" s="11"/>
+      <c r="F116" s="11"/>
+      <c r="G116" s="11"/>
+      <c r="H116" s="11"/>
+      <c r="I116" s="11"/>
+      <c r="J116" s="11"/>
+      <c r="K116" s="4"/>
+      <c r="L116" s="11"/>
+      <c r="M116" s="11"/>
+      <c r="N116" s="11"/>
+      <c r="O116" s="11"/>
+      <c r="P116" s="11"/>
+      <c r="Q116" s="11"/>
+      <c r="R116" s="11"/>
+      <c r="S116" s="11"/>
+      <c r="T116" s="5"/>
+      <c r="U116" s="17"/>
+    </row>
+    <row r="117" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A117" s="16"/>
+      <c r="B117" s="11"/>
+      <c r="C117" s="11"/>
+      <c r="D117" s="11"/>
+      <c r="E117" s="11"/>
+      <c r="F117" s="11"/>
+      <c r="G117" s="11"/>
+      <c r="H117" s="11"/>
+      <c r="I117" s="11"/>
+      <c r="J117" s="11"/>
+      <c r="K117" s="4"/>
+      <c r="L117" s="11"/>
+      <c r="M117" s="11"/>
+      <c r="N117" s="11"/>
+      <c r="O117" s="11"/>
+      <c r="P117" s="11"/>
+      <c r="Q117" s="11"/>
+      <c r="R117" s="11"/>
+      <c r="S117" s="11"/>
+      <c r="T117" s="5"/>
+      <c r="U117" s="17"/>
+    </row>
+    <row r="118" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A118" s="16"/>
+      <c r="B118" s="11"/>
+      <c r="C118" s="11"/>
+      <c r="D118" s="11"/>
+      <c r="E118" s="11"/>
+      <c r="F118" s="11"/>
+      <c r="G118" s="11"/>
+      <c r="H118" s="11"/>
+      <c r="I118" s="11"/>
+      <c r="J118" s="11"/>
+      <c r="K118" s="6"/>
+      <c r="L118" s="7"/>
+      <c r="M118" s="7"/>
+      <c r="N118" s="7"/>
+      <c r="O118" s="7"/>
+      <c r="P118" s="7"/>
+      <c r="Q118" s="7"/>
+      <c r="R118" s="7"/>
+      <c r="S118" s="7"/>
+      <c r="T118" s="9"/>
+      <c r="U118" s="17"/>
+    </row>
+    <row r="119" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="18"/>
+      <c r="B119" s="19"/>
+      <c r="C119" s="19"/>
+      <c r="D119" s="19"/>
+      <c r="E119" s="19"/>
+      <c r="F119" s="19"/>
+      <c r="G119" s="19"/>
+      <c r="H119" s="19"/>
+      <c r="I119" s="19"/>
+      <c r="J119" s="19"/>
+      <c r="K119" s="19"/>
+      <c r="L119" s="19"/>
+      <c r="M119" s="19"/>
+      <c r="N119" s="19"/>
+      <c r="O119" s="19"/>
+      <c r="P119" s="19"/>
+      <c r="Q119" s="19"/>
+      <c r="R119" s="19"/>
+      <c r="S119" s="19"/>
+      <c r="T119" s="19"/>
+      <c r="U119" s="20"/>
+    </row>
+    <row r="122" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="12" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="123" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A123" s="13"/>
+      <c r="B123" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="C123" s="14"/>
+      <c r="D123" s="14"/>
+      <c r="E123" s="14"/>
+      <c r="F123" s="14"/>
+      <c r="G123" s="14"/>
+      <c r="H123" s="14"/>
+      <c r="I123" s="14"/>
+      <c r="J123" s="14"/>
+      <c r="K123" s="14"/>
+      <c r="L123" s="14"/>
+      <c r="M123" s="14"/>
+      <c r="N123" s="14"/>
+      <c r="O123" s="14"/>
+      <c r="P123" s="14"/>
+      <c r="Q123" s="14"/>
+      <c r="R123" s="14"/>
+      <c r="S123" s="14"/>
+      <c r="T123" s="14"/>
+      <c r="U123" s="15"/>
+    </row>
+    <row r="124" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A124" s="16"/>
+      <c r="B124" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C124" s="2"/>
+      <c r="D124" s="2"/>
+      <c r="E124" s="2"/>
+      <c r="F124" s="2"/>
+      <c r="G124" s="2"/>
+      <c r="H124" s="2"/>
+      <c r="I124" s="3"/>
+      <c r="J124" s="11"/>
+      <c r="K124" s="11"/>
+      <c r="L124" s="11"/>
+      <c r="M124" s="11"/>
+      <c r="N124" s="11"/>
+      <c r="O124" s="11"/>
+      <c r="P124" s="11"/>
+      <c r="Q124" s="11"/>
+      <c r="R124" s="11"/>
+      <c r="S124" s="11"/>
+      <c r="T124" s="11"/>
+      <c r="U124" s="17"/>
+    </row>
+    <row r="125" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A125" s="16"/>
+      <c r="B125" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C125" s="11"/>
+      <c r="D125" s="11"/>
+      <c r="E125" s="11"/>
+      <c r="F125" s="11"/>
+      <c r="G125" s="11"/>
+      <c r="H125" s="11"/>
+      <c r="I125" s="5"/>
+      <c r="J125" s="11"/>
+      <c r="K125" s="11"/>
+      <c r="L125" s="11"/>
+      <c r="M125" s="11"/>
+      <c r="N125" s="11"/>
+      <c r="O125" s="11"/>
+      <c r="P125" s="11"/>
+      <c r="Q125" s="11"/>
+      <c r="R125" s="11"/>
+      <c r="S125" s="11"/>
+      <c r="T125" s="11"/>
+      <c r="U125" s="17"/>
+    </row>
+    <row r="126" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A126" s="16"/>
+      <c r="B126" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C126" s="11"/>
+      <c r="D126" s="11"/>
+      <c r="E126" s="11"/>
+      <c r="F126" s="11"/>
+      <c r="G126" s="11"/>
+      <c r="H126" s="11"/>
+      <c r="I126" s="5"/>
+      <c r="J126" s="11"/>
+      <c r="K126" s="11"/>
+      <c r="L126" s="11"/>
+      <c r="M126" s="11"/>
+      <c r="N126" s="11"/>
+      <c r="O126" s="11"/>
+      <c r="P126" s="11"/>
+      <c r="Q126" s="11"/>
+      <c r="R126" s="11"/>
+      <c r="S126" s="11"/>
+      <c r="T126" s="11"/>
+      <c r="U126" s="17"/>
+    </row>
+    <row r="127" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A127" s="16"/>
+      <c r="B127" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C127" s="11"/>
+      <c r="D127" s="11"/>
+      <c r="E127" s="11"/>
+      <c r="F127" s="11"/>
+      <c r="G127" s="11"/>
+      <c r="H127" s="11"/>
+      <c r="I127" s="5"/>
+      <c r="J127" s="11"/>
+      <c r="K127" s="11"/>
+      <c r="L127" s="11"/>
+      <c r="M127" s="11"/>
+      <c r="N127" s="11"/>
+      <c r="O127" s="11"/>
+      <c r="P127" s="11"/>
+      <c r="Q127" s="11"/>
+      <c r="R127" s="11"/>
+      <c r="S127" s="11"/>
+      <c r="T127" s="11"/>
+      <c r="U127" s="17"/>
+    </row>
+    <row r="128" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A128" s="16"/>
+      <c r="B128" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C128" s="11"/>
+      <c r="D128" s="11"/>
+      <c r="E128" s="11"/>
+      <c r="F128" s="11"/>
+      <c r="G128" s="11"/>
+      <c r="H128" s="11"/>
+      <c r="I128" s="5"/>
+      <c r="J128" s="11"/>
+      <c r="K128" s="11"/>
+      <c r="L128" s="11"/>
+      <c r="M128" s="11"/>
+      <c r="N128" s="11"/>
+      <c r="O128" s="11"/>
+      <c r="P128" s="11"/>
+      <c r="Q128" s="11"/>
+      <c r="R128" s="11"/>
+      <c r="S128" s="11"/>
+      <c r="T128" s="11"/>
+      <c r="U128" s="17"/>
+    </row>
+    <row r="129" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A129" s="16"/>
+      <c r="B129" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C129" s="11"/>
+      <c r="D129" s="11"/>
+      <c r="E129" s="11"/>
+      <c r="F129" s="11"/>
+      <c r="G129" s="11"/>
+      <c r="H129" s="11"/>
+      <c r="I129" s="5"/>
+      <c r="J129" s="11"/>
+      <c r="K129" s="11"/>
+      <c r="L129" s="11"/>
+      <c r="M129" s="11"/>
+      <c r="N129" s="11"/>
+      <c r="O129" s="11"/>
+      <c r="P129" s="11"/>
+      <c r="Q129" s="11"/>
+      <c r="R129" s="11"/>
+      <c r="S129" s="11"/>
+      <c r="T129" s="11"/>
+      <c r="U129" s="17"/>
+    </row>
+    <row r="130" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A130" s="16"/>
+      <c r="B130" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C130" s="11"/>
+      <c r="D130" s="11"/>
+      <c r="E130" s="11"/>
+      <c r="F130" s="11"/>
+      <c r="G130" s="11"/>
+      <c r="H130" s="11"/>
+      <c r="I130" s="5"/>
+      <c r="J130" s="11"/>
+      <c r="K130" s="11"/>
+      <c r="L130" s="11"/>
+      <c r="M130" s="11"/>
+      <c r="N130" s="11"/>
+      <c r="O130" s="11"/>
+      <c r="P130" s="11"/>
+      <c r="Q130" s="11"/>
+      <c r="R130" s="11"/>
+      <c r="S130" s="11"/>
+      <c r="T130" s="11"/>
+      <c r="U130" s="17"/>
+    </row>
+    <row r="131" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A131" s="16"/>
+      <c r="B131" s="4"/>
+      <c r="C131" s="11"/>
+      <c r="D131" s="11"/>
+      <c r="E131" s="11"/>
+      <c r="F131" s="11"/>
+      <c r="G131" s="11"/>
+      <c r="H131" s="11"/>
+      <c r="I131" s="5"/>
+      <c r="J131" s="11"/>
+      <c r="K131" s="11"/>
+      <c r="L131" s="11"/>
+      <c r="M131" s="11"/>
+      <c r="N131" s="11"/>
+      <c r="O131" s="11"/>
+      <c r="P131" s="11"/>
+      <c r="Q131" s="11"/>
+      <c r="R131" s="11"/>
+      <c r="S131" s="11"/>
+      <c r="T131" s="11"/>
+      <c r="U131" s="17"/>
+    </row>
+    <row r="132" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A132" s="16"/>
+      <c r="B132" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C132" s="11"/>
+      <c r="D132" s="11"/>
+      <c r="E132" s="11"/>
+      <c r="F132" s="11"/>
+      <c r="G132" s="11"/>
+      <c r="H132" s="11"/>
+      <c r="I132" s="5"/>
+      <c r="J132" s="11"/>
+      <c r="K132" s="11"/>
+      <c r="L132" s="11"/>
+      <c r="M132" s="11"/>
+      <c r="N132" s="11"/>
+      <c r="O132" s="11"/>
+      <c r="P132" s="11"/>
+      <c r="Q132" s="11"/>
+      <c r="R132" s="11"/>
+      <c r="S132" s="11"/>
+      <c r="T132" s="11"/>
+      <c r="U132" s="17"/>
+    </row>
+    <row r="133" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A133" s="16"/>
+      <c r="B133" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C133" s="11"/>
+      <c r="D133" s="11"/>
+      <c r="E133" s="11"/>
+      <c r="F133" s="11"/>
+      <c r="G133" s="11"/>
+      <c r="H133" s="11"/>
+      <c r="I133" s="5"/>
+      <c r="J133" s="11"/>
+      <c r="K133" s="11"/>
+      <c r="L133" s="11"/>
+      <c r="M133" s="11"/>
+      <c r="N133" s="11"/>
+      <c r="O133" s="11"/>
+      <c r="P133" s="11"/>
+      <c r="Q133" s="11"/>
+      <c r="R133" s="11"/>
+      <c r="S133" s="11"/>
+      <c r="T133" s="11"/>
+      <c r="U133" s="17"/>
+    </row>
+    <row r="134" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A134" s="16"/>
+      <c r="B134" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C134" s="11"/>
+      <c r="D134" s="11"/>
+      <c r="E134" s="11"/>
+      <c r="F134" s="11"/>
+      <c r="G134" s="11"/>
+      <c r="H134" s="11"/>
+      <c r="I134" s="5"/>
+      <c r="J134" s="11"/>
+      <c r="K134" s="11"/>
+      <c r="L134" s="11"/>
+      <c r="M134" s="11"/>
+      <c r="N134" s="11"/>
+      <c r="O134" s="11"/>
+      <c r="P134" s="11"/>
+      <c r="Q134" s="11"/>
+      <c r="R134" s="11"/>
+      <c r="S134" s="11"/>
+      <c r="T134" s="11"/>
+      <c r="U134" s="17"/>
+    </row>
+    <row r="135" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A135" s="16"/>
+      <c r="B135" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C135" s="11"/>
+      <c r="D135" s="11"/>
+      <c r="E135" s="11"/>
+      <c r="F135" s="11"/>
+      <c r="G135" s="11"/>
+      <c r="H135" s="11"/>
+      <c r="I135" s="5"/>
+      <c r="J135" s="11"/>
+      <c r="K135" s="11"/>
+      <c r="L135" s="11"/>
+      <c r="M135" s="11"/>
+      <c r="N135" s="11"/>
+      <c r="O135" s="11"/>
+      <c r="P135" s="11"/>
+      <c r="Q135" s="11"/>
+      <c r="R135" s="11"/>
+      <c r="S135" s="11"/>
+      <c r="T135" s="11"/>
+      <c r="U135" s="17"/>
+    </row>
+    <row r="136" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A136" s="16"/>
+      <c r="B136" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C136" s="11"/>
+      <c r="D136" s="11"/>
+      <c r="E136" s="11"/>
+      <c r="F136" s="11"/>
+      <c r="G136" s="11"/>
+      <c r="H136" s="11"/>
+      <c r="I136" s="5"/>
+      <c r="J136" s="11"/>
+      <c r="K136" s="11"/>
+      <c r="L136" s="11"/>
+      <c r="M136" s="11"/>
+      <c r="N136" s="11"/>
+      <c r="O136" s="11"/>
+      <c r="P136" s="11"/>
+      <c r="Q136" s="11"/>
+      <c r="R136" s="11"/>
+      <c r="S136" s="11"/>
+      <c r="T136" s="11"/>
+      <c r="U136" s="17"/>
+    </row>
+    <row r="137" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A137" s="16"/>
+      <c r="B137" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="C137" s="11"/>
+      <c r="D137" s="11"/>
+      <c r="E137" s="11"/>
+      <c r="F137" s="11"/>
+      <c r="G137" s="11"/>
+      <c r="H137" s="11"/>
+      <c r="I137" s="5"/>
+      <c r="J137" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K137" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="L137" s="2"/>
+      <c r="M137" s="2"/>
+      <c r="N137" s="2"/>
+      <c r="O137" s="2"/>
+      <c r="P137" s="2"/>
+      <c r="Q137" s="2"/>
+      <c r="R137" s="2"/>
+      <c r="S137" s="2"/>
+      <c r="T137" s="3"/>
+      <c r="U137" s="17"/>
+    </row>
+    <row r="138" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A138" s="16"/>
+      <c r="B138" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C138" s="11"/>
+      <c r="D138" s="11"/>
+      <c r="E138" s="11"/>
+      <c r="F138" s="11"/>
+      <c r="G138" s="11"/>
+      <c r="H138" s="11"/>
+      <c r="I138" s="5"/>
+      <c r="J138" s="11"/>
+      <c r="K138" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="L138" s="11"/>
+      <c r="M138" s="11"/>
+      <c r="N138" s="11"/>
+      <c r="O138" s="11"/>
+      <c r="P138" s="11"/>
+      <c r="Q138" s="11"/>
+      <c r="R138" s="11"/>
+      <c r="S138" s="11"/>
+      <c r="T138" s="5"/>
+      <c r="U138" s="17"/>
+    </row>
+    <row r="139" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A139" s="16"/>
+      <c r="B139" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C139" s="11"/>
+      <c r="D139" s="11"/>
+      <c r="E139" s="11"/>
+      <c r="F139" s="11"/>
+      <c r="G139" s="11"/>
+      <c r="H139" s="11"/>
+      <c r="I139" s="5"/>
+      <c r="J139" s="11"/>
+      <c r="K139" s="4"/>
+      <c r="L139" s="11"/>
+      <c r="M139" s="11"/>
+      <c r="N139" s="11"/>
+      <c r="O139" s="11"/>
+      <c r="P139" s="11"/>
+      <c r="Q139" s="11"/>
+      <c r="R139" s="11"/>
+      <c r="S139" s="11"/>
+      <c r="T139" s="5"/>
+      <c r="U139" s="17"/>
+    </row>
+    <row r="140" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A140" s="16"/>
+      <c r="B140" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C140" s="11"/>
+      <c r="D140" s="11"/>
+      <c r="E140" s="11"/>
+      <c r="F140" s="11"/>
+      <c r="G140" s="11"/>
+      <c r="H140" s="11"/>
+      <c r="I140" s="5"/>
+      <c r="J140" s="11"/>
+      <c r="K140" s="4"/>
+      <c r="L140" s="11"/>
+      <c r="M140" s="11"/>
+      <c r="N140" s="11"/>
+      <c r="O140" s="11"/>
+      <c r="P140" s="11"/>
+      <c r="Q140" s="11"/>
+      <c r="R140" s="11"/>
+      <c r="S140" s="11"/>
+      <c r="T140" s="5"/>
+      <c r="U140" s="17"/>
+    </row>
+    <row r="141" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A141" s="16"/>
+      <c r="B141" s="4"/>
+      <c r="C141" s="11"/>
+      <c r="D141" s="11"/>
+      <c r="E141" s="11"/>
+      <c r="F141" s="11"/>
+      <c r="G141" s="11"/>
+      <c r="H141" s="11"/>
+      <c r="I141" s="5"/>
+      <c r="J141" s="11"/>
+      <c r="K141" s="4"/>
+      <c r="L141" s="11"/>
+      <c r="M141" s="11"/>
+      <c r="N141" s="11"/>
+      <c r="O141" s="11"/>
+      <c r="P141" s="11"/>
+      <c r="Q141" s="11"/>
+      <c r="R141" s="11"/>
+      <c r="S141" s="11"/>
+      <c r="T141" s="5"/>
+      <c r="U141" s="17"/>
+    </row>
+    <row r="142" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A142" s="16"/>
+      <c r="B142" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C142" s="11"/>
+      <c r="D142" s="11"/>
+      <c r="E142" s="11"/>
+      <c r="F142" s="11"/>
+      <c r="G142" s="11"/>
+      <c r="H142" s="11"/>
+      <c r="I142" s="5"/>
+      <c r="J142" s="11"/>
+      <c r="K142" s="4"/>
+      <c r="L142" s="11"/>
+      <c r="M142" s="11"/>
+      <c r="N142" s="11"/>
+      <c r="O142" s="11"/>
+      <c r="P142" s="11"/>
+      <c r="Q142" s="11"/>
+      <c r="R142" s="11"/>
+      <c r="S142" s="11"/>
+      <c r="T142" s="5"/>
+      <c r="U142" s="17"/>
+    </row>
+    <row r="143" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A143" s="16"/>
+      <c r="B143" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C143" s="11"/>
+      <c r="D143" s="11"/>
+      <c r="E143" s="11"/>
+      <c r="F143" s="11"/>
+      <c r="G143" s="11"/>
+      <c r="H143" s="11"/>
+      <c r="I143" s="5"/>
+      <c r="J143" s="11"/>
+      <c r="K143" s="4"/>
+      <c r="L143" s="11"/>
+      <c r="M143" s="11"/>
+      <c r="N143" s="11"/>
+      <c r="O143" s="11"/>
+      <c r="P143" s="11"/>
+      <c r="Q143" s="11"/>
+      <c r="R143" s="11"/>
+      <c r="S143" s="11"/>
+      <c r="T143" s="5"/>
+      <c r="U143" s="17"/>
+    </row>
+    <row r="144" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A144" s="16"/>
+      <c r="B144" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C144" s="11"/>
+      <c r="D144" s="11"/>
+      <c r="E144" s="11"/>
+      <c r="F144" s="11"/>
+      <c r="G144" s="11"/>
+      <c r="H144" s="11"/>
+      <c r="I144" s="5"/>
+      <c r="J144" s="11"/>
+      <c r="K144" s="4"/>
+      <c r="L144" s="11"/>
+      <c r="M144" s="11"/>
+      <c r="N144" s="11"/>
+      <c r="O144" s="11"/>
+      <c r="P144" s="11"/>
+      <c r="Q144" s="11"/>
+      <c r="R144" s="11"/>
+      <c r="S144" s="11"/>
+      <c r="T144" s="5"/>
+      <c r="U144" s="17"/>
+    </row>
+    <row r="145" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A145" s="16"/>
+      <c r="B145" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C145" s="11"/>
+      <c r="D145" s="11"/>
+      <c r="E145" s="11"/>
+      <c r="F145" s="11"/>
+      <c r="G145" s="11"/>
+      <c r="H145" s="11"/>
+      <c r="I145" s="5"/>
+      <c r="J145" s="11"/>
+      <c r="K145" s="4"/>
+      <c r="L145" s="11"/>
+      <c r="M145" s="11"/>
+      <c r="N145" s="11"/>
+      <c r="O145" s="11"/>
+      <c r="P145" s="11"/>
+      <c r="Q145" s="11"/>
+      <c r="R145" s="11"/>
+      <c r="S145" s="11"/>
+      <c r="T145" s="5"/>
+      <c r="U145" s="17"/>
+    </row>
+    <row r="146" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A146" s="16"/>
+      <c r="B146" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C146" s="11"/>
+      <c r="D146" s="11"/>
+      <c r="E146" s="11"/>
+      <c r="F146" s="11"/>
+      <c r="G146" s="11"/>
+      <c r="H146" s="11"/>
+      <c r="I146" s="5"/>
+      <c r="J146" s="11"/>
+      <c r="K146" s="4"/>
+      <c r="L146" s="11"/>
+      <c r="M146" s="11"/>
+      <c r="N146" s="11"/>
+      <c r="O146" s="11"/>
+      <c r="P146" s="11"/>
+      <c r="Q146" s="11"/>
+      <c r="R146" s="11"/>
+      <c r="S146" s="11"/>
+      <c r="T146" s="5"/>
+      <c r="U146" s="17"/>
+    </row>
+    <row r="147" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A147" s="16"/>
+      <c r="B147" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C147" s="11"/>
+      <c r="D147" s="11"/>
+      <c r="E147" s="11"/>
+      <c r="F147" s="11"/>
+      <c r="G147" s="11"/>
+      <c r="H147" s="11"/>
+      <c r="I147" s="5"/>
+      <c r="J147" s="11"/>
+      <c r="K147" s="4"/>
+      <c r="L147" s="11"/>
+      <c r="M147" s="11"/>
+      <c r="N147" s="11"/>
+      <c r="O147" s="11"/>
+      <c r="P147" s="11"/>
+      <c r="Q147" s="11"/>
+      <c r="R147" s="11"/>
+      <c r="S147" s="11"/>
+      <c r="T147" s="5"/>
+      <c r="U147" s="17"/>
+    </row>
+    <row r="148" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A148" s="16"/>
+      <c r="B148" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C148" s="11"/>
+      <c r="D148" s="11"/>
+      <c r="E148" s="11"/>
+      <c r="F148" s="11"/>
+      <c r="G148" s="11"/>
+      <c r="H148" s="11"/>
+      <c r="I148" s="5"/>
+      <c r="J148" s="11"/>
+      <c r="K148" s="4"/>
+      <c r="L148" s="11"/>
+      <c r="M148" s="11"/>
+      <c r="N148" s="11"/>
+      <c r="O148" s="11"/>
+      <c r="P148" s="11"/>
+      <c r="Q148" s="11"/>
+      <c r="R148" s="11"/>
+      <c r="S148" s="11"/>
+      <c r="T148" s="5"/>
+      <c r="U148" s="17"/>
+    </row>
+    <row r="149" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A149" s="16"/>
+      <c r="B149" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C149" s="11"/>
+      <c r="D149" s="11"/>
+      <c r="E149" s="11"/>
+      <c r="F149" s="11"/>
+      <c r="G149" s="11"/>
+      <c r="H149" s="11"/>
+      <c r="I149" s="5"/>
+      <c r="J149" s="11"/>
+      <c r="K149" s="4"/>
+      <c r="L149" s="11"/>
+      <c r="M149" s="11"/>
+      <c r="N149" s="11"/>
+      <c r="O149" s="11"/>
+      <c r="P149" s="11"/>
+      <c r="Q149" s="11"/>
+      <c r="R149" s="11"/>
+      <c r="S149" s="11"/>
+      <c r="T149" s="5"/>
+      <c r="U149" s="17"/>
+    </row>
+    <row r="150" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A150" s="16"/>
+      <c r="B150" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C150" s="11"/>
+      <c r="D150" s="11"/>
+      <c r="E150" s="11"/>
+      <c r="F150" s="11"/>
+      <c r="G150" s="11"/>
+      <c r="H150" s="11"/>
+      <c r="I150" s="5"/>
+      <c r="J150" s="11"/>
+      <c r="K150" s="4"/>
+      <c r="L150" s="11"/>
+      <c r="M150" s="11"/>
+      <c r="N150" s="11"/>
+      <c r="O150" s="11"/>
+      <c r="P150" s="11"/>
+      <c r="Q150" s="11"/>
+      <c r="R150" s="11"/>
+      <c r="S150" s="11"/>
+      <c r="T150" s="5"/>
+      <c r="U150" s="17"/>
+    </row>
+    <row r="151" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A151" s="16"/>
+      <c r="B151" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C151" s="11"/>
+      <c r="D151" s="11"/>
+      <c r="E151" s="11"/>
+      <c r="F151" s="11"/>
+      <c r="G151" s="11"/>
+      <c r="H151" s="11"/>
+      <c r="I151" s="5"/>
+      <c r="J151" s="11"/>
+      <c r="K151" s="4"/>
+      <c r="L151" s="11"/>
+      <c r="M151" s="11"/>
+      <c r="N151" s="11"/>
+      <c r="O151" s="11"/>
+      <c r="P151" s="11"/>
+      <c r="Q151" s="11"/>
+      <c r="R151" s="11"/>
+      <c r="S151" s="11"/>
+      <c r="T151" s="5"/>
+      <c r="U151" s="17"/>
+    </row>
+    <row r="152" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A152" s="16"/>
+      <c r="B152" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C152" s="11"/>
+      <c r="D152" s="11"/>
+      <c r="E152" s="11"/>
+      <c r="F152" s="11"/>
+      <c r="G152" s="11"/>
+      <c r="H152" s="11"/>
+      <c r="I152" s="5"/>
+      <c r="J152" s="11"/>
+      <c r="K152" s="4"/>
+      <c r="L152" s="11"/>
+      <c r="M152" s="11"/>
+      <c r="N152" s="11"/>
+      <c r="O152" s="11"/>
+      <c r="P152" s="11"/>
+      <c r="Q152" s="11"/>
+      <c r="R152" s="11"/>
+      <c r="S152" s="11"/>
+      <c r="T152" s="5"/>
+      <c r="U152" s="17"/>
+    </row>
+    <row r="153" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A153" s="16"/>
+      <c r="B153" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C153" s="11"/>
+      <c r="D153" s="11"/>
+      <c r="E153" s="11"/>
+      <c r="F153" s="11"/>
+      <c r="G153" s="11"/>
+      <c r="H153" s="11"/>
+      <c r="I153" s="5"/>
+      <c r="J153" s="11"/>
+      <c r="K153" s="4"/>
+      <c r="L153" s="11"/>
+      <c r="M153" s="11"/>
+      <c r="N153" s="11"/>
+      <c r="O153" s="11"/>
+      <c r="P153" s="11"/>
+      <c r="Q153" s="11"/>
+      <c r="R153" s="11"/>
+      <c r="S153" s="11"/>
+      <c r="T153" s="5"/>
+      <c r="U153" s="17"/>
+    </row>
+    <row r="154" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A154" s="16"/>
+      <c r="B154" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C154" s="11"/>
+      <c r="D154" s="11"/>
+      <c r="E154" s="11"/>
+      <c r="F154" s="11"/>
+      <c r="G154" s="11"/>
+      <c r="H154" s="11"/>
+      <c r="I154" s="5"/>
+      <c r="J154" s="11"/>
+      <c r="K154" s="4"/>
+      <c r="L154" s="11"/>
+      <c r="M154" s="11"/>
+      <c r="N154" s="11"/>
+      <c r="O154" s="11"/>
+      <c r="P154" s="11"/>
+      <c r="Q154" s="11"/>
+      <c r="R154" s="11"/>
+      <c r="S154" s="11"/>
+      <c r="T154" s="5"/>
+      <c r="U154" s="17"/>
+    </row>
+    <row r="155" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A155" s="16"/>
+      <c r="B155" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C155" s="11"/>
+      <c r="D155" s="11"/>
+      <c r="E155" s="11"/>
+      <c r="F155" s="11"/>
+      <c r="G155" s="11"/>
+      <c r="H155" s="11"/>
+      <c r="I155" s="5"/>
+      <c r="J155" s="11"/>
+      <c r="K155" s="4"/>
+      <c r="L155" s="11"/>
+      <c r="M155" s="11"/>
+      <c r="N155" s="11"/>
+      <c r="O155" s="11"/>
+      <c r="P155" s="11"/>
+      <c r="Q155" s="11"/>
+      <c r="R155" s="11"/>
+      <c r="S155" s="11"/>
+      <c r="T155" s="5"/>
+      <c r="U155" s="17"/>
+    </row>
+    <row r="156" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A156" s="16"/>
+      <c r="B156" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C156" s="7"/>
+      <c r="D156" s="7"/>
+      <c r="E156" s="7"/>
+      <c r="F156" s="7"/>
+      <c r="G156" s="7"/>
+      <c r="H156" s="7"/>
+      <c r="I156" s="9"/>
+      <c r="J156" s="11"/>
+      <c r="K156" s="4"/>
+      <c r="L156" s="11"/>
+      <c r="M156" s="11"/>
+      <c r="N156" s="11"/>
+      <c r="O156" s="11"/>
+      <c r="P156" s="11"/>
+      <c r="Q156" s="11"/>
+      <c r="R156" s="11"/>
+      <c r="S156" s="11"/>
+      <c r="T156" s="5"/>
+      <c r="U156" s="17"/>
+    </row>
+    <row r="157" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A157" s="16"/>
+      <c r="B157" s="11"/>
+      <c r="C157" s="11"/>
+      <c r="D157" s="11"/>
+      <c r="E157" s="11"/>
+      <c r="F157" s="11"/>
+      <c r="G157" s="11"/>
+      <c r="H157" s="11"/>
+      <c r="I157" s="11"/>
+      <c r="J157" s="11"/>
+      <c r="K157" s="4"/>
+      <c r="L157" s="11"/>
+      <c r="M157" s="11"/>
+      <c r="N157" s="11"/>
+      <c r="O157" s="11"/>
+      <c r="P157" s="11"/>
+      <c r="Q157" s="11"/>
+      <c r="R157" s="11"/>
+      <c r="S157" s="11"/>
+      <c r="T157" s="5"/>
+      <c r="U157" s="17"/>
+    </row>
+    <row r="158" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A158" s="16"/>
+      <c r="B158" s="11"/>
+      <c r="C158" s="11"/>
+      <c r="D158" s="11"/>
+      <c r="E158" s="11"/>
+      <c r="F158" s="11"/>
+      <c r="G158" s="11"/>
+      <c r="H158" s="11"/>
+      <c r="I158" s="11"/>
+      <c r="J158" s="11"/>
+      <c r="K158" s="4"/>
+      <c r="L158" s="11"/>
+      <c r="M158" s="11"/>
+      <c r="N158" s="11"/>
+      <c r="O158" s="11"/>
+      <c r="P158" s="11"/>
+      <c r="Q158" s="11"/>
+      <c r="R158" s="11"/>
+      <c r="S158" s="11"/>
+      <c r="T158" s="5"/>
+      <c r="U158" s="17"/>
+    </row>
+    <row r="159" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A159" s="16"/>
+      <c r="B159" s="11"/>
+      <c r="C159" s="11"/>
+      <c r="D159" s="11"/>
+      <c r="E159" s="11"/>
+      <c r="F159" s="11"/>
+      <c r="G159" s="11"/>
+      <c r="H159" s="11"/>
+      <c r="I159" s="11"/>
+      <c r="J159" s="11"/>
+      <c r="K159" s="4"/>
+      <c r="L159" s="11"/>
+      <c r="M159" s="11"/>
+      <c r="N159" s="11"/>
+      <c r="O159" s="11"/>
+      <c r="P159" s="11"/>
+      <c r="Q159" s="11"/>
+      <c r="R159" s="11"/>
+      <c r="S159" s="11"/>
+      <c r="T159" s="5"/>
+      <c r="U159" s="17"/>
+    </row>
+    <row r="160" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A160" s="16"/>
+      <c r="B160" s="11"/>
+      <c r="C160" s="11"/>
+      <c r="D160" s="11"/>
+      <c r="E160" s="11"/>
+      <c r="F160" s="11"/>
+      <c r="G160" s="11"/>
+      <c r="H160" s="11"/>
+      <c r="I160" s="11"/>
+      <c r="J160" s="11"/>
+      <c r="K160" s="4"/>
+      <c r="L160" s="11"/>
+      <c r="M160" s="11"/>
+      <c r="N160" s="11"/>
+      <c r="O160" s="11"/>
+      <c r="P160" s="11"/>
+      <c r="Q160" s="11"/>
+      <c r="R160" s="11"/>
+      <c r="S160" s="11"/>
+      <c r="T160" s="5"/>
+      <c r="U160" s="17"/>
+    </row>
+    <row r="161" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A161" s="16"/>
+      <c r="B161" s="11"/>
+      <c r="C161" s="11"/>
+      <c r="D161" s="11"/>
+      <c r="E161" s="11"/>
+      <c r="F161" s="11"/>
+      <c r="G161" s="11"/>
+      <c r="H161" s="11"/>
+      <c r="I161" s="11"/>
+      <c r="J161" s="11"/>
+      <c r="K161" s="4"/>
+      <c r="L161" s="11"/>
+      <c r="M161" s="11"/>
+      <c r="N161" s="11"/>
+      <c r="O161" s="11"/>
+      <c r="P161" s="11"/>
+      <c r="Q161" s="11"/>
+      <c r="R161" s="11"/>
+      <c r="S161" s="11"/>
+      <c r="T161" s="5"/>
+      <c r="U161" s="17"/>
+    </row>
+    <row r="162" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A162" s="16"/>
+      <c r="B162" s="11"/>
+      <c r="C162" s="11"/>
+      <c r="D162" s="11"/>
+      <c r="E162" s="11"/>
+      <c r="F162" s="11"/>
+      <c r="G162" s="11"/>
+      <c r="H162" s="11"/>
+      <c r="I162" s="11"/>
+      <c r="J162" s="11"/>
+      <c r="K162" s="4"/>
+      <c r="L162" s="11"/>
+      <c r="M162" s="11"/>
+      <c r="N162" s="11"/>
+      <c r="O162" s="11"/>
+      <c r="P162" s="11"/>
+      <c r="Q162" s="11"/>
+      <c r="R162" s="11"/>
+      <c r="S162" s="11"/>
+      <c r="T162" s="5"/>
+      <c r="U162" s="17"/>
+    </row>
+    <row r="163" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A163" s="16"/>
+      <c r="B163" s="11"/>
+      <c r="C163" s="11"/>
+      <c r="D163" s="11"/>
+      <c r="E163" s="11"/>
+      <c r="F163" s="11"/>
+      <c r="G163" s="11"/>
+      <c r="H163" s="11"/>
+      <c r="I163" s="11"/>
+      <c r="J163" s="11"/>
+      <c r="K163" s="4"/>
+      <c r="L163" s="11"/>
+      <c r="M163" s="11"/>
+      <c r="N163" s="11"/>
+      <c r="O163" s="11"/>
+      <c r="P163" s="11"/>
+      <c r="Q163" s="11"/>
+      <c r="R163" s="11"/>
+      <c r="S163" s="11"/>
+      <c r="T163" s="5"/>
+      <c r="U163" s="17"/>
+    </row>
+    <row r="164" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A164" s="16"/>
+      <c r="B164" s="11"/>
+      <c r="C164" s="11"/>
+      <c r="D164" s="11"/>
+      <c r="E164" s="11"/>
+      <c r="F164" s="11"/>
+      <c r="G164" s="11"/>
+      <c r="H164" s="11"/>
+      <c r="I164" s="11"/>
+      <c r="J164" s="11"/>
+      <c r="K164" s="6"/>
+      <c r="L164" s="7"/>
+      <c r="M164" s="7"/>
+      <c r="N164" s="7"/>
+      <c r="O164" s="7"/>
+      <c r="P164" s="7"/>
+      <c r="Q164" s="7"/>
+      <c r="R164" s="7"/>
+      <c r="S164" s="7"/>
+      <c r="T164" s="9"/>
+      <c r="U164" s="17"/>
+    </row>
+    <row r="165" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A165" s="18"/>
+      <c r="B165" s="19"/>
+      <c r="C165" s="19"/>
+      <c r="D165" s="19"/>
+      <c r="E165" s="19"/>
+      <c r="F165" s="19"/>
+      <c r="G165" s="19"/>
+      <c r="H165" s="19"/>
+      <c r="I165" s="19"/>
+      <c r="J165" s="19"/>
+      <c r="K165" s="19"/>
+      <c r="L165" s="19"/>
+      <c r="M165" s="19"/>
+      <c r="N165" s="19"/>
+      <c r="O165" s="19"/>
+      <c r="P165" s="19"/>
+      <c r="Q165" s="19"/>
+      <c r="R165" s="19"/>
+      <c r="S165" s="19"/>
+      <c r="T165" s="19"/>
+      <c r="U165" s="20"/>
+    </row>
+    <row r="168" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A168" s="12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="169" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A169" s="13"/>
+      <c r="B169" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="C169" s="14"/>
+      <c r="D169" s="14"/>
+      <c r="E169" s="14"/>
+      <c r="F169" s="14"/>
+      <c r="G169" s="14"/>
+      <c r="H169" s="14"/>
+      <c r="I169" s="14"/>
+      <c r="J169" s="14"/>
+      <c r="K169" s="14"/>
+      <c r="L169" s="14"/>
+      <c r="M169" s="14"/>
+      <c r="N169" s="14"/>
+      <c r="O169" s="14"/>
+      <c r="P169" s="14"/>
+      <c r="Q169" s="14"/>
+      <c r="R169" s="14"/>
+      <c r="S169" s="14"/>
+      <c r="T169" s="14"/>
+      <c r="U169" s="15"/>
+    </row>
+    <row r="170" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A170" s="16"/>
+      <c r="B170" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C170" s="2"/>
+      <c r="D170" s="2"/>
+      <c r="E170" s="2"/>
+      <c r="F170" s="2"/>
+      <c r="G170" s="2"/>
+      <c r="H170" s="2"/>
+      <c r="I170" s="3"/>
+      <c r="J170" s="11"/>
+      <c r="K170" s="11"/>
+      <c r="L170" s="11"/>
+      <c r="M170" s="11"/>
+      <c r="N170" s="11"/>
+      <c r="O170" s="11"/>
+      <c r="P170" s="11"/>
+      <c r="Q170" s="11"/>
+      <c r="R170" s="11"/>
+      <c r="S170" s="11"/>
+      <c r="T170" s="11"/>
+      <c r="U170" s="17"/>
+    </row>
+    <row r="171" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A171" s="16"/>
+      <c r="B171" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C171" s="11"/>
+      <c r="D171" s="11"/>
+      <c r="E171" s="11"/>
+      <c r="F171" s="11"/>
+      <c r="G171" s="11"/>
+      <c r="H171" s="11"/>
+      <c r="I171" s="5"/>
+      <c r="J171" s="11"/>
+      <c r="K171" s="11"/>
+      <c r="L171" s="11"/>
+      <c r="M171" s="11"/>
+      <c r="N171" s="11"/>
+      <c r="O171" s="11"/>
+      <c r="P171" s="11"/>
+      <c r="Q171" s="11"/>
+      <c r="R171" s="11"/>
+      <c r="S171" s="11"/>
+      <c r="T171" s="11"/>
+      <c r="U171" s="17"/>
+    </row>
+    <row r="172" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A172" s="16"/>
+      <c r="B172" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C172" s="11"/>
+      <c r="D172" s="11"/>
+      <c r="E172" s="11"/>
+      <c r="F172" s="11"/>
+      <c r="G172" s="11"/>
+      <c r="H172" s="11"/>
+      <c r="I172" s="5"/>
+      <c r="J172" s="11"/>
+      <c r="K172" s="11"/>
+      <c r="L172" s="11"/>
+      <c r="M172" s="11"/>
+      <c r="N172" s="11"/>
+      <c r="O172" s="11"/>
+      <c r="P172" s="11"/>
+      <c r="Q172" s="11"/>
+      <c r="R172" s="11"/>
+      <c r="S172" s="11"/>
+      <c r="T172" s="11"/>
+      <c r="U172" s="17"/>
+    </row>
+    <row r="173" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A173" s="16"/>
+      <c r="B173" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C173" s="11"/>
+      <c r="D173" s="11"/>
+      <c r="E173" s="11"/>
+      <c r="F173" s="11"/>
+      <c r="G173" s="11"/>
+      <c r="H173" s="11"/>
+      <c r="I173" s="5"/>
+      <c r="J173" s="11"/>
+      <c r="K173" s="11"/>
+      <c r="L173" s="11"/>
+      <c r="M173" s="11"/>
+      <c r="N173" s="11"/>
+      <c r="O173" s="11"/>
+      <c r="P173" s="11"/>
+      <c r="Q173" s="11"/>
+      <c r="R173" s="11"/>
+      <c r="S173" s="11"/>
+      <c r="T173" s="11"/>
+      <c r="U173" s="17"/>
+    </row>
+    <row r="174" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A174" s="16"/>
+      <c r="B174" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C174" s="11"/>
+      <c r="D174" s="11"/>
+      <c r="E174" s="11"/>
+      <c r="F174" s="11"/>
+      <c r="G174" s="11"/>
+      <c r="H174" s="11"/>
+      <c r="I174" s="5"/>
+      <c r="J174" s="11"/>
+      <c r="K174" s="11"/>
+      <c r="L174" s="11"/>
+      <c r="M174" s="11"/>
+      <c r="N174" s="11"/>
+      <c r="O174" s="11"/>
+      <c r="P174" s="11"/>
+      <c r="Q174" s="11"/>
+      <c r="R174" s="11"/>
+      <c r="S174" s="11"/>
+      <c r="T174" s="11"/>
+      <c r="U174" s="17"/>
+    </row>
+    <row r="175" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A175" s="16"/>
+      <c r="B175" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C175" s="11"/>
+      <c r="D175" s="11"/>
+      <c r="E175" s="11"/>
+      <c r="F175" s="11"/>
+      <c r="G175" s="11"/>
+      <c r="H175" s="11"/>
+      <c r="I175" s="5"/>
+      <c r="J175" s="11"/>
+      <c r="K175" s="11"/>
+      <c r="L175" s="11"/>
+      <c r="M175" s="11"/>
+      <c r="N175" s="11"/>
+      <c r="O175" s="11"/>
+      <c r="P175" s="11"/>
+      <c r="Q175" s="11"/>
+      <c r="R175" s="11"/>
+      <c r="S175" s="11"/>
+      <c r="T175" s="11"/>
+      <c r="U175" s="17"/>
+    </row>
+    <row r="176" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A176" s="16"/>
+      <c r="B176" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C176" s="11"/>
+      <c r="D176" s="11"/>
+      <c r="E176" s="11"/>
+      <c r="F176" s="11"/>
+      <c r="G176" s="11"/>
+      <c r="H176" s="11"/>
+      <c r="I176" s="5"/>
+      <c r="J176" s="11"/>
+      <c r="K176" s="11"/>
+      <c r="L176" s="11"/>
+      <c r="M176" s="11"/>
+      <c r="N176" s="11"/>
+      <c r="O176" s="11"/>
+      <c r="P176" s="11"/>
+      <c r="Q176" s="11"/>
+      <c r="R176" s="11"/>
+      <c r="S176" s="11"/>
+      <c r="T176" s="11"/>
+      <c r="U176" s="17"/>
+    </row>
+    <row r="177" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A177" s="16"/>
+      <c r="B177" s="4"/>
+      <c r="C177" s="11"/>
+      <c r="D177" s="11"/>
+      <c r="E177" s="11"/>
+      <c r="F177" s="11"/>
+      <c r="G177" s="11"/>
+      <c r="H177" s="11"/>
+      <c r="I177" s="5"/>
+      <c r="J177" s="11"/>
+      <c r="K177" s="11"/>
+      <c r="L177" s="11"/>
+      <c r="M177" s="11"/>
+      <c r="N177" s="11"/>
+      <c r="O177" s="11"/>
+      <c r="P177" s="11"/>
+      <c r="Q177" s="11"/>
+      <c r="R177" s="11"/>
+      <c r="S177" s="11"/>
+      <c r="T177" s="11"/>
+      <c r="U177" s="17"/>
+    </row>
+    <row r="178" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A178" s="16"/>
+      <c r="B178" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C178" s="11"/>
+      <c r="D178" s="11"/>
+      <c r="E178" s="11"/>
+      <c r="F178" s="11"/>
+      <c r="G178" s="11"/>
+      <c r="H178" s="11"/>
+      <c r="I178" s="5"/>
+      <c r="J178" s="11"/>
+      <c r="K178" s="11"/>
+      <c r="L178" s="11"/>
+      <c r="M178" s="11"/>
+      <c r="N178" s="11"/>
+      <c r="O178" s="11"/>
+      <c r="P178" s="11"/>
+      <c r="Q178" s="11"/>
+      <c r="R178" s="11"/>
+      <c r="S178" s="11"/>
+      <c r="T178" s="11"/>
+      <c r="U178" s="17"/>
+    </row>
+    <row r="179" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A179" s="16"/>
+      <c r="B179" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C179" s="11"/>
+      <c r="D179" s="11"/>
+      <c r="E179" s="11"/>
+      <c r="F179" s="11"/>
+      <c r="G179" s="11"/>
+      <c r="H179" s="11"/>
+      <c r="I179" s="5"/>
+      <c r="J179" s="11"/>
+      <c r="K179" s="11"/>
+      <c r="L179" s="11"/>
+      <c r="M179" s="11"/>
+      <c r="N179" s="11"/>
+      <c r="O179" s="11"/>
+      <c r="P179" s="11"/>
+      <c r="Q179" s="11"/>
+      <c r="R179" s="11"/>
+      <c r="S179" s="11"/>
+      <c r="T179" s="11"/>
+      <c r="U179" s="17"/>
+    </row>
+    <row r="180" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A180" s="16"/>
+      <c r="B180" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C180" s="11"/>
+      <c r="D180" s="11"/>
+      <c r="E180" s="11"/>
+      <c r="F180" s="11"/>
+      <c r="G180" s="11"/>
+      <c r="H180" s="11"/>
+      <c r="I180" s="5"/>
+      <c r="J180" s="11"/>
+      <c r="K180" s="11"/>
+      <c r="L180" s="11"/>
+      <c r="M180" s="11"/>
+      <c r="N180" s="11"/>
+      <c r="O180" s="11"/>
+      <c r="P180" s="11"/>
+      <c r="Q180" s="11"/>
+      <c r="R180" s="11"/>
+      <c r="S180" s="11"/>
+      <c r="T180" s="11"/>
+      <c r="U180" s="17"/>
+    </row>
+    <row r="181" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A181" s="16"/>
+      <c r="B181" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C181" s="11"/>
+      <c r="D181" s="11"/>
+      <c r="E181" s="11"/>
+      <c r="F181" s="11"/>
+      <c r="G181" s="11"/>
+      <c r="H181" s="11"/>
+      <c r="I181" s="5"/>
+      <c r="J181" s="11"/>
+      <c r="K181" s="11"/>
+      <c r="L181" s="11"/>
+      <c r="M181" s="11"/>
+      <c r="N181" s="11"/>
+      <c r="O181" s="11"/>
+      <c r="P181" s="11"/>
+      <c r="Q181" s="11"/>
+      <c r="R181" s="11"/>
+      <c r="S181" s="11"/>
+      <c r="T181" s="11"/>
+      <c r="U181" s="17"/>
+    </row>
+    <row r="182" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A182" s="16"/>
+      <c r="B182" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C182" s="11"/>
+      <c r="D182" s="11"/>
+      <c r="E182" s="11"/>
+      <c r="F182" s="11"/>
+      <c r="G182" s="11"/>
+      <c r="H182" s="11"/>
+      <c r="I182" s="5"/>
+      <c r="J182" s="11"/>
+      <c r="K182" s="11"/>
+      <c r="L182" s="11"/>
+      <c r="M182" s="11"/>
+      <c r="N182" s="11"/>
+      <c r="O182" s="11"/>
+      <c r="P182" s="11"/>
+      <c r="Q182" s="11"/>
+      <c r="R182" s="11"/>
+      <c r="S182" s="11"/>
+      <c r="T182" s="11"/>
+      <c r="U182" s="17"/>
+    </row>
+    <row r="183" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A183" s="16"/>
+      <c r="B183" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="C183" s="11"/>
+      <c r="D183" s="11"/>
+      <c r="E183" s="11"/>
+      <c r="F183" s="11"/>
+      <c r="G183" s="11"/>
+      <c r="H183" s="11"/>
+      <c r="I183" s="5"/>
+      <c r="J183" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K183" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="L183" s="2"/>
+      <c r="M183" s="2"/>
+      <c r="N183" s="2"/>
+      <c r="O183" s="2"/>
+      <c r="P183" s="2"/>
+      <c r="Q183" s="2"/>
+      <c r="R183" s="2"/>
+      <c r="S183" s="2"/>
+      <c r="T183" s="3"/>
+      <c r="U183" s="17"/>
+    </row>
+    <row r="184" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A184" s="16"/>
+      <c r="B184" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C184" s="11"/>
+      <c r="D184" s="11"/>
+      <c r="E184" s="11"/>
+      <c r="F184" s="11"/>
+      <c r="G184" s="11"/>
+      <c r="H184" s="11"/>
+      <c r="I184" s="5"/>
+      <c r="J184" s="11"/>
+      <c r="K184" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="L184" s="11"/>
+      <c r="M184" s="11"/>
+      <c r="N184" s="11"/>
+      <c r="O184" s="11"/>
+      <c r="P184" s="11"/>
+      <c r="Q184" s="11"/>
+      <c r="R184" s="11"/>
+      <c r="S184" s="11"/>
+      <c r="T184" s="5"/>
+      <c r="U184" s="17"/>
+    </row>
+    <row r="185" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A185" s="16"/>
+      <c r="B185" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C185" s="11"/>
+      <c r="D185" s="11"/>
+      <c r="E185" s="11"/>
+      <c r="F185" s="11"/>
+      <c r="G185" s="11"/>
+      <c r="H185" s="11"/>
+      <c r="I185" s="5"/>
+      <c r="J185" s="11"/>
+      <c r="K185" s="4"/>
+      <c r="L185" s="11"/>
+      <c r="M185" s="11"/>
+      <c r="N185" s="11"/>
+      <c r="O185" s="11"/>
+      <c r="P185" s="11"/>
+      <c r="Q185" s="11"/>
+      <c r="R185" s="11"/>
+      <c r="S185" s="11"/>
+      <c r="T185" s="5"/>
+      <c r="U185" s="17"/>
+    </row>
+    <row r="186" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A186" s="16"/>
+      <c r="B186" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C186" s="11"/>
+      <c r="D186" s="11"/>
+      <c r="E186" s="11"/>
+      <c r="F186" s="11"/>
+      <c r="G186" s="11"/>
+      <c r="H186" s="11"/>
+      <c r="I186" s="5"/>
+      <c r="J186" s="11"/>
+      <c r="K186" s="4"/>
+      <c r="L186" s="11"/>
+      <c r="M186" s="11"/>
+      <c r="N186" s="11"/>
+      <c r="O186" s="11"/>
+      <c r="P186" s="11"/>
+      <c r="Q186" s="11"/>
+      <c r="R186" s="11"/>
+      <c r="S186" s="11"/>
+      <c r="T186" s="5"/>
+      <c r="U186" s="17"/>
+    </row>
+    <row r="187" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A187" s="16"/>
+      <c r="B187" s="4"/>
+      <c r="C187" s="11"/>
+      <c r="D187" s="11"/>
+      <c r="E187" s="11"/>
+      <c r="F187" s="11"/>
+      <c r="G187" s="11"/>
+      <c r="H187" s="11"/>
+      <c r="I187" s="5"/>
+      <c r="J187" s="11"/>
+      <c r="K187" s="4"/>
+      <c r="L187" s="11"/>
+      <c r="M187" s="11"/>
+      <c r="N187" s="11"/>
+      <c r="O187" s="11"/>
+      <c r="P187" s="11"/>
+      <c r="Q187" s="11"/>
+      <c r="R187" s="11"/>
+      <c r="S187" s="11"/>
+      <c r="T187" s="5"/>
+      <c r="U187" s="17"/>
+    </row>
+    <row r="188" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A188" s="16"/>
+      <c r="B188" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C188" s="11"/>
+      <c r="D188" s="11"/>
+      <c r="E188" s="11"/>
+      <c r="F188" s="11"/>
+      <c r="G188" s="11"/>
+      <c r="H188" s="11"/>
+      <c r="I188" s="5"/>
+      <c r="J188" s="11"/>
+      <c r="K188" s="4"/>
+      <c r="L188" s="11"/>
+      <c r="M188" s="11"/>
+      <c r="N188" s="11"/>
+      <c r="O188" s="11"/>
+      <c r="P188" s="11"/>
+      <c r="Q188" s="11"/>
+      <c r="R188" s="11"/>
+      <c r="S188" s="11"/>
+      <c r="T188" s="5"/>
+      <c r="U188" s="17"/>
+    </row>
+    <row r="189" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A189" s="16"/>
+      <c r="B189" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C189" s="11"/>
+      <c r="D189" s="11"/>
+      <c r="E189" s="11"/>
+      <c r="F189" s="11"/>
+      <c r="G189" s="11"/>
+      <c r="H189" s="11"/>
+      <c r="I189" s="5"/>
+      <c r="J189" s="11"/>
+      <c r="K189" s="4"/>
+      <c r="L189" s="11"/>
+      <c r="M189" s="11"/>
+      <c r="N189" s="11"/>
+      <c r="O189" s="11"/>
+      <c r="P189" s="11"/>
+      <c r="Q189" s="11"/>
+      <c r="R189" s="11"/>
+      <c r="S189" s="11"/>
+      <c r="T189" s="5"/>
+      <c r="U189" s="17"/>
+    </row>
+    <row r="190" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A190" s="16"/>
+      <c r="B190" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C190" s="11"/>
+      <c r="D190" s="11"/>
+      <c r="E190" s="11"/>
+      <c r="F190" s="11"/>
+      <c r="G190" s="11"/>
+      <c r="H190" s="11"/>
+      <c r="I190" s="5"/>
+      <c r="J190" s="11"/>
+      <c r="K190" s="4"/>
+      <c r="L190" s="11"/>
+      <c r="M190" s="11"/>
+      <c r="N190" s="11"/>
+      <c r="O190" s="11"/>
+      <c r="P190" s="11"/>
+      <c r="Q190" s="11"/>
+      <c r="R190" s="11"/>
+      <c r="S190" s="11"/>
+      <c r="T190" s="5"/>
+      <c r="U190" s="17"/>
+    </row>
+    <row r="191" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A191" s="16"/>
+      <c r="B191" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C191" s="11"/>
+      <c r="D191" s="11"/>
+      <c r="E191" s="11"/>
+      <c r="F191" s="11"/>
+      <c r="G191" s="11"/>
+      <c r="H191" s="11"/>
+      <c r="I191" s="5"/>
+      <c r="J191" s="11"/>
+      <c r="K191" s="4"/>
+      <c r="L191" s="11"/>
+      <c r="M191" s="11"/>
+      <c r="N191" s="11"/>
+      <c r="O191" s="11"/>
+      <c r="P191" s="11"/>
+      <c r="Q191" s="11"/>
+      <c r="R191" s="11"/>
+      <c r="S191" s="11"/>
+      <c r="T191" s="5"/>
+      <c r="U191" s="17"/>
+    </row>
+    <row r="192" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A192" s="16"/>
+      <c r="B192" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C192" s="11"/>
+      <c r="D192" s="11"/>
+      <c r="E192" s="11"/>
+      <c r="F192" s="11"/>
+      <c r="G192" s="11"/>
+      <c r="H192" s="11"/>
+      <c r="I192" s="5"/>
+      <c r="J192" s="11"/>
+      <c r="K192" s="4"/>
+      <c r="L192" s="11"/>
+      <c r="M192" s="11"/>
+      <c r="N192" s="11"/>
+      <c r="O192" s="11"/>
+      <c r="P192" s="11"/>
+      <c r="Q192" s="11"/>
+      <c r="R192" s="11"/>
+      <c r="S192" s="11"/>
+      <c r="T192" s="5"/>
+      <c r="U192" s="17"/>
+    </row>
+    <row r="193" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A193" s="16"/>
+      <c r="B193" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C193" s="11"/>
+      <c r="D193" s="11"/>
+      <c r="E193" s="11"/>
+      <c r="F193" s="11"/>
+      <c r="G193" s="11"/>
+      <c r="H193" s="11"/>
+      <c r="I193" s="5"/>
+      <c r="J193" s="11"/>
+      <c r="K193" s="4"/>
+      <c r="L193" s="11"/>
+      <c r="M193" s="11"/>
+      <c r="N193" s="11"/>
+      <c r="O193" s="11"/>
+      <c r="P193" s="11"/>
+      <c r="Q193" s="11"/>
+      <c r="R193" s="11"/>
+      <c r="S193" s="11"/>
+      <c r="T193" s="5"/>
+      <c r="U193" s="17"/>
+    </row>
+    <row r="194" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A194" s="16"/>
+      <c r="B194" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C194" s="11"/>
+      <c r="D194" s="11"/>
+      <c r="E194" s="11"/>
+      <c r="F194" s="11"/>
+      <c r="G194" s="11"/>
+      <c r="H194" s="11"/>
+      <c r="I194" s="5"/>
+      <c r="J194" s="11"/>
+      <c r="K194" s="4"/>
+      <c r="L194" s="11"/>
+      <c r="M194" s="11"/>
+      <c r="N194" s="11"/>
+      <c r="O194" s="11"/>
+      <c r="P194" s="11"/>
+      <c r="Q194" s="11"/>
+      <c r="R194" s="11"/>
+      <c r="S194" s="11"/>
+      <c r="T194" s="5"/>
+      <c r="U194" s="17"/>
+    </row>
+    <row r="195" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A195" s="16"/>
+      <c r="B195" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C195" s="11"/>
+      <c r="D195" s="11"/>
+      <c r="E195" s="11"/>
+      <c r="F195" s="11"/>
+      <c r="G195" s="11"/>
+      <c r="H195" s="11"/>
+      <c r="I195" s="5"/>
+      <c r="J195" s="11"/>
+      <c r="K195" s="4"/>
+      <c r="L195" s="11"/>
+      <c r="M195" s="11"/>
+      <c r="N195" s="11"/>
+      <c r="O195" s="11"/>
+      <c r="P195" s="11"/>
+      <c r="Q195" s="11"/>
+      <c r="R195" s="11"/>
+      <c r="S195" s="11"/>
+      <c r="T195" s="5"/>
+      <c r="U195" s="17"/>
+    </row>
+    <row r="196" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A196" s="16"/>
+      <c r="B196" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C196" s="11"/>
+      <c r="D196" s="11"/>
+      <c r="E196" s="11"/>
+      <c r="F196" s="11"/>
+      <c r="G196" s="11"/>
+      <c r="H196" s="11"/>
+      <c r="I196" s="5"/>
+      <c r="J196" s="11"/>
+      <c r="K196" s="4"/>
+      <c r="L196" s="11"/>
+      <c r="M196" s="11"/>
+      <c r="N196" s="11"/>
+      <c r="O196" s="11"/>
+      <c r="P196" s="11"/>
+      <c r="Q196" s="11"/>
+      <c r="R196" s="11"/>
+      <c r="S196" s="11"/>
+      <c r="T196" s="5"/>
+      <c r="U196" s="17"/>
+    </row>
+    <row r="197" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A197" s="16"/>
+      <c r="B197" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C197" s="11"/>
+      <c r="D197" s="11"/>
+      <c r="E197" s="11"/>
+      <c r="F197" s="11"/>
+      <c r="G197" s="11"/>
+      <c r="H197" s="11"/>
+      <c r="I197" s="5"/>
+      <c r="J197" s="11"/>
+      <c r="K197" s="4"/>
+      <c r="L197" s="11"/>
+      <c r="M197" s="11"/>
+      <c r="N197" s="11"/>
+      <c r="O197" s="11"/>
+      <c r="P197" s="11"/>
+      <c r="Q197" s="11"/>
+      <c r="R197" s="11"/>
+      <c r="S197" s="11"/>
+      <c r="T197" s="5"/>
+      <c r="U197" s="17"/>
+    </row>
+    <row r="198" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A198" s="16"/>
+      <c r="B198" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C198" s="11"/>
+      <c r="D198" s="11"/>
+      <c r="E198" s="11"/>
+      <c r="F198" s="11"/>
+      <c r="G198" s="11"/>
+      <c r="H198" s="11"/>
+      <c r="I198" s="5"/>
+      <c r="J198" s="11"/>
+      <c r="K198" s="4"/>
+      <c r="L198" s="11"/>
+      <c r="M198" s="11"/>
+      <c r="N198" s="11"/>
+      <c r="O198" s="11"/>
+      <c r="P198" s="11"/>
+      <c r="Q198" s="11"/>
+      <c r="R198" s="11"/>
+      <c r="S198" s="11"/>
+      <c r="T198" s="5"/>
+      <c r="U198" s="17"/>
+    </row>
+    <row r="199" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A199" s="16"/>
+      <c r="B199" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C199" s="11"/>
+      <c r="D199" s="11"/>
+      <c r="E199" s="11"/>
+      <c r="F199" s="11"/>
+      <c r="G199" s="11"/>
+      <c r="H199" s="11"/>
+      <c r="I199" s="5"/>
+      <c r="J199" s="11"/>
+      <c r="K199" s="4"/>
+      <c r="L199" s="11"/>
+      <c r="M199" s="11"/>
+      <c r="N199" s="11"/>
+      <c r="O199" s="11"/>
+      <c r="P199" s="11"/>
+      <c r="Q199" s="11"/>
+      <c r="R199" s="11"/>
+      <c r="S199" s="11"/>
+      <c r="T199" s="5"/>
+      <c r="U199" s="17"/>
+    </row>
+    <row r="200" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A200" s="16"/>
+      <c r="B200" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C200" s="11"/>
+      <c r="D200" s="11"/>
+      <c r="E200" s="11"/>
+      <c r="F200" s="11"/>
+      <c r="G200" s="11"/>
+      <c r="H200" s="11"/>
+      <c r="I200" s="5"/>
+      <c r="J200" s="11"/>
+      <c r="K200" s="4"/>
+      <c r="L200" s="11"/>
+      <c r="M200" s="11"/>
+      <c r="N200" s="11"/>
+      <c r="O200" s="11"/>
+      <c r="P200" s="11"/>
+      <c r="Q200" s="11"/>
+      <c r="R200" s="11"/>
+      <c r="S200" s="11"/>
+      <c r="T200" s="5"/>
+      <c r="U200" s="17"/>
+    </row>
+    <row r="201" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A201" s="16"/>
+      <c r="B201" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C201" s="11"/>
+      <c r="D201" s="11"/>
+      <c r="E201" s="11"/>
+      <c r="F201" s="11"/>
+      <c r="G201" s="11"/>
+      <c r="H201" s="11"/>
+      <c r="I201" s="5"/>
+      <c r="J201" s="11"/>
+      <c r="K201" s="4"/>
+      <c r="L201" s="11"/>
+      <c r="M201" s="11"/>
+      <c r="N201" s="11"/>
+      <c r="O201" s="11"/>
+      <c r="P201" s="11"/>
+      <c r="Q201" s="11"/>
+      <c r="R201" s="11"/>
+      <c r="S201" s="11"/>
+      <c r="T201" s="5"/>
+      <c r="U201" s="17"/>
+    </row>
+    <row r="202" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A202" s="16"/>
+      <c r="B202" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C202" s="7"/>
+      <c r="D202" s="7"/>
+      <c r="E202" s="7"/>
+      <c r="F202" s="7"/>
+      <c r="G202" s="7"/>
+      <c r="H202" s="7"/>
+      <c r="I202" s="9"/>
+      <c r="J202" s="11"/>
+      <c r="K202" s="4"/>
+      <c r="L202" s="11"/>
+      <c r="M202" s="11"/>
+      <c r="N202" s="11"/>
+      <c r="O202" s="11"/>
+      <c r="P202" s="11"/>
+      <c r="Q202" s="11"/>
+      <c r="R202" s="11"/>
+      <c r="S202" s="11"/>
+      <c r="T202" s="5"/>
+      <c r="U202" s="17"/>
+    </row>
+    <row r="203" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A203" s="16"/>
+      <c r="B203" s="11"/>
+      <c r="C203" s="11"/>
+      <c r="D203" s="11"/>
+      <c r="E203" s="11"/>
+      <c r="F203" s="11"/>
+      <c r="G203" s="11"/>
+      <c r="H203" s="11"/>
+      <c r="I203" s="11"/>
+      <c r="J203" s="11"/>
+      <c r="K203" s="4"/>
+      <c r="L203" s="11"/>
+      <c r="M203" s="11"/>
+      <c r="N203" s="11"/>
+      <c r="O203" s="11"/>
+      <c r="P203" s="11"/>
+      <c r="Q203" s="11"/>
+      <c r="R203" s="11"/>
+      <c r="S203" s="11"/>
+      <c r="T203" s="5"/>
+      <c r="U203" s="17"/>
+    </row>
+    <row r="204" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A204" s="16"/>
+      <c r="B204" s="11"/>
+      <c r="C204" s="11"/>
+      <c r="D204" s="11"/>
+      <c r="E204" s="11"/>
+      <c r="F204" s="11"/>
+      <c r="G204" s="11"/>
+      <c r="H204" s="11"/>
+      <c r="I204" s="11"/>
+      <c r="J204" s="11"/>
+      <c r="K204" s="4"/>
+      <c r="L204" s="11"/>
+      <c r="M204" s="11"/>
+      <c r="N204" s="11"/>
+      <c r="O204" s="11"/>
+      <c r="P204" s="11"/>
+      <c r="Q204" s="11"/>
+      <c r="R204" s="11"/>
+      <c r="S204" s="11"/>
+      <c r="T204" s="5"/>
+      <c r="U204" s="17"/>
+    </row>
+    <row r="205" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A205" s="16"/>
+      <c r="B205" s="11"/>
+      <c r="C205" s="11"/>
+      <c r="D205" s="11"/>
+      <c r="E205" s="11"/>
+      <c r="F205" s="11"/>
+      <c r="G205" s="11"/>
+      <c r="H205" s="11"/>
+      <c r="I205" s="11"/>
+      <c r="J205" s="11"/>
+      <c r="K205" s="4"/>
+      <c r="L205" s="11"/>
+      <c r="M205" s="11"/>
+      <c r="N205" s="11"/>
+      <c r="O205" s="11"/>
+      <c r="P205" s="11"/>
+      <c r="Q205" s="11"/>
+      <c r="R205" s="11"/>
+      <c r="S205" s="11"/>
+      <c r="T205" s="5"/>
+      <c r="U205" s="17"/>
+    </row>
+    <row r="206" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A206" s="16"/>
+      <c r="B206" s="11"/>
+      <c r="C206" s="11"/>
+      <c r="D206" s="11"/>
+      <c r="E206" s="11"/>
+      <c r="F206" s="11"/>
+      <c r="G206" s="11"/>
+      <c r="H206" s="11"/>
+      <c r="I206" s="11"/>
+      <c r="J206" s="11"/>
+      <c r="K206" s="4"/>
+      <c r="L206" s="11"/>
+      <c r="M206" s="11"/>
+      <c r="N206" s="11"/>
+      <c r="O206" s="11"/>
+      <c r="P206" s="11"/>
+      <c r="Q206" s="11"/>
+      <c r="R206" s="11"/>
+      <c r="S206" s="11"/>
+      <c r="T206" s="5"/>
+      <c r="U206" s="17"/>
+    </row>
+    <row r="207" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A207" s="16"/>
+      <c r="B207" s="11"/>
+      <c r="C207" s="11"/>
+      <c r="D207" s="11"/>
+      <c r="E207" s="11"/>
+      <c r="F207" s="11"/>
+      <c r="G207" s="11"/>
+      <c r="H207" s="11"/>
+      <c r="I207" s="11"/>
+      <c r="J207" s="11"/>
+      <c r="K207" s="4"/>
+      <c r="L207" s="11"/>
+      <c r="M207" s="11"/>
+      <c r="N207" s="11"/>
+      <c r="O207" s="11"/>
+      <c r="P207" s="11"/>
+      <c r="Q207" s="11"/>
+      <c r="R207" s="11"/>
+      <c r="S207" s="11"/>
+      <c r="T207" s="5"/>
+      <c r="U207" s="17"/>
+    </row>
+    <row r="208" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A208" s="16"/>
+      <c r="B208" s="11"/>
+      <c r="C208" s="11"/>
+      <c r="D208" s="11"/>
+      <c r="E208" s="11"/>
+      <c r="F208" s="11"/>
+      <c r="G208" s="11"/>
+      <c r="H208" s="11"/>
+      <c r="I208" s="11"/>
+      <c r="J208" s="11"/>
+      <c r="K208" s="4"/>
+      <c r="L208" s="11"/>
+      <c r="M208" s="11"/>
+      <c r="N208" s="11"/>
+      <c r="O208" s="11"/>
+      <c r="P208" s="11"/>
+      <c r="Q208" s="11"/>
+      <c r="R208" s="11"/>
+      <c r="S208" s="11"/>
+      <c r="T208" s="5"/>
+      <c r="U208" s="17"/>
+    </row>
+    <row r="209" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A209" s="16"/>
+      <c r="B209" s="11"/>
+      <c r="C209" s="11"/>
+      <c r="D209" s="11"/>
+      <c r="E209" s="11"/>
+      <c r="F209" s="11"/>
+      <c r="G209" s="11"/>
+      <c r="H209" s="11"/>
+      <c r="I209" s="11"/>
+      <c r="J209" s="11"/>
+      <c r="K209" s="4"/>
+      <c r="L209" s="11"/>
+      <c r="M209" s="11"/>
+      <c r="N209" s="11"/>
+      <c r="O209" s="11"/>
+      <c r="P209" s="11"/>
+      <c r="Q209" s="11"/>
+      <c r="R209" s="11"/>
+      <c r="S209" s="11"/>
+      <c r="T209" s="5"/>
+      <c r="U209" s="17"/>
+    </row>
+    <row r="210" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A210" s="16"/>
+      <c r="B210" s="11"/>
+      <c r="C210" s="11"/>
+      <c r="D210" s="11"/>
+      <c r="E210" s="11"/>
+      <c r="F210" s="11"/>
+      <c r="G210" s="11"/>
+      <c r="H210" s="11"/>
+      <c r="I210" s="11"/>
+      <c r="J210" s="11"/>
+      <c r="K210" s="4"/>
+      <c r="L210" s="11"/>
+      <c r="M210" s="11"/>
+      <c r="N210" s="11"/>
+      <c r="O210" s="11"/>
+      <c r="P210" s="11"/>
+      <c r="Q210" s="11"/>
+      <c r="R210" s="11"/>
+      <c r="S210" s="11"/>
+      <c r="T210" s="5"/>
+      <c r="U210" s="17"/>
+    </row>
+    <row r="211" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A211" s="16"/>
+      <c r="B211" s="11"/>
+      <c r="C211" s="11"/>
+      <c r="D211" s="11"/>
+      <c r="E211" s="11"/>
+      <c r="F211" s="11"/>
+      <c r="G211" s="11"/>
+      <c r="H211" s="11"/>
+      <c r="I211" s="11"/>
+      <c r="J211" s="11"/>
+      <c r="K211" s="4"/>
+      <c r="L211" s="11"/>
+      <c r="M211" s="11"/>
+      <c r="N211" s="11"/>
+      <c r="O211" s="11"/>
+      <c r="P211" s="11"/>
+      <c r="Q211" s="11"/>
+      <c r="R211" s="11"/>
+      <c r="S211" s="11"/>
+      <c r="T211" s="5"/>
+      <c r="U211" s="17"/>
+    </row>
+    <row r="212" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A212" s="16"/>
+      <c r="B212" s="11"/>
+      <c r="C212" s="11"/>
+      <c r="D212" s="11"/>
+      <c r="E212" s="11"/>
+      <c r="F212" s="11"/>
+      <c r="G212" s="11"/>
+      <c r="H212" s="11"/>
+      <c r="I212" s="11"/>
+      <c r="J212" s="11"/>
+      <c r="K212" s="4"/>
+      <c r="L212" s="11"/>
+      <c r="M212" s="11"/>
+      <c r="N212" s="11"/>
+      <c r="O212" s="11"/>
+      <c r="P212" s="11"/>
+      <c r="Q212" s="11"/>
+      <c r="R212" s="11"/>
+      <c r="S212" s="11"/>
+      <c r="T212" s="5"/>
+      <c r="U212" s="17"/>
+    </row>
+    <row r="213" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A213" s="16"/>
+      <c r="B213" s="11"/>
+      <c r="C213" s="11"/>
+      <c r="D213" s="11"/>
+      <c r="E213" s="11"/>
+      <c r="F213" s="11"/>
+      <c r="G213" s="11"/>
+      <c r="H213" s="11"/>
+      <c r="I213" s="11"/>
+      <c r="J213" s="11"/>
+      <c r="K213" s="6"/>
+      <c r="L213" s="7"/>
+      <c r="M213" s="7"/>
+      <c r="N213" s="7"/>
+      <c r="O213" s="7"/>
+      <c r="P213" s="7"/>
+      <c r="Q213" s="7"/>
+      <c r="R213" s="7"/>
+      <c r="S213" s="7"/>
+      <c r="T213" s="9"/>
+      <c r="U213" s="17"/>
+    </row>
+    <row r="214" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A214" s="18"/>
+      <c r="B214" s="19"/>
+      <c r="C214" s="19"/>
+      <c r="D214" s="19"/>
+      <c r="E214" s="19"/>
+      <c r="F214" s="19"/>
+      <c r="G214" s="19"/>
+      <c r="H214" s="19"/>
+      <c r="I214" s="19"/>
+      <c r="J214" s="19"/>
+      <c r="K214" s="19"/>
+      <c r="L214" s="19"/>
+      <c r="M214" s="19"/>
+      <c r="N214" s="19"/>
+      <c r="O214" s="19"/>
+      <c r="P214" s="19"/>
+      <c r="Q214" s="19"/>
+      <c r="R214" s="19"/>
+      <c r="S214" s="19"/>
+      <c r="T214" s="19"/>
+      <c r="U214" s="20"/>
+    </row>
+    <row r="217" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A217" s="12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="218" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A218" s="13"/>
+      <c r="B218" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="C218" s="14"/>
+      <c r="D218" s="14"/>
+      <c r="E218" s="14"/>
+      <c r="F218" s="14"/>
+      <c r="G218" s="14"/>
+      <c r="H218" s="14"/>
+      <c r="I218" s="14"/>
+      <c r="J218" s="14"/>
+      <c r="K218" s="14"/>
+      <c r="L218" s="14"/>
+      <c r="M218" s="14"/>
+      <c r="N218" s="14"/>
+      <c r="O218" s="14"/>
+      <c r="P218" s="14"/>
+      <c r="Q218" s="14"/>
+      <c r="R218" s="14"/>
+      <c r="S218" s="14"/>
+      <c r="T218" s="14"/>
+      <c r="U218" s="15"/>
+    </row>
+    <row r="219" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A219" s="16"/>
+      <c r="B219" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C219" s="2"/>
+      <c r="D219" s="2"/>
+      <c r="E219" s="2"/>
+      <c r="F219" s="2"/>
+      <c r="G219" s="2"/>
+      <c r="H219" s="2"/>
+      <c r="I219" s="3"/>
+      <c r="J219" s="11"/>
+      <c r="K219" s="11"/>
+      <c r="L219" s="11"/>
+      <c r="M219" s="11"/>
+      <c r="N219" s="11"/>
+      <c r="O219" s="11"/>
+      <c r="P219" s="11"/>
+      <c r="Q219" s="11"/>
+      <c r="R219" s="11"/>
+      <c r="S219" s="11"/>
+      <c r="T219" s="11"/>
+      <c r="U219" s="17"/>
+    </row>
+    <row r="220" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A220" s="16"/>
+      <c r="B220" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C220" s="11"/>
+      <c r="D220" s="11"/>
+      <c r="E220" s="11"/>
+      <c r="F220" s="11"/>
+      <c r="G220" s="11"/>
+      <c r="H220" s="11"/>
+      <c r="I220" s="5"/>
+      <c r="J220" s="11"/>
+      <c r="K220" s="11"/>
+      <c r="L220" s="11"/>
+      <c r="M220" s="11"/>
+      <c r="N220" s="11"/>
+      <c r="O220" s="11"/>
+      <c r="P220" s="11"/>
+      <c r="Q220" s="11"/>
+      <c r="R220" s="11"/>
+      <c r="S220" s="11"/>
+      <c r="T220" s="11"/>
+      <c r="U220" s="17"/>
+    </row>
+    <row r="221" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A221" s="16"/>
+      <c r="B221" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C221" s="11"/>
+      <c r="D221" s="11"/>
+      <c r="E221" s="11"/>
+      <c r="F221" s="11"/>
+      <c r="G221" s="11"/>
+      <c r="H221" s="11"/>
+      <c r="I221" s="5"/>
+      <c r="J221" s="11"/>
+      <c r="K221" s="11"/>
+      <c r="L221" s="11"/>
+      <c r="M221" s="11"/>
+      <c r="N221" s="11"/>
+      <c r="O221" s="11"/>
+      <c r="P221" s="11"/>
+      <c r="Q221" s="11"/>
+      <c r="R221" s="11"/>
+      <c r="S221" s="11"/>
+      <c r="T221" s="11"/>
+      <c r="U221" s="17"/>
+    </row>
+    <row r="222" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A222" s="16"/>
+      <c r="B222" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C222" s="11"/>
+      <c r="D222" s="11"/>
+      <c r="E222" s="11"/>
+      <c r="F222" s="11"/>
+      <c r="G222" s="11"/>
+      <c r="H222" s="11"/>
+      <c r="I222" s="5"/>
+      <c r="J222" s="11"/>
+      <c r="K222" s="11"/>
+      <c r="L222" s="11"/>
+      <c r="M222" s="11"/>
+      <c r="N222" s="11"/>
+      <c r="O222" s="11"/>
+      <c r="P222" s="11"/>
+      <c r="Q222" s="11"/>
+      <c r="R222" s="11"/>
+      <c r="S222" s="11"/>
+      <c r="T222" s="11"/>
+      <c r="U222" s="17"/>
+    </row>
+    <row r="223" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A223" s="16"/>
+      <c r="B223" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C223" s="11"/>
+      <c r="D223" s="11"/>
+      <c r="E223" s="11"/>
+      <c r="F223" s="11"/>
+      <c r="G223" s="11"/>
+      <c r="H223" s="11"/>
+      <c r="I223" s="5"/>
+      <c r="J223" s="11"/>
+      <c r="K223" s="11"/>
+      <c r="L223" s="11"/>
+      <c r="M223" s="11"/>
+      <c r="N223" s="11"/>
+      <c r="O223" s="11"/>
+      <c r="P223" s="11"/>
+      <c r="Q223" s="11"/>
+      <c r="R223" s="11"/>
+      <c r="S223" s="11"/>
+      <c r="T223" s="11"/>
+      <c r="U223" s="17"/>
+    </row>
+    <row r="224" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A224" s="16"/>
+      <c r="B224" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C224" s="11"/>
+      <c r="D224" s="11"/>
+      <c r="E224" s="11"/>
+      <c r="F224" s="11"/>
+      <c r="G224" s="11"/>
+      <c r="H224" s="11"/>
+      <c r="I224" s="5"/>
+      <c r="J224" s="11"/>
+      <c r="K224" s="11"/>
+      <c r="L224" s="11"/>
+      <c r="M224" s="11"/>
+      <c r="N224" s="11"/>
+      <c r="O224" s="11"/>
+      <c r="P224" s="11"/>
+      <c r="Q224" s="11"/>
+      <c r="R224" s="11"/>
+      <c r="S224" s="11"/>
+      <c r="T224" s="11"/>
+      <c r="U224" s="17"/>
+    </row>
+    <row r="225" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A225" s="16"/>
+      <c r="B225" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C225" s="11"/>
+      <c r="D225" s="11"/>
+      <c r="E225" s="11"/>
+      <c r="F225" s="11"/>
+      <c r="G225" s="11"/>
+      <c r="H225" s="11"/>
+      <c r="I225" s="5"/>
+      <c r="J225" s="11"/>
+      <c r="K225" s="11"/>
+      <c r="L225" s="11"/>
+      <c r="M225" s="11"/>
+      <c r="N225" s="11"/>
+      <c r="O225" s="11"/>
+      <c r="P225" s="11"/>
+      <c r="Q225" s="11"/>
+      <c r="R225" s="11"/>
+      <c r="S225" s="11"/>
+      <c r="T225" s="11"/>
+      <c r="U225" s="17"/>
+    </row>
+    <row r="226" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A226" s="16"/>
+      <c r="B226" s="4"/>
+      <c r="C226" s="11"/>
+      <c r="D226" s="11"/>
+      <c r="E226" s="11"/>
+      <c r="F226" s="11"/>
+      <c r="G226" s="11"/>
+      <c r="H226" s="11"/>
+      <c r="I226" s="5"/>
+      <c r="J226" s="11"/>
+      <c r="K226" s="11"/>
+      <c r="L226" s="11"/>
+      <c r="M226" s="11"/>
+      <c r="N226" s="11"/>
+      <c r="O226" s="11"/>
+      <c r="P226" s="11"/>
+      <c r="Q226" s="11"/>
+      <c r="R226" s="11"/>
+      <c r="S226" s="11"/>
+      <c r="T226" s="11"/>
+      <c r="U226" s="17"/>
+    </row>
+    <row r="227" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A227" s="16"/>
+      <c r="B227" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C227" s="11"/>
+      <c r="D227" s="11"/>
+      <c r="E227" s="11"/>
+      <c r="F227" s="11"/>
+      <c r="G227" s="11"/>
+      <c r="H227" s="11"/>
+      <c r="I227" s="5"/>
+      <c r="J227" s="11"/>
+      <c r="K227" s="11"/>
+      <c r="L227" s="11"/>
+      <c r="M227" s="11"/>
+      <c r="N227" s="11"/>
+      <c r="O227" s="11"/>
+      <c r="P227" s="11"/>
+      <c r="Q227" s="11"/>
+      <c r="R227" s="11"/>
+      <c r="S227" s="11"/>
+      <c r="T227" s="11"/>
+      <c r="U227" s="17"/>
+    </row>
+    <row r="228" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A228" s="16"/>
+      <c r="B228" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C228" s="11"/>
+      <c r="D228" s="11"/>
+      <c r="E228" s="11"/>
+      <c r="F228" s="11"/>
+      <c r="G228" s="11"/>
+      <c r="H228" s="11"/>
+      <c r="I228" s="5"/>
+      <c r="J228" s="11"/>
+      <c r="K228" s="11"/>
+      <c r="L228" s="11"/>
+      <c r="M228" s="11"/>
+      <c r="N228" s="11"/>
+      <c r="O228" s="11"/>
+      <c r="P228" s="11"/>
+      <c r="Q228" s="11"/>
+      <c r="R228" s="11"/>
+      <c r="S228" s="11"/>
+      <c r="T228" s="11"/>
+      <c r="U228" s="17"/>
+    </row>
+    <row r="229" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A229" s="16"/>
+      <c r="B229" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C229" s="11"/>
+      <c r="D229" s="11"/>
+      <c r="E229" s="11"/>
+      <c r="F229" s="11"/>
+      <c r="G229" s="11"/>
+      <c r="H229" s="11"/>
+      <c r="I229" s="5"/>
+      <c r="J229" s="11"/>
+      <c r="K229" s="11"/>
+      <c r="L229" s="11"/>
+      <c r="M229" s="11"/>
+      <c r="N229" s="11"/>
+      <c r="O229" s="11"/>
+      <c r="P229" s="11"/>
+      <c r="Q229" s="11"/>
+      <c r="R229" s="11"/>
+      <c r="S229" s="11"/>
+      <c r="T229" s="11"/>
+      <c r="U229" s="17"/>
+    </row>
+    <row r="230" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A230" s="16"/>
+      <c r="B230" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C230" s="11"/>
+      <c r="D230" s="11"/>
+      <c r="E230" s="11"/>
+      <c r="F230" s="11"/>
+      <c r="G230" s="11"/>
+      <c r="H230" s="11"/>
+      <c r="I230" s="5"/>
+      <c r="J230" s="11"/>
+      <c r="K230" s="11"/>
+      <c r="L230" s="11"/>
+      <c r="M230" s="11"/>
+      <c r="N230" s="11"/>
+      <c r="O230" s="11"/>
+      <c r="P230" s="11"/>
+      <c r="Q230" s="11"/>
+      <c r="R230" s="11"/>
+      <c r="S230" s="11"/>
+      <c r="T230" s="11"/>
+      <c r="U230" s="17"/>
+    </row>
+    <row r="231" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A231" s="16"/>
+      <c r="B231" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C231" s="11"/>
+      <c r="D231" s="11"/>
+      <c r="E231" s="11"/>
+      <c r="F231" s="11"/>
+      <c r="G231" s="11"/>
+      <c r="H231" s="11"/>
+      <c r="I231" s="5"/>
+      <c r="J231" s="11"/>
+      <c r="K231" s="11"/>
+      <c r="L231" s="11"/>
+      <c r="M231" s="11"/>
+      <c r="N231" s="11"/>
+      <c r="O231" s="11"/>
+      <c r="P231" s="11"/>
+      <c r="Q231" s="11"/>
+      <c r="R231" s="11"/>
+      <c r="S231" s="11"/>
+      <c r="T231" s="11"/>
+      <c r="U231" s="17"/>
+    </row>
+    <row r="232" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A232" s="16"/>
+      <c r="B232" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="C232" s="11"/>
+      <c r="D232" s="11"/>
+      <c r="E232" s="11"/>
+      <c r="F232" s="11"/>
+      <c r="G232" s="11"/>
+      <c r="H232" s="11"/>
+      <c r="I232" s="5"/>
+      <c r="J232" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K232" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="L232" s="2"/>
+      <c r="M232" s="2"/>
+      <c r="N232" s="2"/>
+      <c r="O232" s="2"/>
+      <c r="P232" s="2"/>
+      <c r="Q232" s="2"/>
+      <c r="R232" s="2"/>
+      <c r="S232" s="2"/>
+      <c r="T232" s="3"/>
+      <c r="U232" s="17"/>
+    </row>
+    <row r="233" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A233" s="16"/>
+      <c r="B233" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C233" s="11"/>
+      <c r="D233" s="11"/>
+      <c r="E233" s="11"/>
+      <c r="F233" s="11"/>
+      <c r="G233" s="11"/>
+      <c r="H233" s="11"/>
+      <c r="I233" s="5"/>
+      <c r="J233" s="11"/>
+      <c r="K233" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="L233" s="11"/>
+      <c r="M233" s="11"/>
+      <c r="N233" s="11"/>
+      <c r="O233" s="11"/>
+      <c r="P233" s="11"/>
+      <c r="Q233" s="11"/>
+      <c r="R233" s="11"/>
+      <c r="S233" s="11"/>
+      <c r="T233" s="5"/>
+      <c r="U233" s="17"/>
+    </row>
+    <row r="234" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A234" s="16"/>
+      <c r="B234" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C234" s="11"/>
+      <c r="D234" s="11"/>
+      <c r="E234" s="11"/>
+      <c r="F234" s="11"/>
+      <c r="G234" s="11"/>
+      <c r="H234" s="11"/>
+      <c r="I234" s="5"/>
+      <c r="J234" s="11"/>
+      <c r="K234" s="4"/>
+      <c r="L234" s="11"/>
+      <c r="M234" s="11"/>
+      <c r="N234" s="11"/>
+      <c r="O234" s="11"/>
+      <c r="P234" s="11"/>
+      <c r="Q234" s="11"/>
+      <c r="R234" s="11"/>
+      <c r="S234" s="11"/>
+      <c r="T234" s="5"/>
+      <c r="U234" s="17"/>
+    </row>
+    <row r="235" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A235" s="16"/>
+      <c r="B235" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C235" s="11"/>
+      <c r="D235" s="11"/>
+      <c r="E235" s="11"/>
+      <c r="F235" s="11"/>
+      <c r="G235" s="11"/>
+      <c r="H235" s="11"/>
+      <c r="I235" s="5"/>
+      <c r="J235" s="11"/>
+      <c r="K235" s="4"/>
+      <c r="L235" s="11"/>
+      <c r="M235" s="11"/>
+      <c r="N235" s="11"/>
+      <c r="O235" s="11"/>
+      <c r="P235" s="11"/>
+      <c r="Q235" s="11"/>
+      <c r="R235" s="11"/>
+      <c r="S235" s="11"/>
+      <c r="T235" s="5"/>
+      <c r="U235" s="17"/>
+    </row>
+    <row r="236" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A236" s="16"/>
+      <c r="B236" s="4"/>
+      <c r="C236" s="11"/>
+      <c r="D236" s="11"/>
+      <c r="E236" s="11"/>
+      <c r="F236" s="11"/>
+      <c r="G236" s="11"/>
+      <c r="H236" s="11"/>
+      <c r="I236" s="5"/>
+      <c r="J236" s="11"/>
+      <c r="K236" s="4"/>
+      <c r="L236" s="11"/>
+      <c r="M236" s="11"/>
+      <c r="N236" s="11"/>
+      <c r="O236" s="11"/>
+      <c r="P236" s="11"/>
+      <c r="Q236" s="11"/>
+      <c r="R236" s="11"/>
+      <c r="S236" s="11"/>
+      <c r="T236" s="5"/>
+      <c r="U236" s="17"/>
+    </row>
+    <row r="237" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A237" s="16"/>
+      <c r="B237" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C237" s="11"/>
+      <c r="D237" s="11"/>
+      <c r="E237" s="11"/>
+      <c r="F237" s="11"/>
+      <c r="G237" s="11"/>
+      <c r="H237" s="11"/>
+      <c r="I237" s="5"/>
+      <c r="J237" s="11"/>
+      <c r="K237" s="4"/>
+      <c r="L237" s="11"/>
+      <c r="M237" s="11"/>
+      <c r="N237" s="11"/>
+      <c r="O237" s="11"/>
+      <c r="P237" s="11"/>
+      <c r="Q237" s="11"/>
+      <c r="R237" s="11"/>
+      <c r="S237" s="11"/>
+      <c r="T237" s="5"/>
+      <c r="U237" s="17"/>
+    </row>
+    <row r="238" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A238" s="16"/>
+      <c r="B238" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C238" s="11"/>
+      <c r="D238" s="11"/>
+      <c r="E238" s="11"/>
+      <c r="F238" s="11"/>
+      <c r="G238" s="11"/>
+      <c r="H238" s="11"/>
+      <c r="I238" s="5"/>
+      <c r="J238" s="11"/>
+      <c r="K238" s="4"/>
+      <c r="L238" s="11"/>
+      <c r="M238" s="11"/>
+      <c r="N238" s="11"/>
+      <c r="O238" s="11"/>
+      <c r="P238" s="11"/>
+      <c r="Q238" s="11"/>
+      <c r="R238" s="11"/>
+      <c r="S238" s="11"/>
+      <c r="T238" s="5"/>
+      <c r="U238" s="17"/>
+    </row>
+    <row r="239" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A239" s="16"/>
+      <c r="B239" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C239" s="11"/>
+      <c r="D239" s="11"/>
+      <c r="E239" s="11"/>
+      <c r="F239" s="11"/>
+      <c r="G239" s="11"/>
+      <c r="H239" s="11"/>
+      <c r="I239" s="5"/>
+      <c r="J239" s="11"/>
+      <c r="K239" s="4"/>
+      <c r="L239" s="11"/>
+      <c r="M239" s="11"/>
+      <c r="N239" s="11"/>
+      <c r="O239" s="11"/>
+      <c r="P239" s="11"/>
+      <c r="Q239" s="11"/>
+      <c r="R239" s="11"/>
+      <c r="S239" s="11"/>
+      <c r="T239" s="5"/>
+      <c r="U239" s="17"/>
+    </row>
+    <row r="240" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A240" s="16"/>
+      <c r="B240" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C240" s="11"/>
+      <c r="D240" s="11"/>
+      <c r="E240" s="11"/>
+      <c r="F240" s="11"/>
+      <c r="G240" s="11"/>
+      <c r="H240" s="11"/>
+      <c r="I240" s="5"/>
+      <c r="J240" s="11"/>
+      <c r="K240" s="4"/>
+      <c r="L240" s="11"/>
+      <c r="M240" s="11"/>
+      <c r="N240" s="11"/>
+      <c r="O240" s="11"/>
+      <c r="P240" s="11"/>
+      <c r="Q240" s="11"/>
+      <c r="R240" s="11"/>
+      <c r="S240" s="11"/>
+      <c r="T240" s="5"/>
+      <c r="U240" s="17"/>
+    </row>
+    <row r="241" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A241" s="16"/>
+      <c r="B241" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C241" s="11"/>
+      <c r="D241" s="11"/>
+      <c r="E241" s="11"/>
+      <c r="F241" s="11"/>
+      <c r="G241" s="11"/>
+      <c r="H241" s="11"/>
+      <c r="I241" s="5"/>
+      <c r="J241" s="11"/>
+      <c r="K241" s="4"/>
+      <c r="L241" s="11"/>
+      <c r="M241" s="11"/>
+      <c r="N241" s="11"/>
+      <c r="O241" s="11"/>
+      <c r="P241" s="11"/>
+      <c r="Q241" s="11"/>
+      <c r="R241" s="11"/>
+      <c r="S241" s="11"/>
+      <c r="T241" s="5"/>
+      <c r="U241" s="17"/>
+    </row>
+    <row r="242" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A242" s="16"/>
+      <c r="B242" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C242" s="11"/>
+      <c r="D242" s="11"/>
+      <c r="E242" s="11"/>
+      <c r="F242" s="11"/>
+      <c r="G242" s="11"/>
+      <c r="H242" s="11"/>
+      <c r="I242" s="5"/>
+      <c r="J242" s="11"/>
+      <c r="K242" s="4"/>
+      <c r="L242" s="11"/>
+      <c r="M242" s="11"/>
+      <c r="N242" s="11"/>
+      <c r="O242" s="11"/>
+      <c r="P242" s="11"/>
+      <c r="Q242" s="11"/>
+      <c r="R242" s="11"/>
+      <c r="S242" s="11"/>
+      <c r="T242" s="5"/>
+      <c r="U242" s="17"/>
+    </row>
+    <row r="243" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A243" s="16"/>
+      <c r="B243" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C243" s="11"/>
+      <c r="D243" s="11"/>
+      <c r="E243" s="11"/>
+      <c r="F243" s="11"/>
+      <c r="G243" s="11"/>
+      <c r="H243" s="11"/>
+      <c r="I243" s="5"/>
+      <c r="J243" s="11"/>
+      <c r="K243" s="4"/>
+      <c r="L243" s="11"/>
+      <c r="M243" s="11"/>
+      <c r="N243" s="11"/>
+      <c r="O243" s="11"/>
+      <c r="P243" s="11"/>
+      <c r="Q243" s="11"/>
+      <c r="R243" s="11"/>
+      <c r="S243" s="11"/>
+      <c r="T243" s="5"/>
+      <c r="U243" s="17"/>
+    </row>
+    <row r="244" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A244" s="16"/>
+      <c r="B244" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C244" s="11"/>
+      <c r="D244" s="11"/>
+      <c r="E244" s="11"/>
+      <c r="F244" s="11"/>
+      <c r="G244" s="11"/>
+      <c r="H244" s="11"/>
+      <c r="I244" s="5"/>
+      <c r="J244" s="11"/>
+      <c r="K244" s="4"/>
+      <c r="L244" s="11"/>
+      <c r="M244" s="11"/>
+      <c r="N244" s="11"/>
+      <c r="O244" s="11"/>
+      <c r="P244" s="11"/>
+      <c r="Q244" s="11"/>
+      <c r="R244" s="11"/>
+      <c r="S244" s="11"/>
+      <c r="T244" s="5"/>
+      <c r="U244" s="17"/>
+    </row>
+    <row r="245" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A245" s="16"/>
+      <c r="B245" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C245" s="11"/>
+      <c r="D245" s="11"/>
+      <c r="E245" s="11"/>
+      <c r="F245" s="11"/>
+      <c r="G245" s="11"/>
+      <c r="H245" s="11"/>
+      <c r="I245" s="5"/>
+      <c r="J245" s="11"/>
+      <c r="K245" s="4"/>
+      <c r="L245" s="11"/>
+      <c r="M245" s="11"/>
+      <c r="N245" s="11"/>
+      <c r="O245" s="11"/>
+      <c r="P245" s="11"/>
+      <c r="Q245" s="11"/>
+      <c r="R245" s="11"/>
+      <c r="S245" s="11"/>
+      <c r="T245" s="5"/>
+      <c r="U245" s="17"/>
+    </row>
+    <row r="246" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A246" s="16"/>
+      <c r="B246" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C246" s="11"/>
+      <c r="D246" s="11"/>
+      <c r="E246" s="11"/>
+      <c r="F246" s="11"/>
+      <c r="G246" s="11"/>
+      <c r="H246" s="11"/>
+      <c r="I246" s="5"/>
+      <c r="J246" s="11"/>
+      <c r="K246" s="4"/>
+      <c r="L246" s="11"/>
+      <c r="M246" s="11"/>
+      <c r="N246" s="11"/>
+      <c r="O246" s="11"/>
+      <c r="P246" s="11"/>
+      <c r="Q246" s="11"/>
+      <c r="R246" s="11"/>
+      <c r="S246" s="11"/>
+      <c r="T246" s="5"/>
+      <c r="U246" s="17"/>
+    </row>
+    <row r="247" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A247" s="16"/>
+      <c r="B247" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C247" s="11"/>
+      <c r="D247" s="11"/>
+      <c r="E247" s="11"/>
+      <c r="F247" s="11"/>
+      <c r="G247" s="11"/>
+      <c r="H247" s="11"/>
+      <c r="I247" s="5"/>
+      <c r="J247" s="11"/>
+      <c r="K247" s="4"/>
+      <c r="L247" s="11"/>
+      <c r="M247" s="11"/>
+      <c r="N247" s="11"/>
+      <c r="O247" s="11"/>
+      <c r="P247" s="11"/>
+      <c r="Q247" s="11"/>
+      <c r="R247" s="11"/>
+      <c r="S247" s="11"/>
+      <c r="T247" s="5"/>
+      <c r="U247" s="17"/>
+    </row>
+    <row r="248" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A248" s="16"/>
+      <c r="B248" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C248" s="11"/>
+      <c r="D248" s="11"/>
+      <c r="E248" s="11"/>
+      <c r="F248" s="11"/>
+      <c r="G248" s="11"/>
+      <c r="H248" s="11"/>
+      <c r="I248" s="5"/>
+      <c r="J248" s="11"/>
+      <c r="K248" s="4"/>
+      <c r="L248" s="11"/>
+      <c r="M248" s="11"/>
+      <c r="N248" s="11"/>
+      <c r="O248" s="11"/>
+      <c r="P248" s="11"/>
+      <c r="Q248" s="11"/>
+      <c r="R248" s="11"/>
+      <c r="S248" s="11"/>
+      <c r="T248" s="5"/>
+      <c r="U248" s="17"/>
+    </row>
+    <row r="249" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A249" s="16"/>
+      <c r="B249" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C249" s="11"/>
+      <c r="D249" s="11"/>
+      <c r="E249" s="11"/>
+      <c r="F249" s="11"/>
+      <c r="G249" s="11"/>
+      <c r="H249" s="11"/>
+      <c r="I249" s="5"/>
+      <c r="J249" s="11"/>
+      <c r="K249" s="4"/>
+      <c r="L249" s="11"/>
+      <c r="M249" s="11"/>
+      <c r="N249" s="11"/>
+      <c r="O249" s="11"/>
+      <c r="P249" s="11"/>
+      <c r="Q249" s="11"/>
+      <c r="R249" s="11"/>
+      <c r="S249" s="11"/>
+      <c r="T249" s="5"/>
+      <c r="U249" s="17"/>
+    </row>
+    <row r="250" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A250" s="16"/>
+      <c r="B250" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C250" s="11"/>
+      <c r="D250" s="11"/>
+      <c r="E250" s="11"/>
+      <c r="F250" s="11"/>
+      <c r="G250" s="11"/>
+      <c r="H250" s="11"/>
+      <c r="I250" s="5"/>
+      <c r="J250" s="11"/>
+      <c r="K250" s="4"/>
+      <c r="L250" s="11"/>
+      <c r="M250" s="11"/>
+      <c r="N250" s="11"/>
+      <c r="O250" s="11"/>
+      <c r="P250" s="11"/>
+      <c r="Q250" s="11"/>
+      <c r="R250" s="11"/>
+      <c r="S250" s="11"/>
+      <c r="T250" s="5"/>
+      <c r="U250" s="17"/>
+    </row>
+    <row r="251" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A251" s="16"/>
+      <c r="B251" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C251" s="7"/>
+      <c r="D251" s="7"/>
+      <c r="E251" s="7"/>
+      <c r="F251" s="7"/>
+      <c r="G251" s="7"/>
+      <c r="H251" s="7"/>
+      <c r="I251" s="9"/>
+      <c r="J251" s="11"/>
+      <c r="K251" s="4"/>
+      <c r="L251" s="11"/>
+      <c r="M251" s="11"/>
+      <c r="N251" s="11"/>
+      <c r="O251" s="11"/>
+      <c r="P251" s="11"/>
+      <c r="Q251" s="11"/>
+      <c r="R251" s="11"/>
+      <c r="S251" s="11"/>
+      <c r="T251" s="5"/>
+      <c r="U251" s="17"/>
+    </row>
+    <row r="252" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A252" s="16"/>
+      <c r="B252" s="11"/>
+      <c r="C252" s="11"/>
+      <c r="D252" s="11"/>
+      <c r="E252" s="11"/>
+      <c r="F252" s="11"/>
+      <c r="G252" s="11"/>
+      <c r="H252" s="11"/>
+      <c r="I252" s="11"/>
+      <c r="J252" s="11"/>
+      <c r="K252" s="4"/>
+      <c r="L252" s="11"/>
+      <c r="M252" s="11"/>
+      <c r="N252" s="11"/>
+      <c r="O252" s="11"/>
+      <c r="P252" s="11"/>
+      <c r="Q252" s="11"/>
+      <c r="R252" s="11"/>
+      <c r="S252" s="11"/>
+      <c r="T252" s="5"/>
+      <c r="U252" s="17"/>
+    </row>
+    <row r="253" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A253" s="16"/>
+      <c r="B253" s="11"/>
+      <c r="C253" s="11"/>
+      <c r="D253" s="11"/>
+      <c r="E253" s="11"/>
+      <c r="F253" s="11"/>
+      <c r="G253" s="11"/>
+      <c r="H253" s="11"/>
+      <c r="I253" s="11"/>
+      <c r="J253" s="11"/>
+      <c r="K253" s="4"/>
+      <c r="L253" s="11"/>
+      <c r="M253" s="11"/>
+      <c r="N253" s="11"/>
+      <c r="O253" s="11"/>
+      <c r="P253" s="11"/>
+      <c r="Q253" s="11"/>
+      <c r="R253" s="11"/>
+      <c r="S253" s="11"/>
+      <c r="T253" s="5"/>
+      <c r="U253" s="17"/>
+    </row>
+    <row r="254" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A254" s="16"/>
+      <c r="B254" s="11"/>
+      <c r="C254" s="11"/>
+      <c r="D254" s="11"/>
+      <c r="E254" s="11"/>
+      <c r="F254" s="11"/>
+      <c r="G254" s="11"/>
+      <c r="H254" s="11"/>
+      <c r="I254" s="11"/>
+      <c r="J254" s="11"/>
+      <c r="K254" s="4"/>
+      <c r="L254" s="11"/>
+      <c r="M254" s="11"/>
+      <c r="N254" s="11"/>
+      <c r="O254" s="11"/>
+      <c r="P254" s="11"/>
+      <c r="Q254" s="11"/>
+      <c r="R254" s="11"/>
+      <c r="S254" s="11"/>
+      <c r="T254" s="5"/>
+      <c r="U254" s="17"/>
+    </row>
+    <row r="255" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A255" s="16"/>
+      <c r="B255" s="11"/>
+      <c r="C255" s="11"/>
+      <c r="D255" s="11"/>
+      <c r="E255" s="11"/>
+      <c r="F255" s="11"/>
+      <c r="G255" s="11"/>
+      <c r="H255" s="11"/>
+      <c r="I255" s="11"/>
+      <c r="J255" s="11"/>
+      <c r="K255" s="4"/>
+      <c r="L255" s="11"/>
+      <c r="M255" s="11"/>
+      <c r="N255" s="11"/>
+      <c r="O255" s="11"/>
+      <c r="P255" s="11"/>
+      <c r="Q255" s="11"/>
+      <c r="R255" s="11"/>
+      <c r="S255" s="11"/>
+      <c r="T255" s="5"/>
+      <c r="U255" s="17"/>
+    </row>
+    <row r="256" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A256" s="16"/>
+      <c r="B256" s="11"/>
+      <c r="C256" s="11"/>
+      <c r="D256" s="11"/>
+      <c r="E256" s="11"/>
+      <c r="F256" s="11"/>
+      <c r="G256" s="11"/>
+      <c r="H256" s="11"/>
+      <c r="I256" s="11"/>
+      <c r="J256" s="11"/>
+      <c r="K256" s="4"/>
+      <c r="L256" s="11"/>
+      <c r="M256" s="11"/>
+      <c r="N256" s="11"/>
+      <c r="O256" s="11"/>
+      <c r="P256" s="11"/>
+      <c r="Q256" s="11"/>
+      <c r="R256" s="11"/>
+      <c r="S256" s="11"/>
+      <c r="T256" s="5"/>
+      <c r="U256" s="17"/>
+    </row>
+    <row r="257" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A257" s="16"/>
+      <c r="B257" s="11"/>
+      <c r="C257" s="11"/>
+      <c r="D257" s="11"/>
+      <c r="E257" s="11"/>
+      <c r="F257" s="11"/>
+      <c r="G257" s="11"/>
+      <c r="H257" s="11"/>
+      <c r="I257" s="11"/>
+      <c r="J257" s="11"/>
+      <c r="K257" s="4"/>
+      <c r="L257" s="11"/>
+      <c r="M257" s="11"/>
+      <c r="N257" s="11"/>
+      <c r="O257" s="11"/>
+      <c r="P257" s="11"/>
+      <c r="Q257" s="11"/>
+      <c r="R257" s="11"/>
+      <c r="S257" s="11"/>
+      <c r="T257" s="5"/>
+      <c r="U257" s="17"/>
+    </row>
+    <row r="258" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A258" s="16"/>
+      <c r="B258" s="11"/>
+      <c r="C258" s="11"/>
+      <c r="D258" s="11"/>
+      <c r="E258" s="11"/>
+      <c r="F258" s="11"/>
+      <c r="G258" s="11"/>
+      <c r="H258" s="11"/>
+      <c r="I258" s="11"/>
+      <c r="J258" s="11"/>
+      <c r="K258" s="4"/>
+      <c r="L258" s="11"/>
+      <c r="M258" s="11"/>
+      <c r="N258" s="11"/>
+      <c r="O258" s="11"/>
+      <c r="P258" s="11"/>
+      <c r="Q258" s="11"/>
+      <c r="R258" s="11"/>
+      <c r="S258" s="11"/>
+      <c r="T258" s="5"/>
+      <c r="U258" s="17"/>
+    </row>
+    <row r="259" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A259" s="16"/>
+      <c r="B259" s="11"/>
+      <c r="C259" s="11"/>
+      <c r="D259" s="11"/>
+      <c r="E259" s="11"/>
+      <c r="F259" s="11"/>
+      <c r="G259" s="11"/>
+      <c r="H259" s="11"/>
+      <c r="I259" s="11"/>
+      <c r="J259" s="11"/>
+      <c r="K259" s="6"/>
+      <c r="L259" s="7"/>
+      <c r="M259" s="7"/>
+      <c r="N259" s="7"/>
+      <c r="O259" s="7"/>
+      <c r="P259" s="7"/>
+      <c r="Q259" s="7"/>
+      <c r="R259" s="7"/>
+      <c r="S259" s="7"/>
+      <c r="T259" s="9"/>
+      <c r="U259" s="17"/>
+    </row>
+    <row r="260" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A260" s="18"/>
+      <c r="B260" s="19"/>
+      <c r="C260" s="19"/>
+      <c r="D260" s="19"/>
+      <c r="E260" s="19"/>
+      <c r="F260" s="19"/>
+      <c r="G260" s="19"/>
+      <c r="H260" s="19"/>
+      <c r="I260" s="19"/>
+      <c r="J260" s="19"/>
+      <c r="K260" s="19"/>
+      <c r="L260" s="19"/>
+      <c r="M260" s="19"/>
+      <c r="N260" s="19"/>
+      <c r="O260" s="19"/>
+      <c r="P260" s="19"/>
+      <c r="Q260" s="19"/>
+      <c r="R260" s="19"/>
+      <c r="S260" s="19"/>
+      <c r="T260" s="19"/>
+      <c r="U260" s="20"/>
+    </row>
+    <row r="263" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A263" s="12" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="264" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A264" s="13"/>
+      <c r="B264" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="C264" s="14"/>
+      <c r="D264" s="14"/>
+      <c r="E264" s="14"/>
+      <c r="F264" s="14"/>
+      <c r="G264" s="14"/>
+      <c r="H264" s="14"/>
+      <c r="I264" s="14"/>
+      <c r="J264" s="14"/>
+      <c r="K264" s="14"/>
+      <c r="L264" s="14"/>
+      <c r="M264" s="14"/>
+      <c r="N264" s="14"/>
+      <c r="O264" s="14"/>
+      <c r="P264" s="14"/>
+      <c r="Q264" s="14"/>
+      <c r="R264" s="14"/>
+      <c r="S264" s="14"/>
+      <c r="T264" s="15"/>
+    </row>
+    <row r="265" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A265" s="16"/>
+      <c r="B265" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C265" s="2"/>
+      <c r="D265" s="2"/>
+      <c r="E265" s="2"/>
+      <c r="F265" s="2"/>
+      <c r="G265" s="2"/>
+      <c r="H265" s="2"/>
+      <c r="I265" s="3"/>
+      <c r="J265" s="11"/>
+      <c r="K265" s="11"/>
+      <c r="L265" s="11"/>
+      <c r="M265" s="11"/>
+      <c r="N265" s="11"/>
+      <c r="O265" s="11"/>
+      <c r="P265" s="11"/>
+      <c r="Q265" s="11"/>
+      <c r="R265" s="11"/>
+      <c r="S265" s="11"/>
+      <c r="T265" s="17"/>
+    </row>
+    <row r="266" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A266" s="16"/>
+      <c r="B266" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C266" s="11"/>
+      <c r="D266" s="11"/>
+      <c r="E266" s="11"/>
+      <c r="F266" s="11"/>
+      <c r="G266" s="11"/>
+      <c r="H266" s="11"/>
+      <c r="I266" s="5"/>
+      <c r="J266" s="11"/>
+      <c r="K266" s="11"/>
+      <c r="L266" s="11"/>
+      <c r="M266" s="11"/>
+      <c r="N266" s="11"/>
+      <c r="O266" s="11"/>
+      <c r="P266" s="11"/>
+      <c r="Q266" s="11"/>
+      <c r="R266" s="11"/>
+      <c r="S266" s="11"/>
+      <c r="T266" s="17"/>
+    </row>
+    <row r="267" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A267" s="16"/>
+      <c r="B267" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C267" s="11"/>
+      <c r="D267" s="11"/>
+      <c r="E267" s="11"/>
+      <c r="F267" s="11"/>
+      <c r="G267" s="11"/>
+      <c r="H267" s="11"/>
+      <c r="I267" s="5"/>
+      <c r="J267" s="11"/>
+      <c r="K267" s="11"/>
+      <c r="L267" s="11"/>
+      <c r="M267" s="11"/>
+      <c r="N267" s="11"/>
+      <c r="O267" s="11"/>
+      <c r="P267" s="11"/>
+      <c r="Q267" s="11"/>
+      <c r="R267" s="11"/>
+      <c r="S267" s="11"/>
+      <c r="T267" s="17"/>
+    </row>
+    <row r="268" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A268" s="16"/>
+      <c r="B268" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C268" s="11"/>
+      <c r="D268" s="11"/>
+      <c r="E268" s="11"/>
+      <c r="F268" s="11"/>
+      <c r="G268" s="11"/>
+      <c r="H268" s="11"/>
+      <c r="I268" s="5"/>
+      <c r="J268" s="11"/>
+      <c r="K268" s="11"/>
+      <c r="L268" s="11"/>
+      <c r="M268" s="11"/>
+      <c r="N268" s="11"/>
+      <c r="O268" s="11"/>
+      <c r="P268" s="11"/>
+      <c r="Q268" s="11"/>
+      <c r="R268" s="11"/>
+      <c r="S268" s="11"/>
+      <c r="T268" s="17"/>
+    </row>
+    <row r="269" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A269" s="16"/>
+      <c r="B269" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C269" s="11"/>
+      <c r="D269" s="11"/>
+      <c r="E269" s="11"/>
+      <c r="F269" s="11"/>
+      <c r="G269" s="11"/>
+      <c r="H269" s="11"/>
+      <c r="I269" s="5"/>
+      <c r="J269" s="11"/>
+      <c r="K269" s="11"/>
+      <c r="L269" s="11"/>
+      <c r="M269" s="11"/>
+      <c r="N269" s="11"/>
+      <c r="O269" s="11"/>
+      <c r="P269" s="11"/>
+      <c r="Q269" s="11"/>
+      <c r="R269" s="11"/>
+      <c r="S269" s="11"/>
+      <c r="T269" s="17"/>
+    </row>
+    <row r="270" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A270" s="16"/>
+      <c r="B270" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C270" s="11"/>
+      <c r="D270" s="11"/>
+      <c r="E270" s="11"/>
+      <c r="F270" s="11"/>
+      <c r="G270" s="11"/>
+      <c r="H270" s="11"/>
+      <c r="I270" s="5"/>
+      <c r="J270" s="11"/>
+      <c r="K270" s="11"/>
+      <c r="L270" s="11"/>
+      <c r="M270" s="11"/>
+      <c r="N270" s="11"/>
+      <c r="O270" s="11"/>
+      <c r="P270" s="11"/>
+      <c r="Q270" s="11"/>
+      <c r="R270" s="11"/>
+      <c r="S270" s="11"/>
+      <c r="T270" s="17"/>
+    </row>
+    <row r="271" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A271" s="16"/>
+      <c r="B271" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C271" s="11"/>
+      <c r="D271" s="11"/>
+      <c r="E271" s="11"/>
+      <c r="F271" s="11"/>
+      <c r="G271" s="11"/>
+      <c r="H271" s="11"/>
+      <c r="I271" s="5"/>
+      <c r="J271" s="11"/>
+      <c r="K271" s="11"/>
+      <c r="L271" s="11"/>
+      <c r="M271" s="11"/>
+      <c r="N271" s="11"/>
+      <c r="O271" s="11"/>
+      <c r="P271" s="11"/>
+      <c r="Q271" s="11"/>
+      <c r="R271" s="11"/>
+      <c r="S271" s="11"/>
+      <c r="T271" s="17"/>
+    </row>
+    <row r="272" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A272" s="16"/>
+      <c r="B272" s="4"/>
+      <c r="C272" s="11"/>
+      <c r="D272" s="11"/>
+      <c r="E272" s="11"/>
+      <c r="F272" s="11"/>
+      <c r="G272" s="11"/>
+      <c r="H272" s="11"/>
+      <c r="I272" s="5"/>
+      <c r="J272" s="11"/>
+      <c r="K272" s="11"/>
+      <c r="L272" s="11"/>
+      <c r="M272" s="11"/>
+      <c r="N272" s="11"/>
+      <c r="O272" s="11"/>
+      <c r="P272" s="11"/>
+      <c r="Q272" s="11"/>
+      <c r="R272" s="11"/>
+      <c r="S272" s="11"/>
+      <c r="T272" s="17"/>
+    </row>
+    <row r="273" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A273" s="16"/>
+      <c r="B273" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C273" s="11"/>
+      <c r="D273" s="11"/>
+      <c r="E273" s="11"/>
+      <c r="F273" s="11"/>
+      <c r="G273" s="11"/>
+      <c r="H273" s="11"/>
+      <c r="I273" s="5"/>
+      <c r="J273" s="11"/>
+      <c r="K273" s="11"/>
+      <c r="L273" s="11"/>
+      <c r="M273" s="11"/>
+      <c r="N273" s="11"/>
+      <c r="O273" s="11"/>
+      <c r="P273" s="11"/>
+      <c r="Q273" s="11"/>
+      <c r="R273" s="11"/>
+      <c r="S273" s="11"/>
+      <c r="T273" s="17"/>
+    </row>
+    <row r="274" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A274" s="16"/>
+      <c r="B274" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C274" s="11"/>
+      <c r="D274" s="11"/>
+      <c r="E274" s="11"/>
+      <c r="F274" s="11"/>
+      <c r="G274" s="11"/>
+      <c r="H274" s="11"/>
+      <c r="I274" s="5"/>
+      <c r="J274" s="11"/>
+      <c r="K274" s="11"/>
+      <c r="L274" s="11"/>
+      <c r="M274" s="11"/>
+      <c r="N274" s="11"/>
+      <c r="O274" s="11"/>
+      <c r="P274" s="11"/>
+      <c r="Q274" s="11"/>
+      <c r="R274" s="11"/>
+      <c r="S274" s="11"/>
+      <c r="T274" s="17"/>
+    </row>
+    <row r="275" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A275" s="16"/>
+      <c r="B275" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C275" s="11"/>
+      <c r="D275" s="11"/>
+      <c r="E275" s="11"/>
+      <c r="F275" s="11"/>
+      <c r="G275" s="11"/>
+      <c r="H275" s="11"/>
+      <c r="I275" s="5"/>
+      <c r="J275" s="11"/>
+      <c r="K275" s="11"/>
+      <c r="L275" s="11"/>
+      <c r="M275" s="11"/>
+      <c r="N275" s="11"/>
+      <c r="O275" s="11"/>
+      <c r="P275" s="11"/>
+      <c r="Q275" s="11"/>
+      <c r="R275" s="11"/>
+      <c r="S275" s="11"/>
+      <c r="T275" s="17"/>
+    </row>
+    <row r="276" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A276" s="16"/>
+      <c r="B276" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C276" s="11"/>
+      <c r="D276" s="11"/>
+      <c r="E276" s="11"/>
+      <c r="F276" s="11"/>
+      <c r="G276" s="11"/>
+      <c r="H276" s="11"/>
+      <c r="I276" s="5"/>
+      <c r="J276" s="11"/>
+      <c r="K276" s="11"/>
+      <c r="L276" s="11"/>
+      <c r="M276" s="11"/>
+      <c r="N276" s="11"/>
+      <c r="O276" s="11"/>
+      <c r="P276" s="11"/>
+      <c r="Q276" s="11"/>
+      <c r="R276" s="11"/>
+      <c r="S276" s="11"/>
+      <c r="T276" s="17"/>
+    </row>
+    <row r="277" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A277" s="16"/>
+      <c r="B277" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C277" s="11"/>
+      <c r="D277" s="11"/>
+      <c r="E277" s="11"/>
+      <c r="F277" s="11"/>
+      <c r="G277" s="11"/>
+      <c r="H277" s="11"/>
+      <c r="I277" s="5"/>
+      <c r="J277" s="11"/>
+      <c r="K277" s="11"/>
+      <c r="L277" s="11"/>
+      <c r="M277" s="11"/>
+      <c r="N277" s="11"/>
+      <c r="O277" s="11"/>
+      <c r="P277" s="11"/>
+      <c r="Q277" s="11"/>
+      <c r="R277" s="11"/>
+      <c r="S277" s="11"/>
+      <c r="T277" s="17"/>
+    </row>
+    <row r="278" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A278" s="16"/>
+      <c r="B278" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="C278" s="11"/>
+      <c r="D278" s="11"/>
+      <c r="E278" s="11"/>
+      <c r="F278" s="11"/>
+      <c r="G278" s="11"/>
+      <c r="H278" s="11"/>
+      <c r="I278" s="5"/>
+      <c r="J278" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K278" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="L278" s="2"/>
+      <c r="M278" s="2"/>
+      <c r="N278" s="2"/>
+      <c r="O278" s="2"/>
+      <c r="P278" s="2"/>
+      <c r="Q278" s="2"/>
+      <c r="R278" s="2"/>
+      <c r="S278" s="3"/>
+      <c r="T278" s="17"/>
+    </row>
+    <row r="279" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A279" s="16"/>
+      <c r="B279" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C279" s="11"/>
+      <c r="D279" s="11"/>
+      <c r="E279" s="11"/>
+      <c r="F279" s="11"/>
+      <c r="G279" s="11"/>
+      <c r="H279" s="11"/>
+      <c r="I279" s="5"/>
+      <c r="J279" s="11"/>
+      <c r="K279" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="L279" s="11"/>
+      <c r="M279" s="11"/>
+      <c r="N279" s="11"/>
+      <c r="O279" s="11"/>
+      <c r="P279" s="11"/>
+      <c r="Q279" s="11"/>
+      <c r="R279" s="11"/>
+      <c r="S279" s="5"/>
+      <c r="T279" s="17"/>
+    </row>
+    <row r="280" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A280" s="16"/>
+      <c r="B280" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C280" s="11"/>
+      <c r="D280" s="11"/>
+      <c r="E280" s="11"/>
+      <c r="F280" s="11"/>
+      <c r="G280" s="11"/>
+      <c r="H280" s="11"/>
+      <c r="I280" s="5"/>
+      <c r="J280" s="11"/>
+      <c r="K280" s="4"/>
+      <c r="L280" s="11"/>
+      <c r="M280" s="11"/>
+      <c r="N280" s="11"/>
+      <c r="O280" s="11"/>
+      <c r="P280" s="11"/>
+      <c r="Q280" s="11"/>
+      <c r="R280" s="11"/>
+      <c r="S280" s="5"/>
+      <c r="T280" s="17"/>
+    </row>
+    <row r="281" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A281" s="16"/>
+      <c r="B281" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C281" s="11"/>
+      <c r="D281" s="11"/>
+      <c r="E281" s="11"/>
+      <c r="F281" s="11"/>
+      <c r="G281" s="11"/>
+      <c r="H281" s="11"/>
+      <c r="I281" s="5"/>
+      <c r="J281" s="11"/>
+      <c r="K281" s="4"/>
+      <c r="L281" s="11"/>
+      <c r="M281" s="11"/>
+      <c r="N281" s="11"/>
+      <c r="O281" s="11"/>
+      <c r="P281" s="11"/>
+      <c r="Q281" s="11"/>
+      <c r="R281" s="11"/>
+      <c r="S281" s="5"/>
+      <c r="T281" s="17"/>
+    </row>
+    <row r="282" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A282" s="16"/>
+      <c r="B282" s="4"/>
+      <c r="C282" s="11"/>
+      <c r="D282" s="11"/>
+      <c r="E282" s="11"/>
+      <c r="F282" s="11"/>
+      <c r="G282" s="11"/>
+      <c r="H282" s="11"/>
+      <c r="I282" s="5"/>
+      <c r="J282" s="11"/>
+      <c r="K282" s="4"/>
+      <c r="L282" s="11"/>
+      <c r="M282" s="11"/>
+      <c r="N282" s="11"/>
+      <c r="O282" s="11"/>
+      <c r="P282" s="11"/>
+      <c r="Q282" s="11"/>
+      <c r="R282" s="11"/>
+      <c r="S282" s="5"/>
+      <c r="T282" s="17"/>
+    </row>
+    <row r="283" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A283" s="16"/>
+      <c r="B283" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C283" s="11"/>
+      <c r="D283" s="11"/>
+      <c r="E283" s="11"/>
+      <c r="F283" s="11"/>
+      <c r="G283" s="11"/>
+      <c r="H283" s="11"/>
+      <c r="I283" s="5"/>
+      <c r="J283" s="11"/>
+      <c r="K283" s="4"/>
+      <c r="L283" s="11"/>
+      <c r="M283" s="11"/>
+      <c r="N283" s="11"/>
+      <c r="O283" s="11"/>
+      <c r="P283" s="11"/>
+      <c r="Q283" s="11"/>
+      <c r="R283" s="11"/>
+      <c r="S283" s="5"/>
+      <c r="T283" s="17"/>
+    </row>
+    <row r="284" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A284" s="16"/>
+      <c r="B284" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C284" s="11"/>
+      <c r="D284" s="11"/>
+      <c r="E284" s="11"/>
+      <c r="F284" s="11"/>
+      <c r="G284" s="11"/>
+      <c r="H284" s="11"/>
+      <c r="I284" s="5"/>
+      <c r="J284" s="11"/>
+      <c r="K284" s="4"/>
+      <c r="L284" s="11"/>
+      <c r="M284" s="11"/>
+      <c r="N284" s="11"/>
+      <c r="O284" s="11"/>
+      <c r="P284" s="11"/>
+      <c r="Q284" s="11"/>
+      <c r="R284" s="11"/>
+      <c r="S284" s="5"/>
+      <c r="T284" s="17"/>
+    </row>
+    <row r="285" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A285" s="16"/>
+      <c r="B285" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C285" s="11"/>
+      <c r="D285" s="11"/>
+      <c r="E285" s="11"/>
+      <c r="F285" s="11"/>
+      <c r="G285" s="11"/>
+      <c r="H285" s="11"/>
+      <c r="I285" s="5"/>
+      <c r="J285" s="11"/>
+      <c r="K285" s="4"/>
+      <c r="L285" s="11"/>
+      <c r="M285" s="11"/>
+      <c r="N285" s="11"/>
+      <c r="O285" s="11"/>
+      <c r="P285" s="11"/>
+      <c r="Q285" s="11"/>
+      <c r="R285" s="11"/>
+      <c r="S285" s="5"/>
+      <c r="T285" s="17"/>
+    </row>
+    <row r="286" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A286" s="16"/>
+      <c r="B286" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C286" s="11"/>
+      <c r="D286" s="11"/>
+      <c r="E286" s="11"/>
+      <c r="F286" s="11"/>
+      <c r="G286" s="11"/>
+      <c r="H286" s="11"/>
+      <c r="I286" s="5"/>
+      <c r="J286" s="11"/>
+      <c r="K286" s="4"/>
+      <c r="L286" s="11"/>
+      <c r="M286" s="11"/>
+      <c r="N286" s="11"/>
+      <c r="O286" s="11"/>
+      <c r="P286" s="11"/>
+      <c r="Q286" s="11"/>
+      <c r="R286" s="11"/>
+      <c r="S286" s="5"/>
+      <c r="T286" s="17"/>
+    </row>
+    <row r="287" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A287" s="16"/>
+      <c r="B287" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C287" s="11"/>
+      <c r="D287" s="11"/>
+      <c r="E287" s="11"/>
+      <c r="F287" s="11"/>
+      <c r="G287" s="11"/>
+      <c r="H287" s="11"/>
+      <c r="I287" s="5"/>
+      <c r="J287" s="11"/>
+      <c r="K287" s="4"/>
+      <c r="L287" s="11"/>
+      <c r="M287" s="11"/>
+      <c r="N287" s="11"/>
+      <c r="O287" s="11"/>
+      <c r="P287" s="11"/>
+      <c r="Q287" s="11"/>
+      <c r="R287" s="11"/>
+      <c r="S287" s="5"/>
+      <c r="T287" s="17"/>
+    </row>
+    <row r="288" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A288" s="16"/>
+      <c r="B288" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C288" s="11"/>
+      <c r="D288" s="11"/>
+      <c r="E288" s="11"/>
+      <c r="F288" s="11"/>
+      <c r="G288" s="11"/>
+      <c r="H288" s="11"/>
+      <c r="I288" s="5"/>
+      <c r="J288" s="11"/>
+      <c r="K288" s="4"/>
+      <c r="L288" s="11"/>
+      <c r="M288" s="11"/>
+      <c r="N288" s="11"/>
+      <c r="O288" s="11"/>
+      <c r="P288" s="11"/>
+      <c r="Q288" s="11"/>
+      <c r="R288" s="11"/>
+      <c r="S288" s="5"/>
+      <c r="T288" s="17"/>
+    </row>
+    <row r="289" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A289" s="16"/>
+      <c r="B289" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C289" s="11"/>
+      <c r="D289" s="11"/>
+      <c r="E289" s="11"/>
+      <c r="F289" s="11"/>
+      <c r="G289" s="11"/>
+      <c r="H289" s="11"/>
+      <c r="I289" s="5"/>
+      <c r="J289" s="11"/>
+      <c r="K289" s="4"/>
+      <c r="L289" s="11"/>
+      <c r="M289" s="11"/>
+      <c r="N289" s="11"/>
+      <c r="O289" s="11"/>
+      <c r="P289" s="11"/>
+      <c r="Q289" s="11"/>
+      <c r="R289" s="11"/>
+      <c r="S289" s="5"/>
+      <c r="T289" s="17"/>
+    </row>
+    <row r="290" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A290" s="16"/>
+      <c r="B290" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C290" s="11"/>
+      <c r="D290" s="11"/>
+      <c r="E290" s="11"/>
+      <c r="F290" s="11"/>
+      <c r="G290" s="11"/>
+      <c r="H290" s="11"/>
+      <c r="I290" s="5"/>
+      <c r="J290" s="11"/>
+      <c r="K290" s="4"/>
+      <c r="L290" s="11"/>
+      <c r="M290" s="11"/>
+      <c r="N290" s="11"/>
+      <c r="O290" s="11"/>
+      <c r="P290" s="11"/>
+      <c r="Q290" s="11"/>
+      <c r="R290" s="11"/>
+      <c r="S290" s="5"/>
+      <c r="T290" s="17"/>
+    </row>
+    <row r="291" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A291" s="16"/>
+      <c r="B291" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C291" s="11"/>
+      <c r="D291" s="11"/>
+      <c r="E291" s="11"/>
+      <c r="F291" s="11"/>
+      <c r="G291" s="11"/>
+      <c r="H291" s="11"/>
+      <c r="I291" s="5"/>
+      <c r="J291" s="11"/>
+      <c r="K291" s="4"/>
+      <c r="L291" s="11"/>
+      <c r="M291" s="11"/>
+      <c r="N291" s="11"/>
+      <c r="O291" s="11"/>
+      <c r="P291" s="11"/>
+      <c r="Q291" s="11"/>
+      <c r="R291" s="11"/>
+      <c r="S291" s="5"/>
+      <c r="T291" s="17"/>
+    </row>
+    <row r="292" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A292" s="16"/>
+      <c r="B292" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C292" s="11"/>
+      <c r="D292" s="11"/>
+      <c r="E292" s="11"/>
+      <c r="F292" s="11"/>
+      <c r="G292" s="11"/>
+      <c r="H292" s="11"/>
+      <c r="I292" s="5"/>
+      <c r="J292" s="11"/>
+      <c r="K292" s="4"/>
+      <c r="L292" s="11"/>
+      <c r="M292" s="11"/>
+      <c r="N292" s="11"/>
+      <c r="O292" s="11"/>
+      <c r="P292" s="11"/>
+      <c r="Q292" s="11"/>
+      <c r="R292" s="11"/>
+      <c r="S292" s="5"/>
+      <c r="T292" s="17"/>
+    </row>
+    <row r="293" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A293" s="16"/>
+      <c r="B293" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C293" s="11"/>
+      <c r="D293" s="11"/>
+      <c r="E293" s="11"/>
+      <c r="F293" s="11"/>
+      <c r="G293" s="11"/>
+      <c r="H293" s="11"/>
+      <c r="I293" s="5"/>
+      <c r="J293" s="11"/>
+      <c r="K293" s="4"/>
+      <c r="L293" s="11"/>
+      <c r="M293" s="11"/>
+      <c r="N293" s="11"/>
+      <c r="O293" s="11"/>
+      <c r="P293" s="11"/>
+      <c r="Q293" s="11"/>
+      <c r="R293" s="11"/>
+      <c r="S293" s="5"/>
+      <c r="T293" s="17"/>
+    </row>
+    <row r="294" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A294" s="16"/>
+      <c r="B294" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C294" s="11"/>
+      <c r="D294" s="11"/>
+      <c r="E294" s="11"/>
+      <c r="F294" s="11"/>
+      <c r="G294" s="11"/>
+      <c r="H294" s="11"/>
+      <c r="I294" s="5"/>
+      <c r="J294" s="11"/>
+      <c r="K294" s="4"/>
+      <c r="L294" s="11"/>
+      <c r="M294" s="11"/>
+      <c r="N294" s="11"/>
+      <c r="O294" s="11"/>
+      <c r="P294" s="11"/>
+      <c r="Q294" s="11"/>
+      <c r="R294" s="11"/>
+      <c r="S294" s="5"/>
+      <c r="T294" s="17"/>
+    </row>
+    <row r="295" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A295" s="16"/>
+      <c r="B295" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C295" s="11"/>
+      <c r="D295" s="11"/>
+      <c r="E295" s="11"/>
+      <c r="F295" s="11"/>
+      <c r="G295" s="11"/>
+      <c r="H295" s="11"/>
+      <c r="I295" s="5"/>
+      <c r="J295" s="11"/>
+      <c r="K295" s="4"/>
+      <c r="L295" s="11"/>
+      <c r="M295" s="11"/>
+      <c r="N295" s="11"/>
+      <c r="O295" s="11"/>
+      <c r="P295" s="11"/>
+      <c r="Q295" s="11"/>
+      <c r="R295" s="11"/>
+      <c r="S295" s="5"/>
+      <c r="T295" s="17"/>
+    </row>
+    <row r="296" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A296" s="16"/>
+      <c r="B296" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C296" s="11"/>
+      <c r="D296" s="11"/>
+      <c r="E296" s="11"/>
+      <c r="F296" s="11"/>
+      <c r="G296" s="11"/>
+      <c r="H296" s="11"/>
+      <c r="I296" s="5"/>
+      <c r="J296" s="11"/>
+      <c r="K296" s="4"/>
+      <c r="L296" s="11"/>
+      <c r="M296" s="11"/>
+      <c r="N296" s="11"/>
+      <c r="O296" s="11"/>
+      <c r="P296" s="11"/>
+      <c r="Q296" s="11"/>
+      <c r="R296" s="11"/>
+      <c r="S296" s="5"/>
+      <c r="T296" s="17"/>
+    </row>
+    <row r="297" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A297" s="16"/>
+      <c r="B297" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C297" s="7"/>
+      <c r="D297" s="7"/>
+      <c r="E297" s="7"/>
+      <c r="F297" s="7"/>
+      <c r="G297" s="7"/>
+      <c r="H297" s="7"/>
+      <c r="I297" s="9"/>
+      <c r="J297" s="11"/>
+      <c r="K297" s="4"/>
+      <c r="L297" s="11"/>
+      <c r="M297" s="11"/>
+      <c r="N297" s="11"/>
+      <c r="O297" s="11"/>
+      <c r="P297" s="11"/>
+      <c r="Q297" s="11"/>
+      <c r="R297" s="11"/>
+      <c r="S297" s="5"/>
+      <c r="T297" s="17"/>
+    </row>
+    <row r="298" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A298" s="16"/>
+      <c r="B298" s="11"/>
+      <c r="C298" s="11"/>
+      <c r="D298" s="11"/>
+      <c r="E298" s="11"/>
+      <c r="F298" s="11"/>
+      <c r="G298" s="11"/>
+      <c r="H298" s="11"/>
+      <c r="I298" s="11"/>
+      <c r="J298" s="11"/>
+      <c r="K298" s="4"/>
+      <c r="L298" s="11"/>
+      <c r="M298" s="11"/>
+      <c r="N298" s="11"/>
+      <c r="O298" s="11"/>
+      <c r="P298" s="11"/>
+      <c r="Q298" s="11"/>
+      <c r="R298" s="11"/>
+      <c r="S298" s="5"/>
+      <c r="T298" s="17"/>
+    </row>
+    <row r="299" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A299" s="16"/>
+      <c r="B299" s="11"/>
+      <c r="C299" s="11"/>
+      <c r="D299" s="11"/>
+      <c r="E299" s="11"/>
+      <c r="F299" s="11"/>
+      <c r="G299" s="11"/>
+      <c r="H299" s="11"/>
+      <c r="I299" s="11"/>
+      <c r="J299" s="11"/>
+      <c r="K299" s="4"/>
+      <c r="L299" s="11"/>
+      <c r="M299" s="11"/>
+      <c r="N299" s="11"/>
+      <c r="O299" s="11"/>
+      <c r="P299" s="11"/>
+      <c r="Q299" s="11"/>
+      <c r="R299" s="11"/>
+      <c r="S299" s="5"/>
+      <c r="T299" s="17"/>
+    </row>
+    <row r="300" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A300" s="16"/>
+      <c r="B300" s="11"/>
+      <c r="C300" s="11"/>
+      <c r="D300" s="11"/>
+      <c r="E300" s="11"/>
+      <c r="F300" s="11"/>
+      <c r="G300" s="11"/>
+      <c r="H300" s="11"/>
+      <c r="I300" s="11"/>
+      <c r="J300" s="11"/>
+      <c r="K300" s="4"/>
+      <c r="L300" s="11"/>
+      <c r="M300" s="11"/>
+      <c r="N300" s="11"/>
+      <c r="O300" s="11"/>
+      <c r="P300" s="11"/>
+      <c r="Q300" s="11"/>
+      <c r="R300" s="11"/>
+      <c r="S300" s="5"/>
+      <c r="T300" s="17"/>
+    </row>
+    <row r="301" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A301" s="16"/>
+      <c r="B301" s="11"/>
+      <c r="C301" s="11"/>
+      <c r="D301" s="11"/>
+      <c r="E301" s="11"/>
+      <c r="F301" s="11"/>
+      <c r="G301" s="11"/>
+      <c r="H301" s="11"/>
+      <c r="I301" s="11"/>
+      <c r="J301" s="11"/>
+      <c r="K301" s="4"/>
+      <c r="L301" s="11"/>
+      <c r="M301" s="11"/>
+      <c r="N301" s="11"/>
+      <c r="O301" s="11"/>
+      <c r="P301" s="11"/>
+      <c r="Q301" s="11"/>
+      <c r="R301" s="11"/>
+      <c r="S301" s="5"/>
+      <c r="T301" s="17"/>
+    </row>
+    <row r="302" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A302" s="16"/>
+      <c r="B302" s="11"/>
+      <c r="C302" s="11"/>
+      <c r="D302" s="11"/>
+      <c r="E302" s="11"/>
+      <c r="F302" s="11"/>
+      <c r="G302" s="11"/>
+      <c r="H302" s="11"/>
+      <c r="I302" s="11"/>
+      <c r="J302" s="11"/>
+      <c r="K302" s="4"/>
+      <c r="L302" s="11"/>
+      <c r="M302" s="11"/>
+      <c r="N302" s="11"/>
+      <c r="O302" s="11"/>
+      <c r="P302" s="11"/>
+      <c r="Q302" s="11"/>
+      <c r="R302" s="11"/>
+      <c r="S302" s="5"/>
+      <c r="T302" s="17"/>
+    </row>
+    <row r="303" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A303" s="16"/>
+      <c r="B303" s="11"/>
+      <c r="C303" s="11"/>
+      <c r="D303" s="11"/>
+      <c r="E303" s="11"/>
+      <c r="F303" s="11"/>
+      <c r="G303" s="11"/>
+      <c r="H303" s="11"/>
+      <c r="I303" s="11"/>
+      <c r="J303" s="11"/>
+      <c r="K303" s="4"/>
+      <c r="L303" s="11"/>
+      <c r="M303" s="11"/>
+      <c r="N303" s="11"/>
+      <c r="O303" s="11"/>
+      <c r="P303" s="11"/>
+      <c r="Q303" s="11"/>
+      <c r="R303" s="11"/>
+      <c r="S303" s="5"/>
+      <c r="T303" s="17"/>
+    </row>
+    <row r="304" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A304" s="16"/>
+      <c r="B304" s="11"/>
+      <c r="C304" s="11"/>
+      <c r="D304" s="11"/>
+      <c r="E304" s="11"/>
+      <c r="F304" s="11"/>
+      <c r="G304" s="11"/>
+      <c r="H304" s="11"/>
+      <c r="I304" s="11"/>
+      <c r="J304" s="11"/>
+      <c r="K304" s="4"/>
+      <c r="L304" s="11"/>
+      <c r="M304" s="11"/>
+      <c r="N304" s="11"/>
+      <c r="O304" s="11"/>
+      <c r="P304" s="11"/>
+      <c r="Q304" s="11"/>
+      <c r="R304" s="11"/>
+      <c r="S304" s="5"/>
+      <c r="T304" s="17"/>
+    </row>
+    <row r="305" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A305" s="16"/>
+      <c r="B305" s="11"/>
+      <c r="C305" s="11"/>
+      <c r="D305" s="11"/>
+      <c r="E305" s="11"/>
+      <c r="F305" s="11"/>
+      <c r="G305" s="11"/>
+      <c r="H305" s="11"/>
+      <c r="I305" s="11"/>
+      <c r="J305" s="11"/>
+      <c r="K305" s="4"/>
+      <c r="L305" s="11"/>
+      <c r="M305" s="11"/>
+      <c r="N305" s="11"/>
+      <c r="O305" s="11"/>
+      <c r="P305" s="11"/>
+      <c r="Q305" s="11"/>
+      <c r="R305" s="11"/>
+      <c r="S305" s="5"/>
+      <c r="T305" s="17"/>
+    </row>
+    <row r="306" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A306" s="16"/>
+      <c r="B306" s="11"/>
+      <c r="C306" s="11"/>
+      <c r="D306" s="11"/>
+      <c r="E306" s="11"/>
+      <c r="F306" s="11"/>
+      <c r="G306" s="11"/>
+      <c r="H306" s="11"/>
+      <c r="I306" s="11"/>
+      <c r="J306" s="11"/>
+      <c r="K306" s="4"/>
+      <c r="L306" s="11"/>
+      <c r="M306" s="11"/>
+      <c r="N306" s="11"/>
+      <c r="O306" s="11"/>
+      <c r="P306" s="11"/>
+      <c r="Q306" s="11"/>
+      <c r="R306" s="11"/>
+      <c r="S306" s="5"/>
+      <c r="T306" s="17"/>
+    </row>
+    <row r="307" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A307" s="16"/>
+      <c r="B307" s="11"/>
+      <c r="C307" s="11"/>
+      <c r="D307" s="11"/>
+      <c r="E307" s="11"/>
+      <c r="F307" s="11"/>
+      <c r="G307" s="11"/>
+      <c r="H307" s="11"/>
+      <c r="I307" s="11"/>
+      <c r="J307" s="11"/>
+      <c r="K307" s="6"/>
+      <c r="L307" s="7"/>
+      <c r="M307" s="7"/>
+      <c r="N307" s="7"/>
+      <c r="O307" s="7"/>
+      <c r="P307" s="7"/>
+      <c r="Q307" s="7"/>
+      <c r="R307" s="7"/>
+      <c r="S307" s="9"/>
+      <c r="T307" s="17"/>
+    </row>
+    <row r="308" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A308" s="18"/>
+      <c r="B308" s="19"/>
+      <c r="C308" s="19"/>
+      <c r="D308" s="19"/>
+      <c r="E308" s="19"/>
+      <c r="F308" s="19"/>
+      <c r="G308" s="19"/>
+      <c r="H308" s="19"/>
+      <c r="I308" s="19"/>
+      <c r="J308" s="19"/>
+      <c r="K308" s="19"/>
+      <c r="L308" s="19"/>
+      <c r="M308" s="19"/>
+      <c r="N308" s="19"/>
+      <c r="O308" s="19"/>
+      <c r="P308" s="19"/>
+      <c r="Q308" s="19"/>
+      <c r="R308" s="19"/>
+      <c r="S308" s="19"/>
+      <c r="T308" s="20"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>